--- a/기사데이터/토스/엑셀파일/news(토스, 2022.11.01~2022.11.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.11.01~2022.11.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.11.07.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>소상공인 대출두고 시중은행-인뱅 '온도차'</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000011532?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>시중은행, 소상공인 대출 취급액 줄여…리스크 관리인터넷은행, 소상공인 공략 본격화…부실관리 관건과거부터 '숨은 뇌관'이라고 꼽혀왔던 소상공인 대출 리스크를 주요 은행이 본격적으로 인식하는 모습이다. 경기는 좀처럼 되살아나지 않는 데다가 물가와 금리까지 치솟으면서 소상공인 대출의 부실 가능성이 높아져서다.반면 인터넷전문은행의 경우 이들을 대상으로 대출을 더욱 늘린다는 전략이다. 먹거리가 한정된 인터넷전문은행 입장에서는 어쩔 수 없는 선택이라는 관측이다. 하지만 리스크 관리가 쉽지 않을 것이란 우려도 나온다./그래픽=김용민 기자시중은행, 리스크 커진 소상공인 대출 앞으로는 줄인다지난달말 기준 신한, KB국민, 하나, 우리, NH농협은행이 취급한 소상공인 대출 잔액은 314조8077억원으로 집계됐다. 올해 1월 301조4069억원보다 13조4008억원 늘었다. 주목할 점은 지난 10월들어 이들 은행이 취급하고 있는 소상공인 대출이 줄었다는 점이다. 올들어 이들 은행들의 소상공인 대출은 꾸준히 늘며 지난 9월 315조2679억원을 기록했다. 이후 10월 상승세가 꺾이며 전월대비 4602억원 줄었다. 10월 소상공인 대출 감소는 기준금리가 빠르게 오른 영향이 가장 컸다. 통상 은행이 취급하는 소상공인 대출 금리는 5~10%내에서 취급된다. 모두 변동금리다. 금리가 빠르게 오르다보니 소상공인들이 이자를 감내할 여력이 안돼 좀처럼 신규 대출을 신청하지 않는다는 얘기다.게다가 소상공인 대출의 경우 지역 신용보증기금 등의 보증이 없으면 대출을 취급하지 않는 경우가 많다. 실제 소상공인 대출중 80%가량이 보증이나 담보가 있는 경우에만 취급됐다.지역 신보 등도 코로나19로 보증을 찍어낸 터라 새로운 대출에 대한 여력이 많지 않다. 소상공인 대출 잔액이 줄어들 수 밖에 없었던 상황이다.은행 관계자는 "사실상 정책 금융상품이 아닌 이상 소상공인 대출을 취급하기 어려운 것이 사실"이라며 "고금리, 고물가 등으로 인해 리스크가 커져 일반 소상공인들에게 대출을 쉽게 내줄 수 있는 상황은 아니다"라고 말했다.실제 최근 한국은행이 발표한 대출행태서베이 자료에 따르면 올해 4분기 은행들의 대출태도 지수는 13으로 집계됐다. 이 지수가 0보다 높으면 대출 문턱을 낮춘다는 의미고 0보다 낮을 경우 대출을 보수적으로 취급한다는 뜻이다.전체 지수는 13으로 대출 문턱을 낮출 것으로 집계됐지만 소상공인대출을 포함하는 중소기업에 대한 대출태도 지수는 -3으로 집계됐다. 중소기업대출에 대해서는 좀 더 깐깐하게 보겠다는 의미다.  다른 은행 관계자는 "소상공인 대출의 경우 온전히 사업자금, 운전자금 등으로 활용되지 않는 경우도 많기 때문에 각별한 관리가 필요하다"며 "차주들이 대출을 받은 이후 어디에 쓰는지 하나하나 따져 리스크를 따져보기는 힘들다"고 설명했다.이어 "현재 대외여건을 살펴봤을때 소상공인 대출을 적극 취급하기는 어렵다"며 "당분간은 그간 취급한 대출 리스크 최소화하고 정부 정책에 따른 지원에 집중할 것"이라고 말했다. 10월 27일 서울 여의도 63컨벤션센터에서 진행된 카카오뱅크 기업뱅킹 출시 설명회에서 이병수 카카오뱅크 개인사업자스튜디오 팀장이 관련 서비스에 대해 설명하고 있다. /사진=카카오뱅크 제공이 와중에 인터넷은행은 노크…괜찮을까 시중은행들과 달리 케이뱅크, 카카오뱅크, 토스뱅크 등 인터넷전문은행은 소상공인 대출 시장을 적극 공략하는 모습이다. 케이뱅크와 토스뱅크는 올해 1분기부터 소상공인 대출을 취급하기 시작했고 카카오뱅크도 소상공인을 대상으로 여수신을 모두 취급하는 개인사업자 뱅킹을 이달 오픈했다.주목할 점은 이들 은행이 내놓은 소상공인 대출의 경우 '신용대출'이라는 점이다. 시중은행들이 소상공인 대출을 취급할 때 보증부 대출, 담보 대출 위주로 취급한 것과 달리 소상공인들의 신용만을 따져 대출을 해주겠다는 의미다.이들 은행들은 각자 금융관련 정보와 비금융관련 정보를 망라한 신용평가모델을 구축해 리스크를 최소화할 수 있다는 입장이다.은행권에서는 어쩔 수 없는 선택이었을 것이라는 반응이다. 그간 인터넷전문은행이 집중해온 가계신용대출, 주택관련대출은 이미 시장이 포화상태라 출혈경쟁이 없이는 살아남을 수 없기 때문이다.주요 시중은행은 그동안 쌓아둔 대출잔액이 많아 이를 적절하게 조절할 수 있지만 인터넷전문은행 입장에서는 당장 대출 성장이 중요한 만큼 모든 부분에서 대출을 늘려야 한다. 따라서 리스크 관리가 어려울 수 있는 신용대출의 문을 우선 열었다는 분석이다.관건은 앞으로 이 리스크를 어떻게 관리하느냐다. 소상공인 대출의 경우 그간 취급해 왔던 대출에 비해 부실가능성이 높은 대출로 취급된다. 특히 이들 은행은 보증이나 담보 없는 신용대출에만 집중했기 때문에 대출 부실시 이를 온전히 회수하기도 어렵다.시중은행 관계자는 "인터넷전문은행들 역시 보증부 대출이나 담보대출을 취급하고 싶을 것"이라며 "다만 모든 절차가 비대면으로 이뤄지는 특성상 보증부 대출, 담보대출까지 취급하기에는 당장 현실적으로 어렵다"고 말했다. 인프라 구축에 시간이 걸리고 각 기관과의 협의도 필요하기 때문에 우선 신용대출부터 접근했을 것이라는 설명이다.이 관계자는 "신용평가모델을 고도화했다고는 하지만 현재 대내외 여건이 워낙 어렵다는 점은 문제"라며 "다양한 정보를 담아 과거를 평가하는 모델은 미래 리스크를 예측하는데 한계가 있을 수 있다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.11.04.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>글로벌 AI 산업 트렌드 한 눈에… ‘AI SEOUL 2022’ 개막</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003314278?sid=105</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>온·오프라인 동시 진행 및 유튜브 생중계AI SEOUL 2022서울시가 주최하는 국제 인공지능(AI) 콘퍼런스 ‘AI SEOUL 2022’가 지난 3일 양재 aT센터에서 개막했다.‘AI SEOUL 2022’는 ‘인공지능’ 산업의 열린 생태계를 만들고, 기업·산업 관계자들의 네트워크 강화를 위해 매년 열리는 국제 콘퍼런스다. 올해는 ‘인공지능으로 그려보는 서울의 미래’를 주제로 열렸으며, 개막일인 첫날 글로벌 콘퍼런스에는 200여명이 현장을 찾아 함께 했다.4일까지 이틀간 ▲산업경향 콘퍼런스 ▲인재채용 박람회 ▲퀘백 클러스터와 협력 ▲투자유치회 등 다양한 사업적인 프로그램에 참여해 산업 동향을 확인할 수 있으며, CES 2022 혁신상을 대거 수상하며 기술의 잠재력을 인정받은 ‘AI 양재 허브 기업’들의 성과도 한 눈에 확인할 수 있는 뜻깊은 자리다.올해로 5번째를 맞는 ‘AI SEOUL 2022’는 인공지능 특화기업 지원 전문기관인 ‘AI 양재 허브’가 함께 주관하며, 콘퍼런스는 온·오프라인 동시 진행 및 유튜브 채널을 통해서도 생중계해 참관객의 편의성을 높였다.특히 서울시는 이번 콘퍼런스에서 양재 인공지능(AI) 혁신지구와 세계적인 인공지능 산업 클러스터인 ‘퀘백’과의 본격적인 협력도 공개한다. 캐나다 퀘백 주 몬트리올 관련 연사들과 허비에라, 율컴 테크놀로지 등 캐나다 스타트업이 서울을 방문해 새로운 비즈니스 협력, 창출의 기회를 찾는다.‘글로벌 인공지능(AI) 콘퍼런스’의 첫날인 3일에는 ‘인공지능과 사회’를 주제로 한 기조연설이 진행됐다. 사회적으로 책임감 있는 인공지능 개발에 대한 화두를 가지고 MILA(밀라) 연구소 전무이사 ‘벤자민 프루돔므’가 연단에 오르고, 이어 ‘인공지능 기술 동향 및 미래’에 관해 카이스트(KAIST) 김재철AI대학원장 ‘정송’이 연사로 나섰다.세션 1에서는 도시의 미래에 가장 많이 바뀌게 될 분야로 ‘모빌리티’를 선정하고, 자율주행 기업인 퍼셉틴(PerceptIn) ‘샤오산 리우’ 대표 등 전문가 강연에 이어 패널토크를 진행했다. 세션 2에서는 모두를 위한 인공지능 기술을 공유하는 ‘인공지능(AI) 트랜스포메이션과 스타트업(AI for Everyone)’을 소주제로 ‘AI 양재 허브’와 캐나다 스타트업의 사례를 공유했다.또 행사 개막 당일 aT센터 4층 창조룸에서 개발자 직군 뿐 아니라 UX/UI 디자이너, 데이터 분석 등 인공지능 관련 전 분야에서의 스타트업 인재 채용을 진행하는 ‘AI 인재 채용 박람회’도 진행됐다. 유망 기술을 보유한 국내 인공지능 스타트업 21개 기업이 채용 부스를 운영하며, 인공지능 분야 스타트업 취업을 희망하는 대학(원)생 및 취업준비생이 참여를 이끌었다. 여기에 취업 강연, 현장 면접, 직무 멘토링 등 다양한 정보도 공유해 의미를 더했다.취업 강연은 유명 인공지능 기업 인사담당자 출신 연사가 직접 진행에 나섰다. 직무 멘토링의 경우, 개발자, UX/UI 디자이너, 데이터 분석의 3개 직군으로 나눠서 진행됐으며, 토스, 우아한 형제들 등 기업의 현직자로부터 직무 노하우를 전달받았다.2일 차인 4일에는 ▲인공지능 스타트업 종사자와 관련 대학원(생) 등을 대상으로 ‘인공지능(AI) 워크숍’ ▲이미지 해상도 복원을 주제로 하는 ‘오픈소스 활용 경진대회’ ▲인공지능의 새로운 가치에 대해 의견을 나눠보는 ‘AI+X 포럼’ ▲성공적인 투자유치를 위해 현직 투자자로 구성된 평가위원이 참여하는 모의투자유치 대회(IR Runway), 투자 유치율 제고를 위해 일대일 멘토링 등이 진행된다.인공지능(AI)워크숍, 오픈소스 활용 경진대회 발표 및 시상식, AI+X 포럼, 모의투자유치 대회(IR Runway)는 온, 오프라인 동시 진행하며, 유튜브 생중계를 통해 시청할 수 있다. AI+X 포럼은 인공지능 산업이 바이오의료, 핀테크 등 다양한 산업에 융합된 사례를 제시하고, 서울 10대 산업 거점 간 AI기술을 통한 연계 가능성과 전망 등을 제시한다.콘퍼런스가 진행되는 이틀간 3층 세계로룸에서는 참관객이 직접 기업별 인공지능 기술 및 서비스를 체험해볼 수 있는 기술체험존이 운영된다. ‘AI 양재 허브’에 소속된 20개의 기업이 참여하며, 인공지능 스타트업에 관심 있는 일반 시민, 기업 및 투자사는 현장에서 미팅도 가능하다. 참가기업 ‘툰스퀘어’는 인공지능 기술을 활용해 글과 아이디어만 있다면 그림 실력과 상관없이 누구나 웹툰을 그릴 수 있는 ‘투닝’ 서비스를 제공한다. ‘AI SEOUL 2022’는 시민 누구나 참관할 수 있으며, 공식 홈페이지를 통해 자세한 사항을 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.11.01.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>[미리보는 이데일리 신문] 안전 눈감은 정부 바뀐 것은 없었다</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005356127?sid=102</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>[이데일리 김형환 기자] 다음은 2일자 이데일리 신문 주요 뉴스다.△1면-안전 눈감은 정부 바뀐 것은 없었다-금융위기 예측한 매그너스 “4~5% 물가 10년 간다”-수출 2년만에 역성장-逆머니무브 가속…은행 예적금 한달새 47조 급증-[사설]꼬리 무는 괴담, 가짜뉴스…추모의 시간마저 해치나-[사설] 기업 빚 증가속도 세계 2위, 한계기업 대책 시급하다△안전불감증 대한민국-반년 전 전담팀 꾸리고 시뮬레이션까지…‘불꽃축제 안전관리’는 달랐다-“최소한의 ‘동선 안내’만 했었어도 대형 참사 막았다”△안전불감증 대한민국-이태원 참사 4시간 전부터 계속된 “압사 위험” 신고…경찰은 묵살했다-5년 전 국토부 보고서 “이태원 보도 넓힐 필요있다”-우회·일방통행 유도…日·홍콩은 사고 없이 핼러윈 즐겨△이태원 참사-“고의로 ‘밀어’ 외친 주동자 있다”…유가족 가슴에 두 번 대못 박는 가짜뉴스-“죽겠다 싶어 소지품 다 놓고 빠져나와 스마트워치 비상전화엔 비명소리만…”-책임회피→유감표명→공식사과…사흘 만에 고개 만에 고개숙인 이상민-“추모기간 끝나면 법적 책임 물어야”…국회, 거센 공격 예고△얼어붙은 부동산시장-초역세권도 안 팔려…‘미분양 쓰나미’ 마포·용산도 덮쳤다-‘로또’ 대우받던 보류지, 1억 낮춰도 찾는 사람 없어-깡통전세 피해자 경매 한파에 유탄…전셋값도 못 건지기 일쑤△종합-폴란드 원전수출 청신호 켜졌지만…美 ‘수출금지’ 소송 등 변수-“수출 반등 위해 반도체·해외건설 등 육성”△해외 석학 인터뷰-“美연준 내년 상반기까지 긴축모드…금리 5.5%까지 각오해야”-“시진핑 리스크로…주요 기업들 중국 밖에서 투자처 찾는 중”△정치-‘SNS·술자리 논란’ 민주당, 내부단속 강화…민생법안 당론 채택도-尹대통령, 도어스테핑 중단 배경은-與 ‘투톱’ 주호영·정진석, 따로따로 조문…갈등설 불거져-유승민, ‘이상민 행안장관 파면’ 발언에…與 발칵-한미 연합공중훈련에…北 “강화된 다음 조치”△경제-취업 의지·역량 없어도…출석만 하면 420만원-고령층 빈곤율 OECD 회원국 중 최고…“조세지원 확대해 주민연금 가입 늘려야”-“경기둔화도 고려할 때” vs “아직 물가안정 더 중요”-외부활동 증가에…여행·옷 결제 늘고, 배달음식 거래액 뚝△금융-반년만 둬도 4%대 금리…적금 빼서 예금으로-돈줄 막힌 기업, 은행서 한달간 10조 빌려-고금리·부동산 침체에…정책모기지 공급 ‘반토막’-한화생명, 피플라이프 인수…‘초대형 법인보험대리점’ 탄생△Global-트위터 유료화 팔걷은 머스크, 직원들에 “밤낮없이 일하라”-입법 가능성 낮은데도…바이든, ‘선거용’ 횡재세 검토-흑해 곡물수출 일단 재개됐지만…러 ‘식량 무기화’ 다시 꺼낼수도-‘근로자 탈출’ 폭스콘, 보너스 주고 아이폰 생산 일부 이전△산업-대형 EPC 프로젝트에 원전 사업도 청신호…두산에너빌리티 실적 ‘훈풍’-삼성전자 조용한 창립 53돌 기념일, 이태원 참사 묵념으로 기념식 시작-반도체난 뚫고 승승장구…완성차 5사, 10월 64.5만대 팔았다-KG스틸, 국내 컬러강판사 최초 ‘EPD’ 인증△ICT -리더십·신뢰 상실, 실적양화, 규제도 임박…카카오 ‘삼중고’-컴투스, SM에 690억 투자…종합 콘텐츠 기업으로 확장-스마트기기 주도하는 中…스마트폰 ‘밖에’ 없는 韓-“토스 결제단말기, ‘오프라인 B2B 플랫폼’ 역할 할 것”△소비자생활-자동화물류센터 6곳 구축…신동빈 “신선식품 1번지 도약”-중량도 가격도 모두 절반…GS25 ‘소식좌’ 컵밥 출시-장남은 유통, 차남은 신소재…BGF 2세 경영 가속화-CJ프레시웨이, 식자재 유통·급식 앞세워 3분기도 순풍 전망△증권-코스피2300 고지전투, 파월 입에 승패달렸다-반도체업황 악화할수록…삼성전자에 베팅하는 외인-지옥에서 돌아왔지만…개미 골칫거리 된 티슈진·신라젠△증권-석달 천하 ‘태조이방원’…‘이방’만 남았네-나재철 불출마에…금투협회장 ‘5파전’-내일 6500만주 보호예수 풀린다…잠 못드는 카카오페이 투자자-‘악재 겹겹’ 메리츠운용 매물로…강성부펀드 인수 후보 거론△부동산-분양가 상승에 미분양 더 쌓이나…건설사 발동동-‘3.3㎡당 1억’ 최고가 분양에도 청약 물린 ‘아크로 여의도 더원’-요즘 ‘연 1%대 고정금리’가 어디야…‘마지막 신희타’ 판교대장 시선집중-LH, 내게 맞는 단지·공장부지 ‘빅데이터’ 돌려 찾아준다△엔터테인먼트-“친구야, 뭉쳐!”…예능판 누비는 ‘찐친’-여성 서사·성소수자·사교육…지금까지 없었던 사극 ‘슈룹’-르세라핌, 美 빌보드200 14위…(여자)아이들도 71위 올라△Book-“읽기가 쓰기로 이어지는 과정 담았죠”-韓 의사 1명 하루 58명 진료…선진국의 6배-K팝 인기의 환상과 실제를 파헤치다△오피니언-규제 풀자는 정부, 옥죄는 국회-‘계곡 살인’ 밝힌 檢 보완수사의 힘-이태원 참사 애도기간에 술판 벌인 정치인들-배운성 ‘모자를 쓴 자화상’△피플-“진흙 속에서 피어나는 연꽃보며 삶의 희망 얻길”-배재규 대표 “회사가 아닌 고객이 돈을 벌게 할 것”-김유정 “학창시절 사랑보다 우정이 더 소중했었다”-최원혁 LX판토스 대표 ‘물류의날’ 은탑 산업훈장-전문건설공제조합 이사장에 이은재 전 국회의원 선임-테일러 스위프트, 역대 최초 美 빌보드 핫100 톱10 올킬△사회-1년에 102시간…안전 ‘눈’으로만 배웠다-건보공단 ‘46억 횡령’ 사건 환수 막히자…직원들에 떠넘기다-“이재명 지분 있다”…남욱, 대장동 ‘그분’ 논란 재점화-“이태원 사고 무한한 책임” 오세훈 서울시장 공식 사과-윤희근 독립 특별기구 설치…이태원 참사 고강도 감찰</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.11.09.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>토스·신한은행 등 온라인 예금상품 중개 길 열렸다</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000011606?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>금융위, 혁신금융 서비스 9개사 선정내년 2분기 시행…판매 비중 한도는 제한온라인 금융 플랫폼에서 대출 뿐 아니라 예금상품 비교‧추천이 가능해진다. 토스와 네이버파이낸셜 등 핀테크‧빅테크를 비롯해 신한은행 등이 혁신금융서비스 대상 기업으로 신규 지정됐다.다만 금융당국은 특정 금융사로의 급격한 자금이동 등을 막기 위해 판매비중 한도를 제한하기로 했다. 최근 금융시장 불안 확대 등을 감안해 내년 2분기 이후 서비스를 시작할 수 있도록 한다는 계획이다.금융위원회는 혁신금융서비스 심사 결과 온라인 플랫폼을 통한 예금상품 비교‧추천 서비스를 신규 지정한다고 9일 밝혔다.그동안 대출상품에 대해선 온라인을 통해 금리와 한도 등을 비교‧추천할 수 있었지만 예‧적금 상품은 불가능했다. 이번 혁신금융서비스 지정으로 소비자들이 여러 금융사들의 예금상품을 비교하고 본인에게 맞는 상품을 추천받을 수 있다.특히 마이데이터와 연계해 소비자 자산분석 등을 통해 우대금리 적용여부 등을 포함한 맞춤형 상품추천이 가능할 것으로 금융위는 기대하고 있다.이 서비스를 수행할 금융사로는 △뱅크샐러드 △NHN페이코 △줌인터넷 △깃플 △핀크 △비바리퍼블리카(토스) △네이버파이낸셜 △씨비파이낸셜 △신한은행 등이 선정됐다. 이들외 추가 신청기업에 대해선 차후 심사위원회에서 심사를 진행한다는 계획이다.금융위는 온라인 예금상품 비교‧추천 서비스 시행을 위해 금융소비자보호법상 △금융상품판매업 등록의무 △금융회사-중개업자간 1사 전속의무 규제에 대한 특례를 부여했다.현재 대출과 보험, 금융투자상품은 금소법이나 업권법에서 중개업무를 규율하고 있지만 예금상품은 관련 규율체계가 없다. 이에 정식 제도화 이전 금융상품판매업 등록 없이도 온라인 예금상품 중개서비스를 할 수 있도록 특례를 부여했다.또 금소법상 금융상품판매업자는 같은 유형의 금융상품에 대해 둘 이상 금융회사를 위해 중개업무를 수행할 수 없지만 온라인 플랫폼 특성을 고려해 다수 금융회사의 예‧적금 상품을 비교‧추천할 수 있도록 특례를 부여했다.다만 이를 통해 특정 금융회사로 과도한 자금이동이 발생할 수 있어 플랫폼을 통한 판매비중 한도를 제한하기로 했다. 전년도 예‧적금 신규모집액 기준 대비 은행은 5% 이내, 저축은행과 신협은 3% 이내로 제한했다.공정한 비교‧추천이 이뤄지도록 알고리즘을 사전에 검증하고 금소법상 중개행위 관련 규제 준수, 소비자보호 방안 마련 등을 부가조건으로 부과했다.금융위는 금융시장 안정 등을 고려해 서비스 출시 시점은 내년 2분기 이후로 잡았다. 내년 4월부터 시스템 개발과 금융회사 제휴 현황 등을 보고하고 서비스 안정성‧적정성 점검, 금융감독원 협의 완료 등 절차를 거쳐야 한다.금융위 관계자는 "소비자는 본인이 원하는 조건의 예적금 상품을 간편하게 검색하고 가입할 수 있게 돼 원활한 자산관리가 가능해질 것"이라며 "중소형 금융회사는 플랫폼 기업과의 제휴로 수신영업 채널을 확대할 수 있을 것"이라고 말했다.한편 금융위원회는 현재 신한은행이 영위하고 있는 은행 앱을 활용한 간편 실명확인 서비스를 비롯해 페이히어의 소상공인 비대면 신용카드가맹점 가입 서비스, 비바리퍼블리카의 소액 후불결제 서비스에 대해 혁신금융서비스 지정기간을 연장하기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.11.02.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>블록체인 메인넷 스타트업 ‘헤세그’ 해외투자유치 유망기업 선정</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005039092?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>블록체인 메인넷 개발 전문 스타트업 헤세그가 서울투자청이 주관하는 ‘CORE 100’ 기업에 최종 선정됐다고 2일 밝혔다.서울투자청은 글로벌 기업과 투자사들의 자본을 유치하기 위해 올해 2월 첫 출범한 서울시 외국인 투자유치 전담 기관으로, 최근 AI, 바이오·헬스케어, 핀테크, 블록체인 등 미래 경쟁력을 가진 스타트업 100개사를 선정하는 ‘CORE 100’ 프로젝트에서 올해 1, 2차 모집을 거쳐 최종 선정을 완료했다.헤세그는 하반기 2차 모집을 통해 독자적인 메인넷 기술력과 기술 상용화에 대한 우수성을 인정받아 ‘CORE 100’ 기업에 최종 선정되었다.손인식 헤세그 대표는 “이번 ‘CORE 100’ 선정을 통해 해외 투자 유치에 속도가 붙을 예정”이라며 “내년에는 솔라나, 아발란체, 앱토스 등과 본격적으로 경쟁하겠다는 포부로 해외시장 개척에 박차를 가할 계획”이라고 밝혔다.이번 ‘CORE 100’에 선정된 헤세그는 DID, 빅데이터, 보안, NFT 등 각종 솔루션을 개발해 제공하는 토종 블록체인 개발 전문 스타트업이다.서울시가 경쟁력을 인정하는 ‘유망 스타트업’인 CORE 100으로 최종 선정된 기업은 맞춤형 해외 투자유치를 원스톱으로 지원받고, 서울투자청 대표 투자유망 기업으로 브랜딩 될 예정이다. 특히 서울투자청이 운영하는 해외 주요 지역 스타트업 컨퍼런스 및 투자설명회(IR)에 우선적으로 참가할 수 있는 자격도 주어진다.&lt;헤세그 제공&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.11.07.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>삼양사, 美 식품원료박람회 참가…스페셜티 소재 알리기 '박차'</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000866801?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>올해로 두 번째 미국 식품 관련 박람회 참가…현지 판매처 확대 계기로 삼아삼양사가 고부가가치 스페셜티(고기능성) 소재로 미국 식품 소재 시장 공략에 적극 나서고 있다.(삼양사 제공) 삼양그룹 식품/화학 계열사인 삼양사(최낙현 대표)는 지난 11월 2일과 3일 미국 라스베이거스에서 열린 식품원료박람회, '2022 Supply Side WEST'에 참가해 스페셜티 소재 홍보 부스를 운영했다고 밝혔다.삼양사는 지난 7월 미국 시카고에서 열린 국제식품기술박람회(IFT 2022)에 이어 이번 박람회에 참가해 미국 식품 소재 유통업체를 대상으로 삼양의 스페셜티 소재를 적극 홍보하고, 현지 판매처 확대 방안을 모색했다.삼양사는 이번 박람회에서 당류 저감화 소재 사업의 핵심 제품인 '알룰로스'를 소개했다. 알룰로스는 무화과, 포도 등에 함유된 단맛 성분으로 설탕과 비슷한 단맛을 내지만 칼로리는 '제로' 수준이라 최적의 차세대 감미료로 손꼽히고 있다. 삼양사는 알룰로스 뿐만 아니라 일반 식품에 기능성을 표시할 수 있는 소재인 난소화성말토덱스트린도 적극 알렸다. 이외에도 건강기능식품 원료로 사용되는 프락토올리고당의 일종인 '케스토스'를 선보였다. 삼양사는 케스토스를 건강기능식품 원료로 인정받기 위한 인체 적용 시험을 진행중이다.삼양사는 스페셜티 소재의 효과적인 홍보를 위해 원료 샘플과 함께 음료, 단백질바, 유제품, 소스, 잼류 등 실제로 소재가 적용된 제품을 카테고리별로 나눠 시식 샘플과 함께 전시했다.삼양사 식품그룹 스페셜티사업PU장 양철호 상무는 "1만7,000여 명이 방문한 이번 전시회에 참가해 현지 식품 공급 업체와 비즈니스 상담을 진행하며, 삼양의 스페셜티 소재를 알렸다"며 "앞으로도 해외에서 열리는 식품원료박람회에 적극 참가해 글로벌 시장 진출에 더욱 박차를 가할 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.11.02.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>[알림]우영우 성공스토리부터 SKT 웹3 전략까지…16일 ECF 2022서 공개</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005356398?sid=105</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>제9회 이데일리 IT컨버전스포럼(ECF)앰배서더 서울 풀만 호텔서 오는 16일 열려‘우영우’ 공동제작 스튜디오지니 김철연 기조연설웹3부터 우주개발까지, 분야별 핵심전략 눈길무료 입장 유튜브 중계도, 선착순 200명에 점심 제공[이데일리 임유경 기자] 글로벌 인플레이션과 고금리, 고환율 등으로 경제위기가 현실화될 수 있다는 우려가 높습니다. 기업들은 위기를 슬기롭게 넘기고, 다시 찾아올 기회에 대비해야 하는 중요한 시기에 놓여 있습니다. 디지털 전환에서 해법을 찾아야 한다는 진단이 많습니다. 이런 가운데 대한민국 대표 디지털혁신 기업들이 미래 전략을 공유하는 자리가 마련되 주목됩니다.이데일리는 오는 16일 서울 중구 앰배서더 서울 풀만 호텔 그랜드볼룸에서 ‘위기 넘어 기회 있다: 디지털 전환 시대 생존전략’을 주제로 ‘제9회 이데일리 IT컨버전스포럼(ECF) 2022)’을 개최합니다.지난해 드라마 ‘이상한 변호사 우영우’로 신드롬을 일으킨 제작한 스튜디오지니의 김철연 대표가 포럼의 문을 엽니다. 김 대표는 기조연설에서 우영우의 탄생 비결과 글로벌 콘텐츠·미디어 시장 전망 등을 공유합니다.‘디지털 경제 성공을 위한 규제 혁신 방향은? 플랫폼, AI, 데이터를 중심으로’를 주제로 한 좌담회도 준비했습니다. 이성엽 고려대 기술법정책센터장을 좌장으로 엄열 과학기술정보통신부 인공지능기반정책관, 박성호 한국인터넷기업협회 회장, 이윤조 김앤장 변호사 등이 열띤 토론을 벌일 예정입니다. 최근 카카오 먹통 사태로 플랫폼 규제 논의가 나오는 가운데 바람직한 규제 방향에 대한 심도 깊은 토론이 기대됩니다.이후 이어지는 1부 세션에서는 IT융합 사례가 소개됩니다. 오세현 SK텔레콤 Digital Asset CO(부사장)는 기업들이 차세대 인터넷인 웹3를 어떻게 준비해야 하는지에 대한 인사이트를 공유합니다. ‘데이터 주권을 이용자 본인이 소유한다’는 웹3가 우리의 미래를 어떻게 바꿀지 주목됩니다.아울러 △서현우 비바리퍼블리카 사업전략 헤드가 토스의 슈퍼앱 전략을 △박준희 카페24 디지털전략연구소장이 글로벌 커머스 시장 진출을 △박서하 티맵모빌리티 퓨처모빌리티 그룹장이 도심항공모빌리티(UAM) 시대를 이끄는 모빌리티 플랫폼의 진화를 △정재성 로앤컴퍼니 부대표가 글로벌 동향과 로톡의 전략을 소개합니다.2부에선 게임, 인공지능(AI), 클라우드, 우주 등  기술 분야별 선도 기업들의 핵심 전략을 듣습니다. △이경일 컴투버스 대표가 메타버스의 새로운 세상을 △인공지능(AI) 기술업체 업스테이지의 권순일 Biz 총괄이 AI 현실과 미래에 대해 강연합니다. 이어 △한상영 네이버클라우드 기획&amp;전략 상무는 클라우드 산업 현황과 미래를 △김수종 이노스페이스 대표는 민간 우주개발 시대를 앞당길 스타트업 도전기를 생생하게 전달할 계획입니다.ECF 2022는 무료입니다. 행사 당일, 행사장 접수 선착순 200명에게 점심 식권을 제공합니다. 많은 관심을 부탁 드립니다◇명 칭 : 제9회 이데일리IT컨버전스포럼(ECF 2022)◇주최 : ㈜이데일리◇후원: 과학기술정보통신부, 방송통신위원회, 한국인터넷기업협회, 한국통신사업자연합회, 코리아스타트업포럼, 정보통신기획평가원, 한국IPTV방송협회◇일시: 2022년 11월 16일(수) 10:00~17:30◇장소: 앰배서더 서울 풀만 호텔 그랜드볼룸(2F)·유튜브 ‘이데일리 프렌즈’ 채널 생중계◇사전등록 행사 홈페이지:https://ecf.edaily.co.kr/ECF2022/◇문의: 이데일리 02-3772-9409, 02-3772-9407·jeong@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.11.06.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>[사고]위기 넘어 기회있다…디지털 전환 시대 생존 전략은</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005360077?sid=105</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>9회 이데일리 IT컨버전스포럼(ECF) 개최이달 16일 앰배서더 서울 풀만 호텔서 열려‘우영우’ 제작 스튜디오지니 김철연 기조연설차세대 인터넷 웹3는 오세현 SKT 부사장이무료 입장, 유튜브 ‘이데일리 프렌즈’ 생중계[이데일리 김현아 기자](사진=이데일리)세계 경기 둔화로 우리나라 내년 경제상장률이 1%대에 그칠 우려가 제기되는 가운데, 디지털 시대에 대비한 전략을 모색하는 포럼을 엽니다.이데일리는 오는 16일 서울 중구 앰배서더 서울 풀만 호텔 그랜드볼룸에서 ‘위기 넘어 기회 있다: 디지털 전환 시대 생존전략’ 주제로 제9회 ‘ECF 2022(이데일리IT컨버전스포럼 2022)’를 개최합니다. ‘이상한 변호사 우영우’를 공동제작한 스튜디오지니의 김철연 대표가 기조연설로 포럼의 문을 엽니다. 글로벌 시청 시간 4억 시간을 넘긴 ‘우영우’의 성공 비결과 못다한 이야기를 들을 수 있습니다.차세대 인터넷으로 주목받는 웹3(블록체인)는 오세현 SK텔레콤 Digital Asset CO(부사장)님이 맡아주셨습니다. 얼마 전 출범한 국가과학기술자문회의 심의위원이시기도 합니다. 이용자가 인터넷상 자기 데이터에 대한 소유권을 가지고 경제 활동에 참여하는 차세대 인터넷인 웹3는 미래를 어떻게 바꿔 놓을까요.이밖에도 △토스의 수퍼앱 전략에 대해 서현우 비바리퍼블리카 사업전략 헤드님이 △D2C 허브 플랫폼 카페24의 박준희 디지털전략연구소장님 △도심항공모빌리티(UAM)시대를 이끄는 모빌리티 플랫폼의 진화는 티맵모빌리티의 박서하 퓨처모빌리티 그룹장님이 △글로벌 리걸테크 동향과 로톡의 사업전략은 정재성 로앤컴퍼니 부대표님이 시장과 글로벌 동향에 대해 알려주십니다.2부에서는 △컴투버스 이경일 대표님 △업스테이지 권순일 비즈총괄님 △네이버클라우드 한상영 기획&amp;전략 상무님 △이노스페이스 김수종 대표님이 메타버스·인공지능·클라우드·우주개발 등 기술 분야별 사업 전략을 설명합니다. 경기 둔화로 사업 환경은 어려워졌지만, 무분별한 규제 시도는 여전합니다. 이에 ‘디지털 경제 성공을 위한 규제혁신 방향: 플랫폼, AI, 데이터를 중심으로’를 주제로 하는 좌담회도 준비했습니다. 이성엽 고려대 기술법정책센터장(좌장)님, 엄열 과학기술정보통신부 인공지능기반정책관님, 박성호 한국인터넷기업협회 회장님, 이윤조 김앤장 변호사님이 토론합니다.좌담회에서는 △국회의 온라인플랫폼법 재시동과 공정거래위원회의 독과점 규제 강화 방안이 자칫 혁신 기업의 싹을 자르지 않을까 하는 부분과 △AI활용과 AI로인한 공정성, 투명성 문제에 대한 대책 △지난해 데이터 3법 개정 이후에도 여전히 남은 데이터 규제혁신에 대한 문제를 토론합니다.여러분의 응원과 따뜻한 관심을 당부드립니다. ECF2022는 무료입니다. 행사 당일, 행사장 접수 선착순 200명에게 점심 식사 식권을 제공합니다. 홈페이지에서 사전 등록을 해주시면 행사 준비에 많은 도움이 될 듯합니다. 감사합니다.◇주최 : ㈜이데일리◇후원: 과학기술정보통신부, 방송통신위원회, 한국인터넷기업협회, 한국통신사업자연합회, 코리아스타트업포럼, 정보통신기획평가원, 한국IPTV방송협회◇일시: 2022년 11월 16일(수) 10:00~17:30◇장소: 앰배서더 서울 풀만 호텔 그랜드볼룸(2F)·유튜브 ‘이데일리 프렌즈’ 채널 생중계◇사전등록 행사 홈페이지:https://ecf.edaily.co.kr/ECF2022/◇문의: 이데일리 02-3772-9409, 02-3772-9407</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.11.01.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>토스의 새 도전 "오프라인 B2B 금융 플랫폼 되겠다"</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005355937?sid=105</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>이민우 BDM 리드 인터뷰"피처폰이 스마트폰으로 바뀐 수준으로 오프라인 결제단말기 혁신할 것"[이데일리 임유경 기자] 간편 송금으로 시작해 모바일 금융 플랫폼으로 성장한 토스가 이번엔 오프라인 가맹점의 결제단말기를 혁신하겠다고 나섰다. “오프라인 커머스와 금융 시장을 잡으려면 결국 가맹점 내 유일한 IT솔루션인 결제단말기를 접점으로 삼아야 한다는 판단”에서다. 사내 독립기업(CIC) 형태로 아이디어를 구체화해오다가, 지난 3월 자회사 ‘토스플레이스’를 설립해 본격적으로 사업을 시작했다.최근 역삼동 토스플레이스 사무실에서 만난 이민우 비즈니스개발매니저(BDM) 리드는 “오프라인 결제 단말기 영역에서 피처폰과 스마트폰의 차이라고 느껴질 만큼 새로운 가치를 주는 게 우리의 목표”라고 포부를 밝혔다.토스플레이스 이민우 비즈니스개발매니저(BDM) 리드(사진=토스플레이스 제공)모바일에선 카메라에 얼굴만 비춰도 순식간에 결제되는 세상이 됐지만, 오프라인 결제 분야는 신용카드가 처음 등장한 25년 전에서 별로 발전한 게 없다. 토스가 주목한 부분도 이 지점이다. 이 리드는 “오프라인 결제 시장은 온라인보다 결제금액이나 경제 규모가 3배 이상 큰데, 여전히 피처폰 수준의 결제단말기를 쓰고 있다”며 “이 기기를 스마트폰 수준으로 개선했을 생기는 임팩트가 상당히 클 것이라 봤다”고 말했다. 애플이 아이폰과 애플스토어를 만들어 모바일을 혁신한 것처럼 토스플레이스도 결제단말기와 매장 플랫폼인 POS를 동시에 개선하고 있다.스마트폰 같은 결제단말기는 어떤 모습일까. 이 리드는 “토스플레이스 기기는 가맹점주가 필요한 금융, 커머스, 직원관리 등 모든 기능을 앱으로 제공하는 ‘오프라인 B2B 플랫폼’ 역할을 할 것”이라고 강조했다. 지금은 메뉴를 변경하기 위해서 기기를 공급받은 밴 대리점에 연락해야 할 만큼 사용성이 떨어진다. 그는 “매장 내 유일한 IT 시스템이라는 POS 단말기의 존재 의미를 잘 살리면 하이엔드(고부가가치) 소프트웨어 사업이 될 것”이라고 강조했다.결제단말기 시장은 이미 포화상태라 전략적인 접근이 필요하다. 토스플레이스는 일단 신규 창업이나 창업에 준하는 명의변경·업종변경 가맹점주를 타깃으로 사업을 펼칠 계획이다. 타깃 업종은 전체 가맹점 중 35~45%를 차지하는 식음료(F&amp;B)로 잡고, POS 소프트웨어도 맞춤화해 개발했다. 영업은 전통적인 결제단말기 유통 채널인 밴사와 밴 대리점을 이용한다는 계획이다. “13개 밴사 중 이미 상위 밴사와는 연동을 마쳤다”고 설명했다. 토스플레이스는 내년 1월 결제 단말기와 F&amp;B 특화 POS를 정식 출시할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.11.04.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>보험설계사의 '주적' 된 네카토 [슬기로운 금융생활]</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001063729?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>보험비교서비스 놓고 설계사·빅테크 갈등  금융당국, 세부 가이드라인 조율 중금융당국 "소비자들의 편의성을 높이기 위해 플랫폼의 보험비교추천서비스 허용"보험설계사 "45만 보험영업인 벼랑 끝으로 내모는 것"지난 8월 금융위원회가 온라인플랫폼 사업자의 보험비교추천서비스 운영을 허용해줬습니다. 소비자의 편리한 디지털 금융생활을 지원하는 동시에 디지털 금융혁신을 촉진시킨다는 취지입니다. 하지만 3개월이 지난 현재, 아직 보험비교추천서비스는 시작조차 되지 못하고 있습니다. 소비자들이 편리하게 온라인에서 보험상품을 비교해볼 수 있는 서비스인 만큼 기대감도 높은데, 아직까지 첫 발을 떼지 못 한 이유는 무엇일까요. 이번 주 슬기로운 금융생활에서 다뤄보겠습니다.◆ 보험설계사 "밥그릇 빼앗긴다"온라인플랫폼의 보험비교추천서비스가 허용되자, 즉각 보험설계사들이 반발하고 나섰습니다. 온라인플랫폼 하면 가장 먼저 떠오르는 곳, 네이버와 카카오, 그리고 토스입니다. 일명 '네카토'로 불리는 빅테크사들입니다.수많은 이용자를 보유하고 있는 네카토가 보험비교추천서비스까지 운영하게 되면 45만 보험설계사들이 생존을 위협받을 수밖에 없다는 게 설계사들의 설명입니다. 보험대리점협회는 "편리성만을 내세운 거대자본 온라인플랫폼의 이익추구에 보험산업의 혼란과 보험 본연의 가치가 훼손될 것"이라며 강하게 반발하고 나섰습니다.실제 과거 사례가 있습니다. 은행창구에서 보험을 판매하는 일명 '방카슈랑스' 제도가 시행된 후 보험설계사와 보험대리점은 '밥그릇'을 빼앗겼습니다. 그도 그럴 것이 실제 지난해 12월 기준 생명보험사의 보험료 수입 중 51.5%는 방카슈랑스가 차지하고 있습니다. 전속설계사 역시 방카슈랑스 도입 전 2022년 12월 16만7,000명에서 지난해 12월 기준 6만7,000명으로 무려 60%가 줄었다는 게 보험대리점협회의 설명입니다.특히 온라인플랫폼 비교추천 후 네카토의 자회사 대리점에서 후속 절차를 진행할 경우, 사실상 온라인플랫폼의 보험판매를 허용한 것과 동일한 만큼 생존권 사수를 위해 결사 반대할 수밖에 없다는 게 이들의 입장입니다.◆ "시대적 흐름…디지털 환경 따라가야"이런 분위기 때문에 금융위는 아직 수수료 상한이나 취급상품 등 세부 가이드라인을 마련하지 못 한 상황이지만, 빅테크사들은 나름대로 준비 작업에 돌입했습니다.네이버파이낸셜은 최근 첫 비교추천상품으로 여행자보험을 지정하고, 현대해상과 DB손해보험, KB손해보험, 롯데손해보험, 캐롯손해보험 등 5개 손해보험사들과 함께 준비작업에 나섰습니다. 설계사들의 반발이 있지만, 대다수의 국민들이 이용하는 플랫폼인 만큼 소비자 접근성이 높아질 수밖에 없다는 강점이 있기 때문입니다.네이버 외에 카카오와 토스 등도 조만간 이 서비스 시작을 위해 본격적인 준비작업에 나설 것으로 보입니다. 현재는 여행자보험을 비롯해 비교적 단순한 구조의 자동차보험 등이 주력 상품인 것으로 전해집니다. 이렇게 되면 금융소비자는 네이버와 같은 플랫폼에서 보험상품을 검색해, 온라인상에서 여러 보험사의 상품을 한 번에 비교할 수 있게 되는 겁니다.실제 한 보험업계 관계자는 이를 두고 "시대적 흐름이 바뀌고 있는 것"이라며 "비대면 온라인 거래가 점차 늘고 있는 상황에선 빅테크와 손을 잡을 수밖에 없다"고 말했습니다.◆ 보험비교추천서비스, 수수료가 '관건'이 과정에서 가장 큰 해결과제로 떠오르는 것이 하나 더 있는데요, 바로 수수료입니다. 플랫폼에 보험사들이 입점하게 되면 소비자들에게 비교정보를 편리하게 제공해줄 수 있는 대신, 그 대가로 보험사는 플랫폼에 수수료를 줘야 합니다.현재 보험사들은 플랫폼에 지급해야 할 수수료가 2%를 넘지 않아야 한다고 주장하고 있습니다. 현재 빅테크 플랫폼이 운영하는 비교쇼핑 서비스에서 2% 수준의 수수료가 책정되고 있기 때문입니다. 반면 플랫폼 업체들은 초기 시작하는 단계에서 수수료율을 제한할 경우 시장 활성화가 저해될 수 있다며 자율경쟁을 주장하는 상황입니다.수수료가 오르면 보험사의 비용부담이 늘어나는 만큼 소비자에게 전가될 수 있다는 보험업계의 입장과, 여러 플랫폼업체가 뛰어들어 경쟁구도가 성립되면 오히려 장기적으로 봤을 때 수수료가 낮아지는 선순환 구조의 시장이 될 수 있다는 플랫폼업체들의 입장이 팽팽히 대립 중입니다.당초 금융위가 지난 달 말께 수수료 상한 등을 포함한 세부 가이드라인을 발표하기로 했는데, 양측 의견 조율이 난항을 겪으면서 시일이 더 걸릴 것으로 전망되고 있습니다. 업계간 밥그릇 싸움도 중요하지만, 결국 가장 중요한 것은 금융소비자입니다. 소비자에게 가장 득이 될 수 있는 방향은 무엇인지, 금융위의 결정만이 남아있습니다.★ 슬기로운 TIP  온라인상에서 보험상품을 비교할 수 있는 곳은 없나요? 있습니다. 생명보험협회와 손해보험협회는 지난 2015년부터 '보험다모아' 서비스를 운영 중입니다. 보험사별 보험료와 보장내용 등을 비교할 수 있고 가입경로도 안내합니다. 비교 대상 상품은 온라인전용 상품과 방카저축성 상품, 실손의료보험 등입니다. 현재 보험다모아 외에 '보험비교'가 가능하다고 안내되는 서비스들은 판매 전문 보험대리점에서 운영 중인 곳들입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.11.15.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>[DD탐방] 강남 한복판에 넘버원 리걸테크 꿈꾸는 이들 모였다</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002136800?sid=105</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>-로톡 운영사 로앤컴퍼니 신사옥 둘러보니…[디지털데일리 이나연 기자] 법률서비스 플랫폼 ‘로톡’ 운영사 로앤컴퍼니를 대한변호사협회(변협)와 7년간 전쟁 중인 스타트업으로만 기억하기에는 아쉽다. 10년 전 미국‧일본‧독일 등 주요 국가와 비교하면, 한국은 리걸테크 황무지에 가까웠다. 로앤컴퍼니는 척박한 환경에서 한국 리걸테크 산업 선봉에 서서 법률서비스 대중화에 앞장서고 있으며, 여기에는 인공지능(AI)과 같은 기술력도 주효했다. 리걸테크(legaltech, legal+technology)는 법률에 기술이 결합해 새롭게 창출되는 서비스를 뜻한다.   2014년 출시된 로톡은 의뢰인이 온라인에서 변호사를 찾아 상담받을 수 있도록 법률 자문 수요자와 공급자를 연결하는 서비스다. 비용 등 여러 문제로 변호사를 만나는 데 현실적 제약이 있는 사람도 손쉽게 법률 상담을 할 수 있게 하는 한편, 사건 수임 건수가 적은 청년 변호사는 일거리를 확대하기에 유용하다.  이제 로앤컴퍼니는 더 큰 성장을 위해 새로운 둥지를 찾았다. 올해 창립 10주년을 맞은 로앤컴퍼니는 지난 6월 서울 강남으로 사옥 이전을 마쳤다. 새로운 공간에서 업무 효율성을 높이고 우수한 인재 확보로 더 큰 성장을 이루려는 목적에서다. 서울 강남은 토스나 당근마켓 등 주요 스타트업과 투자사가 밀집한 곳이다. 이에 &lt;디지털데일리&gt;는 최근 로앤컴퍼니 신사옥을 방문했다.◆사옥 곳곳에 마이클조던 명언이?=로앤컴퍼니 설립 초창기엔 사무실 공간도 없어 재택근무를 하다 24시간 카페에 모여 밤낮없이 업무했었다고 한다. 10년만에 서울 강남 역세권으로 자리를 옮길 정도로 성장한 로앤컴퍼니는 더 큰 도약을 꿈꾸고 있다.    로앤컴퍼니 신사옥은 목적에 따라 공간을 분리해 활용도를 높였다. 이를 통해 임직원 업무 효율성과 만족감 모두 잡겠다는 것이다.   사무실 공간은 최대 200명까지 수용 가능한 규모로, 개방감을 높이면서 개별 업무 특성과 협업 정도 등을 고려해 자리를 배치했다. 다만, 이용자 불편사항에 대응하는 고객경험(CX)-고객서비스(CS)팀은 통화 업무가 많은 점을 고려해 사무실 안쪽에 독립 공간을 구성했다.복도를 지나면 폰부스를 비롯해 1인 집중 업무 공간, 개방형 회의실 등 다양한 형태의 협업‧업무 공간도 마련됐다. 임직원 의견을 최대한 반영해 개방형 공간부터 개개인을 위한 집중 업무 공간까지 여러 형태로 구성했다.    재밌는 점 하나는 로앤컴퍼니 사옥 곳곳에서 농구선수 마이클조던 명언을 담은 액자나 문구를 쉽게 찾아볼 수 있다는 것이다. 마이클조던은 로앤컴퍼니 김본환 대표 인생과 경영철학에 큰 영향을 끼친 인물 중 하나다.    김 대표는 농구선수로서 큰 성취를 이룬 마이클조던 명언을 임직원과 함께 나누며 리더십과 경영 철학에 대한 의지를 다지기 위해 눈에 띄는 곳에 해당 메시지들을 비치했다고 한다.◆변호사 전용 사진관부터 임직원 법률 상담 지원까지=이색 공간으로는 사내에 마련된 스튜디오를 꼽을 수 있다. 이 스튜디오는 로톡에 가입한 회원 변호사를 대상으로 프로필을 촬영할 때 이용하는 공간이다. 로톡을 이용하는 변호사가 촬영 예약을 하면, 외부 전문 사진 작가가 방문해 개별로 촬영을 진행한다. 프로필 사진 활용도가 높기 때문에 변호사 사이에서도 만족도가 높다는 후문이다.   휴식 공간도 곳곳에 위치해 있다. 강남대로를 한눈에 볼 수 있는 창가에는 자유 업무 및 독서 공간을 마련해 적절한 휴식을 취할 수 있도록 지원한다.사내 복지 가운데 로앤컴퍼니 색이 잘 드러나는 부분은 임직원 누구나 로톡을 통한 법률상담을 지원받을 수 있다는 점이다. 이를 이용하는 다수 직원은 자신이 직접 겪는 법률 문제뿐만 아니라 지인들 사안에 대해서도 도움을 받는 경우가 많다. 일상에서 소소하게 겪을 수 있는 문제에 대해서도 전문가와 빠르게 상담, 해결 방안을 찾을 수 있다.   로앤컴퍼니 관계자는 “리걸테크 회사에 다니는 한 사람으로서 회사 서비스를 통해 많은 법률 소비자 문제를 해결해줄 수 있다는 사실을 체감한 후 사명감으로 일할 수 있게 됐다는 반응도 있다”면서 “어려울 때 도움을 받을 수 있다는 것에 든든함을 느끼는 임직원이 많다”고 설명했다.◆수시로 코드리뷰, 로앤컴퍼니엔 법률AI연구소가 있다=로톡은 법률서비스를 지원하는 기술 연구에도 진심이다. 이를 방증하듯, 로앤컴퍼니 내 법률 인공지능(AI) 연구소가 있다.    법률AI연구소는 스터디와 개발팀 코드리뷰를 활발하게 진행하고 있다. 매주 1회 진행하는 스터디는 AI 연구 논문 리뷰를 넘어 다양한 주제를 논의하는 자리다. 개발 과정에서 수시로 실시되는 코드리뷰는 개발자가 직접 작성한 코드를 동료 개발자가 검토해 개선이 필요한 부분에 의견을 남기는 활동이다. 2019년 중순부터 시작해 2020년부터 안정적으로 정착된 시스템이다.로앤컴퍼니 설립 초기부터 개발업무를 담당한 이상후 AI팀장은 “스터디에 참여하는 팀원들 관심사가 각자 달라 윤리, 수학, 학술, 최신 기술 등 여러 가지 주제를 접할 수 있어 개발자로서 성장하는 데 굉장히 도움이 된다”고 말했다.    이어 “코드리뷰 때 직급이나 연차 관계없이 솔직하게 평가해 주는 동료가 많아 배우는 기회가 된다”며 “리뷰할 때 유독 꼼꼼하게 의견을 주는 이들에게 피드백을 더 요청하는 편인데, 이런 과정을 통해 더 나은 코드를 작성하려고 노력하게 된다”고 덧붙였다. 한편, 로앤컴퍼니는 법률 AI 데이터셋을 무료로 공개하고 다음달 4일까지 AI 모델 개발 경진대회를 개최한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.11.14.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>타다, 생애 첫 탑승객 대상 '천 원으로 타다' 캐시백 이벤트 진행</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000899716?sid=103</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>[스포츠서울 | 황철훈기자] 모빌리티 플랫폼 타다가 오는 27일까지 2주간 생애 첫 타다 탑승 고객을 대상으로 ‘천 원으로 타다’ 크레딧 캐시백 이벤트를 진행한다. ‘천 원으로 타다’는 최종 결제 금액에서 1000원을 제외한 나머지 금액을 크레딧 적립으로 되돌려주는 이벤트다. 최대 결제 금액 기준은 1만 5000원이며, 크레딧은 최대 1만 4000원까지 캐시백 된다.이번 이벤트는 7~9인승 승합차 기반의 ‘타다 넥스트’와 고급택시 ‘타다 플러스’ 이용시 적용된다. 크레딧은 하차와 동시에 바로 적립되며, 적립된 크레딧은 이후 탑승 시 타다 전 라인업에서 사용할 수 있다. 크레딧은 적립일로부터 15일 간 유효하다.토스의 간편결제 서비스 ‘토스페이’를 연동한 고객 대상으로 진행 중인 타다 넥스트 첫 탑승 캐시백 이벤트와도 중복 적용이 가능하다. 예를들어 최초 이용자가 요금 1만 8000원을 토스페이로 결제했다면, 크레딧 캐시백 1만 4000원과 토스페이 캐시백 3000원을 동시에 적용받을 수 있어 1000원만 결제하면 된다.이정행 타다 대표는 “앞으로도 이용자들이 편안하고 안전한 서비스를 경험할 수 있도록 새로운 이동 기준을 제시하는 모빌리티 플랫폼이 되기 위해 노력하겠다”고 말했다. color@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.11.08.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>OK저축은행, '원 앱' 통합 플랫폼 구축 추진</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003057464?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>저축은행 업계 2위인 OK저축은행이 계열사 플랫폼을 한데 모은 통합 '원 앱 프로젝트'를 가동한다. 저축은행업계 원 앱 구축은 이번이 처음이다. OK저축은행은 저축은행 애플리케이션(앱)과 OK캐피탈 앱은 물론 비금융 계열사 서비스까지 플랫폼 하나에 탑재해 금융권 디지털 경쟁에 본격 합류한다.8일 업계에 따르면 OK저축은행은 내년 OK금융그룹 계열사 앱을 하나로 모은 통합 플랫폼 '원 앱' 구축에 착수하기로 확정했다. 현재 각각 분산된 앱을 모아 자체 경쟁력을 확보하고, '저축은행發(발) 생태계'를 구축해 소비자들이 실생활에서 머무를 수 있도록 플랫폼을 개편하는 것이 골자다.OK저축은행은 SBI저축은행에 이은 업계 2위 저축은행이다. 올해 상반기 기준 자산 12조8000억원으로 3위 저축은행인 한국투자저축은행(자산 7조8000억원)과 상당한 격차다. 모회사인 OK금융은 OK저축은행을 비롯해 OK캐피탈, 아프로파이낸셜대부, OK에프앤아이대부, 옐로우캐피탈대부, 비콜렉트대부, OK벤처스 등 금융계열사 15곳과 OK데이터시스템, OK신용정보 등 비금융 계열사 4곳 등 총 19개 계열사를 보유하고 있다.원 앱 프로젝트는 대부 계열사를 제외한 OK저축은행과 OK캐피탈 중심으로 구축되며, OK벤처스 등 비금융 계열사도 합류한다. 현재 OK금융은 2024년까지 그룹 모태이던 대부업 청산을 계획 중이다. 이미 2018년 원캐싱과 2019년 미즈사랑을 철수했으며, 오는 2024년까지 러시앤캐시도 청산한다는 방침이다.방식은 시중은행처럼 개별 금융 앱을 하나의 앱으로 묶는 전략이다. 여기에 OK벤처스 등이 합류해 자사 플랫폼에서 제공하는 비금융 서비스가 탑재된다. 현재 OK벤처스는 이모만세(이제 즐겨봐,모든 순간이, 만화처럼 신나는, 세상) 플랫폼을 론칭했고, 또 아마추어 작가들(누구나 가능)이 숏콘텐츠(숏툰과 이모티콘)를 제작·공유하는 플랫폼도 각각 운영 중이다.원 앱 구축 외에도 사업 다변화를 위해 대출 판매 중개업에도 진출한다. 이 일환 중 하나가 비교대출 플랫폼 구축이다. 네이버, 토스 등 소위 빅테크 비교대출 서비스를 장악한 상황에 저축은행이 참전하는 것이다.OK저축은행 관계자는 “비교대출 플랫폼을 통해 저축은행, 캐피탈에 유입되는 고객 비중이 높은 점을 고려해 직접 플랫폼 출시하는 것이 유리하다고 판단했다”며 “사용자 신용정보, 소득 상태에 근거해 금융사들이 제공하는 다양한 신용대출 상품 대출 한도와 금리 가심사 조회 결과를 사용자에게 제공할 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.11.03.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>전금법 개정안 "빅테크는 가맹점과 직접 계약해라”</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003056280?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>ⓒ게티이미지뱅크금융위원회가 새로 마련한 전자금융거래법 일부개정안에 선불전자지급업자에 한해 대표 가맹점 계약을 금지하고 모든 가맹점과 직접 계약을 맺도록 하는 조항을 명시해 논란이 되고 있다. 신용카드사와 달리 선불업자에 한해서만 규제 수위를 높인 것이어서 '동일 기능 동일 규제 원칙'에 어긋난다는 지적이 나오고 있다.금융위원회는 최근 머지포인트 사태 방지를 목적으로 전자금융거래법 개정안을 발의하면서 이같은 내용을 새로 포함했다. 금융위원회는 당초 종합 지급결제업 도입을 삭제하고 자금이체업을 신설하는 등의 내용을 담은 전금법 전면 개정안을 준비해왔으나 빠른 입법 통과를 위해 당장 시급한 머지포인트 사태 방지를 골자로 일부 개정안으로 방향을 선회했다. 윤한홍 국민의힘 의원이 대표 발의했다.해당 개정안은 선불지급수단을 발행·관리하는 금융사나 전금업자는 가맹점과 직접 가맹계약을 체결하도록 규정했다. 여신전문 금융업법에서는 신용카드사가 일반 가맹점 대신 전자지급결제대행(PG)업자와 계약을 맺고 결제·지불 업무를 할 수 있도록 예외 조항을 두고 있다. 카드사가 직접 가맹점을 일일이 모집하지 않아도 PG사가 수많은 가맹점을 확보해 대표 가맹점 역할을 하는 구조다. 반면에 조항이 현실화 될 경우 네이버페이, 카카오페이, 토스 같은 빅테크와 중소 핀테크 등 선불수단을 제공하는 기업은 타격이 불가피할 전망이다. 수많은 가맹점과 일일이 별도 계약을 맺어야 하는 구조로 바뀌기 때문이다.일각에서는 개정안이 자칫 선불시장 전체를 위축시키는 부작용을 일으킬 수 있다고 우려한다. 개별 기업이 일일이 직접 가맹점 계약을 체결하는 게 현실적으로 어렵기 때문이다. 선불업자는 물론 사용자도 선불수단을 다양한 곳에 사용할 수 없게 돼 시장 전체가 위축되는 타격을 입을 수 있다고 예상했다. '동일 기능 동일 규제' 원칙에 어긋난다는 불만도 나온다. 신용카드에서 이미 다중 PG 계약 구조가 만연한데 여기에서 발생하는 문제는 두고 선불업자에 대해서만 가맹점 직접 계약을 맺도록 제한한 것은 규제 형평성에 맞지 않다는 것이다.금융위는 카드사의 경우 여전법에서 예외조항을 적용받지만 선불업자는 여전법이 아닌 전금법 적용을 받는 만큼 대표가맹점 계약을 맺을 법적 근거가 없다고 봤다. 금융위 관계자는 “대표가맹점 계약 구조에서 문제가 발생하면 하위 사업자에게 문제를 전가하는 사례가 많았다”며 “대표가맹점 계약 근거가 없는 선불업자에는 이를 금지해 부작용을 최소화하려는 조치”라고 설명했다.개정안 관련 핀테크산업협회는 업권 대상으로 의견을 취합하고 있다. 협회 관계자는 “법안이 마련된지 얼마되지 않아 이제 의견 수렴을 시작한 상태”라며 “업계 의견을 취합해 당국에 전달할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.11.11.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>"정확성 차별화"…네이버파이낸셜, 개인신용대출 비교 시장 출격</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000709839?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>네이버 인증서로 정확한 대출 한도·금리 정보 산출…연내 출시 #. 전세자금이 필요했던 직장인 A씨는 온라인 대출상품 비교·추천 서비스를 통해 B금융사에서 신용대출로 4천만원까지 신청할 수 있다는 결과를 확인했다. 하지만 막상 B금융사에 찾아가 대출 심사를 받아보니 A씨가 빌릴 수 있는 금액은 4천만원보다 훨씬 적었다.네이버파이낸셜이 '개인신용대출 비교 서비스'를 출시하며 금융 서비스 외연 확장에 나섰다. 정확성과 편의성을 앞세워 토·카·핀(토스·카카오페이·핀다)이 점령한 개인신용대출 비교 서비스 시장에 새바람을 일으킬 전망이다.네이버파이낸셜은 11일 다수의 금융사와 협의 과정을 마치고 시스템 개발 작업을 진행 중이라고 밝혔다. 앞서 최수연 네이버 대표는 3분기 실적발표 설명회에서 개인신용대출 비교 서비스를 연내에 출시할 계획이라고 했다.네이버파이낸셜이 개인신용대출 비교 서비스를 출시한다. 사진은 한 시중은행의 대출창구 모습. [사진=뉴시스]애초 이 서비스는 내년쯤 출시할 예정이었지만, 네이버파이낸셜은 시장 상황 등을 고려해 연내로 출시를 앞당겼다. 개인신용대출 비교 서비스의 금융사 연동 규모는 업계 선도 플랫폼과 비슷한 수준(약 60개)으로 시작한다. 이후 서비스를 고도화하며 제휴사를 늘려갈 계획이다.네이버파이낸셜 개인신용대출 비교 서비스는 자사의 '개인사업자대출 비교 서비스'의 장점을 적용했다. 지난달 출시한 개인사업자대출 비교 서비스는 네이버 인증서에 기반해 사업자의 매출 등 대출에 필요한 정보를 수기로 입력해야 했던 불편함을 개선했다.대출 비교 단계에서부터 네이버 인증서에서 불러온 사업자의 정확한 정보를 반영하기에 플랫폼에서 확인한 한도·금리 정보와 실제 금융사 대출 심사 결과가 거의 일치한다는 장점도 있다. 개인신용대출 비교 서비스도 이를 통해 경쟁사와 차별화할 계획이다.먼저 나온 일부 대출 비교 서비스들은 이용 결과와 실제 대출 실행의 조건이 다른 불편함이 있었다. 대출 비교 서비스 플랫폼 심사는 은행의 소득 산정 등 대출 심사를 축약한 '가심사' 단계여서 결과가 다르게 나타날 가능성이 있다.소비자가 정보를 직접 입력해 금융사가 조회하는 정보와 차이가 나타난다는 문제도 있다. 지난 9월 금융감독원은 온라인 대출상품 비교·추천 서비스 결과와 실제 대출 실행 시점의 조건이 다를 수 있다며 금융 소비자의 주의를 당부하기도 했다.네이버파이낸셜 관계자는 "개인신용대출 비교 서비스에는 네이버 인증서를 활용한 네이버 전자문서도 적용할 예정으로, 사용자의 소득 정보 등이 정확히 반영돼 비교 결과의 정확도를 더 높일 예정"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.11.12.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>"코인판 리먼·엔론 사태"…FTX 개미투자자, 돈 몽땅 날릴 우려</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/055/0001012650?sid=102</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>한때 세계 3위에 달했던 가상화폐거래소 FTX가 현지시간 11일 파산 신청을 하면서 거센 후폭풍이 휘몰아칠 전망입니다.11일 워싱턴포스트(WP) 등 외신에 따르면 FTX의 이번 파산 신청은 '코인판의 리먼 사태'이자 '엔론 사태'로 불릴 정도로, 가상화폐 시장을 넘어 금융시장 전반에 영향을 미칠 수 있다는 관측이 나옵니다.델라웨어주 파산 법원에 제출된 서류에 따르면 FTX는 최대 500억 달러(66조2천억 원) 부채를 안고 파산을 신청했고, 채권자는 10만 명이 넘습니다.FTX는 보유 자산도 부채 규모와 동일하다고 법원에 신고했으나 정확한 실사를 거쳐야 한다는 게 업계의 공통된 평가입니다.FTX와 어떤 형태로든 금융 거래를 한 이해 당사자는 벤처캐피털과 연기금, 코인업체는 물론 개인 투자자와 유명인들에 이르기까지 광범위합니다.이중 가장 취약한 당사자는 개미투자자인데요, 코인 거래를 위해 FTX에 돈을 예치해뒀던 개인 투자자들이 한 푼도 건지지 못하고 몽땅 날릴 수 있다는 관측까지 나오고 있습니다.블룸버그 통신은 "코인 거래소에 돈을 맡겼거나 심지어 저축 용도로 돈을 둔 일반인들이 가장 깊은 상처를 입게 될지도 모른다"고 지적했습니다.투자은행 오펜하이머의 오언 라우 애널리스트는 FTX 소매 고객이 무담보 채권자로 분류될 수 있다며 이럴 경우 기관 투자자보다 채권자로서 우선순위가 낮아져 돈을 잃게 될 것이라고 분석했습니다.개인 투자자들은 트위터 등에 글을 올려 "평생의 저축이 FTX에 묶였다", "내가 힘들게 번 돈을 찾을 수 있을지 모르겠다"고 하소연했습니다.한편 FTX 투자로 손실이 예상되는 기관 투자자도 광범위합니다.지난 1월 FTX 투자금 조달에 참여한 캐나다 온타리오 교사 연금, 싱가포르 국부펀드 테마섹, 소프트뱅크의 비전펀드, 헤지펀드 타이거 글로벌과 라이트스피드 벤처 파트너스 등은 각각 수백억 원에서 수천억 원 돈을 떼일 가능성이 큽니다.7천500만 달러(약 990억 원)를 투자한 온타리오 교사 연금은 전날 성명을 내고 손실 가능성을 인정했습니다.헤지펀드 세쿼이아 캐피털은 이미 2억1천400만 달러(2천800억 원) FTX 투자금의 장부 가치를 0달러로 만드는 등 전액 손실 처리했습니다.헤지펀드 스카이브릿지 캐피털 창립자인 앤서니 스카라무치는 FTX가 자사 지분 30%를 보유하고 있지만, 이 지분을 다시 사들여 FTX와 관계를 정리할 계획이라고 밝혔습니다.FTX 위기가 다른 업체로 번질 경우 금융시장 불안정성은 더욱 커질 수 있습니다.블록체인 데이터 제공업체 앰버데이터의 파생상품 디렉터 그레그 마가디니는 "당장의 큰 공포는 전염 효과"라고 우려했습니다.이에 따라 FTX와 금전 거래를 해온 코인 업체들은 직격탄을 맞았습니다.FTX로부터 한때 자금 지원을 받았던 코인 대부업체 블록파이는 유동성 위기에 고객의 자금 인출을 중단했고 가상화폐 업체 제네시스 트레이딩은 FTX 계좌에 1억7천500만 달러(2천300억 원) 자금이 묶였다고 발표했습니다.코인 억만장자 마이크 노보그래츠 갤럭시디지털 최고경영자(CEO)도 FTX 관련 자금 7천700만 달러(1천억 원)를 회수하지 못할 것으로 예상했습니다.이와 함께 FTX의 계열투자사 'FTX 벤처'는 헬륨, 앱토스 랩스, 니어 프로토콜 등 50개 가상화폐 프로젝트에 투자했기 때문에 이들 스타트업들도 FTX 파산 신청으로 재정적 타격을 입을 것으로 보입니다.미국프로풋볼(NFL) 스타 톰 브래디와 모델 지젤 번천은 FTX 광고에 출연하고 지분을 받았으나 그 가치는 휴짓조각이 될 것으로 보입니다.FTX 파산 신청이 코인 업계를 넘어 수많은 금융 기관 투자자와 연관돼 있기 때문에 이번 사건이 코인판의 리먼 사태로 번질 수 있다는 우려도 제기되고 있습니다.CNN 방송은 2008년 전 세계에 충격을 준 투자은행 리먼브러더스 파산 사태에 빗대 FTX 붕괴가 '리먼 모멘트'라는 분석이 나온다고 전했습니다.래리 서머스 전 미국 재무장관은 FTX 몰락을 2001년 회계 부정으로 파산한 에너지 기업 엔론 사태에 비유하면서 "금융상 오류가 아니라 사기 냄새가 난다. 거대한 (코인) 재산이 어디서 비롯됐는지 아무도 잘 이해하지 못한 상황에서 폭발했다"고 비판했습니다.홍콩에 본사를 둔 암호화폐 투자회사 문볼트 파트너스의 샨 준 폭 공동창업자도 "많은 사람이 FTX를 일종의 금본위제 기관으로 여길 정도로 신뢰했다"며 FTX 붕괴를 엔론 스캔들에 빗댔습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.11.14.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>경기도, 경기똑D 간편인증 서비스 개시…주민등록등본 등 66종 간편 발급</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004121700?sid=102</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>[서울경제] 경기도는 공공마이데이터를 활용한 맞춤형 행정서비스 앱 ‘경기똑D’에 민간전자서명인 ‘간편인증’ 서비스를 14일부터 도입한다고 밝혔다. 사용자는 공동인증서 없이도 주민등록등본 등 66종의 전자증명서를 ‘경기똑D’에서 간편하게 발급받을 수 있게 됐다. 지난 4월 27일 정식 개시한 경기똑D는 △도민을 위한 복지정보와 공개채용정보 등 ‘맞춤수혜정보 서비스’ △공공마이데이터 기반의 본인 확인서비스인 ‘도민카드 서비스’ △다양한 전자증명서를 휴대폰에서 보관하고 활용할 수 있는 ‘전자지갑 서비스’ △도민의 마이데이터 정보를 생활에 도움이 되는 리포트 형식으로 제공하는 ‘마이리포트 서비스’를 제공하고 있다. 지금까지 경기똑D의 전자지갑 서비스를 이용하려면 사용자는 공동인증서로 본인인증을 해야 했고, 공동인증서를 피씨(PC)에서 스마트폰으로 옮겨야 하는 불편함이 있었다. 도는 이런 불편을 해소하고자 간편인증 방식을 추가 도입했다. 간편인증은 기존의 공동인증서처럼 경기똑D 앱에 등록하지 않아도 되고 매년 갱신할 필요가 없으며, 발급 인증 절차도 공동인증서보다 간편하다. 사용자가 자주 사용하는 간편인증서(네이버·카카오·PASS·토스 등)를 선택해 본인인증을 받으면 전자지갑 서비스를 이용할 수 있다. 전자지갑을 통해 주민등록등본과 건강보험료 납부확인서, 자동차등록원부 등 66종의 전자증명서를 조회·저장·공유할 수 있다. 도는 지난 7월 도의 정책과 사업을 점검하고 의견을 제시하는 ‘경기사랑 도민참여단’의 서비스 이용 의견과 8월에 실시한 ‘경기똑D 이용자 만족도 설문조사’ 결과에서 ‘공동인증서 이용 불편함’이 제기돼 이번 서비스를 도입하게 됐다고 설명했다.경기도는 12월 초에는 행정안전부의 온라인 복지 신청 서비스와도 연계하는 또 한번의 서비스 확대를 계획하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.11.02.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>[MK 추천매물] 남양주시 임대수익용 메디컬 빌딩 220억원</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005039197?sid=004</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>◆ MK추천매물 ◆◇강북구 투자·임대수익용 빌딩=유동인구가 풍부한 역세권 대로변에 위치한 연면적 1470㎡인 7층 건물이 50억원이다. 보증금 9억1000만원, 월 1500만원에 병원, 약국, 카페 등으로 임대됐다. (02)532-1218강남 에스비부동산중개(주) 김안호등록번호 11680-2019-00063◇서초구 역세권 재건축 용지=양재역 먹자상권에 위치한 대지 98㎡, 연면적 254㎡인 개발 용지가 110억원이다. 전 층 명도 완료됐으며, 대수선 허가를 받았다. (02)511-3390강남 리얼티코리아중개 유진석등록번호 9250-11288◇강남구 준주거지역 리모델링용 빌딩=스타벅스, 올리브영 앞의 네모반듯한 대지 224㎡, 연면적 628㎡인 건물이 68억원이다. 유동인구가 풍부하며 전 층 명도 가능하다. (02)6213-3800강남 더빌딩중개법인강남 김문영등록번호 11680-2020-00376◇하남 감일지구 병원·사옥용 빌딩=감일역(예정) 인근 대로변 코너의 대지 1950㎡, 연면적 9294㎡인 지상 6층 건물이 550억원이다. 병원, 사옥, 요양시설 등으로 적합하다. (02)557-2244강남 하나공인 이재호등록번호 11650-2020-00112◇용인 동백지구 중심상권 휴대폰 매장=아파트 밀집지역 중심상권 대로변 코너의 전용면적 26㎡ 점포가 5억5000만원이다. 융자 2억7000만원, 보증금 3000만원, 월 260만원에 15년간 장기 임대됐다. 010-5305-9797수지 동문114공인 이창수등록번호 가3648-02-2333◇천안시 중심상권 대로변 빌딩=중심상권 대로변의 대지 2000㎡, 연면적 9000㎡인 12층 건물이 115억원이다. 보증금 20억원, 월 6700만원에 점포, 사무실 등으로 임대됐다. (02)3447-2133강남 스카이부동산중개 허봉환등록번호 9251-6672◇남양주시 임대수익용 메디컬 빌딩=유동인구가 풍부한 지역의 대지 1100㎡, 연면적 7000㎡인 건물이 220억원이다. 보증금 18억원, 월 1억원에 전 층 병원으로 임대됐다. (02)543-0750서초 두바이빌딩 황혁준등록번호 11650-2016-00116◇구로구 구로디지털단지 사옥용 빌딩=오피스 밀집지역의 대지 1400㎡, 연면적 7260㎡인 지상 9층 건물이 305억원이다. 자주식 주차가 편리해 사옥용으로 적합하다. (02)555-5202강남 제네시스부동산중개 김태서등록번호 11680-2019-00362◇강남구 강남대로 역세권 코너 빌딩=역세권 코너의 대지 1000㎡, 연면적 8500㎡인 12층 건물이 1150억원이다. 연 45억원이며 사옥·전시장·기획사용으로 적합하다. 010-8748-6255서초 토스부동산중개 손미영등록번호 11650-2019-00249◇강남구 논현동 투자·수익용 빌딩=도산대로 이면도로 코너의 대지 492㎡, 연면적 1500㎡인 6층 건물이 270억원이다. 보증금 8억원, 월 4200만원이며 유동인구가 풍부하다. (02)511-0554강남 리얼티코리아중개 유진석등록번호 9250-11288◇중구 명동2가 리모델링용 빌딩=명동 번화가 중심상권의 대지 620㎡, 연면적 3100㎡인 건물이 330억원이다. 전 층 공실로 리모델링 후 임대수익용으로 적합하다. (02)542-1677서초 알파에셋중개법인 황정빈등록번호 11650-2016-00306◇동탄2신도시 대형 정형외과 병원=호수공원 앞 대로변 코너 건물 중 2층 전체(1개 층) 3개 실 전용 595㎡가 53억6000만원이다. 보증금 1억5000만원, 월 2300만원에 장기 임대됐으며 실별 분할매매도 가능하고 대형마트 등이 성업 중이다. 010-8701-8122◇아산 모종지구 준주거지역 빌딩=모종동 대단지 아파트와 충무병원, 이마트에 접한 대지 616㎡, 연면적 2561㎡인 지상 5층 건물이 72억원이다. 융자 35억원, 보증금 5억3000만원, 월 3000만원에 임대됐다. (041)415-2430천안 솔리드중개법인 김완주등록번호 44131-2021-05398</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.11.08.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>글로벌 창업, 서울대만 '턱걸이'</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003057487?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>韓, 서울대 한곳만 82위에 올라美 스탠퍼드 1위…이스라엘 7위'취업 우선 사회' 낮은 순위 원인스타트업 창업자를 배출한 글로벌 100대 대학에 한국은 서울대 한 곳만 이름을 올렸다. 80위대로, 하위권이다. 창업 선진국인 미국과 유럽은 물론 중국, 인도, 싱가포르 등 다른 아시아 국가보다도 낮다. 글로벌 시장조사업체 피치북이 발표한 '세계 스타트업 창업자 배출 대학 톱100' 순위에서 서울대가 82위를 차지했다. 조사는 2012년 1월 1일부터 2022년 10월 21일까지 시리즈A 투자를 유치한 창업자 기준으로 14만4000명 이상을 분석한 결과다.1위는 미국 스탠퍼드대가 차지했으며, UC버클리, 하버드대, 매사추세츠공대(MIT), 펜실베이니아대가 뒤를 이었다. 미국 대학이 상위권 대부분을 차지했다. 미국을 제외한 나라 가운데에서는 이스라엘 텔아이브대가 7위로 순위가 가장 높았다. 이스라엘은 창업 국가답게 테크니온이스라엘공대(15위), 히브리대(31위), 라이히만대(38위), 벤구리온대(45위) 등 여러 대학이 포진했다. 영국, 캐나다, 호주 등도 복수 대학이 순위에 올랐다. 한국에서는 서울대가 유일하게 82위로 100위권에 포함됐다. 서울대는 182명의 창업자와 157개 회사를 배출했다. 토스, 센드버드, 몰로코, 그린랩스, 세미파이브 등이다.서울대가 이름을 올리긴 했지만 순위가 한참 낮았다. 중국, 인도, 싱가포르 등 아시아 국가 가운데에서도 낮은 편에 속했다. 중국은 칭화대(36위)와 베이징대(62위)가 이름을 올리며 신흥 창업 강국임을 보여 줬다. 인도는 델리대(68위)와 뭄바이대(71위), 싱가포르는 싱가포르국립대(73위)가 뽑혔다.국내 대학 순위가 낮은 이유로는 창업보다 취업을 우선시하는 사회 분위기가 꼽힌다. 최성진 코리아스타트업포럼 대표는 “미국과 유럽을 보면 많은 대학이 도시 창업 생태계와 연계하고, 창업 생태계를 뒷받침한다”면서 “반면에 우리 대학과 도시는 연결고리가 부족하다”고 지적했다. 최 대표는 “선후배 창업자 네트워크가 활성화되지 않는 것도 한계”라면서 “대학 창업이 교수 중심으로 이뤄지는 것도 개선해야 한다”고 덧붙였다.창업 지원 인프라와 제도 부족도 원인으로 꼽힌다. 한 스타트업 대표는 “많은 대학에서 조기 취업자는 학점을 인정해도 창업자는 학점을 인정하지 않아 졸업하기도 어렵다”면서 “대학에서 첫 창업에 실패하면 이후 취업도 재창업도 어려워지는데, 이런 문제부터 해결해야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.11.07.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>[사고]위기 속에서 피어나는 혁신…디지털 시대 생존하려면</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005360300?sid=105</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>9회 이데일리 IT컨버전스포럼(ECF) 개최오는 16일 앰배서더서울 풀만 호텔서 열려'우영우’' 제작 스튜디오지니 김철연 대표 기조연설오세현 SKT 부사장 등 '넥스트 인터넷' 웹3 강연무료 입장, 유튜브 '이데일리 프렌즈' 생중계(사진=이데일리)[이데일리 김국배 기자] 한국도 내년 1%대 저성장에 그칠 것이라는 전망이 제기되는 등 내년까지 경기 위기 상황이 이어질 것이라는 경고음이 높아지는 가운데 디지털 시대를 맞은 기업들의 생존 전략을 모색하는 자리가 열립니다.이데일리는 오는 16일 서울시 중구 앰배서더서울 풀만 호텔 그랜드볼룸에서 ‘위기 넘어 기회 있다: 디지털 전환 시대 생존전략’을 주제로 ‘제9회 이데일리 IT컨버전스포럼(ECF) 2022’를 개최합니다.이번 포럼은 드라마 ‘이상한 변호사 우영우’를 제작한 김철연 스튜디오지니 대표의 기조연설로 문을 엽니다. 전 세계 시청시간 4억 시간을 기록한 ‘우영우’의 성공 비결과 글로벌 콘텐츠·미디어 시장 전망 등을 공유합니다.‘디지털 경제 성공을 위한 규제 혁신 방향은? 플랫폼, AI, 데이터를 중심으로’를 주제로 규제 정책 방향을 논의하는 장도 마련했습니다. 이성엽 고려대 기술법정책센터장(좌장), 엄열 과학기술정보통신부 인공지능기반정책관, 박성호 한국인터넷기업협회 회장, 이윤조 김앤장 변호사가 토론합니다.오세현 SK텔레콤 Digital Asset CO(부사장)는 오후 세션 1부에서 ‘넥스트 인터넷’으로 여겨지는 웹3에 대해 강연을 진행합니다. 거대 플랫폼이 데이터를 소유하는 현재 인터넷과 달리 개인이 직접 데이터를 소유하는 웹3가 바꾸는 세상을 소개합니다.아울러 서현우 비바리퍼블리카 사업전략 헤드는 토스의 슈퍼앱 전략을, 박준희 카페24 디지털전략연구소장은 글로벌 커머스 시장 진출 전략을 제시하며 박서하 티맵모빌리티 퓨처모빌리티 그룹장은 도심항공모빌리티(UAM) 시대를 이끄는 모빌리티 플랫폼의 진화에 대해, 정재성 로앤컴퍼니 부대표는 글로벌 시장 동향과 로톡의 전략을 공유합니다. 2부에선 △이경일 컴투버스 대표 △권순일 업스테이지 비즈총괄 △한상영 네이버클라우드 기획·전략 상무 △김수종 이노스페이스 대표가 메타버스·AI·클라우드·우주개발 등 기술 분야별 사업 전략을 발표합니다.여러분의 응원과 따뜻한 관심을 부탁드립니다. ECF 2022는 무료입니다. 행사 당일, 행사장 접수 선착순 200명에게 점심 식권을 제공합니다.◇주최 : ㈜이데일리◇후원: 과학기술정보통신부, 방송통신위원회, 한국인터넷기업협회, 한국통신사업자연합회, 코리아스타트업포럼, 정보통신기획평가원, 한국IPTV방송협회◇일시: 2022년 11월 16일(수) 10:00~17:30◇장소: 앰배서더 서울 풀만 호텔 그랜드볼룸(2F)·유튜브 ‘이데일리 프렌즈’ 채널 생중계◇사전등록 행사 홈페이지:https://ecf.edaily.co.kr/ECF2022/◇문의: 이데일리 02-3772-9409, 02-3772-9407·jeong@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.11.08.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>이자는 입출금통장으로… 복리 효과 ‘꼼수’ 인터넷뱅킹 파킹통장</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000853354?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>케이뱅크, 카카오뱅크 파킹통장의 이자 지급 방식이 다른 인터넷은행에 비해 소비자에게 불리하게 돼 있는 것으로 확인됐다. 이들은 업계 최고 수준의 금리를 홍보하며 고객 유치에 나섰지만, 제대로 된 이자를 받기 위해서는 소비자가 직접 이자 관리를 해야했다.이자에 이자가 붙는 복리는 파킹통장의 장점이다. 그러나 케이뱅크와 카카오뱅크는 고객이 파킹통장에 맡긴 자금에 대한 이자를 파킹통장이 아닌 입출금통장으로 지급했다. 이를 두고 시장에서는 자동 복리 효과를 차단하는 ‘꼼수’를 부린 것 아니냐는 지적이 나왔다.카카오뱅크와 케이뱅크 로고. /각 사 제공        8일 금융권에 따르면 인터넷전문은행 가운데 가장 높은 금리를 제공하는 파킹통장은 케이뱅크의 ‘플러스박스’로 금리가 연 2.7%다. 케이뱅크는 지난달 27일부터 플러스박스 금리를 종전보다 0.2%포인트(p) 올렸다. 매월 넷째주 토요일 쌓인 이자를 받을 수 있으며 최대 한도는 3억원이다. ‘용돈 계좌’, ‘비상금 계좌’ 등 용도별로 통장을 쪼개 최대 10개까지 만들 수 있다.카카오뱅크의 파킹통장인 ‘세이프박스’는 연 2.6% 수준의 금리를 제공한다. 지난달 19일부터 기존보다 0.4%p 더 올랐다. 매월 넷째 주 토요일 이자를 받을 수 있으며, 최대 보관 한도는 1억원으로 입출금계좌당 1좌씩 개설할 수 있다.하지만 카카오뱅크와 케이뱅크의 파킹통장은 복리 형식을 적용한 타 은행 파킹통장과는 달리 자동 복리 효과가 없다. 복리는 원금과 이자에 다시 이자가 붙어 만기에 한꺼번에 수령하는 방식을 의미한다. 카카오뱅크와 케이뱅크는 고객이 맡긴 자금에 대한 이자를 파킹통장이 아닌 입출금 통장에 지급함으로써 자동 복리 효과를 차단했다.고객이 케이뱅크 ‘플러스박스’에 1000만원을 예치하면 금리 2.7%가 적용돼 한 달치 이자로 세후 1만9000원을 받는다. 이때 이자는 파킹통장이 아닌 입출금통장으로 입금된다. 이에 고객이 파킹통장에 이자를 추가 납입하지 않는 이상 파킹통장 잔액은 1000만원으로 유지돼 복리 효과를 기대할 수 없다.반면 인터넷전문은행 토스뱅크는 3사 중 가장 낮은 연 2.3%의 금리를 제공하지만 일 단위 복리 이자를 지급하고 있었다. 토스뱅크의 경우 별도의 입출금통장을 두지 않아 하나의 계좌로 이자가 지급되는 구조다.다른 은행도 파킹통장 상품에 복리 효과를 제공하고 있다. 산업은행의 ‘KDB Hi 비대면 입출금통장’은 최고 연 2.5% 금리를 제공한다. 예치 기간과 예치 금액 한도가 없는 점이 특징이다. 매월 넷째 주 금요일의 다음 영업일 전일까지의 이자를 계산해 다음 영업일에 지급한다. 해당 상품은 파킹통장에 이자가 입금되는 구조로 복리 효과를 제공한다.연 4% 수준의 금리를 제공하는 저축은행의 파킹통장 역시 복리로 이자를 지급한다. 웰컴저축은행의 ‘웰컴 직장인사랑 보통예금’(연 최고 3.8%), OK저축은행의 ‘OK세컨드통장(1000만원 한도)’(연 최고 3.5%)는 발생한 이자가 해당 파킹통장으로 입금되는 구조다.다만 케이뱅크와 카카오뱅크의 경우 자동 복리 효과가 없어도 일반 은행보다 더 높은 이자를 지급하고 있다. 예컨대 1억원을 산업은행의 ‘KDB Hi 비대면 입출금통장’에 예치 시 21만3940원의 이자를 받을 수 있었지만, 케이뱅크의 ‘플러스박스’, 카카오뱅크 ‘세이프박스’에 예치하면 각각 세후 22만8420원, 21만9960원의 이자를 받을 수 있었다. 두 은행은 업계 최고 수준의 금리를 제공하며 인터넷전문은행 파킹통장 1위 자리를 놓고 경쟁 구도를 형성하고 있다.자동 복리 효과가 없다는 지적에 카카오뱅크 관계자는 “세이프박스 이자는 입출금통장으로 지급되지만, 이자의 출금이 자유로워 고객이 이자를 세이프박스로 옮기면 복리 효과를 누릴 수 있다”고 말했다.케이뱅크 관계자는 “고객들의 이자 운용 활용도를 높이기 위해 플러스박스 이자를 입출금통장에 지급하고 있다”며 “아울러 케이뱅크는 연 2.7%의 업계 최고 금리를 제공하며 고객 편의를 높이고 있다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.11.10.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>기울어진 운동장에 갇힌 금융혁신… “빅테크와의 차별 해소 시급”</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003461555?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>손병두(왼쪽 세번째) 금융위원회 부위원장, 윤종규(왼쪽 네번째) KB금융지주 회장을 비롯한 참석자들이 28일 서울 중구 반야트리 클럽앤스타 서울에서 열린 KB국민은행 알뜰폰 브랜드  리브엠  론칭 행사에서 기념촬영을 하고 있다. 왼쪽부터 하현회 LG유플러스 부회장, 허인 KB국민은행장, 손 부위원장, 윤 회장, 이태희 과학기술정보통신부 통신정책 국장, 최성호 방송통신위원회 이용자정책국장. 2019.10.28. 뉴시스KB국민은행의 알뜰폰 사업인 ‘리브엠’은 2019년 금융권 ‘1호 혁신금융서비스’로 지정돼 올해 4년째를 맞는다. 금융권이 이동통신업계에 진출한 첫 사례로 은행, 통신 업무와 할인 혜택을 한꺼번에 이용할 수 있는 이 서비스에 36만 명이 가입했다.    그런데 리브엠은 향후 언제든 사라질 수 있는 ‘시한부 사업’이다. 2019년에 이어 2021년 2년의 사업기간을 추가로 허가받았지만 이 시한이 끝나는 내년 4월 이후에는 존속 여부가 불투명하다. 사업이 계속되려면 금융당국이 알뜰폰 사업을 은행 부수업무로 지정해줘야 하는데 기존 알뜰폰 사업자들의 반발에 이에 동조하는 정치권도 일부 가세하면서 지정 여부는 안개 속이다. 국민은행 관계자는 “금융과 통신을 융합하는 신사업으로 야심차게 추진하고 있지만 허가를 받지 못하면 결국 사업을 포기해야 한다”고 말했다.   하지만 핀테크 기업 토스의 상황은 이와 정반대다. 토스는 올 7월 알뜰폰 사업자 ‘머천드코리아’의 지분을 전량 인수하면서 단번에 이 사업에 뛰어들었다. 국민은행은 비금융회사 지분을 15% 이상 보유할 수 없게 한 금산분리 규제에 발목이 잡혔지만, 은행이 아닌 전자금융업자로 분류되는 토스는 알뜰폰 사업자 인수에 아무런 제약을 받지 않았다.  금융계는 리브엠 사례가 기존 금융권과 빅테크 간 차별이 가장 두드러지게 나타나는 지점이라고 입을 모은다. 시중은행과 보험·카드사 등 기존 금융사들은 자신들이 규제에 발목이 잡히며 옴짝달싹 못하는 동안 네이버·카카오 등 빅테크가 사업 영역을 마음껏 확장하며 급성장하는 모습을 ‘기울어진 운동장’에 빗대 왔다.● ‘기울어진 운동장’에 갇힌 기존 금융권  동아일보가 최근 금융지주, 은행, 보험, 카드, 증권 등 국내 금융사 최고경영자(CEO) 31명을 대상으로 설문한 결과 이들은 금융 규제와 관련해 가장 시급하게 해결해야 할 과제(복수응답)로 ‘빅테크와의 차별’(20명)을 꼽았다. 이어 ‘금산분리 및 전업주의 규제’(16명), ‘상황에 따라 달라지고 기준이 불명확한 규제’(9명) 등이었다. 이들은 한국의 금융 규제에 대한 점수를 매겨달라는 질문에는 100점 만점에 평균 66.1점(규제 여건에 만족할수록 높은 점수)만 부여했다. 빅테크와 금융사의 규제 환경에 대해선 31명 중 25명은 ‘불공정하다’ 또는 ‘매우 불공정하다’고 응답했다. ‘공정하다’, ‘매우 공정하다’는 응답은 한 명도 없었다.   금융사들이 하소연하는 대표적인 차별에는 카드 수수료 규제가 있다. 신용카드사들의 경우 당국의 지속적인 규제를 받으면서 연 매출 3억 원 이하 가맹점은 수수료율이 현재 0.5%까지 낮아졌다. 그러나 네이버페이 등 빅테크 업체들은 이런 규제에서 자유롭게 영업을 하면서 수수료율이 1~2% 안팎에 이르고 있다. 카드업계 관계자는 “3년마다 적격비용을 산정하면서 세계적으로 유례없는 원가 이하의 수수료율 강제가 이뤄지고 있다”고 말했다.  ‘1사 1라이선스’ 원칙도 시급하게 해소해야 할 규제로 꼽힌다. 현재는 건전성 관리 및 과당경쟁 방지를 위해 1개의 금융그룹이 생명보험사, 손해보험사를 각 1개씩만 자회사로 둘 수 있게 허용하고 있다. 하지만 해외에서는 한 그룹이 고객과 상품, 채널별로 특화한 여러 개의 보험사를 운영하는 경우가 많다.  최근 한국에서 철수하는 추세가 두드러진 외국계 자산운용사들도 금융당국의 규제를 어려움 중 하나로 꼽고 있다. 한 외국계 운용사 대표는 “홍콩, 싱가포르는 2~3개월이면 펀드 등록이 끝나는데 한국은 8~9개월이 걸린다”며 “그러는 동안 아예 투자 기회를 잃는 경우도 있다”고 말했다.● “금융환경 급변하는데 규제에 꽁꽁 묶여”  금융사 CEO들은 이제 금융을 하나의 산업으로 봐달라고 호소하고 있다. 설문에 참여한 한 CEO는 “금융 시스템 안정이라는 과제도 중요하지만 이제는 금융사들이 다른 업권과 융합해 새로운 사업 기회를 만들 수 있도록 규제를 풀어야 한다”고 말했다.  또 다른 CEO는 “금융환경은 급격히 변하고 있는데 기존 금융사는 곳곳의 규제 때문에 꽁꽁 묶여 있는 상황”이라며 “부수업무에 대한 해석을 넓히고 이종(移種)산업 진출 규제를 완화하는 게 절실하다”고 말했다.  이런 지적이 계속되자 금융당국도 금융규제혁신회의를 출범시켜 규제를 대거 손보겠다고 나선 상황이다. 올 7월 열린 1차 회의에선 신사업 진출, 영업행위, 감독·검사 관행 등에 대한 금융업계의 건의가 200여 건 쏟아졌지만 정작 당국의 규제 개혁은 진척이 더디다는 평가다.  천창민 서울과학기술대 경영학과 교수는 “국제 기준으로 봐도 국내 금융 규제가 강력하고 빅테크와 차별 역시 심한 편”이라며 “보다 평평한 운동장을 만들어야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.11.04.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>“얄팍한 사기술” “쓸모없는 공상론”…말발의 시대 수놓은 ‘말싸움’[윤비의 칼과 펜]</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003184196?sid=103</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>(14) 소크라테스 대 소피스트소크라테스, 1세기 경, 루브르박물관 소장민주주의가 연 ‘말솜씨 교육시장’에 일타강사가 된 소피스트들소크라테스는 이들을 싫어했고 직접 나서 한판 붙는다■소피스트아테네 민주주의는 시민들에게 많은 일자리를 만들어주었다. 지난 글에서 이야기했지만 수만명의 시민들이 이러저러한 공직이나 공무를 수행하며 수입을 얻었다. 존경받고 권력과 수입이 따라오는 자리를 차지하기 위한 경쟁도 당연히 커졌다. 좋은 집안 배경과 학식에 덧붙여 개인의 능력, 특히 시민들을 움직여 자기 편에 표를 던지게 할 말솜씨가 중요해졌다.말솜씨는 송사에서 이기기 위해서도 중요했다. 민주주의는 단지 ‘정치지도자를 우리 손으로!’나 ‘우리 관리들을 우리 손으로!’만이 아니라 ‘재판도 우리 손으로’를 의미했다. 시민들 앞에서 자신의 결백을 호소하거나 잘못에 대해 변명하고 용서를 구하기 위해서는 뛰어난 언변이 필요했다.문제는 그런 말솜씨가 저절로 얻어지지 않는다는 사실이었다. 심지어 지혜롭다고 소문난 소크라테스에게도 시민들의 회합과 재판에서 말로 치고받는 일은 어려웠던 모양이다.기원전 399년 소크라테스는 신을 모독하고 젊은이들을 이상한 생각에 물들였다는 이유로 멜레토스를 비롯한 시민들에게 고발당한다. 그 자리에 불려나온 소크라테스는 자신이 이런 송사에서 자기를 변호할 언변이 없다고 이야기한다. 플라톤의 대화편을 읽은 사람들은 이 대목에서 고개를 갸우뚱한다. 그곳에서 소크라테스는 논리적 허점을 때로는 직접적으로, 때로는 에둘러 파고들면서 상대방을 아예 갖고 논다. 아무리 대화편이 플라톤에 의한 창작이라고는 해도 소크라테스가 정말 어눌했을까 하는 의심을 갖지 않을 수 없다.여하튼 민주주의와 더불어 정치에도 말의 시대가 열렸다. 타고난 말발이 없다면 배워야 했다. 아니면 바보가 되고 심지어 큰 손해를 입을 수도 있었다. 집안이 ‘빵빵’해서 이리저리 인맥이 좌악 깔려 있거나 돈이라도 많아서 평소에 인심을 써 내 편을 많이 만들어놓을 수 없는 바에는 아는 것이 정말로 힘이 되는 세상이었다.수요가 있으면 공급이 따라온다. 공급자는 소피스트들이었다. 소피스트들의 상당수는 다른 시민들에게 얕보이거나 뒤통수 맞지 않고 대접받으며 법정이나 정치판에서 자기 권리를 지킬 수 있는 방법을 가르쳐 밥벌이를 하는 사람들이었다. 한마디로 말발의 화신 같은 사람들이었다는 이야기이다. 이들 중 ‘일타강사’들은 꽤 돈을 벌고 명성을 누렸다. 고르기아스나 프로타고라스 같은 이들이 그들이다. 민주주의가 거대한 교육시장을 연 셈이다.데모크리토스(가운데)와 프로타고라스(오른쪽), 살바토르 로사, 1663-4년 경. 상트페테르부르그 예르미타시 미술관소크라테스는 이들을 싫어했다. 이들은 지혜를 가르치는 것이 아니라 얄팍한 기술(혹은 사기술)을 가르치는 것 외에 아무것도 아니라고 여겼다.대화편 &lt;프로타고라스&gt;에서는 이 유명한 스타 소피스트에게 뭔가를 배우려고 들뜬 젊은이 히포크라테스(유명한 의학자와는 다른 인물이다)를 끝까지 말려보려고 심지어 새벽부터 따라나서 결국 프로타고라스와 직접 한판 붙는다.물론 소피스트들도 소크라테스를 좋아할 수 없었다. 대화편 &lt;고르기아스&gt;에서 소크라테스와 맞상대하는 칼리클레스는 소크라테스가 가르치는 철학이라는 것이 법정이나 민회에서 스스로를 보호조차 못하는 쓸모없는 공상공론에 지나지 않는다고 비웃는다.흥미로운 사실은 그리스의 보수적인 시민들에게는 소피스트나 소크라테스나 도긴개긴처럼 여겨졌다는 것이다. 지난 편에서 이야기한 희극 &lt;구름&gt;에서 아리스토파네스는 소크라테스를 소피스트의 수괴쯤으로 그려낸다. 소크라테스는 경마에 미쳐 가산을 탕진한 아들 때문에 절망한 스트렙시아데스 앞에서 자신에게 단 며칠만 수업을 받으면(당연히 수업료가 있다) 돈을 한 푼 갚지 않아도 되는 신묘한 논리와 언변을 배우게 된다고 광고한다. 옳고 그름을 말발로 뒤집을 수 있다는 것이다. 작품은 소크라테스가 우스꽝스러운 몰골로 치도곤을 당하는 것으로 끝이난다.소크라테스도 이 작품을 직접 보고 꽤나 억울해했던 것 같다. (아니면 플라톤이 스승의 마음을 그렇게 짐작했을 수도 있다.) &lt;변론&gt;에서도 소크라테스는 직접 이 작품을 이야기하며 어처구니없어 한다.여하튼 소크라테스는 소피스트를 보면 너 잘 만났다는 식이었고, 말싸움이 붙으면 절대 피하지 않았다.플라톤이 소크라테스와 소피스트들의 말싸움을 남긴 것도 여럿이다. (물론 대화 그대로의 녹취록은 아닐 것이고 이리저리 가공한 것이라고 보아야 한다.) 그중 칼리클레스나 프로타고라스와의 대결은 짧게나마 이번에도, 그리고 좀 더 길게는 이전 연재에서 언급했다. 이외에도 정말 유명한 대결이 하나 있다. &lt;국가&gt;에 등장하는 소피스트 트라시마코스와 소크라테스의 대결이 그것이다.아리스토파네스 희극 &lt;구름&gt;의 묘사, 스트렙시아데스, 아들, 바구니에 올라탄 소크라테스 (요하네스 삼부쿠스의 &lt;엠블럼&gt;에 실린 동판화, 1564년 경.)■트라시마코스트라시마코스라는 인물에 대하여 알려진 것은 거의 없다. 그의 이름으로 전해 내려오는 몇개의 글줄만으로 그의 생각이 무엇이었는지 제대로 알아내기는 어렵다. 출신은 보스포루스 해협, 지금의 이스탄불을 마주 보는 칼케돈이다. 다른 수사가나 철학자들의 말에서 유추해보면 그는 꽤나 알려진 수사가이고 연설가였던 것 같다.트라시마코스가 오늘날에도 쉬지 않고 논의의 대상이 되는 이유는 정의란 무엇인가에 대한 그의 독특한 대답 때문이다. 플라톤의 &lt;국가&gt;에서, 소크라테스는 페이라이에우스 항구에서 열린 제전에서 돌아오는 길에 만난 글라우콘, 아데이만토스, 폴레마르코스 등의 젊은이들과 정의의 의미를 두고 논의를 벌인다. 트라시마코스도 이 자리에 있었다. 그는 소크라테스의 주장도, 말하는 태도도 모두 싫어했던 것 같다. 플라톤은 그를 매우 공격적인 인물로 그려낸다.‘정의란 무엇인가’에 대한 트라시마코스의 설명은 아주 짧으면서도 도발적이다. 정의란 강자에게 이로운 것이다. 트라시마코스는 자신의 주장을 이렇게 부연 설명한다.“정의는 강자에게 이로운 것”이라는 트라시마코스의 도발과“속이지도 때리지도 않아도 되는 질서를 만드는 것”이라는 반박흥미롭게도 보수적 시민들은 양자의 대립을 도긴개긴으로 여겼다“정부마다 자기의 이익을 위해서 법률을 만들죠. 민주제는 민주제다운 법률을, 그리고 참주제는 참주제다운 법률을 만들고, 그 밖에 다른 것들도 마찬가지죠. 이런 법률들을 만듦에 있어서, 그들 자신에게 이익이 되는 것이, 다스림을 받는 사람들에게는 곧 의로운 것이 된다고 선언하고, 그것을 벗어난 사람은 범법자요, 부정한 사람으로서 처벌을 합니다. 그래서 내가 말하는 것은 곧 이것이에요. 즉, 모든 나라에서 정의는 다 같은 것이고, 그것은 지금의 정부에 대해서 이익이 되는 것입니다.”(조우현 역)트라시마코스의 주장은 간단하다. 정의나 법이라는 것이 그럴싸하게 들리지만, 알고 보면 힘있는 자들이 자기들 입맛에 따라 마음대로 상상한 것을 번드르르한 말로 잘 포장한 후 ‘안 지키면 재미없어’라는 식으로 강요하는 것일 뿐이다.트라시마코스의 주장에는 당시의 정치질서와 법에 대한 강한 불신감이 담겨 있다. 문제는 이런 불신을 그 혼자만 가진 것이 아니라는 사실이다. 이어지는 대화에서 글라우콘 역시 트라시마코스에게 약간이나마 공감을 보이면서 마찬가지 불신을 드러낸다.글라우콘에 의하면 사람들은 원래부터 남을 속이고 이득을 취하는 것을 좋아한다. 이런 인간들이 정의와 법을 만들어내는 것은 남한테 속아 바보가 되거나 해코지당하는 것을 더 싫어하기 때문이다. 그래서 차라리 법률을 정해서 상대방을 갈취하는 일도, 상대방에게 갈취당하는 일도 없이 살아가려고 한다. 정의와 법률이란 것이 이렇게 탄생한다. 그러나 본성은 개 못 준다. 만일 남에게 들키지 않을 수 있다면, 혹은 남을 힘으로 누를 수 있는 경우라면 인간은 그런 법이나 정의 따위는 깨끗이 무시할 수 있는 존재이다.글라우콘은 리디아에 살았던 기게스라는 인물을 예로 들어 이것을 설명한다. 이야기에 따르면 기게스는 원래 목동이었는데 어느 날 끼면 안 보이게 만드는 마법반지를 손에 넣는다. 이렇게 투명인간이 되자 그는 악한으로 돌변한다. 기게스는 왕궁에 들어간 후 반지의 힘을 이용하여 왕비를 유혹하고 함께 공모하여 왕을 죽이고 권좌를 차지한다. 이렇게 인간은 남에게 안 들킬 수만 있다면 무슨 짓이든 할 수 있는 위험한 존재이다.글라우콘의 이야기 요지는 이렇다. 힘과 꾀를 발휘하여 안 들키고 무엇이든 할 수 있는 자들은 정의나 법을 지킬 아무런 필요를 느끼지 못할 것이다. 그런 자들 앞에 정의나 법은 무력하다. 무력할 뿐 아니라 오히려 그런 자들이 힘없고 어리숙한 사람들의 눈을 속이는 좋은 방패막이 된다. 정의와 법이라는 이름 뒤에 숨어서 이들이 마음대로 사리사욕을 채우는 동안 사람들은 ‘정의로와야 해!’ ‘법을 지켜야 해!’라고 중얼거리며 손놓고 넋놓고 있을 것이기 때문이다.■정의 없는 정치의 위험정의와 법이라는 이름하에 힘있고 약아빠진 일부가 어리숙한 나머지를 착취하고 이용한다는 생각은 오늘날에도 흔하다. 기원전 5세기와 4세기의 그리스도 그랬다. 실제로 군주정이건 민주정이건 모두가 결국 자신의 잇속만 차린다는 비판에 고개를 끄덕인 사람도 많았을 것이다. 트라시마코스나 글라우콘의 주장은 이런 현실에서 비롯된다.그러나 이들의 생각에는 위험한 칼날이 감추어져 있다. 이들이 정의롭지 못한 정치를 비판하는 것을 넘어 정의 자체를 아예 상대화하고 부정하기 때문이다. 트라시마코스나 글라우콘의 논리를 그대로 따른다면 정의로운 시민이란 힘없고 눈치없어서 이용당하는 바보들이다. 바보가 되고 싶지 않다면 상대방을 제압할 수 있는 힘을 기르고 안 들키고 속여가며 이득을 취하는 잔꾀를 익히는 방법밖에는 없다. 그런 논리는 자칫하면 부정과 일탈을 부추길 수 있다. 상호 불신이 만연한 그런 정치공동체는 궁극적으로 내란에 의해서든 혹은 다른 방식으로든 해체될 수밖에 없다.소크라테스가 트라시마코스와 글라우콘의 주장을 반박한 것은 이런 이유 때문이었다. 소크라테스는 정의에는 모두가 합의하고 따를 분명한 내용이 있다고 여겼다. “네가 나를 때리고 속이니 나도 너를 때리고 속이겠다”가 아니라 “너와 내가 모두 속이지도 때리지도 않아도 살 수 있는 질서를 만드는 것”이 관건이라고 소크라테스는 생각했다. 소크라테스의 정치철학, 혹은 그의 제자 플라톤이 소크라테스의 이름을 빌려 세상에 내놓은 정치사상의 핵심 요지는 여기에 있다. 다음 편에서 이야기를 계속한다.▶윤비 성균관대학교 정치외교학과 교수정치이론을 역사 및 문화와 관련지어 연구한다. 베를린 훔볼트대 정치학과 및 역사학과, 서울대 외교학과에서 서양정치사상을 강의하였다. 가르친다는 일을 영광으로 여기며 산다. 2021년 마키아벨리를 주제로 독일에서 단행본을 출간하였다. 2018~2020년 한겨레 신문에 ‘윤비의 이미지에 숨은 정치’를 연재하였고, EBS &lt;지식의 기쁨&gt; &lt;세바시&gt; 등에서 강연하였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.11.11.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>최적경로 택배 ‘투데이’(To-Day) 운영사 브이투브이, 시리즈A 투자 유치</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000707044?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>최적경로 택배 서비스 투데이(To-Day) 운영사 브이투브이(대표 최상수)가 95억원 규모의 시리즈A 투자를 유치했다.기존 투자사인 티비티 파트너스(TBT), 휴맥스가 후속 투자를 이어갔고, 스마일게이트 인베스트먼트, 우미글로벌, 더웰스 인베스트먼트, 신용보증기금 등의 기관이 신규로 참여했다. 이로써 브이투브이는 2021년 4월 설립 이래, 세번째 투자를 성공적으로 완료하며, 본격적인 서비스 확대에 나선다.투데이(To-Day)는 기존 택배 업계에서 보편적으로 사용하는 전국단위 허브앤스포크(Hub&amp;Spoke) 방식의 비효율적인 동선 문제를 ‘대중물류망’이라는 새로운 솔루션으로 해결한 택배 서비스이다. 대중물류망은 수도권 버스 대중교통망 체계를 택배 시스템에 적용해 물건이 메가허브(Mega Hub)를 경유하기 위해 먼 길을 돌아가지 않고, 최적경로로 빠른 시간 내에 배송이 가능하도록 설계됐다.사람이 수도권 버스 대중교통망을 이용할 경우 몇 시간 내 수도권 어디든 도착하듯이, 투데이(To-Day)의 대중물류망을 이용하는 쇼핑몰의 물건들도 이와 유사한 경로로 이동해 주문한 당일에 대부분의 물건을 수령할 수 있는 방식이다.브이투브이는 작년 설립 이래, 인천광역시 디지털 물류 서비스 실증 지원사업을 시작으로 Cafe24 패스트박스, 삼영물류, 롯데글로벌로지스, NS홈쇼핑, W쇼핑, 아모레퍼시픽, 블루박스(Apple 공식 인증 리셀러), 오즈키즈 등의 대형 고객사를 유치하는데 성공했다. 네이버 스마트스토어와도 배송 협력을 준비하고 있다.후속 투자를 이어간 TBT 박진 심사역은 “구현하기 어려운 대중물류망이라는 네트워크를 고도화된 기술력으로 만드는 과정을 지켜보며 브이투브이의 잠재력에 주목했다”며 “투데이 서비스가 기존 물류 산업의 문제점을 해결하는 것은 물론 당일 배송 시장의 저변을 확대할 것으로 기대한다”고 밝혔다.신규 투자로 참여한 스마일게이트 인베스트먼트의 김승필 팀장은 “브이투브이는 도시내 배송 물량 증가에 따른 규모의 경제를 달성할 수 있는 사업성을 갖춘 데다, 물류업 종사자의 작업환경까지 개선할 수 있어, 물류산업의 지속가능한 성장을 이끌 솔루션이라고 판단했다”고 말했다.브이투브이 권민구 이사는 “IT기술이 고도로 발달한 시대에 도시 외곽에서 도시 내부로 배송되는 물건을 메가허브를 경유하여 다음날 받을 이유가 전혀 없다”며 “대중물류망을 활용해 최적경로 택배를 최초로 구현한 것이 투데이 택배 서비스이며, 이번 투자를 통해 많은 고객사와 시민들이 혜택을 받을 수 있도록, 서비스를 빠르게 확대해 나가겠다”고 밝혔다.한편, 브이투브이는 물류 업계뿐 아니라 스타트업 업계에서도 이례적일 정도로 뛰어난 인재 밀도를 갖춘 조직이다. 네이버, 카카오, 토스(Toss), 크래프톤, 데브시스터즈, 타다(TADA) 등에서 경험을 쌓은 IT 전문 인력들과 롯데글로벌로지스, 한진, 쿠팡, 배달의 민족 등에서 경험을 쌓은 물류 전문 인력들이 조화를 이루고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.11.15.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>화이트해커 양성에 진심인 토스</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004775022?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>금융사 유일 화이트해커팀 운영6개월간 악성앱 60만건 잡아내해킹 방지대회서 2년 연속 1위“토스 전 계열사에 화이트해커 16명이 있습니다. ‘화이트해커’팀이라고 부를 만한 팀이 있는 곳은 토스가 유일할 겁니다.”표상영 토스 보안기술팀 연구원은 15일 한국경제신문과의 인터뷰에서 “1주일마다 계열사 화이트해커가 모두 모여 공격자 입장에서 어떻게 접근할 수 있을지를 연구한다”며 이렇게 말했다. 표 연구원은 같은 팀의 김재성 연구원, 권재승 연구원과 함께 국내 유일의 금융 사이버침해 방지대회인 ‘FIESTA 2022’에 출전해 1위를 차지했다. 토스로서는 2년 연속 1위다.이들 세 명이 만든 팀 이름은 ‘커피사일로’. 토스의 사내 카페다. 권 연구원은 “해커 챕터 위클리에 참여하는 전원이 ‘파이트 프로’로 구성돼 있다”며 “자체 개발한 악성앱 탐지 솔루션으로 어떻게 탐지했고, 어떤 과정을 거쳐서 개발했는지 공유한다”고 말했다. FIESTA 2022에선 계열사인 토스페이먼츠가 3위에 올랐다. ‘해커 챕터 위클리’를 통해 해커들의 노하우를 공유한 게 주효했다는 평가다.금융권 보안이 여타 업권과 다른 점은 보이스피싱 범죄와 연관된다는 것이다. 보이스피싱으로 악성앱을 설치하게 하고, 악성앱에 깔린 코드로 사용자의 신용정보를 빼내 돈을 인출한다. 화이트해커의 역할은 악성앱 설치 단계에서 해킹을 차단하는 것이다. 지난 4월 토스가 개발한 악성앱 탐지솔루션은 6개월간 총 58만5000건에 달하는 악성앱을 잡아냈다. 그만큼 악성앱의 종류도 다양하고, 금융소비자들도 쉽게 속아넘어갈 만큼 고도화되고 있다.토스에서 화이트해커팀이 맡은 역할도 중요하다. 권 연구원은 “새로운 서비스를 출시할 때는 무조건 저희 팀의 컨펌을 받아야 한다”고 했다. 이들은 화이트해커 양성이 시급하다고 입을 모았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.11.14.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>타다 “첫 탑승객 1000원에 모십니다”</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002065172?sid=105</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>오는 27일까지 크레딧 캐시백 이벤트생애 첫 이용자 대상 크레딧 적립타다가 ‘천 원으로 타다’ 크레딧 캐시백 이벤트를 실시한다. [타다 제공][헤럴드경제=김현일 기자] 모빌리티 플랫폼 타다가 14일 오후 4시부터 오는 27일까지 2주간 생애 첫 타다 탑승 고객을 대상으로 ‘천 원으로 타다’ 크레딧 캐시백 이벤트를 실시한다.‘천 원으로 타다’는 최종 결제금액에서 1000원을 제외한 나머지 금액을 크레딧 적립으로 되돌려주는 이벤트다. 최대 결제금액 기준은 1만5000원이며 크레딧은 최대 1만4000원까지 캐시백 된다.이벤트가 적용되는 서비스는 7~9인승 승합차 기반의 ‘타다 넥스트’와 준고급 세단을 활용한 고급택시 ‘타다 플러스’ 2개 라인업이다. 크레딧은 하차와 동시에 바로 적립된다. 적립된 크레딧은 이후 타다 라이트부터 타다 넥스트, 타다 플러스까지 전 라인업 탑승 시 사용할 수 있다. 크레딧은 적립일로부터 15일 간 유효하다.토스의 간편결제 서비스 '토스페이'를 연동한 고객 대상으로 진행 중인 타다 넥스트 첫 탑승 캐시백 이벤트와도 중복 적용이 가능하다. 이정행 타다 대표는 “더 많은 분들이 타다가 제공하는 쾌적한 이동 경험을 체험하길 바라는 마음으로 이번 이벤트를 준비했다”며 “앞으로도 이용자들이 편안하고 안전한 서비스를 경험할 수 있도록 새로운 이동 기준을 제시하는 모빌리티 플랫폼이 되기 위해 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.11.01.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>폴란드 원전 계약 2년 뒤에나…"수주 갈 길 멀어"</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001063123?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt;한국수력원자력(한수원)이 폴란드 민간 에너지 기업과 원전 개발을 협력키로 했습니다.사실상 수주나 다름 없는 것 처럼 밝히고 있지만, 정작 원전 수출까지는 갈 길이 멀다는 지적이 나옵니다.취재기자와 자세히 알아봅니다.산업부 방서후 기자 나와 있습니다.방 기자, 우리나라가 폴란드 원전 개발에 참여하기는 하는 겁니까?&lt;기자&gt;일단 수주 여부, 사업 규모 어떤 것도 정해진 게 없습니다.먼저 사업 주체와 협력 내용을 구분할 필요가 있습니다.폴란드 정부가 추진하는 첫 원자력 발전소, 그러니까 루비아토브-코팔리노 일대에 6기를 짓는 사업은 미국 웨스팅하우스가 가져갔습니다. 정확히 사업자가 정해진 것이고요. 이걸 소위 1단계 사업이라 합니다.이와 별개로 폴란드가 퐁트누프 지역에 원전을 추가로 짓기로 했는데, 이걸 2단계 사업이라 합니다.다만 폴란드 정부 예산이 하나도 들어가지 않는 민간 주도의 사업이고, 아직 구체적인 규모와 건설 계획이 나오진 않았지만 1단계보다는 규모가 작은 2기에서 4기 정도로 예상됩니다.무엇보다도 한수원이 아직 사업자로 선정된 게 아닙니다. 해당 사업을 추진한다는 폴란드 민간 발전사인 제팍(ZE PAK)과 법적 구속력이 없는 협력의향서(LOI)를 체결한 단계입니다.&lt;앵커&gt;다른 업체와 경쟁하거나 무산될 수도 있다는 겁니까?&lt;기자&gt;그렇습니다. 말 그대로 의향서이기 때문입니다.다만 우리 정부는 의향서에 한국형 원전인 `APR1400`이 명시됐다는 점에서 입찰 없이 부지 조사와 타당성 조사 등의 준비 과정을 거치기만 하면 바로 사업을 진행할 수 있다는 입장입니다.폴란드 정부도 우리가 본계약을 체결할 가능성에 대해 "100%"라고 화답하면서 거의 수주를 따낸 것처럼 여겨지고 있습니다.하지만 본계약 체결은 빨라야 내년 말에서 내후년, 착공은 그보다 2~3년 뒤인 2025년에서 2026년에나 가능할 전망이고요.그 마저도 폴란드 측은 너무 이르다는 입장을 보이는 만큼 내년 말 본계약을 기대하는 한국에 협조를 얼마나 잘 해줄 지 의문이 드는 상황입니다. 일각에서는 우리가 벌써 폴란드의 함정에 빠졌다는 지적도 나옵니다.&lt;앵커&gt;무슨 뜻이죠?&lt;기자&gt;쉽게 말해 폴란드가 남발한 의향서 중 하나를 우리가 너무 쉽게 물었다는 의미입니다. 실제로 지난 1년 여 간 폴란드가 체결한 원전 관련 의향서는 이번 한수원 건을 포함해 7건에 달합니다.야체크 사신 폴란드 부총리는 100% 한국 수주를 장담하면서도 남은 결정은 기업 경영진에 달렸다는 단서를 붙였습니다.그도 그럴 것이, 의향서를 맺은 당사자는 양국 정부가 아니라 한수원과 제팍이기 때문입니다. 이 의향서라는 게 얼마나 변수가 많은 지 사례를 하나 소개해드리면요.한수원이 제팍과 의향서를 맺은 날, 동시에 제팍이 의향서를 파기한 회사가 있습니다.이 제팍이란 곳은 원래 퐁트누프에서 화력발전소를 운영 중이고, 이걸 2024년까지만 운영한 뒤 해당 부지에 소형모듈원전(SMR)을 지으려고 했습니다. 그래서 폴란드의 또 다른 에너지 회사인 신토스 그린 에너지(Synthos Green Energy), GE히타치 등과 지난해 8월 투자의향서를 체결했습니다. 이 사업 역시 당시엔 폴란드 정부의 전폭적인 지지를 받았습니다.그리고 올해 6월 제팍과 신토스 간 체결된 계약의 선행 조건을 이행할 기간이 종료되면서 계약 해지 사유가 발생했는데, 처음엔 계약을 해지하지 말자던 제팍이 불과 반년도 되지 않아 계약을 깨고 바로 한수원과 의향서를 맺은 겁니다.물론 두 회사 간 갈등이 정확히 어디서 불거졌는지는 밝혀지지 않았지만 그만큼 의향서에만 의존하면 안 된다는 건 명확해 보이고요.폴란드가 서류 작업에만 4년에서 5년은 걸린다고 밝힌 상황에서 마침 한수원과 제팍이 맺은 의향서의 유효 기간은 3년입니다. 계약 당사자의 동의 하에 1년 연장될 수 있다고는 하지만 이미 제팍은 말을 바꾼 전적이 있죠.&lt;앵커&gt;이런 상황에서 미국의 원전업체 웨스팅하우스가 한수원을 상대로 소송까지 제기했습니다.어떤 내용입니까?&lt;기자&gt;웨스팅하우스는 한수원이 폴란드 등에 수출을 추진하는 한국형 원전, 즉 APR1400에 자사가 2000년 획득한 `시스템80` 원자로 설계 기술이 들어 있다고 주장합니다.때문에 한국이 원전을 수출하려면 미국의 허가를 받아야 한다는 취지의 지식재산권 소송을 미국 법원에 제기한 겁니다.해당 주장이 받아들여지면 한수원이 폴란드 뿐 아니라 체코나 사우디아라비아 등 수주를 추진하는 모든 국가에 원전을 수출하는 데 어려움이 따를 수 있습니다.사실 웨스팅하우스는 지난 2009년 한수원이 UAE에 원전을 수출할 때도 지식재산권을 문제 삼았습니다.한수원은 당시 핵심기술 자립을 이루지 못한 상황이라 웨스팅하우스에 기술자문료를 지급하는 방식으로 분쟁을 마무리 지었습니다.하지만 이번 만큼은 웨스팅하우스의 주장이 받아들여질 가능성이 낮다는 게 우리 측 입장입니다.UAE 때와 달리 핵심기술 자립에 성공했고, 체코와 폴란드는 미국 정부의 허가가 필요 없는 일반허가 대상국이기 때문입니다.일단 소송이 걸렸다고 해서 다른 나라와 추진 중인 수출 논의가 멈추는 건 아닌데요.소송 자체에 시간이 오래 소요되고 수출 상대국에서 우리를 배제할 수 있는 요인이 되는 만큼 신속한 합의가 필요하다는 게 전문가들의 지적입니다.&lt;앵커&gt;그럼 이 모든 악재를 뚫고 폴란드 원전을 짓게 된다면 우리 기업들이 따낼 수 있는 일감은 얼마나 됩니까?&lt;기자&gt;원전업계에서는 퐁트누프 원전 사업 규모를 한 기당 50억 달러, 우리 돈으로 7조원 정도라고 치면 최소 15조원(2기), 4기를 짓는다면 많아야 30조원 정도라고 추산합니다.그러면 여기서 우리 기업들은 얼마나 가져가느냐. 관건은 APR1400을 수출하느냐 마냐 입니다.APR1400을 그대로 수출한다면 설계를 맡은 한국전력기술부터 기당 2천억원, 최소 4천억원 이상의 매출이 발생합니다.그리고 기자재 매출은 기당 1조2천억원, 최소 2조4천억원 이상이 예상되는데요. 두산에너빌리티가 사실상 유일한 수혜주입니다.설계와 기자재 공급 외에 시공사는 아직 불확실하지만 현대건설과 대우건설, 삼성물산 등이 잠재적 후보자로 거론됩니다.만에 하나 웨스팅하우스의 소송에 막혀 APR1400을 수출하지 못한다면 수주 금액은 확 떨어집니다.지난 8월 수주한 이집트 엘다바 원전 사례에서 보듯 설계 매출은 발생하지 않고요. 기자재도 증기 발생기와 원자로 정도만 계약해야 해서 기당 1,200억원, 최소 2,500억원 정도로 눈높이를 낮춰야한다는 분석입니다.&lt;앵커&gt;잘 들었습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.11.09.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>트렌드마이크로 “복잡해지는 IT 인프라, 리스크 관리에 집중하라”</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002136477?sid=105</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>9일 진행된 트렌드마이크로 클라우드섹 코리아 2022 전경[디지털데일리 이종현기자] “현재 사이버보안 시장에서 기술 트렌드를 얘기할 때 가장 중요한 것은 ‘리스크 관리’다. 외부로부터 유입되는 악성코드를 막는 것보다는, 사전에 리스크를 관리할 것이냐가 관건인 상황이다.”(김진광 한국트렌드마이크로 지사장)   9일 글로벌 사이버보안 기업 한국트렌드마이크로는 클라우드 연례 클라우드 보안 컨퍼런스 ‘클라우드섹(CLOUDSEC) 코리아 2022’를 개최했다. 코로나19 대유행으로 비대면 진행된 이래 3년 만의 오프라인 행사다.   컨퍼런스 주제는 ‘초연결 사회의 사이버보안’이다. 김진광 한국트렌드마이크로 지사장은 환영사에서 디지털 전환의 결과로 수많은 장치 및 네트워크가 연결됨에 따라 생겨난 취약점, 확장된 공격 표면(Attack Surface)을 관리하고 안전하게 지키는 방안에 대해 공유했다.   첫 기조연설을 맡은 것은 단야 타커(Dhanya Thakkar) 트렌드마이크로 아태지역 총괄 부사장이다. 보안 기술의 진화에 따라 재구성되는 사이버보안 리더의 역할과 적합한 솔루션의 중요성에 대해 소개했다. 이어 아마존웹서비스(AWS), 메가존클라우드, 토스의 전문가들이 기조연설을 발표했다. 김진광 한국트렌드마이크로 지사장  김 지사장은 이날 2023년 한국트렌드마이크로 전략도 공유했다. 급변하는 정보기술(IT) 환경 및 확장된 공격표면 관리를 위해 보안도 플랫폼 관점에서 통합적 접근이 필요하다는 것이 발표 골자다.   그는 “코로나19로 최근 2~3년간 굉장히 많은 디지털 혁신이 이뤄지면서 여러 네트워크, 디바이스로 회사 업무환경에 접근할 수 있게 됐다. 달리 말하면 해커가 침입할 수 있는 통로가 굉장히 많아졌다는 것”이라며 “지켜야 할 대상은 굉장히 복잡해졌고, 기업들은 이를 보호하기 위해 굉장히 많은 보안 솔루션을 도입하고 있지만 관리에 큰 어려움을 겪고 있다”고 말했다.   김 지사장이 언급한 바에 따르면 금융사는 수십개 보안 솔루션을 사용 중이다. 10여명의 인원이 인력보다 많은 수의 솔루션을 관리하는 중인데, 각 솔루션에서 나오는 경보(Alert)는 감당하기 어려운 수준이라고 설명했다.    이런 상황에서 트렌드마이크로가 제시한 것은 흩어져 있는 각 영역에 대한 가시성을 높이고, 이를 통합 관리하는 확장된 위협 탐지 및 대응(eXtended Detection and Response, 이하 XDR)이다. 엔드포인트, 네트워크, 서버 등 개별적으로 관리되던 영역을 한데 모아 통합 관리하겠다는 것이 기술 개요다.   김 지사장은 “앞으로 기업들은 공격 표면을 어떻게 관리할 것이냐에 집중해야 한다. 공격 표면을 찾는 것부터 시작해서, 찾아낸 리스크에 대해 평가하고 위협을 감지 및 완화해야 한다. 트렌드마이크로는 이런 과정의 반복을 ‘디지털 어택 서피스 리스크 매니지먼트’라고 명명하고, 이를 위한 플랫폼이 XDR”이라고 전했다.   사이버보안 업계에 XDR이라는 용어가 등장한 것은 최근이 아니다. 글로벌 기업 다수는 이미 XDR을 채택했다. 단야 타커 트렌드마이크로 아태지역 총괄 부사장은 “EDR은 좋은 기술이다. 하지만 전체를 보지 못한다는 문제점이 있다. 그런데 한국은 EDR 조차도 아직 많은 관심을 보이지 않고 있는 듯하다”고 진단했다.   이어서 김 지사장은 “트렌드마이크로는 아직 한국에 클라우드가 자리 잡기도 전에 클라우드 보안을 강조했다. 그리고 지금은 EDR을 막 준비 중인데 XDR을 말하고 있다. 향후 10년을 내다보고 관련된 기술을 먼저 소개하는 중”이라며 “시장에서 XDR에 대한 인식이나 이해도를 높이는 역할을 중점적으로 하고 있다”고 피력했다.   XDR의 X는 확장(eXtended)을 뜻한다. 자연히 다른 보안 요소를 더하는 플랫폼 성격을 띤다. 트렌드마이크로는 자사의 보안 솔루션을 모두 XDR로 통합하는 중이다. 이중에는 산업 현장을 위한 운영기술(Operational Technology, 이하 OT)도 포함됐다. 연내 트렌드마이크로의 OT 보안 솔루션 역시 XDR에 합류될 예정이다.   최영삼 한국트렌드마이크로 이사는 “OT는 통상 인터넷과 연결되지 않는 폐쇄망을 활용한다. 하지만 최근에는 OT망과 IT망이 연결되는 접점이 많아지고 있다”며 “OT 환경 특성상 잘 관리되지 않은 운영체제(OS)나 소프트웨어(SW) 등이 많다. XDR에 OT까지 통합해야 하는 이유”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.11.14.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>토스 10년 성장기 담은 ‘유난한 도전’ 출간</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001566303?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>모바일 금융플랫폼 토스를 운영하는 비바리퍼블리카는 2011년 창업 이후 10년간 걸어온 길을 담은 책 ‘유난한 도전’(사진)을 출간했다고 13일 밝혔다. 책에는 이승건 비바리퍼블리카 대표의 창업 준비 때부터 토스 사용자 2000만명 돌파 때까지 얘기가 담겨 있다. 실패를 거듭하던 끝에 공인인증서 없는 간편 송금 서비스를 구현하게 된 스토리뿐 아니라 토스가 증권사와 인터넷은행 사업 등에 진출하는 과정이 다뤄졌다. 이 대표와 전·현직 토스 직원 35명에 대한 인터뷰, 사내 메신저 내용도 포함돼 있다.이 대표는 에필로그에서 “토스를 만들어가는 일은 그야말로 ‘안 될 거야’라고 말하는 수많은 내외부의 선입견과 마주하는 과정이었다”고 말했다. 또 “조금은 철없지만 낙관적인 신념을 갖게 되는 미래가 온다면 그게 기업가로서 토스팀으로서 사회에 남긴 가장 큰 족적이 되지 않을까 한다”고 덧붙였다. 책 판매 수익은 창업 관련 커뮤니티에 기부될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.11.10.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>[15회 스마트금융콘퍼런스]카카오뱅크 “UX는 이제 상향평준화…'단독 서비스' 주목”</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003058193?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>정규돈 카카오뱅크 CTO가 카카오뱅크, 디지털 2막에 대해 발표하고 있다. 박지호기자 jihopress@etnews.com“카카오뱅크는 시즌2를 통해 다시 한 번 금융을 정의하고 있습니다. 단순 상품에서 라이프 풀필먼트 서비스로, 고객의 맥락을 이해하는 확장 가능한 플랫폼으로 새로운 금융 서비스를 선보일 예정입니다.”정규돈 카카오뱅크 최고기술책임자(CTO)는 10일 여의도 전경련 회관에서 열린 '제15회 스마트금융 콘퍼런스'에서 '카카오뱅크 시즌2'를 이와 같이 정의했다.지금까지 카카오뱅크의 성공 방정식은 기술기업 DNA를 금융에 이식하는 방식이었다. IT와 금융의 적절한 밸런싱과, 모바일을 이해하고 기존 상품 재해석을 통해 차별적 경험을 만들어 왔다. 연계대출, 증권계좌, 신용카드, 26주 적금 등 외부 제휴를 통한 플랫폼 가능성을 확인했다.정규돈 CTO는 “고객은 이미 여러 유스케이스에서 어느 때보다 편한 금융을 접하고 있다”며 “금융의 다양한 영역에서 다양한 플레이어들이 출현하고 있으며, 시중은행과 핀테크사들 모두 플랫폼을 지향하고 있다”고 설명했다.그는 이어 “더이상 카카오뱅크 UX 강점은 독점이 아니며, 기술적 진보가 사회의 통념을 넘어서는 시대”라고 덧붙였다.카카오뱅크는 최근 2000만 고객 확보에 성공하며 새로운 과제에 직면했다. 현재 금융업계는 시중은행, 토스, 네이버, 쿠팡 등 어느 시대보다 이용자 한 명이 개설하는 계좌가 많아진 시대를 맞이하고 있기 때문이다.기존 관점에서 계좌는 티켓사이즈, 평잔과 같은 이익관점에서 접근해 왔다. 반면에 카카오뱅크는 주계좌를 트래픽과 연결의 관점에서 바라본다. 단편적인 은행 상품에 멈추지 않고 서비스로 확장, '단독 서비스'로서 맥락을 잡았는지에 따라 플랫폼 가능성을 판단한다는 것이다.대표 사례가 '카카오뱅크 26주 적금' 시리즈다. 26주 적금은 이마트, 컬리, 세븐일레븐 등과 협업을 통해 적금 상품 이상의 의미와 접근성을 이끌어낸 상품이다. 계좌를 단순 뱅킹 상품이 아니라 이니시에이터, 어드바이저, 퍼실리에이터, 어그리게이터 개념의 서비스로 확장했다.카카오뱅크 시즌2에서는 이와 같은 관점을 주택담보대출로 확대할 계획이다. 주담대의 시작을 단순 담보대출이 아니라, '집을 사는 인생 최대 이벤트' 관점으로 고객 가치를 제공한다. 이달부터 서비스를 개시한 '개인사업자' 뱅킹 역시 마찬가지다. 통장, 대출이 아니라 '개인사업자 금융 서비스'로 접근한다. 사업 관리를 위한 세금 관리, 신용 관리, 매출 관리로 서비스를 확장한다.카카오뱅크는 서비스형뱅킹(BaaS)을 통해 또 다른 연결을 위한 기술적인 준비, 디지털전환을 위한 또 하나의 방법론을 준비하고 있다.정 CTO는 “해외에서는 이미 카카오뱅크의 모바일 사용성, 기술에 대한 협력 문의가 많으며, 증권 계좌 연결 시 신분증 검증 기능을 고객센터 포함해 제공하고 있다”며 “데이터의 연결, 기능의 연결로 확장해 모바일 금융 플랫폼을 BaaS 형태로 제공할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.11.10.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>[조간브리핑] "5만 원도 어려워요"…후불 결제·소액 할부족 급증</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000309996?sid=102</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>■ 경제와이드 모닝벨 '조간 브리핑' - 장연재조간브리핑입니다.◇ 기세등등하더니…돌연 꼬리 내린 '킹달러'경향신문 기사입니다.어제(9일) 서울 외환시장에서 원·달러 환율은 20.1원 급락한 달러당 1,364.8원에 거래를 마쳤습니다. 환율이 종가 기준으로 1,360선을 나타낸 것은 지난 9월 2일 이후 두 달여 만인데요.이번 주 들어서만 59원이나 하락했습니다. 미국 중앙은행이 금리 인상 속도를 늦출 수 있다는 전망에 달러 값이 안정세로 돌아섰고, 중국 쪽에선 제로 코로나 정책을 일부 완화할 수 있다는 소식이 안도감을 불러왔습니다.그럼 앞으로 환율이 추세적으로 하락하느냐, 이렇게 전망하기는 쉽지 않은 상황입니다. 대외 불확실성은 여전히 높고, 무역수지 적자가 지속되는 등 국내 경기가 개선될 조짐을 보이고 있지 않기 때문입니다.◇ 집 헐값에 파느니…올해 주택 증여 비중 역대 최대중앙일보 기사입니다.올해 주택 증여 비중이 역대 최고치를 기록했다는 소식입니다.부동산 정보업체 경제만랩이 한국부동산원 통계를 분석한 결과, 올해 1~9월 전국 주택 증여 건수는 6만 5천 793건으로 전체 거래량의 8.8%였습니다. 주택 증여 건수는 지난해 보다 39% 줄었지만, 전체 주택 거래에서 증여 비중은 커졌습니다.특히 서울의 증여 비중이 높았는데, 25개 구 가운데 노원구의 증여 비중이 27.8% 달해 가장 높았습니다. 올해 증여 비중이 커진 건 최근 거래 절벽이 심화해 집을 급매로 처분하기 어려워지자 ‘싸게 파느니 증여하겠다’는 움직임이 늘어났기 때문입니다. 내년부터 취득세가 늘어날 수 있는 점도 영향을 미쳤습니다.◇ 정용진 화끈한 스트라이크…우승·흥행·매출 다 잡았다매일경제 기사입니다.SSG 랜더스가 KBO 리그 한국시리즈에서 정상에 오른 걸 두고 구단주인 정용진 신세계그룹 부회장의 '통 큰 투자'가 결실을 맺었다는 평가가 나옵니다. 정 부회장은 지난해 1월 1,352억 원을 들여 SK 와이번스 구단을 인수한 뒤 기량이 출중한 슈퍼스타를 영입하고 선수단을 보강하면서 야구장 시설 보완에 에너지를 쏟았습니다. 그리고 SSG닷컴·이마트·신세계백화점·노브랜드 등 신세계그룹 주요 계열사 콘텐츠를 홈구장으로 모아서 '신세계 유니버스 마케팅'을 펼쳤는데요. 그 결과, SSG랜더스 굿즈 매출은 지난 4~5월 두 달 만에 코로나19 이전이었던 2019년 연간 매출을 넘어섰고요.올해 SSG랜더스필드 식음료(F&amp;B) 월평균 매출 역시 2019년 대비 67%, 2018년 대비 약 2배 증가했습니다.◇ 中 봉쇄 뚫은 MLB…패션 첫 해외판매 1兆한국경제 기사입니다.F&amp;F의 패션 브랜드 ‘MLB’가 국내 브랜드 최초로 중국 시장에서 연간 판매액 1조 원을 넘을 것으로 예상됩니다.코로나19 봉쇄 조치의 여파로 나이키, 아디다스 같은 유수의 해외 스포츠 브랜드마저 중국에서 고전을 면치 못하는 와중에 거둔 성과여서 이목을 끌고 있습니다.MLB는 미·중 갈등의 여파로 미국·유럽 브랜드가 중국에서 타격을 받는 가운데 반사이익을 받으며 매출이 크게 성장했는데요. 미국 및 야구와 관련한 색채를 확 빼고, '노세일 전략'을 추진한 점도 매출 성장의 큰 요인으로 꼽힙니다. 중국 내 MLB 매장은 올해 말까지 900여 개로 늘어날 것으로 예상됩니다. ◇ "밥값 5만 원도 부담 커요"…3개월 소액 할부족 급증조선일보 기사입니다.물가가 오르고 소액 결제도 부담스러워지자 5만 원 미만 결제도 무이자 할부를 이용하는 소비자들이 늘고 있습니다.3만 원부터 무이자 3개월 분할 납부가 가능한 롯데카드 상품은 출시 3개월 만에 신규 발급 1만 장을 넘겼습니다. 네이버페이와 토스, 카카오페이를 통해서 먼저 구매하고 나중에 결제하는 후불 결제 이용도 크게 증가했는데요.3사의 소액후불결제 이용액은 지난 6월 총 202억 5천940만 원에서 8월 총 281억 8,000만 원으로 늘어, 두 달 만에 39% 증가했습니다. 가계 대출 금리 상단이 이미 7%대 중반까지 오르면서 이처럼 소액이라도 결제 부담을 느끼는 소비자가 더 많아질 것으로 보입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.11.06.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>美시장 노크하는 삼양사…차세대 감미료 등 스페셜티 소재 앞장</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005359674?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>7월 시카고 이어 이달 초 라스베이거스 박람회 참가차세대 감미료 '알룰로스' 비롯 스페셜티 소재 홍보[이데일리 남궁민관 기자] 삼양그룹 식품·화학 계열사 삼양사는 지난 2~3일 미국 라스베이거스에서 열린 식품원료박람회 ‘2022 서플라이 사이드 웨스트(Supply Side WEST)’에 참가해 스페셜티 소재 홍보 부스를 운영했다고 6일 밝혔다. 지난 7월 미국 시카고에서 열린 국제식품기술박람회(IFT 2022)에 이어 이번 박람회에 참가해 삼양사만의 경쟁력 있는 고부가가치 스페셜티 소재를 통해 미국 식품 소재 시장을 적극 공략한다는 전략이다.삼양사가 지난 2~3일 미국 라스베이거스에서 열린 ‘2022 서플라이 사이드 웨스트’에 마련한 스페셜티 홍보 부스에 관람객들의 방문이 이어지고 있다.(사진=삼양사)먼저 삼양사는 이번 박람회에서 당류 저감화 소재 사업의 핵심 제품인 ‘알룰로스’를 소개했다. 알룰로스는 무화과·포도 등에 함유된 단맛 성분으로 설탕과 비슷한 단맛을 내지만, 칼로리는 ‘제로’ 수준이라 차세대 감미료로 꼽힌다.삼양사는 자체 개발한 효소를 사용해 2016년 액상형 알룰로스 대량 생산에 성공한 데 이어 최근에는 울산에 스페셜티 전용 공장을 짓고 결정형 알룰로스를 생산하고 있다. 지난해에는 글로벌 시장 공략을 위해 다음을 뜻하는 ‘넥스트(Next)’와 당류를 의미하는 ‘스위트(Sweet)’를 합쳐 ‘차세대를 선도하는 건강한 감미료’라는 뜻을 담은 알룰로스 브랜드 ‘넥스위트(Nexweet)’를 론칭했다.삼양사는 알룰로스 뿐만 아니라 일반 식품에 기능성을 표시할 수 있는 소재인 ‘난소화성말토덱스트린’도 적극 알렸다. 수용성 식이섬유인 난소화성말토덱스트린은 섭취 시 △배변활동 원활 △식후 혈당 상승 억제 △혈중 중성지질 개선에 도움을 줄 수 있는 기능성 원료로, 음료·제과·제빵 등 다양한 제품에 활용할 수 있다. 현재 삼양사는 ‘화이버리스트(Fiberest)’라는 브랜드로 분말 및 액상형 난소화성말토덱스트린을 생산하고 있다.이외에도 건강기능식품 원료로 사용되는 프락토올리고당의 일종인 ‘케스토스’를 선보였다. 삼양사는 케스토스를 건강기능식품 원료로 인정받기 위한 인체 적용 시험을 진행중이다.삼양사는 스페셜티 소재의 효과적인 홍보를 위해 원료 샘플과 함께 음료·단백질바·유제품·소스·잼류 등 실제로 소재가 적용된 제품을 카테고리별로 나눠 시식 샘플과 함께 전시했다. 양철호 삼양사 식품그룹 스페셜티사업PU장 상무는 “1만7000여명이 방문한 이번 전시회에서 현지 식품 공급 업체와 비즈니스 상담을 진행하며 삼양의 스페셜티 소재를 알렸다”며 “앞으로도 해외에서 열리는 식품원료박람회에 적극 참가해 글로벌 시장 진출에 더욱 박차를 가할 것”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.11.13.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>우티·타다 '카카오T 독주' 못 막았다</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004121569?sid=105</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>출범 1주년 우울한 성적표인지도 바탕 '공격적 마케팅'에도MAU 우버 65만명·타다 15만명카카오 1253만명에 크게 못 미쳐[서울경제] 택시 시장의 ‘게임체인저’로 주목받으며 화려하게 데뷔했던 택시 호출 서비스 우티(UT)와 타다 넥스트가 서비스 1주년을 맞았지만 여전히 카카오(035720) T에 밀려 고전 중이다. 공격적인 마케팅에도 카카오와의 이용자 수 차이는 수십 배에 달하는 실정이다.13일 정보기술(IT) 업계에 따르면 우티는 이달 1일 우버·티맵택시 통합 애플리케이션(앱) 출범 1주년을 맞았다. VCNC가 운영하는 대형택시 호출 서비스 ‘타다 넥스트’도 이달 25일 베타 테스트 1주년을 맞는다.두 서비스 모두 높은 인지도와 우버·토스라는 든든한 뒷배를 바탕으로 카카오 T 독주 체제에 제동을 걸 것으로 기대됐다. 실제 두 회사 모두 공격적인 마케팅을 통해 초반 이용자 잡기에 열을 올렸다. 우티는 출범 첫 달 택시 요금 20~25% 상시 할인을 제공했고, 이후에도 각종 할인 쿠폰을 뿌리며 공격적인 프로모션을 이어갔다. 타다도 작년 연말까지 승객 대상 반값 이벤트를 진행했다. 기사 대상으로도 △4000만원 상당의 차량 구입비 일부 지원 △타사에서 이직 시 일시금 500만원 지급 등 다양한 혜택을 제공했다.하지만 1년이 지난 지금, 택시 호출 시장은 여전히 ‘카카오 천하’다. 데이터 분석 플랫폼 모바일인덱스에 따르면 10월 카카오 T 앱의 월간활성이용자수(MAU)는 1253만 명이다. 우티(65만), 타다(15만)에 비해 압도적이다. 특히 우티, 타다 모두 ‘카카오 먹통’ 반사이익으로 10월 역대 최대 MAU를 기록했다는 점을 감안하면 앞으로 격차는 더욱 벌어질 것으로 보인다. 실제 먹통 당일인 지난달 15일 우티, 타다 DAU는 각각 14만7740명, 2만9540명으로 평소 대비 3~4배 치솟았지만 이틀만에 기존 수치로 내려갔다.반면 카카오 T는 택시 시장에서의 영향력을 더욱 늘려가고 있다. 홍은택 카카오 대표는 지난 4일 3분기 실적발표 컨퍼런스 콜에서 “블루, 벤티, 블랙 등 프리미엄 택시 일평균 운행 완료 수는 전년동기대비 32% 증가했다”고 밝혔다.우티 가맹택시 기사 모집 홈페이지 갈무리.이러한 상황 속에서도 우티와 타다 넥스트는 최근 택시 수요가 급증에 다시 한 번 맹추격 기회를 엿보고 있다. 우티는 7월부터 가맹택시 기사에게 건당 4000원의 인센티브를 제공 중이다. 카카오T 가맹택시(블루)와 달리 콜 목적지를 표시하고, 강제배차를 하지 않는다는 점을 내세워 기사 모시기에도 힘쓰고 있다. 타다 넥스트 또한 매주 목표 달성 시 월 최대 60만원을 지급하는 ‘매출 달성 미션’ 등 다양한 유인책을 도입하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.11.15.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>커피+베이글이 2만원…뉴욕의 '美친 환율' 체험기</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004928040?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>달러 강세로 미국 여행 경비가 더 부담스러워졌다. 뉴욕 맨해튼 일대의 커피 한잔 값이 원화로 환산하면 8000~9000원에 달한다. /게티이미지뱅크 [파이낸셜뉴스] "스타벅스 라떼를 지금 9000원에 먹은 거야?"  8일(현지시간) 방문한 뉴욕 맨해튼 미드타운에 위치한 한 스타벅스 매장. 라테 가격은 6.26달러를 가리켰다. 그것도 가장 작은 사이즈가 그랬다.   부자 동네에 있는 유명 카페 랄프 커피(Ralph Coffee)의 라테 가격도 5달러 선이었는데, 한 블록 건너 하나씩 있는 스타벅스 커피값이 이렇다니, 비싸긴 비싸다.   원·달러 환율을 적용하니 눈이 더 커진다. 6달러면 7000원 대였던 시절을 지나 이제 9000원인 시대에 살고 있다.     미국 여행 체감 환율은 '1달러=1500원'  1년 전만 해도 1200원을 넘지 않았던 원·달러 환율은 올해 들어 치솟았다. 급기야 지난 9월엔 2009년 이후 13년 6개월 만에 1400원을 돌파했다. 지금은 꺾이긴 했지만, 연내 1500원까지 치솟을 것이란 전망도 한때 힘을 받았다.   올해 들어 달러화 자체가 15%가량 오른 것과 동시에 원화 가치는 달러화 대비 13% 정도 약세를 나타내 주요 신흥국 중 큰 폭의 통화가치 하락을 보였다. 미국 인플레이션 자체가 심화한 데다 두 효과가 합쳐지니 체감 원·달러 환율은 폭탄에 가까웠다.    원·달러 환율 추이 /그래픽=정기현 기자 뉴스로만 접했던 원·달러 환율 1500원 시대를 피부로 체감한 건 미국 입국 시 필수인 이스타 비자를 발급 받으면서다.   해외 결제 시 무조건 3% 캐시백이라는 혜택을 제공해 해외여행족에게 필수템이 된 토스뱅크 체크카드를 이용해 21달러를 결제했다.   결제 승인과 동시에 3만1337원이라는 메시지가 왔다. 21달러가 2만 얼마가 아니었다. 말로만 듣던 고환율이 바로 와 닿았던 순간이다. 토스뱅크 체크카드의 건당 해외결제수수료 1024원을 제외하더라도 3만원이 넘어버린 숫자였다.   환율 충격은 순간순간 계속됐다.   뉴욕의 아침을 장식한 향긋한 모닝커피와 직접 구운 베이글도 그랬다. 고작 '커피'와 '빵'을 샀을 뿐인데 11달러~15달러. 우리 돈으론 1만원 대가 아니라 2만원에 육박한다. 간단한 아침이 비즈니스호텔 조식급으로 변하는 순간이다.   우리나라에서도 꾸준한 인기를 얻고 있는 블루보틀에서도 라떼 2개를 주문하고 13.06달러를 지불했다. 우리 돈으로 1만7457원. "커피 한 잔이 1만원"이라던 현지 거주자의 조언이 과장이 아님을 비로소 느꼈다.      지하철 편도 5000원 '악소리' 나는 물가  지하철 물가는 더 놀랍다. 편도 2.75달러로 끽해야 3000원대였던 일방향 지하철 요금은 4700~5100원이 됐다.   택시보다 저렴한 교통수단을 표방해 등장한 우버는 택시 가격을 이미 뛰어넘었다. 5년 전 20달러대였던 가격은 한 번 움직일 때마다 40달러 대로 올랐다. 여기에 원·달러 환율 매직이 더해지자 '한 번 이동=10만원'이 공식처럼 될 정도다.   타임스퀘어의 명물인 이치란라멘은 한 그릇에 30달러도 하지 않았지만, 한국 돈으론 4만원 이상이다. 두 그릇을 먹고 56.40달러를 지불했는데 영수증엔 8만원이 넘게 찍혔다. 김치찌개 한 그릇에 4만원이라던 유럽 어느 나라의 얘기를 듣다 충격받았던 그 물가 수준이 지금 미국에서 형성돼 있다. 일행들은 "원·달러 환율이 아무리 올랐어도 1달러가 1500원인 세상은 어색하다"고 입을 모았다.   그렇다 보니 주재원 간 희비도 엇갈리고 있다. 달러로 월급을 받는 회사와 원화로 받는 회사 간에 많게는 30% 이상의 임금 차이가 난다는 것. 다만 현지 물가 역시 너무 올라서 사는 건 어차피 비슷하다고 주재원들은 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.11.02.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>"권위는 지위 아닌 지식에서 나온다"…MZ세대 몰려드는 쿠팡·토스 비결은</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004770419?sid=102</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>글로벌인재포럼 2022'MZ세대의 공정과 새로운 조직문화' 기조세션토니 박 토스 피플&amp;컬쳐 팀 리더"토스 경쟁력은 공정...보상 뿐 아니라 정보 접근, 의사결정까지 포함"김민석 쿠팡 인사기획팀 상무"데이터와 인사이트로 직원 설득해야"2일 열린 글로벌인재포럼 2022에서 신재용 서울대 경영대 교수(왼쪽부터), 토니 박 토스 피플&amp;컬처팀 리더, 김민석 쿠팡 인사기획팀 상무, 스텔라 김 에이치알캡 이사가 'MZ세대의 공정과 새로운 조직문화'를 주제로 토론하고 있다. 임대철 한경디지털랩 기자“위계질서는 최악의 조직구조다.”(토니 박 토스 피플&amp;컬쳐 팀 리더)“권위는 지위가 아닌 지식에서 나온다.”(김민석 쿠팡 인사기획팀 상무)네카라쿠배당토(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스)는 MZ세대(밀레니얼+Z세대)에게 ‘꿈의 직장’으로 손꼽힌다. 국내 전통 기업들이 더 좋은 대우와 기회를 제공하는 기업으로 이직하는 MZ세대들을 잡기 위해 고군분투하는 것과 정반대다.이 기업들은 어떻게 MZ세대의 꿈의 직장으로 떠올랐을까. 2일 서울 광장동 그랜드워커힐호텔에서 개막한 ‘글로벌인재포럼 2022’에서 열린 ‘MZ세대의 공정과 새로운 조직문화’ 기조세션에서 쿠팡과 토스 등 기업의 인사관리(HR) 전문가들은 지위를 배제한 의사결정과, 성과에 기반한 보상이 핵심이라고 입을 모았다.모바일 금융 서비스 토스 운영사인 비바리퍼블리카의 피플&amp;컬쳐 팀 토니 박 리더는 “토스 기업문화의 가장 큰 경쟁력은 공정”이라고 말했다. 그는 “공정은 보상 뿐 아니라 정보에 대한 접근과 의사결정, 직원으로서 목소리를 낼 수 있는 환경 등 모든 부문에서 보장돼야 한다”고 강조했다.박 리더에 따르면 이 회사는 매주 전 직원을 대상으로 타운홀 회의를 한다. 박 리더는 “이 회의에서는 직급과 상관없이 누구나 의견을 내고, 젊은 직원들도 회사의 방향에 대해 사장과 임원에게 질문을 던질 수 있다”고 말했다.사장-중간 관리자-직원들로 구성된 톱다운 방식의 위계질서가 최악의 조직구조라고 비판하기도 했다. 그는 “스티브 잡스 애플 창업자는 ‘인재들을 영입하는 이유는 그들에게 지시하기 위한 게 아니라 지시받기 위함’이라고 말했다”며 “자유를 부여하고 신뢰할 때 직원들이 스스로 목적의식에 맞게 일할 수 있다고 믿는다”고 말했다.토스에는 일반 기업에서 시행하는 인사고과도 없다. 인사고과가 오히려 편견을 야기한다는 이유다. 대신 직원들이 목표를 달성하면 직급과 근무 기간에 상관없이 동일한 비율의 보너스를 지급한다. 박 리더는 “사내에 출신 학교와 나이, 부모님 직업과 고향을 묻지 말라는 규칙이 있다”며 “학연·지연·혈연 등 그 어떤 특혜도 주지 않겠다는 메시지”라고 했다.국내 대표 e커머스 기업 쿠팡에는 인사평가와 성과관리의 절대적인 기준이 있다. ‘고객의 요구를 충족시켰는가’다. 김민석 쿠팡 인사기획팀 상무는 “쿠팡의 존재 이유는 ‘고객이 와우하게 하자(Wow the customer)’로, 이를 위해서는 누구나 의사결정을 내릴 수 있다”고 말했다.김 상무는 “쿠팡에서는 지위가 아닌 지식이 권위”라고 수 차례 강조했다. 그는 “쿠팡에서는 데이터와 인사이트로 직원들을 설득해야 한다”며 “지위가 높은 사람이 톱다운 방식으로 업무를 지시하는 건 불가능하다”고 말했다.쿠팡에서는 임원이 참석하는 회의가 열려도 회의를 이끄는 사람은 주제에 대해 가장 많이 알고 있는 사람이는 설명이다. 김 상무는 “역량과 지식만 있다면 누구나 회의를 이끌고 의사결정도 내릴 수 있다”며 “쿠팡 내에서 장려되는 근무 태도”라고 말했다.김 상무는 MZ세대가 선호하는 재택근무 역시 조직 역량을 끌어올리기 위해 적극 도입할 필요가 있다고 봤다. 그는 “많은 기업들이 재택근무를 복지로 생각하는데 잘못된 접근방법”이라며 “쿠팡은 재택근무를 적극 도입해 최고의 역량을 가진 30여개 국적의 직원들을 채용할 수 있었다”고 설명했다.한국계 글로벌 헤드헌팅 업체인 HRCap(에이치알캡)의 스텔라 김 이사는 “MZ세대는 입사 후 1~2년 내 이직하는 비율이 가장 높은 세대”라며 “창업과 자기개발, 일과 삶의 밸런스, 더 높은 연봉 등 다양한 이유가 있는 만큼 이들과 적극적으로 소통하는 것이 중요하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.11.11.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>[쫌아는기자들] 최혁재 “11년간 실패하는 법” 류중희 “우린 모두 공범” 컴업 2022</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003727830?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>@주3회 발행하는 뉴스레터 [스타트업]입니다. 무료 가입은 https://page.stibee.com/subscriptions/143087 입니다.“영상은 잘 안봐요. 유튜브 안봐요. TV도 안보고요. 이유요? 같은 시간 대비 얻는 정보량이 텍스트가 영상보다 더 많기 때문이에요” 캐시노트 김동호 대표의 이야기입니다. 텍스트의 장점, 경제성입니다. 텍스트는 영상보다 빠르고 효율적으로 원하는 정보를 캐치해 파악할 수 있습니다. 텍스트의 경제성을 활용하고 독자들에게 전파하는 것. 쫌아는기자들의 마음입니다.컴업 2022 행사가 DDP에서 열리고 있습니다. 유튜브로 생중계도 볼 수 있고, 현장에 가신 분들도 많을 것입니다. 하지만 모든 세션을 다 챙겨볼 수는 없는 법. 9일과 10일 열렸던 여러 대담과 스피치 중, 쫌아는기자들이 독자들과 공유하고 싶은 담화들을 발췌했습니다. 재밌다고 생각되는 포인트는 컴업 유튜브 채널로 가셔서 풀영상을 보시면 됩니다. 쫌아는기자들 식(式) 컴업 즐기기 시작합니다.최혁재 스푼라디오 대표의 ‘11년간 실패하는 법’							“11년 전에 창업했고요. 당시 안드로이드 배터리가 분리형일 때, 충전을 미리 다 해놓은 배터리를 공유하는 서비스를 했었습니다. 근데 2015년부터 스마트폰들이 대부분 일체형으로 나왔죠. 첫 번째 비즈니스를 실패했고요. 10명 정도인 회사가 폐업 위기까지 갔었습니다. 폐업하냐 마냐 하다가, 딱 1년만 더 해보자고. 그때 시작한 서비스가 스푼라디오고요. 스푼라디오도 초기에 실패를 여러번 거듭했었고 2016년에 극적으로 매출이 발생하면서 성장했죠. 하지만 작년초 클럽하우스 열풍이 불면서 엄청 힘든 경쟁 상황에 놓였고요. 작년 말 투자 유치가 잘 안 되고 자금 흐름이 꼬이면서 회사가 다시 한번 폐업 위기까지 갔었습니다. 작년에 200명 넘는 인원 중에 40% 이상을 힘들게 떠나보내야만 했어요. 올해 다시 재기를 위해서 열심히 노력을 하고 있습니다.””저희 회사 구성원들이 되게 싫어하는 얘기인데, 저는 아침에 전쟁터에 나가는 장수의 기분으로 회사를 출근한다고 얘기를 하거든요. 전쟁 영화나 사극 같은데서 장수가 갑옷 입고 전쟁터 나가잖아요. 부인이 ‘꼭 살아서 돌아오라’고 얘기를 하죠. 그런 마음가짐으로 출근합니다. 예전에는 칼이나 총으로 싸웠지만, 지금은 인재들과 여러 가지 비즈니스를 만들면서 싸우죠. 전쟁의 형태와 매우 유사하다고 생각해서 전쟁터에 나가는 장수의 마음으로 일을 하고 있어요. 여기 계신 분들도 각자의 비즈니스 카테고리에서 한 팀, 한 부대를 이끄는 장수의 역할을 하시는 창업자 분들이 계실 텐데요. 전쟁 영화에서 호기롭게 전쟁터에 나갔다가 다 죽어 나가거든요. 컴업 행사뿐만 아니라, 이런 스타트업 행사에 오셨다가 실제로 1~2년 지나면, 절반, 그리고 또남은 절반의 절반, 그렇게 회사들이 사라지거든요. ‘나는 아니겠지’라는 생각으로 다들 창업하지만, 실제로 우리나라 뿐만 아니라 해외 여러 통계를 보면 95% 이상의 스타트업이 3년 내에 사라집니다. 이 현실을 부정하는 순간, 되게 힘든 시간을 보내게 되고 저 역시도 우리 회사만큼은 아니겠지라고 그 현실을 부정하고 받아들이지 않았는데, 지금은 언제라도 실패할 수 있고 언제라도 망할 수 있다라는 생각을 가지고 있습니다.”“전쟁터에서 장수가 살아남는 방법이라. 정답은 아닌데 제가 생각하는 살아남은 장수, 그러니까 살아남은 스타트업의 창업가들을 보면 공통점이 겸손하다는 건데요. 겸손함이 대화에 묻어나옵니다. 스타트업 창업자 분들 똑똑하신 분들 되게 많으세요. 좋은 학벌, 아니면 좋은 회사에서 엄청난 경력쌓고, 창업의 신(장면)에 뛰어들죠. 하지만 망망대해죠. 몸담았던 회사처럼 여러 가지 지원 부서도, 사람도, 자금도 없거든요. 살아남으려면, 그걸 먼저 경험했던 창업자들이나 투자자분들의 피드백을 가감없이 받아들이고 겸손한 자세로 일하는 것, 그런 창업가들이 실제로 성공하고 성장하는 것 같아요.”“존경하는 창업가 중에 배달의민족의 김봉진 대표님이나 토스의 이승건 대표님이 있는데, 사석이나 모임에서 만날 때 얘기를 해보면 정말 겸손하세요. 해가 지나면서 만날 때마다 저분은 또 성장을 했구나라는게 대화에서 느껴집니다. 근데 실패하거나 망한 회사들의 대표님들을 만나보면 올해 오늘 만났으면 내년에 만날 때 똑같은 얘기만 하고 똑같은 사고 방식만 갖고 계세요. 그 회사는 사라지고요. 10년 동안 되게 많은 회사들을 봐와서, 스폰 라디오도, 저도 겸손하려고 되게 노력합니다. 이런게 습관이 되면서 살아남는데 좀 도움이 됐던 것 같습니다.””영화 해바라기의 명대사인데, ‘강한 놈이 살아남는 게 아니라 살아남은 놈이 강한 것’이라고요. 생존과 성장이 공존하는데, 생존을 하면서 성장을 하면 가장 좋은 케이스이지만 실제로는 저도 그렇고 주변에 많은 스타트업들을 보면 두 가지가 한꺼번에 오지는 않습니다. 특히 초반에는 회사의 존폐 위기를 매달 맞이하면서 버텨내야 하고, 투자를 받게 되면 투자자들의 기대치에 맞게 급속도로 빠르게 성장을 해야 되는데, 두 가지가 자칫 잘못하면 바닥으로 떨어질 수 있는 상황입니다. 모든 회사들한테 오는 상황입니다. 생존과 성장, 둘 중에 뭐가 중요할까요. 지금의 외부 환경을 체크해보면 생존이 더 중요하게 시장의 환경이 변했고 그래서 생존을 위한 여러 가지 고민 끝에 여러 가지 실행들을 해야 할 시기가 왔다라고 생각합니다.””지금 투자 시장이 좀 위축됐긴 했는데, 그래도 하루가 멀다고 기사들이 쏟아지죠. 어느 회사가 얼마 투자 받았다, 기업 가치 얼마다, 1000억이다, 5000억이다. 근데 회사의 미래 가치를 판단해서 매긴 가격이고, 현실의 가치가 아닙니다. 많은 분들이 현재 가치로 오해하고, 기업가치가 1000억 넘어가면 창업자들이 되게 부자가 되는 줄 아세요. 저는 지금 6년째 연봉이 동결이고요. 직장 생활할 때보다 급여를 적게 받고 있습니다. 비슷한 상황에 계신 대표님들도 되게 많은데요. 회사를 위한 투자금을 받은 거지 대표 개인의 자산이 늘어난 게 아니죠. 실제로 시리즈 B 투자 받고나서 돈 빌려달라고 하는 연락을 많이 받았었고, 이런 오해 탓이죠. 살아남은 소수의 회사들이 시리즈 A, B, C 받으면서 성장하는데 반대편엔 실패하거나 문을 닫는 회사들도 되게 많거든요. 힘든 과정을 겪으면서 정말 실전이구나, 전쟁이구나. 사실 자살이라는 안타까운 선택을 하신 대표님들도 여러 번 봤어요. 창업을 했다가 실패했을 때 정신적, 경제적으로 받는 고통은 사람이 버틸 수 있는 강도가 아니거든요.””일주일에 한 번꼴로 폐업을 고민하거나 구조조정을 준비하고 계신 대표님들을 만나고 있습니다. 실제로 뉴스에 나오는 어느 스타트업 구조조정, 어디는 폐업, 그런 고민의 대표님들을 실제로 만나고 있습니다. 정말 현실이 녹록하지 않고 생존을 위한 과감한 결정이나 실행들을 하셔야 될 때가 왔다라는 얘기를 나누죠. 스푼라디오의 투자사 중에 미국 투자사들이 꽤 많은데, 아예 가이드라인이 내려왔습니다. 최소 18개월에서 24개월 버틸 수 있는 현금의 흐름 구조를 만들어라, 필요하다면 구조조정도 해야한다, 비즈니스를 축소하거나 생존을 위한 준비를 미리 해둬라, 라는 겁니다. 그 투자자 분이 연초에 환율이 1400원까지 갈 거라고 했을 때 제가 안 믿었거든요. 1400원 가는 거 보면서 신뢰도가 되게 올라갔는데, 지금 그분이 1600원 얘기하고 계세요. 스푼라디오는 해외로 나가는 자금도 많아서, 이제 자금을 어떻게 할까 고민도 해야하고요. 생존을 위해서 시간을 벌어두면 다시 성장을 할 수 있지만, 생존을 하지 못하면 그 성장의 기회조차 오지 않기 때문에 이 순서를 좀 잘 생각해야할때가 지금이라고 봅니다.”“스푼라디오도 지금 정체를 약간 벗어났을 뿐입니다. 작년이랑 재작년에 되게 정체였거든요. 원인들이 무엇일까.대표가 변하지 않아서가 첫 번째 이유라고 생각을 했습니다. 제가 절대 타협하지 않는 것들이 있었거든요. 좀 바꿔볼까, 다른 방식으로 생각을 해볼까, 생각의 틀을 깨면서 회사가 정체에서 빠져나올 수 있었습니다. 회사가 정체라면 대표인 나부터 바뀌어야 되지 않을까 합니다. 근데 저도 고집이 엄청 세고 다른 대표님들도 고집이 엄청 세요. 고집이 있으니 창업한 것이기도 하지만, 그럼에도 내 회사가, 내 서비스가 성장을 하고 있지 않다라고 하면, 그 고집 중에 일부는 좀 포기하고 변화를 시도해야 되지 않을까요. 아까도 말씀드렸지만 성장하지 않은 스타트업의 대표님들을 만나면 작년이랑 올해랑 똑같고요. 생각의 틀이라든가 말씀하시는 대화의 주제들이 변함이 없거든요. 한결 같으세요. 대표부터 좀 많은 것들을 내려놓고 많은 것들을 내려놓으려면 겸손해져야 되거든요.””사람의 정신 상태라든가 의사결정 구조가 30살이 넘어가면 변경이 안 된다고 하더라고요. 자기만의 인생관이나 가치관이 확고해져서 누가 어떤 얘기를 해도 변경되지 않고요. 과한 표현이기는 한데 사람 고쳐 쓰는 거 아니다라는 말이 그래서 나온걸테구요. 변하는 게 쉬었으면 너도 나도 유니콘이 되고 너도 나도 수익을 만들고 서비스를 성장시켰을 겁니다. 하지만 그게 어렵기 때문에 아무나 못하는거죠. 개인적으론 코칭을 받고 있는데, 그분은 ‘당신이 변했다를 인정받으려면 주변의 동료들한테 들어라’고 충고합니다. 제로 회사의 리더십팀 구성원들에게 ‘변했다’라는 얘기를 들어보려고 정말 별의별 짓을 다 했었었어요. 실제로 해보고 나니까 내가 변했구나 사람들이 인정을 해줘야 내가 정말로 변한 건데, 정말 어려웠었습니다.”“잘 된 회사들의 공통적인 라이프 사이클을 보면 초기에는 대표가 하드캐리합니다. 주 100~120시간 일하면서, 그리고 대표의 인맥으로, 맨땅인 회사에 같이 한번 해보자고 의기 투합하고 도원 결의하고 비즈니스를 시작하죠. 10명, 20명 정도의 규모가 되면 투자라는 거를 받아서 자금이 들어오고 인재들을 뽑기 시작하거든요. 큰 돈을 투자 받고나면 초반에 멤버들은 다 제너럴리스트였다는걸 깨닫습니다. 정말 전문가들이 필요한 시점이 옵니다. 스페셜리스트들이 필요한 시점이 오거든요. 정말 뾰족하고 그쪽에 최소 경력 10년 이상인, 이름 대면 알 만한 성과도 내셨던 분들이 필요한 시점이 옵니다. 이런 분들은 스타트업 성장에 꼭 필요하다라고 생각합니다. 스푼라디오도 저 빼고 경영진 여섯 분이 각 카테고리별로 해당 영역에서 저보다 뛰어난 분들이거든요. 나보다 똑똑한 사람을 채용해서 회사에 도움이 되고, 기여를 해야합니다. 근데 인식은 하는데 그렇게 안 하는 대표님들이 있으세요. 회사에서 내가 제일 똑똑하고 내가 제일 잘 났고 내가 제일 이 비즈니스를 잘 알고. 그건 10명, 20명일 때까지인 것 같고요. 회사가 이제 투자를 받기 시작하면 나보다 뛰어난 사람을 회사에 어떻게 합류시키냐가 그 회사의 생존과 성장을 좌우한다고 봅니다””스타트업이 성공할 확률이 1% 미만이거든요. 99%의 회사들은 실패를 한다는 이야기인데, 그 성공한 1%의 회사들도 99%와 마찬가지로 99번의 실패를 맞닥드립니다. 통할 것 같다는 가설이 실제로 해보면 동작하지 않는 상황, 그걸 저는 실패라고 봅니다. 작고 빠르게 실패하라는 얘기가 그래서 있는 것 아닐까요. 실패를 성장의 과정으로 받아들여야지, 실패했을때 자괴감에 빠지진 말았으면 합니다. 다만 실패를 했을 때 주변의 손가락질은 어쩔 수 없습니다. 한국 사회가 아직도 실패를 용인하지 않습니다. 멀쩡히 다니던 회사 다니지 왜 창업을 해서 그러냐는 얘기를 많이 들어보셨을 텐데, 그런 것들은 그냥 무시하고 ‘실패의 횟수를 거듭할수록 성공 확률은 점점 올라간다’라고 긍정적인 접근을 하는 게 좋습니다. 나만 겪는 게 아니라 모든 창업자가 실패를 거치고서야 성장과 성공을 하니까요.” 류중희 퓨처플레이 대표 “우린 모두 공범”							”인생, 그리고 인류의 어떤 진화가 되게 가혹하기도 한데, 뭔가를 다 이루었다. 이제 끝까지 왔다. 라고 느낄 때 다시 원점으로 돌아가게 돼 있어요. 왜 그럴까를 생각해보면 스타트업은 고속성장을 하는 조직이라 얘기를 하고 혁신을 하는 조직이라고 얘기하는데 혁신이라는게 뭐냐는 거죠. 이노베이션이라는게 뭘까. 현상을 부정하는 거잖아요?‘지금 이게 기정사실이야, 내가 태어날 때부터 이렇게 생겼어이, 자본주의는 민주주의는, 인류의 삶이란 건 원래 이렇게 생겼어’에 대해 “어, 난 아닌 거 같은데? 난 다르게 설계할 수 있는데?”라고 부정하면서부터 시작하는데. 처음에 10년 전에 스타트업 생태계는 그 부정에서부터 시작했어요. 왜냐면 아무것도 없었기 때문에. 누구나 뭐라도 할 수 있는 시기였죠. 근데 지금은 아까 말씀드린 것처럼 그 10년 전 부터 성장한 스타트업들이 이제는 권력이 됐기 때문에, 이젠 나도 옛날에 배민처럼 토스처럼 당근마켓처럼 시작하지 않으면 망할 것 같은 거예요.그리고 내가 충분한 준비가 안 된 사람이 스타트업 할 수 있나? 지금 스타트업 창업하는 분들 보면 ‘제가 아무것도 안 갖고 있는데 진짜 천둥 벌거숭이로 하겠습니다!’ 이런 분들은 대부분의 사람들이 관심을 안 가지죠. 네카라부캐 팀장급들이 나와서 창업을 하는데요. 돈은 안정적인 곳을 찾아갈 수밖에 없습니다. 그런데 이게 반복되면 어떤 현상이 일어나죠? 혁신은 줄어들어요.배민이 나왔다, 그러면 배민만큼의 혁신을 낼 회사가 또 나와야 되는데 아이러니하게도 그 위치는 배민이 차지하고 있기 때문에 배민 짭밖에 안 나오는 거죠. 이게 반복되면 혁신은 줄어들고 혁신이 줄어들면 혁신이 만드는 부가가치도 줄어드니까, 생태계가 완전히 다 전체적으로 무너지는 시기가 와요 지금이 그 시기라고 봅니다.”사실 이거를 뭐 방조했다고 볼 수도 있고 같이 공진화했다고 볼 수도 있는데, 자본시장에서 정말 이게 혁신인가에 대한 고민을 하지는 않았어요. 스타트업 자본시장에 있는 사람들이 고민해야 될 문제라고 생각해요. 누구 하나의 잘못이라고 생각하진 않아요. 자연스럽다고 볼 수도 있어요. 어떤 회사의 가치가 유니콘이고 1조야, 라고 했을 때 그 1조의 가치는 객관적이고 명확한게 아니에요. 그냥 시가가 1조인거죠. 내가 광어회를 먹으러 갔는데 광어가 잘 안나면 광어 한 마리가 100만원일 수 있는 거고, 광어가 풍어야, 그러면 뭐 만원일 수도 있는 거 잖아요.10년 전에 우리 마음 속에는 ‘아 나는 1조짜리 회사야’ 이게 마음속에 있었던게 아니었던 거예요. 그냥 ‘난 이걸 하고 싶어 난 이걸 하는게 너무 즐거워 이걸 해서 사람들이 즐거워하는 걸 보고 싶어’ 해서 시작한 사람들이 아까 말한 그 10년의 과정을 거치면서 이제는 ‘우리 회사가 8천억이야 9천억이야 1조야’ 이거에 더 목을 매기 시작했어요. 지금은 다시 진짜 본질적인 가치가 얼마냐. 이에 대한 사람들간에 고민이 일어나고 있는 시기입니다.(태용님의 질문 : 2010년대 베스트 3 스타트업을 꼽으라면?)“먼저, 쿠팡을 꼽아야 될 것 같아요. 회사의 국적이 어디냐 뭐 이런 논란이 있긴 하지만 한국 시장을 바탕으로 완전히 바닥부터 스타트업 방식으로 성장해서 뉴욕 증시에 상장해서 글로벌 생태계와 한국을 연결한 어떤 사례를 만들었다는 것. 굉장히 다른 게임을 만들었다고 생각해요. 그래서 쿠팡의 사례는 우리가 굉장히 많이 좀 곱씹어 봐야 될 사례인 거 같고요.그 다음 스푼 라디오를 꼽고 싶어요. 왜냐면 스푼 라디오가 진짜 오래된 회사거든요. 만땅이라고 분리형 배터리가 있을 때, 그 배터리 딜리버리 하는 것부터 시작하셨고 그냥 지난 10년간 한국 스타트업이 살아남는 것에 대한 어떤 정석을 보여준 그런 회사로 보이기 때문에요. 어떤 생존의 상징으로서는 스푼 라디오를 꼽고 싶고요.세 번째는 서울로보틱스예요. 한국의 스타트업 생태계가 글로벌라이제이션이 안 되고 있다는 이야기를 많이 했어요. 서울로보틱스는 정말 세계에 있는 온라인으로 만난 어떤 청년들이 창업을 하는데, 그냥 그 창업을 대한민국 서울에서 하는게 좋겠어.그렇게 회사 창업을 했고 그래서 공용 용어로영어를 쓰고 있고, 고객은 뭐 bmw고. 아무렇지도 않게 세계 무대에서 플레이를 하는데 그걸 가능하게 한 힘은 그냥 테크놀로지. 전세계에서 제일 좋은 (자율주행) 테크놀로지를 갖고 있기 때문이에요. 지난 10년간 뭐 한국뿐만 아니라 전 세계 IT 업계, 스타트업 업계를 지배하던 철학은 이거였어요. ‘우리가 더 나은 기술을 만들고 더 나은 플랫폼을 만들면 인류가 행복해질 거야’라는 가설이 있었거든요.그런데 아이러니하게도 우리는 아무것도 못 바꿔요. 우리가 바꿀 수 있는 거는 본질적으로 없다는 것을 저는 받아들이는게 핵심인 것 같아요. 왜냐면 당연히 우리는 뭘 바꿀 수 있는데, 우리 한 명 한 명의 삶이나 욕망에도 우리가는 계속 고통스러워하고 고민을 하잖아요. 하지만 이것들이 어떤 시스템으로 해결되지 않는구나라는 것. 지난 10년간 우리는 배운 것 같아요.예를 들면 트위터나 페이스북이나 인스타그램을 처음 만든 사람들은 와 이걸 이용해서 빛의 속도로 우리가 서로 소통하고 교통할 수 있어라는 생각으로 만든 거 잖아요. 그런데 거기는 지금 혐오의 메시지가 넘쳐나고 자기랑 똑같은 생각을 가진 사람들의 글만 찾아 읽는 아수라장이 되어 있죠. 최근 일런 머스크가 벌인 일도 생각해보면요. 또 예를 들면 ‘집에서도 음식을 배달해 먹을 수 있어 물건을 하루 만에 새벽배송 받을 수 있어 이게 얼마나 편리한 세상인가!’라고 생각하지만 거기는 긱이코노미의 뭐 굉장히 어려운, 우리가 감당해야 되는 물리적 시스템이 생겼고요. AI가 나와서 결국 우리를 현혹해서 조금이라도 물건을 더 사게 하는 그런 방향으로 진화하고 있죠.블록체인이 나왔잖아요? 기술은 탈중앙화가 됐어요. 그럼 기술이 탈중화가 되면 세상이 탈중화가 되고 민주적인 사회가 오냐. 그건 아니라는 거예요. 인간의 욕망은 탈중앙화가 안 됐거든요. 인간의 욕망은 중화가 돼 있죠 내가 남보다 더 돈을 많이 벌어야 되고 잘 먹고 잘 살아야 되고 부자가 되고 싶은데 그런 훌륭한 기술을 활용해서 이기적인 행동을 하려는 것은 너무 자연스러운 거예요.그래서 결국 우리는 뭘 보고 있죠? 전쟁이 일어나고 있고 전 세계적으로 굉장히 강성인 정부들이 정권을 잡고 있고 경제는 지금 한참도 모르는 상황으로 가고 있고 미국조차도 이기적으로 달러를 풀고 있고. 뒤에 사실 훨씬 더 큰 위기가 있죠. 환경 위기. 지금 내가 당장 플라스틱 빨대를 쓰는게 더 유리하기 때문이죠. 우리가 ESG 스타트업에 투자한다고 이게 해결될 것 같으세요? 전혀 그렇지 않아요. 모든 것은 본질적인 인간의 이기심 혹은 인류가 아직 성장하지 못했다는 거에 대한 자각을 잃어버린 것. 저는 그 결과라고 생각해요 근데 냉정하게 판단해보면 저도 그 공범 중에 하나지만 스타트업도 이 사태의 공범이고요.지금 이 굉장히 엉망진창이 되어 있는 상황을 우리가 직시하지 않으면 앞으로 10년 동안 스타트업이 뭘 해야 될지 여러분들이 무슨 아이템으로 창업해야 될지 어떻게 성장을 해야 될지조차 정의하기 어렵다는 거예요. 옛날처럼 1년 만에 10배 성장하겠습니다. 기업가치 1조로 만들겠습니다. 그게 인류의 삶에 무슨 가치가 있는데? 이제 과거의 시대는 끝났다는 거예요. 그러니까 그냥 그 뭐랄까 올림픽에서 금메달 따면 상주는 것처럼 1등하면 금메달 주는 거 같은 그런 어떤 숫자를 더 많이 쌓으면 뭔가 부가가치가 커지는 시대는 이제는 끝난게 아닌가. 그래서 굉장히 큰 패러다임 시프트라고 생각해요.우리가 가슴에 손을 얹고 생각을 해봐야 되는 거는 우리가 뭐 위에 올라가 있냐는 거예요. 굉장히 큰 현금 유동성, 어마어마한 돈잔치 위에 있었고 스마트폰이라는 어떤 플랫폼의 혁명 위에 있었어요. 그래서 여러가지 위에 있었기 때문에 우리가 뭐 어플리케이션 하나를 만든다던가 테크놀로지 하나를 만들어서 엄청난 부가가치를 만들었는지 잘 눈에 안 보였어요. 그냥 우리 회사가 그냥 1조냐, 2조냐. 이거에 집중했단 말이에요. 근데 이제는 이게 다 태초마을로 돌아가서 ‘진짜로 네가 인류의 기여한게 뭐야? 금전적 가치가 아니라 진짜 사람들의 행복에 총합으로서 얼마를 기여했어’를 당당하게 얘기할 수 있고, 저는 일을 하는게 사람들을 정말 다르게 살게 만들어 주기 위해서라고 믿기때문입니다. 라고 얘기하는 사람만 살아남을 거라는 거예요. 저는 여기 돈 벌러 왔는데요라는 사람은 당분간 살아남기 어려운 시절이 지속될 수밖에 없다. 왜냐면 내가 기대하는 돈의 가치는 떨어질 거니까요.” [오늘의 무료 콘텐츠는 여기까지이고, 전문은 유료 구독자에게 공개합니다. 유료 구독자는 2021년 3월 이후에 발행한 모든 콘텐츠를 볼 수 있습니다. 아래는 전문에 나온, 부제와 질문, 사진, 그래픽입니다. 유료 가입 https://page.stibee.com/subscriptions/158656 입니다. 감사합니다.]이영 중소벤처기업부 장관 “연말 50조원 금융지원 정책 발표” “중소벤처기업부에서 규제를 개혁하기 위해서 어떻게 썼냐면......”“한 예로 우리 비대면 의료가 아직도 불법인 것 아시죠?”“‘장관님 저희 테스트 다 끝났고요. 제품도 다 나왔는데요. 한국에서 팔려고 하니까 불법이랍니다.....”“벤처 펀드가 8조 3천억이 지금 있습니다.....”“매년 창업하시는 기업들 중에 실제 vc로부터 투자를 받는 기업이 한 2% 밖에 안 됩니다.....”“딥테크 기업들이 (이런 혹한기에는) 어려움에는 더 큽니다. 왜냐하면....”  https://chosun.app.link/up 안전한 조선일보 앱 다운 링크를 많이 많이 공유해주세요.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.11.12.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>"코인판 리먼·엔론 사태"…FTX 개미투자자, 돈 몽땅 날릴 수도</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013571049?sid=104</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>캐나다 연금, 싱가포르 국부펀드, 일본 소프트뱅크도 돈 물려헤지펀드·코인업체, 수천억원 손실처리…금융권 전체 위기확산 우려FTX  로고와 가상화폐 모형 이미지[로이터 연합뉴스. 재판매 및 DB 금지](로스앤젤레스=연합뉴스) 정윤섭 특파원 = 한때 세계 3위에 달했던 가상화폐거래소 FTX가 11일(현지시간) 파산 신청을 하면서 거센 후폭풍이 휘몰아칠 전망이다.    11일(현지시간) 워싱턴포스트(WP) 등 외신에 따르면 FTX의 이번 파산 신청은 '코인판의 리먼 사태'이자 '엔론 사태'로 불릴 정도로, 가상화폐 시장을 넘어 금융시장 전반에 영향을 미칠 수 있다는 관측이 나온다."개인 투자자, 기관보다 채권 회수 순위서 밀릴 듯"    델라웨어주 파산 법원에 제출된 서류에 따르면 FTX는 최대 500억 달러(66조2천억 원) 부채를 안고 파산을 신청했고, 채권자는 10만 명이 넘는다.    FTX는 보유 자산도 부채 규모와 동일하다고 법원에 신고했으나 정확한 실사를 거쳐야 한다는 게 업계의 공통된 평가다.    FTX와 어떤 형태로든 금융 거래를 한 이해 당사자는 벤처캐피털과 연기금, 코인업체는 물론 개인 투자자와 유명인들에 이르기까지 광범위하다.    이중 가장 취약한 당사자는 개미투자자다. 코인 거래를 위해 FTX에 돈을 예치해뒀던 개인 투자자들이 한 푼도 건지지 못하고 몽땅 날릴 수 있다는 관측까지 나오고 있다.     블룸버그 통신은 "코인 거래소에 돈을 맡겼거나 심지어 저축 용도로 돈을 둔 일반인들이 가장 깊은 상처를 입게 될지도 모른다"고 지적했다.FTX에 투자한 소프트뱅크그룹의 손정의 회장[교도 연합뉴스 자료사진. 재판매 및 DB 금지]투자은행 오펜하이머의 오언 라우 애널리스트는 FTX 소매 고객이 무담보 채권자로 분류될 수 있다며 이럴 경우 기관 투자자보다 채권자로서 우선순위가 낮아져 돈을 잃게 될 것이라고 분석했다.    개인 투자자들은 트위터 등에 글을 올려 "평생의 저축이 FTX에 묶였다", "내가 힘들게 번 돈을 찾을 수 있을지 모르겠다"고 하소연했다.캐나다 연금부터 일본 소프트뱅크까지 수천억 원 물렸다    FTX 투자로 손실이 예상되는 기관 투자자도 광범위하다.    지난 1월 FTX 투자금 조달에 참여한 캐나다 온타리오 교사 연금, 싱가포르 국부펀드 테마섹, 소프트뱅크의 비전펀드, 헤지펀드 타이거 글로벌과 라이트스피드 벤처 파트너스 등은 각각 수백억 원에서 수천억 원 돈을 떼일 가능성이 크다.    7천500만 달러(약 990억 원)를 투자한 온타리오 교사 연금은 전날 성명을 내고 손실 가능성을 인정했다.    헤지펀드 세쿼이아 캐피털은 이미 2억1천400만 달러(2천800억 원) FTX 투자금의 장부 가치를 0달러로 만드는 등 전액 손실 처리했다.    헤지펀드 스카이브릿지 캐피털 창립자인 앤서니 스카라무치는 FTX가 자사 지분 30%를 보유하고 있지만, 이 지분을 다시 사들여 FTX와 관계를 정리할 계획이라고 밝혔다.    FTX 위기가 다른 업체로 번질 경우 금융시장 불안정성은 더욱 커질 수 있다.    블록체인 데이터 제공업체 앰버데이터의 파생상품 디렉터 그레그 마가디니는 "당장의 큰 공포는 전염 효과"라고 우려했다.FTX  광고에 출연한 미국프로풋볼 스타 톰 브래디[AP 연합뉴스 자료사진. 재판매 및 DB 금지]코인업체 직격탄. 일부 자금인출 중단…톰 브래디 등 유명인도 손실    FTX와 금전 거래를 해온 코인 업체들은 직격탄을 맞았다.    FTX로부터 한때 자금 지원을 받았던 코인 대부업체 블록파이는 유동성 위기에 고객의 자금 인출을 중단했다.    가상화폐 업체 제네시스 트레이딩은 FTX 계좌에 1억7천500만 달러(2천300억 원) 자금이 묶였다고 발표했다.    코인 억만장자 마이크 노보그래츠 갤럭시디지털 최고경영자(CEO)도 FTX 관련 자금 7천700만 달러(1천억 원)를 회수하지 못할 것으로 예상했다.    이와 함께 FTX의 계열투자사 'FTX 벤처'는 헬륨, 앱토스 랩스, 니어 프로토콜 등 50개 가상화폐 프로젝트에 투자했기 때문에 이들 스타트업들도 FTX 파산 신청으로 재정적 타격을 입을 것으로 보인다.    미국프로풋볼(NFL) 스타 톰 브래디와 모델 지젤 번천은 FTX 광고에 출연하고 지분을 받았으나 그 가치는 휴짓조각이 될 것으로 보인다.래리 서머스 전 미국 재무장관[EPA 연합뉴스. 재판매 및 DB 금지]CNN "리먼 사태의 순간"…서머스 전 재무 "엔론 사태 같은 사기"     FTX 파산 신청이 코인 업계를 넘어 수많은 금융 기관 투자자와 연관돼 있기 때문에 이번 사건이 코인판의 리먼 사태로 번질 수 있다는 우려도 제기되고 있다.         CNN 방송은 2008년 전 세계에 충격을 준 투자은행 리먼브러더스 파산 사태에 빗대 FTX 붕괴가 '리먼 모멘트'라는 분석이 나온다고 전했다.    래리 서머스 전 미국 재무장관은 FTX 몰락을 2001년 회계 부정으로 파산한 에너지 기업 엔론 사태에 비유하면서 "금융상 오류가 아니라 사기 냄새가 난다. 거대한 (코인) 재산이 어디서 비롯됐는지 아무도 잘 이해하지 못한 상황에서 폭발했다"고 비판했다.    홍콩에 본사를 둔 암호화폐 투자회사 문볼트 파트너스의 샨 준 폭 공동창업자도 "많은 사람이 FTX를 일종의 금본위제 기관으로 여길 정도로 신뢰했다"며 FTX 붕괴를 엔론 스캔들에 빗댔다.    jamin74@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.11.09.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>다야몬즈, 배구 게임 '하이큐 터치 더 드림' 사전예약 실시</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000709085?sid=105</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>일본 애니 원작…나만의 배구 드림팀 만드는 재미[사진=다야몬즈]다야몬즈(대표 김동균)는 모바일 게임 '하이큐: 터치 더 드림' 사전예약을 시작한다고 9일 발표했다.하이큐: 터치 더 드림은 배구 소재의 일본 스포츠 애니메이션 '하이큐' IP를 기반으로 한 스포츠 게임이다. 원작 애니메이션에 등장하는 주요 인물이 SD 캐릭터로 구현됐으며 배구 경기의 핵심이라 할 수 있는 서브, 리시브, 토스, 스파이크, 블로킹 등의 스킬을 통해 전략적이고 박진감 넘치는 경기를 즐길 수 있다.이 게임은 연내 한국에서 정식 서비스를 시작할 예정이며 지홀딩스(대표 이준구)가 판권 관리와 일본 서비스를 맡으며 다야몬즈가 게임 개발과 한국 및 아시아 지역 퍼블리싱을 담당한다.원작인 하이큐는 2012년부터 일본 만화 잡지 '소년 점프'에 연재돼 시리즈 누계 발행 부수 5천500만부를 돌파한 인기 작품을 2014년에 애니메이션화한 작품이다. 주인공 '히나타 쇼요'가 팀원들과 함께 전국 대회 우승을 목표로 성장해 나가는 청춘 배구 이야기를 그려냈다.김동균 다야몬즈 대표는 "스포츠 애니메이션의 신드롬을 일으켰던 하이큐는 일본 뿐 아니라 국내에도 두터운 팬 층이 있을 만큼 매력적인 IP"라며 "하이큐 주인공들이 선보이는 가슴 뜨거운 도전과 감동의 순간을 선보일 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.11.15.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>한양언론인회 ‘제17회 한양언론인상’ 수상자 선정</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002541326?sid=102</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>왼쪽부터 현상순 아시아경제 회장, 이수형 법률신문 대표이사, 송기용 머니투데이 편집국장.  한양대 출신 언론인 모임인 한양언론인회(회장 손현덕)는 오는 22일 오후 7시 서울 중구 프레지던트호텔에서 열리는 창립 24주년 ‘제18회 한양언론인의 밤’ 행사에서 △언론부문 ‘제17회 한양언론인상’ △대외부문 ‘2022 한양을 빛낸 동문상’ △승진 및 취임한 동문에게 축하패를 함께 시상한다.제17회 한양언론인상 수상자는 현상순 아시아경제 회장, 이수형 법률신문 대표이사, 송기용 머니투데이 편집국장을 선정했다.‘2022 한양을 빛낸 동문상’ 수상자는 천경준 씨젠 회장, 고춘홍 이브자리 회장, 김동연 일양약품 대표이사 사장, 김희근 벽산엔지니어링 회장, 김형일 ㈜한양 부회장, 이방수 LG에너지솔루션 대표이사 사장, 전해상 도레이첨단 대표이사 사장, 황현식 LGU플러스 대표이사 사장, 나희승 한국철도공사 사장, 성대규 신한라이프 대표이사 사장, 김성익 SK 대표, 윤호영 카카오뱅크 대표이사 사장, 김민표 토스페이먼츠 대표, 김민영 넷플릭스 부사장, 김혜연 엔씽 대표, 장지호 닥터나우 대표 등 총 16명으로 상패를 수여한다.축하패는 김세환 경기신문 대표이사 사장, 김정호 한국경제 사장, 고진갑 뉴스웍스 대표이사, 서기찬 위키트리 편집국장, 박홍규 한국면세뉴스 사장, 오종석 아주경제 총괄사장, 이규석 비즈트리뷴/S-저널 대표이사, 고규대 이데일리 상무, 박선호 CEO스코어데일리 편집국장, 배진영 조선뉴스프레스 월간조선 편집장, 김원철 e내외경제TV 대표, 이호정 서울신문 상무, 이근형 굿모닝경제 편집국장, 전경윤 불교방송 보도국장, 조준원 언론중재위원회 사무총장, 남화영 JTBC플러스 취재사업본부장, 정창원 MBN 시사제작국장, 김기남 여행신문 대표이사, 강종구 연합뉴스 인천취재본부장, 이직 베타뉴스 대표, 안길수 인사이트 대표, 최지혜 열린뉴스통신 편집국장 등 20여 명의 동문에게 전달할 예정이다.한양언론인회는 현재 국내외 언론사에 한양대학교 학부 졸업생 1000 여 명의 동문이 소속돼 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.11.09.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>'코인런' FTX 유동성 위기에 암호화폐 시장 또 '패닉' [코인 스캐너]</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004772624?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>FTX·알라메다 핵심 자산 FTT 80% 폭락 FTT 담보 코인·대출 줄줄이 부실 우려 "루나·셀시우스 사태 재현될라"비트코인 2년 만에 최저치로 FTX 코인런 불붙인 바이낸스 "FTX 인수"글로벌 암호화폐거래소 FTX가 촉발한 유동성 위기로 코인 시장이 또 한 번 폭락했다. 세계 1위 거래소 바이낸스의 최고경영자(CEO) 창펑 자오가 "이용자 보호를 위해 FTX 인수 작업에 착수했다"고 밝혔지만 거래 성사에 대한 의구심이 제기되며 암호화폐 시장 전반이 흔들렸다.FTX의 자체 토큰인 FTT 가격은 80% 폭락했고 비트코인, 이더리움 등 주요 코인 가격도 하루 만에 10% 안팎 급락했다. 비트코인 가격은 1만9000달러 밑으로 다시 떨어져 약 2년 만에 최저 수준으로 내려앉았다. 업계에서는 이번 일이 테라USD·루나 사태, 셀시우스발 위기에 이어 또 한 번 시장 혼란을 가져올 수 있다는 우려도 나온다. FTX와 그 모회사 격인 헤지펀드 알라메다 리서치에 돈을 대줬거나 투자를 받은 곳들도 줄줄이 타격을 받을 수 있기 때문이다. FTX는 지난 사흘 사이 60억 달러(약 8조3000억 원)의 '코인런'을 겪고 모든 이용자의 암호화폐 출금을 중단했다. 9일 암호화폐 시황 사이트 코인마켓캡에 따르면 이날 오전 10시30분 기준 비트코인은 24시간 전보다 10.4% 하락한 1만8459달러에 거래됐다. 비트코인 가격이 1만8000달러대로 떨어진 것은 2020년 12월 이후 약 2년 만이다. 이더리움 가격도 24시간 만에 15.6% 급락해 1325달러에 거래됐다. 다른 알트코인(비트코인 이외 암호화폐)도 일제히 하락했다. 특히 FTX와 그 창업자 샘 뱅크먼프리드가 강력하게 지원해온 솔라나(SOL)는 24시간 만에 20.3% 급락했고, FTX벤처스의 투자를 받은 앱토스도 22.6% 떨어졌다. '파산' 셀시우스 닮은꼴 알라메다-FTX  FTT 80% 급락에 유동성 위기 일파만파FTX가 자체 발행하는 유틸리티 토큰 FTT는 76% 폭락했다. FTT는 이번 FTX발 유동성 위기의 핵심에 있는 토큰이다. 지난 2일 코인데스크는 알라메다의 내부 보고서를 인용해 "알라메다의 대차대조표상 총자산이 대부분이 FTT로 채워져 있다"며 "FTT를 담보로 많은 활동이 벌어지고 있다"고 보도했다. 게다가 알라메다가 보유한 58억 달러어치 FTT는 총 발행량의 80%로 알려졌다. 알라메다는 샘 뱅크먼프리드가 FTX를 창업하기 전에 설립한 헤지펀드다. FTX와 사실상 한 몸으로 여겨진다. 시장에서는 FTX가 FTT를 발행하면 알라메다가 그 대부분을 매입해 가격을 올리고, 대차대조표상 이익을 얻은 것처럼 꾸미는 식으로 몸집을 불려온 게 아니냐는 의혹이 제기됐다. 더욱이 알라메다는 그 FTT를 담보로 여러 곳에서 대출과 투자를 받았다. FTT의 가격이 무너지면 알라메다, FTX를 시작으로 줄줄이 부실이 번질 수 있다는 우려가 번진 것이다. 창펑 자오는 이 우려에 불을 붙였다. 그는 지난 5일 자신의 트위터를 통해 "작년 FTX 지분을 매각하며 받은 21억 달러(약 2조9000억 원) 상당의 BUSD와 FTT 중에서 바이낸스 장부에 남아있는 모든 FTT를 청산하기로 했다"고 밝혔다. 이어 FTX와 알라메다의 FTT 거래 구조를 지적하며 "루나 사태에서 배운 리스크 관리의 일환일 뿐"이라고 첨언했다. 바이낸스가 이미 5억8000만 달러 상당의 FTT 2300만 개를 이미 바이낸스 지갑에서 빼낸 것도 포착됐다. 샘 뱅크먼프리드 FTX 창업자.샘 뱅크먼프리드는 "FTX는 괜찮다"며 시장 달래기에 나섰지만 효과는 없었다. 투자자들은 앞다퉈 FTX에서 자산을 빼내는 '코인런'에 나섰고, FTX가 인출 중단을 반복하며 파산 우려가 커졌다. 업계에서는 샘 뱅크먼프리드의 적극적인 정계 로비와 암호화폐 규제 찬성, FTX의 자체 스테이블코인 발행 시도 등에 자극을 받은 창펑 자오가 경쟁자 제거에 나선 것 아니냐는 해석도 내놓는다. 뱅크먼프리드는 루나·셀시우스 사태 이후 유동성 위기에 빠진 시장에 구제금융 역할을 자처하고 지분을 사들이며 업계 장악력을 높여왔다. 블록체인 업계의 한 관계자는 "바이낸스가 오로지 리스크 관리만을 위해 FTT를 매도할 것이었다면 굳이 사전 예고를 날려 가격을 급락시킬 유인이 없다"며 "FTT 붕괴를 통해 FTX를 약화시키는 것도 목적이었을 것"이라고 분석했다. 바이낸스 "FTX 인수 착수"...법적 구속력 無창펑 자오 바이낸스 최고경영자(CEO).시장 혼란이 커지자 창펑자오는 8일(현지시간) 트위터를 통해 "FTX에 중대한 유동성 경색이 발생했고 (바이낸스에) 도움을 요청했다"며 "이용자를 보호하기 위해 FTX를 모두 인수하는 목적의 LOI(인수 의향서)를 작성했다"고 밝혔다. 하지만 이 LOI는 "법적 구속력이 없는 것"이라며 바이낸스는 언제든지 이번 거래에서 손을 뗄 재량권이 있다고 강조했다. 불과 하루 전 "FTX는 괜찮다"고 했던 샘 뱅크먼프리드도 "현재 정리 작업 중이며 유동성 경색을 해결할 것"이라며 창펑 자오와 바이낸스에 감사를 표했다. 바이낸스의 '구조' 가능성에 비트코인 가격은 한때 2만 달러 위로 반등했다. 하지만 시장의 안도는 오래 가지 않았다. 양사의 인수 의향서에는 법적 구속력이 없으며, 설사 인수가 성사되더라도 상당한 장기전이 될 수밖에 없다는 점이 주목받으며 시장은 다시 하락 반전했다. 크립토컴페어의 데이빗 모레노 다로카스는 블룸버그에 "인수 의향서에는 아무런 구속력이 없다"며 "다른 이슈가 제기되면 창펑 자오와 바이낸스가 언제든 거래에서 발을 뺄 수 있다는 뜻"이라고 했다. 업계에서는 이 사태가 FTX와 알라메다의 부실에서 그치지 않을 것이란 우려를 내놓고 있다. FTT의 가격 급락이 계속되면 알라메다가 FTT를 담보로 받은 대출과 알라메다에 투자한 벤처캐피탈도 줄줄이 부실화할 수 있기 때문이다.가상자산 펀드인 아르카의 제프 도먼 최고투자책임자는 CNBC에 "FTT 가격 하락이 이어지면 알라메다는 마진콜과 모든 종류의 압력에 직면하게 될 것"이라고 했다. 암호화폐 트레이딩업체 오안다의 에드 모야는 "신뢰의 위기가 다시 왔다"며 "암호화폐 업계 핵심 인물과 관련된 자산이 불안정해지면 위기가 시장 전반에 전염될 수 있다"고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.11.11.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>토스뱅크서 SKT 자동납부 통신비 3000원 지원</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004120974?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>12월 3일까지 신청 가능[서울경제] 토스뱅크가 SKT 고객들의 통신요금을 일부 지원하는 프로모션을 시작한다고 11일 밝혔다. 프로모션 대상은 토스뱅크 ‘자동납부 서비스’를 통해 통신 요금을 납부하는 SKT 고객이다. 프로모션 이용시 최대 3000원의 통신요금이 지원된다. 신청 기간은 12월 3일까지로 고객 1인당 1회 참여 가능하다. 이미 토스뱅크를 통해 통신요금을 납부 중인 SKT 고객은 프로모션에서 제외된다.토스뱅크는 고객이 카드대금, 각종 보험료, 통신요금, 아파트 관리비 등 다수의 자동납부를 관리하는 데 불편을 겪고 있는 점을 고려해 ‘자동납부 서비스’를 운영 중이다. 현재 토스뱅크 고객 20만 명이 이용하고 있다. 일단 등록하고 나면 관련 내역을 토스뱅크 한 곳에서 확인하고 연체도 사전에 막을 수 있다.토스뱅크는 은행권 최초로 ‘다른 계좌로 연체 막기’ 기능도 도입해 운영하고 있다. 고객들은 토스뱅크 계좌 내 대금을 납부할 잔액이 부족하더라도 사전에 등록한 타행 계좌 내 예치금을 통해 부족분을 연체 없이 내게 된다. 각종 연체로 고객들의 신용도 하락을 방지하기 위한 취지다. 고객들은 언제든지 필요에 따라 해당 기능을 ‘ON/OFF’ 할 수 있다. 다른 계좌로 연체 막기 기능을 이용 중인 고객 6명 중 1명(16%)은 연체 및 연체에 따른 신용도 하락 문제를 예방한 것으로 토스뱅크는 파악했다. 또 대금 납부일마다 ‘자동납부 미리알림’ 앱 푸시 메시지가 발송돼 고객들은 언제, 어떤 명목으로, 얼마의 대금이 지출되는지도 확인할 수 있다.. 토스뱅크 관계자는 “각종 대금 납부 연체로 인해 발생하는 문제까지 토스뱅크가 세세히 주목한 결과 고객들의 신용도 하락 등 문제를 사전에 막을 수 있었다”며 “이번 프로모션을 통해 더 많은 고객들이 자동납부 서비스를 이용하고, 편리성과 함께 연체 리스크로부터 자유로워질 것으로 기대한다”고 말했다. 자동납부 서비스는 토스뱅크 앱 내 ‘상품 찾기’ 탭, ‘자동납부 등록하기’를 통해 365일, 24시간 이용 가능하다. 클릭 한 번으로 자동납부할 은행을 옮길 수 있다. 약 5영업일 내 토스뱅크를 통해 일원화된 관리를 받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.11.11.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>플랫폼 기업들 C레벨 경영진에 '80년대생' 발탁...이유는?</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002273352?sid=105</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>"MZ 세대와 소통하고 해결책 제시할 수 있는 젊은 리더 필요"인사 시즌을 맞아 주요 플랫폼 기업들의 인사가 주목받고 있다. 최근 재계를 중심으로 1980년대생 임원 선임이 활발하게 진행되는 가운데, 소비 트렌드에 민감한 플랫폼 기업들도 임원뿐 아니라 C레벨 경영진에까지 1980년대생 인재들을 영입하고 있다.플랫폼 기업들이 선제적으로 80년대생 C레벨 인재를 발탁하고 있는 것은 산업 특성과 연관이 있다. 트렌드가 급변하는 산업 성격상 주 고객층인 MZ 세대와 공감대를 형성하고 솔루션을 제공할 수 있는 젊은 리더를 필요로 해서다.80년대생은 소비·IT 트렌드 등에 대한 이해도가 높아 소비자 중심 사업 전략을 수립하는 데 유리하다. 또 조직 안에서도 세대로 시니어급과 주니어급을 아우르기에 적합하다는 평을 받는다.(제공=이미지투데이)■ 위메프·야놀자, 80년대생 CPO 타 업종서 영입80년대생 C레벨 인재를 선임한 대표적인 플랫폼 기업으로는 먼저 위메프가 있다. 위메프는 이달 초 김동민 CPO(최고제품책임자)를 영입했다.83년생인 김동민 CPO는 삼성전자, 토스(비바리퍼블리카)를 거쳐 토스증권의 창립 멤버이자 이사회 보드멤버로 커리어를 쌓았다. 토스증권에서 초보 투자자 대상 신규 서비스 전략을 마련, 출시 6개월 만에 이용자 400만 명을 확보하는 등 큰 성과를 일궈냈다.위메프 김동민 CPO위메프는 김 CPO의 전문성과 젊은 감각을 활용해 MZ 세대의 요구를 적극적으로 반영, 이용자 관점의 차별화된 쇼핑 플랫폼으로 나아간다는 전략이다.야놀자 역시 지난 9월 아마존 출신인 이찬희 CPO를 영입해 플랫폼 강화에 나선다. 81년생인 이 CPO는 아마존에서 이커머스 부문 글로벌 진출 및 글로벌 스토어 확장 총괄 등을 역임한 프로덕트 전문가로 아마존의 해외 확장 전략을 주도했다.야놀자는 이 CPO의 글로벌 사업 확대 경험을 활용해 국내·외 여가 상품 확보 등 플랫폼 네트워크를 전 세계로 확대한다는 계획이다.이찬희 야놀자 최고제품책임자.특히 이들 CPO는 모두 업종을 변경했다는 공통점이 있다. 특정 산업 분야에 천착하는 것도 좋지만 다양한 경험을 기반으로 플랫폼에 대한 이해와 이용자 중심의 서비스 인사이트를 갖춘 역량이 더 중요하다는 플랫폼 기업들의 인식이 반영된 것으로 보인다.■ 네이버, 연령파괴 CEO·CFO 동시 선임…토스뱅크도 80년대생 OTT 전문가 영입토스뱅크는 82년생 김지웅 CSO(최고전략책임자)를 8월 선임했다. 김 CSO는 아마존과 SK텔레콤에서 각각 온라인 동영상 서비스인 아마존 프라임과 웨이브 서비스를 담당한 OTT 전문가로 알려졌다.인터넷전문은행으로서 기존 전통 은행과 다른 전략을 전개하는 토스뱅크는 김 CSO의 플랫폼 기반 전문성을 활용해 젊은 층을 타깃으로 이미지를 제고하고, 새로운 비즈니스 전략을 마련한다는 목표다.최수연 네이버 대표(오른쪽), 김남선 최고재무책임자국내 플랫폼 업계를 대표하는 네이버의 움직임은 한국 사회의 이목을 집중시켰다. 81년생 최수연 CEO를 지난 3월 신규 선임한 것. 네이버는 최 CEO 선임과 함께 78년생인 김남선 CFO(최고재무책임자)를 선임했다.네이버의 이 같은 C레벨 연령파괴는 국내 기업들의 리더십 세대교체를 앞당겼다는 평가를 받는다. 또 메이저 플랫폼 서비스로 생존하고, 발전하기 위해서는 연령과 관계없이 주요 고객층과 트렌드, 정서를 긴밀히 공유하는 인재를 중용해야 한다는 메시지도 담겨있다.플랫폼 업계 관계자는 "트렌드에 민감한 업계 특성상 주 고객층인 MZ 세대에 대한 이해도가 높고, 트렌드를 선제적으로 제시할 수 있는 젊은 리더가 속속 등장하고 있다"며 "플랫폼 업계는 진입장벽이 상대적으로 낮아 경쟁이 더 치열한 만큼, 전통 기업과 스타트업을 막론하고 80년대생, 더 나아가 90년대생 경영진이 계속해서 나타날 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.11.14.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>금결원 '제3자 결제서비스 정보보호 국제표준', ISO 표준 제정 첫 관문 통과</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002136700?sid=105</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 금융결제원(원장 박종석)과 충북대학교 산학협력단(교수 전명근)이 국제표준화기구(ISO)에 제안한 “제3자 결제서비스 정보보호 국제표준(안)이 국제표준 제정 절차의 첫 관문인 신규작업 표준안(NWIP : New Work Item Proposal)으로 채택됐다.  제3자 결제서비스란 고객의 계좌를 보유하지 않고도 고객의 명시적 동의하에 금융회사의 계좌정보에 접근, 제공하는 결제서비스로서 모바일결제, 온라인결제, 조회, 송금 및 전자지갑 서비스 등을 포한다. 이러한 서비스의 제공기관은 국외에는 페이팔, 머니그램, 월드페이, 알리페이 등, 국내에서는 네이버, 쿠팡, 토스 등이 대표적으로 꼽힌다. 세계적으로 3자 결제 서비스를 기반한 금융혁신이 활발하게 이루어지고 있는 반면, ISO 국제표준에는 제3자 결제서비스 제공기관에 특화된 별도 국제표준은 부재한 상황임에 따라 ISO 회원국들이 동 표준 개발 필요성을 절감하고 있는 상황이다. 이에 금융결제원은 제3자 결제서비스의 종류 및 특징을 반영해 제3자 결제서비스 제공기관의 정보보호 수준을 평가할 수 있는 가이드라인과 국제적 모범 사례로 구성된 국제표준을 개발할 계획이다.또, 이번 국제표준이 제3자 결제서비스 구축 및 운영에 필요한 정보보호 관련 조치사항을 총 망라한 지침서로서의 역할을 할 것을 기대하고 있다. 금융결제원은 국제표준 최종 채택 시 글로벌 제3자 결제서비스 제공기관 및 이들과 연계한 금융회사 등이 이번표준을 참조해 일관된 정보보호 관리 환경 조성이 가능할 것으로 기대하고 있다. 특히 우리나라가 제3자 결제서비스의 정보보호를 강화하는 데 글로벌 주도권을 확보할 것으로도 기대되고 있는 상황으로 금융결제원은 2025년까지 제3자 결제서비스의 정보보호 국제표준안을 마련한 후 ISO에서 최종 승인을 획득한다는 목표다. 한편, 금융결제원이 국내 금융분야 최초로 제안한 바이오인증 국제표준은 표준 개발을 위한 마지막 단계인 최종국제표준안(FDIS) 협의가 진행 중이며, 2023년 ISO 국제표준으로 승인될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.11.14.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>한양언론인회 '제17회 한양언론인상' 수상자 선정</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011535554?sid=102</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>기사내용 요약현상순 아시아경제 회장, 이수형 법률신문 대표이사, 송기용 머니투데이 편집국장22일 창립 24주년 '제18회 한양언론인의 밤' 행사서 시상(왼쪽부터) 현상순 아시아경제 회장, 이수형 법률신문 대표이사, 송기용 머니투데이 편집국장. 사진 한양언론인회 *재판매 및 DB 금지[서울=뉴시스]허서우 인턴 기자 = 한양대 출신 언론인 모임인 한양언론인회는 오는 22일 서울 중구 프레지던트호텔에서 열리는 창립 24주년 '제18회 한양언론인의 밤' 행사에서 ▲언론부문 '제17회 한양언론인 상'▲대외부문 '2022 한양을 빛낸 동문상' ▲승진 및 취임한 동문에게 축하패를 함께 시상한다.제17회 한양언론인상 수상자는 현상순 아시아경제 회장, 이수형 법률신문 대표이사, 송기용 머니투데이 편집국장을 선정했다.한양언론회가 선정한 '2022 한양을 빛낸 동문상' 수상자는 천경준 씨젠 회장, 고춘홍 이브자리 회장, 김동연 일양약품 대표이사 사장, 김희근 벽산엔지니어링 회장, 김형일 ㈜한양 부회장, 이방수 LG에너지솔루션 대표이사 사장, 전해상 도레이첨단 대표이사 사장, 황현식 LGU플러스 대표이사 사장, 나희승 한국철도공사 사장, 성대규 신한라이프 대표이사 사장, 김성익 SK 대표, 윤호영 카카오뱅크 대표이사 사장, 김민표 토스페이먼츠 대표, 김민영 넷플릭스 부사장, 김혜연 엔씽 대표, 장지호 닥터나우 대표 등 총16명의 동문에게 상패를 수여한다.축하패는 김세환 경기신문 대표이사 사장, 김정호 한국경제 사장, 고진갑 뉴스웍스 대표이사, 서기찬 위키트리 편집국장, 박홍규 한국면세뉴스 사장, 오종석 아주경제 총괄사장, 이규석 비즈트리뷴/S-저널 대표이사, 고규대 이데일리 상무, 박선호 CEO스코어데일리 편집국장, 배진영 조선뉴스프레스 월간조선 편집장, 김원철 e내외경제TV 대표, 이호정 서울신문 상무, 이근형 굿모닝경제 편집국장, 전경윤 불교방송 보도국장, 조준원 언론중재위원회 사무총장, 김기범 S-저널 편집국장, 남화영 JTBC플러스 취재사업본부장, 정창원 MBN 시사제작국장, 김기남 여행신문 대표이사, 강종구 연합뉴스 인천취재본부장, 이직 베타뉴스 대표, 안길수 인사이트 대표, 최지혜 열린뉴스통신 편집국장 등 20여 명의 동문에게 취임 축하패를 전달한다.한양언론인회는 현재 국내외 언론사에 한양대학교 학부 졸업생 1000여 명의 동문이 소속돼 있으며, 지난 1998년 11월26일 창립해 올해로 24주년을 맞는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.11.05.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>"은행에 따지면 금리 내려준다"…나만 몰랐나?[코주부]</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004118598?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>신용등급·소득·직급 등 변화 생기면 은행에 인하 요구 가능신용 상태 반영되는 대출상품이어야···은행별 '수용률'도 공개[서울경제] 치솟은 금리에 한숨 쉬고 계신 구독자님들 많을 겁니다. 그래서 오늘은 알 사람은 다 알지만 여전히 모르는 사람도 많은, ‘금리인하요구권’을 소개하려고 합니다. 말 그대로 대출을 받은 은행(+저축은행·보험사·카드사·캐피탈사)에 금리를 내려달라고 요구할 법적 권리입니다. 놀랍게도 일정 자격 요건을 갖추면 누구나 신청할 수 있습니다. 저금리 시대에야 거들떠도 안 봤지만, 요즘 같은 고금리 시대엔 반드시 써먹어야 할 권리인 거죠.━금리 인하의 자격그렇다면 어떤 자격이 필요할까요? 대출을 받을 때와 비교해 이런 변화가 있다면 은행에 요구할 수 있습니다.▶신용등급이 높아짐▶소득이나 재산이 증가 : 취업, 이직, 승진, 변호사나 의사 등 전문 자격증 취득, 국가고시 합격▶부채가 감소함다만 금리 산정에 차주(대출을 받은 사람)의 신용 상태를 반영하는 대출 상품이어야 합니다. 예를 들어 소비자의 신용 상태를 감안해 금리를 책정하는 장기카드대출(카드론), 단기카드대출(현금서비스), 일부결제금액이월약정(리볼빙), 신용대출은 금리인하요구권을 행사할 수 있지만 차주의 신용 상태가 금리에 영향을 주지 않는 주택담보대출·보험계약대출·정책자금대출(햇살론 등)·예적금담보대출·오토할부·오토론 등은 금리인하요구권의 대상이 아닙니다.또 소득 규모나 신용 상태가 개선되긴 했지만 그 정도가 미미하다든가, 해당 은행에 연체 중인 빚이 있다거나(연체분을 다 갚아야 금리인하요구 가능), 적용 받고 있는 금리가 현 시점의 상품별 최저금리보다 낮다거나(ex.프로모션 금리 등으로 할인받은 경우) 하는 경우에는 금리인하요구가 거절될 수 있다는 점 주의하시길 바랍니다.MBC 캡처그렇지만 어차피 돈이 드는 것도 아니니 위의 요건에 해당된다 싶으시다면 은행을 찔러보시는 게 좋을 것 같습니다. 참고로 졸업 후 무직인 상태에서 신용대출을 받았는데 세무사자격시험에 합격을 했다든가 중소기업에서 대기업으로 이직하는 정도의 변화가 있다면 대체로 금리인하요구가 수용된다고 합니다.━신청은 공짜, 시도는 해봅시다금리인하요구권은 은행 홈페이지, 앱, 고객센터, 오프라인 영업점 등에서 신청할 수 있습니다. 금리인하요구권을 행사하면 은행은 10영업일 이내에 수용 여부를 통지해야 합니다. 수용 불가라면 왜 그런지 이유까지 알려주고요. 그리고 금리인하요구권은 위의 조건만 충족된다면 신청 횟수, 신청 시점에 관계 없이 몇번이든 써먹을 수 있습니다. 그렇다고 한 달에 몇 번씩 신청하는 건 무의미하겠지만요./KB국민은행 앱의 '금리인하요구권' 메뉴.올해 상반기 은행권의 가계대출 금리 인하 신청 건수는 88만8619건으로 집계됐습니다. 도입부에 쓴 것처럼 알 만한 사람들은 이미 다 활용하는 제도인 거죠. 그런데 안타깝게도 이 중 4분의 1 정도인 24.8%만 수용됐습니다.다행히 어느 은행이 수용률이 높은지도 공개됩니다. 수용률이 높은 은행은 NH농협은행(60.5%), SC은행(49.8%), 우리은행(46.1%) 순이었습니다. 낮은 곳은 토스뱅크(17.8%), 카카오뱅크(19%), 케이뱅크(24.6%)였고요. 인터넷은행들은 수용률이 낮은 이유에 대해 “비대면으로 손쉽게 신청할 수 있다 보니 중복 신청 건수가 많았기 때문”이라고 해명하고 있긴 합니다. 나중에 대출을 어디서 받을지 고민될 때, 물론 금리 수준이 제일 중요하긴 하지만 금리가 비슷하다면 금리인하요구권 수용률도 감안해 결정하시길 바랍니다.금리인하요구권을 써먹었다 해도 실제로 인하되는 금리는 얼마 안될 수도 있습니다. 게다가 요즘처럼 금리가 자꾸 올라가는 시기에는 실망스러울 수 있고요. 그래도 티끌 모아 먼지라도 챙깁시다.코주부 뉴스레터 구독하기이 기사는 서울경제의 재테크 뉴스레터 ‘코주부’에 게재된 내용입니다. 코인, 주식, 부동산까지 요즘 가장 핫한 재테크 소식을 알기 쉽게 풀어드리는 코주부 레터. 아래 링크에서 구독신청하시면 이메일로 매주 월, 목요일 아침 8시에 보내드립니다.(무료!)구독 링크와 아카이브 →https://url.kr/kojubu</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.11.15.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>국회 '유니콘팜' 출범식서 애로 호소한 스타트업들 "사업자단체와 분쟁에 존립 위협"</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004774728?sid=100</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>강훈식·김성원 주축 여야 의원스타트업 지원 ‘유니콘팜’ 출범로톡·강남언니 등 스타트업변호사·의사단체와 충돌 애로 호소'유니콘팜' 출범식에서 강훈식 의원(우측)과 김성원 의원이 인사말을 하는 모습. 강훈식 의원실 제공“비급여진료 가격 공개를 전면 금지하라는 의사단체 요구는 소비자 알권리는 심각하게 제한합니다.”(홍승일 강남언니 대표)“지속적인 사업자단체(변호사협회)와의 분쟁은 사업 자체의 존립을 위협하고 있습니다.”(엄보운 로앤컴퍼니 이사)국회 내 초당적 스타트업 지원·연구 모임인 ‘유니콘팜’이 지난 14일 출범식을 갖고 본격 활동을 시작했다. 유니콘팜 출범식에 참석한 스타트업들은 정치권의 관심에 기대감을 드러내면서도 기존 사업자단체와 충돌로 겪고 있는 어려움을 호소했다. 이날 서울 마포구 프론트원에서 열린 유니콘팜 출범식에는 대표의원인 강훈식 더불어민주당 의원과 김성원 국민의힘 의원을 비롯해 김한규 박상혁 이소영 이용빈 전재수(이상 민주당), 이용 정희용 황보승희(이상 민주당) 등 연구모임 회원들이 참석했다. 배현진 김병욱 김영식(이상 국민의힘), 기동민 신현영 장철민 홍정민(이상 민주당) 등 준회원으로 참여하는 의원들도 모습을 드러냈다. 이광재 국회 사무총장도 참석해 축사를 했다. 스타트업 업계에서는 최성진 코리아스타트업 대표를 비롯해 27개 스타트업에서 50명이 넘는 관계자가 참석했다.  '유니콘팜' 출범식 참석자들이 발표 내용을 듣는 모습. 강훈식 의원실 제공출범식에서는 스타트업과 전통산업 간 충돌이 화두로 떠올랐다. 강훈식 의원은 “스타트업이 전통산업과의 충돌 속에서 어떻게 생존하고 발전해야 하는지 화두를 던지고 건설적으로 성장할 수 있는 방향을 모색하고자 한다”고 했다. 이용 의원 역시 “포스트코로나 시대에 지속되는 인플레이션과 기존 산업과의 이해관계 문제 등 우리 스타트업은 기로에 놓여있다”고 평가했다.이소영 의원은 “스타트업 비지니스는 세상에 없던 상품과 서비스를 만드는 것이므로 기존의 제도나 법과는 부딪히는 경우가 많다”며 “그 충돌을 해결하는 일을 개별 기업들에게 맡겨두는 것이 아니라, 정치권이 함께 고민하고 풀어나가야 한다”고 강조했다. 스타트업들은 정치권의 응원에 감사 인사로 화답했다. 안성우 직방 대표는 “최근 글로벌 경제 위기와 모태펀드 축소 등으로 스타트업이 위기인데, 유니콘팜이 규제를 같이 고민하고 스타트업 응원과 에너지를 불어 넣는 자리가 될 수 있을 것”이라고 했다. 이나리 마켓컬리 부사장은 “스타트업이 어떤 사업을 할 수 있게 하는 것도, 하지 못하게 하는 것도 국회인만큼 많은 지원과 관심을 부탁드린다”고 당부했다.스타트업들은 전통산업 및 사업자단체와 충돌로 겪는 애로를 언급하며 정치권이 해결에 나서줄 것을 호소했다.법률서비스 플랫폼 로톡의 엄보운 로앤컴퍼니 이사는 “법조브로커와 정보 비대칭으로 상징되는 법률시장의 미스매칭을 해결하며 소비자 신뢰를 받고 있지만, 지속적인 사업자단체와의 분쟁은 사업 자체의 존립을 위협하고 있다”고 했다. 꽃배달 서비스 업체인 꾸까의 박춘화 대표는 “비교적 힘든 화훼산업 안에서도 우리 사업이 성장할수록 영세한 업체들이 느끼는 위협도 커질 것이지만, 상생하기 위한 방안을 계속 모색할 것”이라고 강조했다. 이날 출범식에는 굿대디, 그린랩스, 꾸까, 닥터나우, 당근마켓, 데일리펀딩, 두들린, 로앤컴퍼니, 마켓컬리, 매쉬코리아, 무신사, 뮤직카우, 우아한형제들, 뱅크샐러드, 브레인커머스, 셀럽, 슬릭코퍼레이션, 야놀자, 에스오에스랩, 인디제이, 직방, 청소연구소, 코딧, 크몽, 토스, 호그린에어, 힐링페이퍼 등 스타트업 관계자들이 참석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.11.02.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>아란후에스 짙은 선율 타고 스페인 세계유산 속으로</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002060192?sid=103</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>마드리드 문화유산-미식-스마트 여행①한-스페인 상호방문의해 상호인기도 상승프랑스 정원 옆 영국 숲, 왕실 청정휴가지성베드로 성당 모방한 에스코리알 수도원세르반테스 고향 알칼라선 스페인어 정립세계자연유산 몬테호, 너도밤나무 건강성인류무형유산 플라멩코, 동서 정서 공감도마드리드 자치구 서쪽 근교에 있는, 유네스코 세계문화유산 에스코리알 궁-수도원-학교-영묘시각장애인 음악가 로드리고의 아란후에스 협주곡으로도 유명한 유네스코 세계문화유산 아란후에스 정원애잔한 노래로 관객의 심금을 울리더니, 다시 신명나는 음악과 춤을 선보이는 스페인의 인류무형유산 전승자들. 리더이자 댄서 헤수스 페르난데스, 가수 마누엘 데 라 니나, 로베르또 하엔(타악연주), 안헬레스 똘레다노, 댄서 마리아 모레노. 기타맨 베니또 베르날.▶스페인 마드리드 문화유산 미식 스마트 여행, 현장 탐방기 싣는 순서 = ▷11월2일 ①아란후에스 짙은 선율 타고 스페인 세계유산 속으로 ②스페인 미식 한국인 입맛과 찰떡 궁합...타파스가 삼합? ③옛성·수도원서 하룻밤, 스페인관광청 파라도르 적극 붐업 ▷11월8일 ④마드리드 도심 여행, 그란비아 가도, 시벨레스 광장 ⑤스페인 왕궁 무려 2800칸, 선물 받은 이집트신전 눈길 ▷11월11일 ⑥마드리드 맨날 장날? 시끌벅적 서서먹는 시장 음식 발달 ⑦마드리드 소피아 ‘게르니카’ 뭉클, 고고학博 한국 닮은꼴도 ⑧“미술혁명 인상주의, 마드리드에선 17세기부터 했다” ▷11월13일 ⑨스페인 한류 열풍, K팝-車-스마트 정책..전방위 확장 ▷11월15일 ⑩어리고 귀여운 아내 위한 ‘빛의 풍경’ 마드리드를 비추다 ⑪마드리드 하면 축구지..레알, AT, 바르사의 전쟁 ▷11월23일 ⑫플라멩코는 블루스를 낳고..유라시아 민중예술의 총아 ⑬친근한 촌마을 ‘친촌’과 예술 깃든 스페인 소도시들 ▷11월25일 ⑭친환경·스마트·영 마드리드..어학·마이스·나이트 생태계 ⑮스페인 전국 가볼만한 곳, 마드리드로 상경한 맛집들[헤럴드경제, 마드리드=함영훈 여행선임기자] 시각장애인 음악가 호아킨 로드리고의 아란후에스(Aranjuez) 협주곡 선율을 타고, 파란만장했던 중세~근세 스페인과 마드리드 자치구의 역사 유적을 넘나들며, 가슴 저미는 시간여행 속으로 빠져든다.유네스코 세계문화유산 아란후에스 궁전에 스페인과 프랑스 문화가 얽히게 된 사연, 앞이 보이지 않는데도 궁을 소재로 아름다운 선율을 만들어낸 로드리고의 서정, 네 번의 ‘정치적 결혼’을 감행했으면서도 초록색 사랑을 갈구했던 16세기 펠리페2세의 이야기를 들으면서, 마드리드 자치구 내 6개의 세계유산을 음미하고 있는 여행자의 마음도 아려온다.마드리드 도심 역사유적공원, 광대한 ‘빛의 풍경’ 구역 내에 있는 크리스탈 궁전. ‘빛의 풍경’은 지난해 세계문화유산에 등재됐다.귀엽고 아름다운 왕비를 맞기위해 마드리드 도시를 녹색으로 리모델링하며 냉혹한 정치현실 속에서도 사랑을 찾고자 했던 펠리페2세. 그가 시작하고 후세 왕과 시민들이 수백년 간 더욱 아름답게 가꾼 ‘빛의 풍경(Paisaje de la Luz)’에선 대도시 속 푸르고 청량한 스페인을 호흡한다.어딘가 모르게 동양적이어서 한국인의 정서 깊숙이 파고드는 플라멩코. 하지만 신명이 날 때엔 한국의 사물놀이 타악 리듬, 자진모리 장단 만큼이나 흥겹다.마드리드를 무대로 하는 정통 플라멩코 전승자들은 대중적 인기에 영합하지 않고, 스페인 전통적 원형 대로 공연한다. 제대로 된 감정표현, 멋스러움을 추구하면서도 일반인이 따라하기 힘든 전통 플라멩코 기예의 숙련도를 중시하고, 즉흥 댄스의 창의성도 전통 정신에 부합하는 범위 내에서 발휘한다. 이들은 “인류무형유산 전승자로서의 자부심으로 끊임없이 연습한다”고 입을 모았다. 왼쪽부터 가수 마누엘 데 라 니나, 리더이자 댄서 헤수스 페르난데스, 댄서 마리아 모레노.마드리드 프라도미술관에 전시된 벨라스케스의 ‘시녀들’(1656년). 마르가르타 공주, 시녀, 난쟁이, 화가, 구경꾼(거울 속 왕), 보호자(경비원) 모두가 예술의 주인공이 될 수 있으며, 예술가의 역할, 회화의 가치가 중요하다는 점을 일깨운 작품이다.프라도 미술관의 ‘시녀들(Las Meninas: 시녀들 및 여자 난쟁이와 함께 있는 마르가리타 공주의 초상화)’을 마주대하는 여행자의 감동은 또 어떤가.이렇듯 다양한 문명이 공존하는 스페인 여행은 다채롭고, 발랄하며, 포용의 마음이 느껴진다. 또, 부침의 역사, 사랑과 정치 사이에서 고뇌하는 모습, 지배할때와 지배당할때 겪는 민초들의 숙명을 대할 때면 가슴이 ‘찡’해 지기도 한다.동-서 땅끝 나라인 한국-스페인은 ‘2021~2022년 상호방문의 해’를 맞아 적극적으로 교류하기 위한 노력을 기울였다. 그러나 이 기간 여러 출입국 규제가 남아있었기 때문에 두 나라 국민은 충분히 오고 가지 못했다.지금 한국인들에게 유럽에서 가장 가고싶은 나라를 물으면 “스페인!”이라는 대답이 가장 많다. 지난 2년간 두 나라 정부와 관광청, 협회, 여행사, 항공사들이 기반을 잘 닦았기 때문에 스페인-한국 교류활성화의 노력은 2022년, 2023년 이후 더욱 빛날 것으로 기대된다.두 나라 관광부 차관이 지난 9월 한국에서 만나 서로가 서로에게 매우 중요한 나라라는 점을 공감했다. 그리고 합의한 내용은 ▷세계문화유산 관광 ▷미식 관광 ▷스마트 관광 등 주제별 교류활성화 협력 방안을 세부적으로 마련하는 것이었다.마드리드 스페인왕궁에서 한복을 입고 스페인과 한국의 우정을 알리고 있는 현지 젊은이들헤럴드경제는 스페인관광청과 협력해, 이 나라 수도를 포함하고 있는 마드리드 자치구의 세계유산, 미식, 뉴노멀 스마트 관광 현장을 둘러보고, 연속 기획물들을 연재한다.▶유네스코 유산 보유 빅3 국가 스페인= 스페인이 보유한 유네스코 세계유산은 세계 빅3에 들 정도로 많다.마드리드자치구의 세계유산은 ▷빛의 풍경(Paisaje de la Luz) ▷산 로렌소 데 엘 에스코리알(San Lorenzo de El Escorial)의 수도원과 왕실 ▷알칼라 데 에나레스(Alcala de Henares)의 대학과 역사적 중심지 ▷아란후에스(Aranjuez)의 문화적 풍경 ▷세계자연유산 아예도 데 몬테호(Hayedo de Montejo) 숲 ▷유네스코 인류무형유산 플라멩코(Flamenco, Corral de la Morería) 등이다. 이 모든 장소가 마드리드 센터로부터 100㎞도 안되는 곳에 있다. 마드리드 자치구 경계를 넘자마자 옛 수도 똘레도, 론다를 닮은 쿠엔카, 세고비아, 아빌라 등 세계유산들이 또 있다.에스코리알에 도착한 자전거 여행객들이동수단은 친환경이다. 빛의 풍경은 걷기 또는 공용 자전거인 ‘시클라 마드리드(ciclamadrid.es)’이고, 도심 근교 동서남북에 있는 세계유산은 기차를 이용한다. 아란후에스로 가는 ‘딸기 기차’, 에스코리알로 가는 ‘펠리페 2세 기차’, 둘 모두 마드리드 시내 프린시페피오 역에서 출발한다. 알칼라 데 에나레스로 가는 ‘세르반테스 기차’는 아토차 역에서 떠난다.마드리드 시 북서쪽 지붕인 과다라마 국립공원은 북쪽 끝자락이 세계자연유산 몬테호 숲과 이어진다. 스페인 마드리드 자치구 정부는 다양한 정책 수단을 통해, 유네스코 문화유산과 자연유산을 보존하기 위해 심혈을 기울이고 있다.“똑똑!” 우리의 대문은 도깨비문양과 철 문고리로 노크하는데, 알칼라에선 사람 손 조각이 사과를 쥐고 두드린다.16세기 펠리페2세의 꿈과 희망이 투영된 에스코리알에선 인류의 창조적 영혼을, 돈키호테의 세르반테스가 탄생한 알칼라에선 스페인어 정립을 통해 축적한 지식,지혜와 3개 문명의 평화로운 공존을 볼 수 있다.“띠로리~” 하며 시작하는 아란후에스 협주곡으로 지구촌 친구들의 감성을 자극하는 아란후에스 궁전과 정원은 300년전 유럽문화에서 가장 아름답고 가치있는 것만을 뽑아 모아놓은 최고의 문화적 풍경을 품고 있고, 청정생태지역 몬테호는 생물의 다양성과 지속가능성을 책임지고 있다.▶산 로렌소 데 엘 에스코리알= 1984년 유네스코에 의해 세계 문화 유산으로 지정된 산 로렌소 데 엘 에스코리알의 왕립 구역은 과다라마 고원의 중심에 자리잡고 있다. 하이킹 매니아들에게 사랑 받는 청정 자연지대이다. 이 곳 에레리아 숲과 아반토스 솔숲이 마드리드 자치구의 산소통 역할을 해준다.과다라마 고원 국립공원펠리페 2세의 명령 아래 대략 20년 걸려 지어진 왕궁·종묘 겸 수도원·학교는 중세 사관학교 느낌으로 겉멋 부리지 않은 외관, 화려하고 품격있는 인테리어로 안팎이 대조적이다. 가운데 돔은 바티칸의 성베드로성당을 흉내냈지만 밖에서는 잘 보이지 않는다.이곳에는 오스트리아와 부르봉 왕가의 행궁, 도서관, 바실리카(회의 혹은 접견 공간), 왕의 정원, 영묘이자 종묘인 판테온, 수도사의 정원 등 역사적, 예술적, 문화적 가치를 지닌 보물들이 모여있다.벽과 천장 마다 티치아노, 엘 그레코, 파올로 베로네세, 나바레테 엘 무도, 클라우디오 코에요, 엘 보스코, 로히어르 판 데르베이던, 두레로 등이 그린 유화 그림이 걸려있고, 티발디, 수카로, 루카 캄비아소, 루카스 호르단, 지오르다노 등이 심혈을 기울인 럭셔리 프레스코화가 빛난다. 셀리니의 하얀 예수상, 레오니의 조각들, 후안 바티스타 모네그로의 ‘왕의 오래된 유언장’ 등의 조각품도 전시돼 있다.에스코리알 바실리카(회의장 겸 접견실) 벽에 걸린 예수의 ‘오병이어(五餠二魚:떡 5개와 물고기 2마리로 5000명을 먹였다)’ 기적을 그린 파올로 베로네세 그림(1563년)에스코리알 수도원은 가톨릭의 원형적 모습을 수호하는 곳, 유럽 가톨릭 예술가들의 작업장, 신학-철학-과학-예술적 재능을 겸비한 인재양성소를 겸하는 고급 문화 센터이다.문화 콘텐츠와 미식으로 심신의 건강을 도모하던 펠리페 2세가 수도원의 모습에 뿌듯해했을 모습을 떠올리며 에스코리알 안팎을 거닐다 보면, 한국인인 나도 스페인 왕가의 일원이 된 듯한 착각을 느낀다.국보 전체를 둘러보는 산책과 왕립 콜리세오 카를로스 3세 궁전, 18세기의 매력적인 극장을 방문하는 것도 좋다. 이 왕궁·수도원이 바티칸의 성베드로를 닮았다는 사실을 확인할수 있는 뷰포인트는 맛집이기도 한, 라 헤레리아(La Herrería) 골프클럽 야외 테라스이다.라 헤레리아(La Herrería) 골프클럽 테라스에서 본 에스코리알 수도원. 바티칸 성베드로 성당을 벤치마킹하려 했음을 느낄수 있다.이 근엄한 왕궁 겸 수도원-학교 마당에서는 발랄한 아주머니들이 유튜브 댄스 영상을 찍으며 정겹게 웃고 있다. 왕과 수도사의 공간은 시간이 지나면서 시민과 여행자의 놀이터로 친근해졌다.▶아란후에스= 타호 강가에 있는 아란후에스는 부르봉 왕조가 봄에 머물 별장을 짓기 위해 선택한 곳이었다. 나중에 왕조의 행정을 위한 곳으로 바뀌었고, 해마다 왕들이 짧은 기간 동안 이곳을 방문했다고 한다. 왕궁이나 유서깊은 시가지 외에, 정원, 관목숲, 과수원, 하천 등 자연과의 조화도 탁월하다.프랑스 부르봉 왕조의 영향을 받던 스페인 왕정은 아란후에스에 프랑스 정원을 조성한 뒤, 영국 버킹검궁 숲길 형태의 산책길을 조성했다.방문객들은 왕궁과 왕립 파울라스 박물관, 라브라도르의 집 을 방문하지 않고는 떠날 수 없다. 역사적 예술의 집합체인 이곳에는 정열의 투우광장, 미식백화점인 아바스토스 시장도 있다.아란후에스 정원이 이 도시 여행의 핵심이다. 4계절 저마다의 매력을 뽐내는 이 정원은 작곡가 호아킨 로드리고, 산티아고 루시뇰 같은 예술가들에게 많은 영감을 주었다. 왕궁을 둘러싼 여러 정원들은 각각 그 시대와 정원 조성을 명령한 왕의 취향에 따라 다른 양식으로 만들어졌다.부르봉 왕조의 영향을 받은 프랑스형 정원을 두고 나니 해지지 않는 나라를 표방하던 스페인으로서 자존심이 상해, 슬그머니 영국 정원, 숲길 등도 넣어, 글로벌 미학의 집합체임을 시위한다. 습지형 가든, 꽃밭형 가든 등으로 다채롭게 꾸몄다.아란후에스 궁전 주변 물길 제어장치는 영화 레미제라블의 촬영지 영국 바스를 좀 닮았다.봄과 가을, 주말 마다 마드리드에서 아란후에스까지 다니는 딸기 열차를 이용하면 편리하겠다. 이곳에 와서 이륜 마차를 타고, 구시가지와 숲, 궁정의 식품 저장고에 납품하던 과수원 등을 돌아본다면 300년을 넘나드는 타임머신 여행이겠다. 이 과수원은 오늘날도 여전히 지역 레스토랑에서 맛볼 수 있는 아스파라거스, 딸기, 멜론 등을 공급하고 있다.이 밖에 팔루아스 레알라스 박물관, 전통 농업경작자의 집, 구시가지 200년 된 토로스 광장, 이 소도시 근교의 레알 꼬르띠호 카를로스 3세 와이너리 등도 방문할 만한 곳이다.왕자의 정원, 산책길 등을 걸으면 아란후에스에서 열정의 콘서트를 했던 거장 로드리고의 멜로디가 계속 반복해서 흥얼거려 진다. 일종의 조건반사이면서도, 아란후에스 방문객의 자세이다.아란후에스 근교 왕립 와이너리▶알칼라 데 에나레스= 세계적인 천재 문학가 미겔 데 세르반테스가 태어난 이 도시는 1998년에 세계 문화유산으로 등재됐다. 처음으로 현대적 체계와 유사한 대학을 설립했던 점, 1499년 시즈네로스 추기경이 구(original) 콤플루텐세 대학을 설립한 이래 교육-지성의 공동체 모델을 구축하고 이를 여타 유럽, 다른 대륙에 전했다는 점이 높은 평가를 받았다.400여년 전통의 알칼라 대학 교정이 도시의 아이콘은 어학, 문학, 문화이다. 알칼라의 파라닌포 대학에서 매년 4월 23일 세르반테스 문학상을 수여한다. 스페인어 문학의 노벨상 같은 것이다.‘심사평가 강당’ 구조는 학부 논문 통과도 까다로웠음을 보여준다. 왕실, 교육계 등 거물 심사위원장이 엄숙히 앉아있고, 측면 단상에 졸업후보생이 논문을 발표하는데, 지도교수가 옹호자로서 함께 해주지만, 뭐라도 꼬투리를 잡아 논문에 문제가 많다는 점을 끈질기게 물고늘어지는 반대파 교수를 반드시 두도록 의무화했다. 발표학생 입장에선 ‘빌런’ 같은 존재이겠지만, 이같은 제도는 이 대학의 실력 수준을 유럽 최고 반열에 올린 비결이기도 했다.고풍스런 대학건물 앞을 학생들이 지나고 있다.다른 흥미로운 관광지로는 알칼라 마요르 거리에 있는 세르반테스 생가 박물관, 마 히스트랄 대성당, 아르소비스팔 궁전과 코메디 극장, 산 베르나르도 수도원과 지역 고고학 박물관이다.마드리드시에서 알칼라로 안내해주는 기차 이름은 ‘로시난테(Rosinante)’가 아니다. 세르반테스(Cervantes)이다. 천재 문학가가 살던 시대 풍으로 객실과 외관을 꾸며, 타임슬립 여행을 하고 있다는, 흥미로운 착각을 제공한다.캠퍼스 곳곳에 로마 시대 교육기관의 원형 ‘콤플루툼’ 자취가 남아있다. 세르반테스 광장에 있는 17세기 코메디 극장에서 패키지 투어(turismoalcala) 프로그램도 진행한다.학부 졸업논문 심사장. 사진 오른편에 졸업후보생의 발표단상이 설치돼 있다.▶세계자연유산 아예도 데 몬테호= 너도밤나무의 광대한 군락지, 호랑가시나무, 떡갈나무 등 청정식생이 250ha 세계 자연유산 구역 내에 서식하고 있다. 몬테호 데 라 시에라 시에 있는 외진 고원의 생물보존지역 안에 있으며, 마드리드의 북쪽과 하라마 강가에 위치한다.하라마강과 나란히 있는 오솔길에서 아예도의 모든 풍경을 볼 수 있다. 별로 길지 않은 길이라 어린이나 노인들에게 이상적이다.산길을 오르는 산중턱 오솔길을 통해 높은 위치에서 다른 종을 볼 수 있다.더 모험을 하고 싶으면 전망대 오솔길을 추천한다. 이곳에선 하라마 강 협곡의 장관을 높은데서 굽어볼 수 있다. 상,중,하 난이도 마다 제 각각 매력이 있으니, 산악지대이지만, 무장애 열린관광지라고 할 만 하다.세계자연유산 마드리드 북쪽 가장자리, 아예도 데 몬테호 너도밤나무 광대역 군락지2017년 여름, 잘 보존된 자연환경으로 세계 문화 유산에 지정되었다. 보존을 위해 방문객 수를 제한하므로, 전화나 인터넷을 통해 미리 예약해야 한다. 다만 취소자 수 만큼 시에라 델 링콘 생태계보존정보센터에 가서 당일 탐방하는 행운을 얻을 수도 있다.무료 가이드를 앞장세워 루트를 돌면서 100년 넘은 너도밤나무와 다양한 생태환경의 건강성을 흡입한다.어느 시기에나 아름답지만, 만산홍엽 가을이야말로 가장 매력적이다. 이곳 가을은 12월초까지 이어지며, 겨울이라 해도 온화해 건강한 식생을 사시사철 유지한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.11.13.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>전자증명서 발급 더 쉬워진다…경기, 14일부터 경기똑D 간편인증 서비스</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006453482?sid=102</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>간편인증 도입 네이버, 카카오, 토스 등 민간인증서로 본인 확인경기도가 공공마이데이터를 활용한 맞춤형 행정서비스 앱 ‘경기똑D’에 민간전자서명인 ‘간편인증’ 서비스를 14일부터 도입한다.(경기도 제공)(수원=뉴스1) 진현권 기자 = 경기도가 공공마이데이터를 활용한 맞춤형 행정서비스 앱 ‘경기똑D’에 민간전자서명인 ‘간편인증’ 서비스를 14일부터 도입한다.사용자는 공동인증서 없이도 주민등록등본 등 66종의 전자증명서를 ‘경기똑D’에서 간편하게 발급받을 수 있게 됐다.지난 4월 27일 정식 개시한 경기똑D는 △도민을 위한 복지정보와 공개채용정보 등 ‘맞춤수혜정보 서비스’ △공공마이데이터 기반의 본인 확인서비스인 ‘도민카드 서비스’ △다양한 전자증명서를 휴대폰에서 보관하고 활용할 수 있는 ‘전자지갑 서비스’ △도민의 마이데이터 정보를 생활에 도움이 되는 리포트 형식으로 제공하는 ‘마이리포트 서비스’를 제공하고 있다.지금까지 경기똑D의 전자지갑 서비스를 이용하려면 사용자는 공동인증서로 본인인증을 해야 했고, 공동인증서를 PC에서 스마트폰으로 옮겨야 하는 불편함이 있었다. 도는 이런 불편을 해소하고자 간편인증 방식을 추가 도입했다.간편인증은 기존의 공동인증서처럼 경기똑D 앱에 등록하지 않아도 되고 매년 갱신할 필요가 없으며, 발급 인증 절차도 공동인증서보다 간편하다. 사용자가 자주 사용하는 간편인증서(네이버·카카오·PASS·토스 등)를 선택해 본인인증을 받으면 전자지갑 서비스를 이용할 수 있다. 전자지갑을 통해 주민등록등본과 건강보험료 납부확인서, 자동차등록원부 등 66종의 전자증명서를 조회·저장·공유할 수 있다.도는 지난 7월 도의 정책과 사업을 점검하고 의견을 제시하는 ‘경기사랑 도민참여단’의 서비스 이용 의견과 8월에 실시한 ‘경기똑D 이용자 만족도 설문조사’ 결과에서 ‘공동인증서 이용 불편함’이 제기돼 이번 서비스를 도입하게 됐다고 설명했다.도는 12월 초 행정안전부의 온라인 복지 신청 서비스와도 연계하는 또 한번의 서비스 확대를 계획하고 있다. 이를 통해 경기똑D에서 원스톱으로 다자녀 가정 입학 축하금 지원 등 각종 복지 신청을 할 수 있게 될 전망이다.전승현 경기도 데이터정책과장은 “도민들이 쉽고 편리하게 경기똑D를 사용할 수 있도록 지속적인 품질관리와 서비스 확대에 힘쓰겠다”고 말했다.경기똑D는 구글 플레이스토어나 애플 앱스토어에서 ‘경기똑D’나 ‘경기똑디’를 검색한 후 내려받을 수 있으며, 별도의 회원가입이나 로그인이 필요 없이 본인인증만 거치면 대부분의 서비스를 이용할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.11.14.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>쿼타북, 스톡옵션에 관한 모든 것 알려주는‘스톡옵션 마스터 과정’ 오픈</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005044604?sid=105</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>스톡옵션 마스터 과정증권 관리 플랫폼 쿼타북이 ‘스톡옵션 마스터 과정‘(이하 과정)을 연다. 과정은 다가오는 11월 17일부터 5주간 매주 목요일 오후 2시부터 3시까지 온라인 라이브 강연으로 진행된다.주식매수선택권이라고도 불리는 스톡옵션은 스타트업 업계에서 관심이 높지만 정보를 찾기가 힘들다. 쿼타북은 스톡옵션과 관련하여 어려움을 겪고 있는 스타트업 대표와 임직원을 위해 이번 행사를 마련했다.과정은 스톡옵션 부여 계획이 있는 스타트업 창업자 및 인사·재무 담당자, 스톡옵션 부여 대상인 스타트업 임직원 모두에게 유용한 내용으로 구성됐다. 스톡옵션의 기본 개념부터 시작하여, ‘투자 라운드별로 스톡옵션을 얼마나 부여하는 게 좋을지’, ‘부여하기 전 무엇을 미리 염두에 두어야 할지’, ‘스톡옵션을 취소하려면 어떤 절차가 필요한지’ 등 스톡옵션 실무에서 마주하는 다양한 고민과 궁금증을 담았다. 이번 과정은 그동안 쿼타북이 쌓아온 지식과 노하우를 총망라하였다.행사 참가비 9만 9천 원은 5차시 중 3차시 이상 수강 시 전액 환급되며, 쿼타북 고객사는 무료다. 전 과정을 이수한 참가자에게는 ‘스톡옵션 마스터 배지’가 발급된다. 참가 신청은 이벤터스 페이지를 통해 할 수 있다.쿼타북은 토스, 오늘의집, 당근마켓, 직방 등 유니콘 스타트업을 포함하여 11개국 4,200여 기업에 스톡옵션 계약·관리 솔루션을 제공하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.11.14.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>앱으로 예금 들면 금리 더 준다는데…어르신들은 서럽다</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002614676?sid=105</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>은행 앱, 어르신에겐 차별창구 가입보다 모바일 이용 우대60대이상 80%는 오프라인 방문새마을금고 8% 금리 특판땐손빠른 2030세대 앞다퉈 광클영업점 찾은 장년세대는 허탕#1직장인 김아무개(31)씨는 한 달에 두 번 정도 부모님 댁을 방문할 때마다 30여분씩 스마트폰과 씨름한다. 모바일 금융 서비스 사용이 익숙하지 않은 60대 어머니가 딸이 올 때까지 미뤄둔 공과금·세금 등의 모바일 납부 업무를 대신 해드려야 하기 때문이다. 은행마다 다른 규칙에 맞게 영문 알파벳과 숫자, 특수문자를 조합해 비밀번호를 만들다 보니 기억하기도 어려워, 매번 비밀번호 찾기와 본인 인증을 새로 해야 하는 게 가장 골칫거리다.#23년 전 은퇴한 강아무개(63)씨는 30대 딸에게 모바일 뱅킹 업무를 맡겼다가 ‘반토막’ 난 주식 계좌를 들켜 난감했다. 딸에게 신분증과 스마트폰을 통째로 건넸는데, 자신도 모르게 금융 계좌 통합 조회 기능이 활성화된 것이다. 딸에게 자산 내역을 들키기 싫은 마음과 혼자서 스마트폰으로 금융 업무를 처리하기 막막한 마음 사이에서 갈등을 겪고 있다.시중 은행들이 앞다퉈 디지털 전환에 나서면서 오프라인 영업점 대신 모바일 애플리케이션에서 금융 상품을 이용하는 고객에게 주는 혜택을 늘리고 있다. 스마트폰 이용이 익숙한 이들에겐 반가운 일이지만, 고령층·저시력자처럼 온라인 접근성이 상대적으로 낮은 금융 소비자들이 소외 또는 차별의 사각지대에 놓일 수 있다는 우려도 나온다. ※ 이미지를 누르면 크게 볼 수 있습니다.“모바일로 가입하면 금리 우대”13일 &lt;한겨레&gt; 취재를 종합하면, 국내 시중 은행 대부분이 모바일 앱에서 정기예금이나 대출 등 금융 상품에 가입하는 이용자들에게 우대 금리를 적용하는 등 혜택을 제공하고 있다. 은행연합회도 누리집 ‘금리·수수료 비교 공시’ 메뉴에 ‘최근 다수 은행이 인터넷 또는 모바일 뱅킹 등 비대면 채널 전용 상품에 더욱 높은 금리를 적용하고 있는 경우가 많으니 확인해 혜택을 받기 바란다’고 안내할 정도다. 하나은행은 지난 10일 모바일뱅킹 앱 ‘하나원큐’를 전면 개편하면서, 기본 연 3% 금리에 하나원큐 앱에서 가입한 이들에게만 우대 금리를 더해 최고 연 4.5% 금리를 제공하는 ‘하나나눔적금’ 상품을 출시했다. 케이비(KB)국민은행은 케이비스타뱅킹 내 케이비페이 결제 이용 고객에 한해 우대 금리를 제공해 최고 연 6% 금리 혜택을 주는 ‘케이비스타페이적금’을 지난달 내놨다.은행 앱을 금융 서비스뿐 아니라 알뜰폰(통신)·배달·택배·건강관리 등 비금융 서비스도 함께 제공하는 ‘슈퍼 앱’으로 탈바꿈하려는 시도가 늘면서, 은행 앱에 오래 머무를수록 혜택을 더 많이 제공하는 경우도 눈에 띈다. 신한은행은 기본금리 1.5%에 연 최대 우대금리 1.3%를 제공하는 ‘프로야구 적금’ 상품을 판매한다. 이 상품 가입자가 야구 전용 플랫폼 ‘쏠야구’ 콘텐츠를 4회 이상 이용하면 이자를 연 0.4%포인트 더 준다.최근 투자보다 예·적금 상품을 선호하는 ‘역머니무브’ 바람이 불면서 신규 가입자가 늘고 있는 저축은행들도 비대면 상품 혜택을 늘리고 있다. 케이비저축은행은 영업점에서 가입하는 12개월짜리 정기예금 상품에는 연 5.0% 이율을 적용하는 반면, 비대면 전용 상품에는 연 5.6% 이율을 적용한다. 지난달에는 서울 광진구 화양새마을금고가 기본 연 7.9%, 비대면 가입 시에는 연 8%의 금리를 제공하는 12개월짜리 정기적금 특판 상품을 내놨는데, 손 빠른 2030세대가 몰리는 바람에 영업점을 찾은 장년 세대는 허탕을 쳐야 했다.은행연합회는 공식 누리집에 ‘인터넷·모바일뱅킹 등 비대면 전용 상품에 높은 금리를 적용하는 은행이 많다’고 안내하고 있다. 은행연합회 누리집 갈무리스마트폰 사용 익숙하지 않은 어르신들에겐 ‘차별’이런 혜택 덕에 비대면 금융 상품 이용 비율은 꾸준히 늘고 있다. 금융감독원이 지난해 9월 공개한 ‘5대 시중 은행 연도별 적금 대면·비대면 가입 비율’ 자료를 보면, 2018년 44.5%이던 비대면 적금 가입 비율이 2019년에는 55.8%로 대면 가입 비율을 처음으로 앞질렀다. 이어 2020년 58.5%, 2021년 6월 62.7%로 증가했다.연령대별로 보면, 50대 이상에선 아직 오프라인 영업점 이용 수요가 많다. 50대는 지난해 들어 비대면 가입 비율이 57%로 대면 가입 비율을 처음으로 넘어섰지만, 60대 이상은 여전히 80.1%가 영업점을 방문해 예금에 가입했다. 같은 기간 20대, 30대, 40대의 적금 비대면 가입 비율이 각각 78.3%, 86.7%, 78.3%에 달한 것과 대조적이다. 사정이 이렇다 보니 실제 우대 금리 혜택을 받는 비율 역시 연령대별로 차이가 현격하다. 2020년 5대 시중 은행 적금 상품에 가입한 20∼39살 이용자 77.4%가 우대 금리 혜택을 받은 반면, 60세 이상은 19.4%만이 혜택을 받았다.은행 쪽에선 비대면 영업 비중이 높아지면 오프라인 영업점 운영에 드는 임대료와 인건비 등을 아낄 수 있다는 이점이 있지만, 스마트폰 활용이 익숙하지 않은 어르신들에겐 차별이 될 수 있다는 지적도 나온다. 특히 근로소득 없이 이자 등 자산 소득에 의존해 생계를 꾸려가는 경우, 연이율이 1%만 차이 나도 한 달 가용 자금이 크게 달라진다. 한 저축은행 영업점서 &lt;한겨레&gt;와 만난 김아무개(65)씨는 “퇴직금을 몽땅 은행에 넣어두고 이자를 받아 생활비에 보탠다. 1%포인트 차이면 월 이자가 10만 넘게 차이가 난다. 모바일 앱 사용에 익숙하지 않은 게 서럽기까지 하다”고 말했다. 은행들은 서로 뭉쳐 통합 점포를 운영하고, 전국 2500여개 우체국 점포에 금융 서비스 이용을 위한 창구를 개설하는 등 영업점 수 감소로 인한 충격을 최소화하기 위한 방안을 내놓고 있지만, 디지털 금융 교육이 충분히 제공되지 않으면 근본적인 문제 해결이 어렵다는 지적도 나온다. 이광태 시니어금융교육협의회 사무국장은 “고령화 속도가 점점 빨라지는 가운데 은행들이 디지털 전환을 하는 속도 또한 빨라지고 있다. 자녀의 도움을 받을 수 없는 경우도 많아 누군가는 알려줘야 하는데, 은행이 직접 고령층 대상 디지털 금융 교육을 하는 경우가 늘고는 있어도 여전히 부족하다”고 말했다.은행 앱 사용 편의성 개선 절실비대면 전환을 위해서는 연령과 무관하게 은행 앱을 쉽게 이용할 수 있도록 사용성 개선이 담보돼야 한다는 지적도 나온다. 실제로 시중 은행에 비해 앱 사용성이 좋은 핀테크 서비스나 인터넷은행 앱을 찾는 고령층이 느는 추세다. 간편결제와 인터넷은행(토스뱅크), 대출 비교 등 서비스를 이용할 수 있는 토스 앱의 경우, 2020년 말 23%였던 50대 이상 이용자 비중이 지난 10월에는 27%까지 늘었다. 토스뱅크만 따로 두고 봐도 50대 이상 이용자가 전체에서 차지하는 비중이 19.8%로 20대(23.7%), 40대(22.8%)와 큰 차이가 나지 않는다. 토스는 노후 자금 계산기, 49세 이용자 전용 걷기 대회, 5060 우대 일자리 찾기 등 고령층 전용 서비스를 다양하게 제공하고 있다. 또 일반적으로 ‘작게’ ‘보통’ ‘크게’ 등 3단계 설정만 지원하는 기존 금융 앱과 달리, 토스 앱은 이용자 스마트폰 설정에 따라 아이폰은 9단계, 안드로이드 폰은 12단계로 글자 크기가 유기적으로 바뀌도록 했다.금융위원회와 금융감독원은 올해 2월 ‘고령자 친화적 모바일 금융 앱 구성 가이드라인’을 만들었다. 단순히 글씨 크기를 키우는 것을 넘어 고령자의 모바일 금융 서비스 접근성을 실질적으로 높이기 위한 3개 부문 13가지 원칙을 제시했다 . 예를 들어 , 고령층 이용자가 자주 쓰는 기능이 무엇인지 조사한 뒤 이용 빈도가 가장 높은 2개 메뉴를 필수로 포함한 고령자 전용 모드를 만들도록 했다 . 또 은행 앱 메인 화면에서 2번 이하의 터치 만으로 이 모드에 빠르게 접근하도록 했다 . 사용법을 익히는 데에 젊은층에 비해 오랜 시간을 필요로하는 점을 고려해 재학습이 필요한 수준의 앱 업데이트 또한 지양하도록 했다 . 은행들은 이를 반영한 고령자 친화적 모바일 앱을 2023년 상반기까지 순차 출시할 예정이다 .</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.11.07.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>디지털플랫폼정부 박차… 네이버·카톡서 원스톱 정부서비스</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001564636?sid=102</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>행안부, 민간과의 협력 대폭 강화‘마이인공지능(AI)서비스’로 진화원사이트 토털서비스도 곧 구축직장인 이모(41)씨는 네이버 앱을 통해 주민등록등본이나 예방접종 증명서 등 전자 증명서를 발급받는다. 코로나19 백신 정보나 해외 직구 물품의 통관내역, 재산세 고지서 등 정부 전자문서도 네이버 앱에서 확인하고, 필요하면 바로 세금을 낸다.각 정부 사이트에서 서로 다른 보안프로그램을 깔아가며 악전고투하던 과거와는 상황이 180도 변했다. 이씨는 6일 “어느 순간부터 알림이 오기에 찾아보니 네이버에서 웬만한 전자 서류는 한꺼번에 처리할 수 있게 됐다”며 “일일이 정부 기관 사이트를 찾아다니거나 무더기로 앱을 깔지 않아도 돼 무척 편하다”고 말했다.이처럼 민간 사이트나 앱에서 처리할 수 있는 정부 서비스가 늘어나는 건 디지털플랫폼 정부를 표방한 행정안전부가 민간과의 협력을 대폭 강화했기 때문이다. 앞으로는 네이버와 카카오톡, 토스 등 인기 민간 플랫폼에 다양한 디지털서비스를 개방해 국민이 직접 쓰기 편한 사이트를 골라 쓸 수 있다.정부 서비스 혁신의 핵심은 ‘마이 인공지능(AI)서비스’다. 자신이 받을 수 있는 복지제도·서비스를 미처 몰라서 받지 못했던 ‘신청주의’를 타파하기 위한 제도다. 현재는 국민비서를 통해 27종의 알림서비스를 민간 앱 등을 통해 제공하고 있지만 아직까진 서비스를 안내하는 데 그치고 있다.행안부 관계자는 “데이터 분석을 통해 필요한 서비스를 선제적으로 제공하고, 단순 알림이 아닌 서비스 전 과정을 처리할 수 있도록 지원할 예정”이라고 말했다. 이와 함께 모바일 신분증을 기반으로 전자증명서·공공마이데이터 및 각종 고지·알람과 복지혜택 등 정부의 맞춤형 서비스를 통합해 받을 수 있는 디지털 지갑 ‘지갑 24’서비스도 도입한다.각 정부 사이트에 흩어진 서비스를 한 곳으로 모아 제공하는 ‘원사이트 토털서비스’도 구축한다. ‘정부24’의 경우 현재 8만여 개의 서비스를 제공하고 있지만 여전히 연계되지 않는 서비스가 많다. 이를 모두 연결해 제공하고, 민간 사이트에서도 동일하게 사용할 수 있도록 한다.일례로 부동산 소유권 이전 등기를 하려면 기관 3곳을 방문하고 웹사이트 9곳에서 17종의 서류를 발급받아야 한다. 그러나 원사이트 토탈 서비스가 도입되면 정부24 또는 네이버·카카오톡 같은 민간사이트에서도 한 번에 처리할 수 있게 된다.행안부 관계자는 “앞으로 자신이 원하는 사이트에서 맞춤형 서비스를 원스톱으로 처리할 수 있게 될 것”이라며 “정부는 부처 간 칸막이를 걷어내고, 기업은 새로운 부가가치를 창출할 수 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.11.13.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>증권사로 간 '금리 빠꼼이들' .. 6% 발행어음 CMA에 몰렸다</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004927130?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>발행어음형 CMA 잔액 추이 /그래픽=정기현 기자 [파이낸셜뉴스] 금리 인상이 지속되면서 증권사 발행어음에 시중자금이 몰리고 있다. 반대로 증시 대기자금(고객예탁금)은 급격히 빠져나가면서 연중 최저치를 경신했다. 더 높은 금리 상품을 찾아다니는 ‘금리 노마드족’의 발걸음이 빨라진 것이다.     수식입출식도 파킹통장보다 금리 높아  13일 금융투자협회에 따르면 발행어음형 종합자산관리계좌(CMA) 잔액은 11조4460억원(8일 기준)으로 지난해 같은 시기(6조3308억원)와 비교하면 두 배 가까이 급증했다. 지난달 31일에는 12조7183억원으로 역대 최고치를 찍은 바 있다.   증권사 CMA는 운용대상에 따라 환매조건부채권(RP)형, 머니마켓펀드(MMF)형, 머니마켓랩(MMW)형, 발행어음형 등으로 나뉜다. 발행어음형 CMA는 발행어음에 투자하는 것으로 증권사가 자금조달을 위해 자체 신용을 바탕으로 발행하는 1년 이내 단기 금융상품이다. 미래에셋증권, 한국투자증권, NH투자증권, KB증권 4곳에서 판매하고 있다.   금리 인상기를 맞아 발행어음 상품의 금리가 덩달아 높아지면서 뭉칫돈이 몰리는 것으로 보인다. 현재 4곳의 만기가 정해져 있지 않은 수시입출식 발행어음 상품의 금리는 연 3.5%대다. 미래에셋증권이 3.65%로 가장 높고, 나머지는 3.55%다. 인터넷전문은행 가운데 높은 금리를 자랑하던 케이뱅크(2.7%), 카카오뱅크(2.6%) 등의 파킹통장보다 높은 셈이다.   1년 약정 발행어음 금리는 모두 5%대로 더 높다. 지난달 미래에셋증권(4.10→5.05%), 한국투자증권(4.75→5.10%), KB증권(3.05→5.00%)이 앞다퉈 5%대로 인상한 데 이어 NH투자증권도 최근 4.5%에서 5.10%로 올렸다. 특판으로는 나온 상품은 이들보다 더 높다. 한국투자증권이 토스뱅크를 통해 판매하는 1년 만기형 발행어음 특판상품의 금리는 5.7%에 이른다.   6%대도 있다. KB증권은 이달 7일 마이데이터 가입고객을 대상으로 연 6% 약정식 특판 발행어음을 내놨다. KB증권 관계자는 “고금리 추세에 발맞춰 증권사에서 처음 연 6%의 발행어음 상품을 선보였다”고 전했다.     발행어음 잔액 1년새 2배.. 주식예탁금은 연중 최저  시중은행의 예·적금 금리에 뒤지지 않으면서 발행어음 수신잔고가 급증하는 등 투자자들의 관심도 쏠리고 있다. 미래에셋증권의 발행어음 수신잔고는 올해 9월 기준 4조4232억원으로 지난해 말(4365억원)보다 90.13% 늘어났다.   KB증권은 같은 기간 4조4745억원에서 6조7844억원으로 34.04%, 한국투자증권은 8조3719억원에서 11조9500억원으로 29.94% 각각 늘었다. 앞서 한국투자증권이 지난 8월 2000억원 한도로 선보인 연 4%대 고금리 특판 발행어음은 나흘 만에 완판되기도 했다.   유동성 위기로 증권사들이 자금 조달에 난항을 겪는 가운데 발행어음이 자금 확보에 도움이 되면서 일석이조의 효과를 거두고 있다는 평가도 나온다.   황세운 자본시장연구원 선임연구위원은 “제2의 유동성 확보가 중요한 시점에서 발행어음이 큰 역할을 하고 있다”며 “초대형 증권사들만 판매 중인 발행어음은 상대적으로 안정적이기 때문에 고금리를 찾는 일반 투자자들에게도 좋은 창구가 되고 있다”고 설명했다.   이와 달리, 개인투자자들이 떠나면서 주식시장은 점점 몸집이 축소되고 있다. 금융투자협회에 따르면 투자자예탁금은 46조9385억원(8일 기준)으로 연중 최소치를 경신했다. 지난달 2년 3개월 만에 50조원이 붕괴된 이후 감소 추세가 지속되는 모습이다.   금융투자업계 관계자는 "증시는 부진하고, 금리인상이 계속되면서 고금리 상품에 대한 투자자들의 관심이 높다"며 "기준금리가 더 높아질 가능성이 많은 만큼 발행어음 상품의 금리도 당분간 상승할 것으로 보인다"고 말했다. #고금리 #발행어음 #발행어음CMA</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.11.08.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>[라이프 트렌드&amp;] Beautiful Life! 디자이너·소상공인·시민이 함께 즐겼다</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003236644?sid=103</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>대한민국 대표 디자인 축제 ‘서울디자인 2022’ 성료     소상공인과 전문 디자이너 협력     우수상 선정 120종 제품 선보여      청년 디자이너의 취·창업 지원     다양한 시민체험 프로그램도      국내 대표적인 디자인 축제인 서‘울디자인 2022’가 시민과 디자인계의 높은 관심을 얻으며 성황리에 마무리됐다. [포스터 서울디자인재단]      DDP디자인페어에서 소개된 작품들. 소상공인 약 180개 팀과 전문 디자이너가 힘을 합쳐 약 5 개월간 개발한 120종의 신제품과 유망 디자인 스튜디오에서 론칭한 19개 제품이 선보였다.           서울시가 주최하고 서울디자인재단이 주관하는 국내 대표적인 디자인 축제인  ‘서울디자인 2022’가 시민과 디자인계의 뜨거운 관심을 얻으며 성황리에 마무리됐다. 지난달 19일부터 이달 2일까지 동대문디자인플라자(이하 DDP)를 중심으로 한 서울시 일대와 메타버스에서 온·오프라인에서 진행된 이번 행사에선 전시·포럼·마켓·이벤트 등 20개가 넘는 프로그램이 선보여 주목받았다.     ━   디자인 종합 MICE행사로 성공적 자리매김      서울디자인재단이 2014년부터 8년간 진행한 시민 디자인축제 ‘서울디자인위크’와 2019년부터 3년간 진행한 아시아 대표 디자인 론칭페어 ‘DDP디자인페어’는 DDP를 중심으로 열리는 서울시의 대표적인 연례행사다. 이 두 행사를 통합해 개최한 서울디자인 2022는 디자인 종합 MICE행사를 표방했다.      서울디자인 2022는 행사 기간을 연장하고, 공간을 DDP를 비롯한 서울시 일대로 확장해 전문성과 퀄리티를 강화했다. 특히 시민참여 행사, 지역상권과 함께하는 기획, 디자인 학회·협회 등과의 협력 전시를 통해 한층 성숙해진 디자인 축제로 발전했다는 평가를 받았다.      서울디자인 2022의 주제는 ‘Beautiful Life’였다. 더 나은 삶과 지속할 수 있는 삶, 상호를 존중하는 공공성을 회복하는 삶, 코로나19 사태 이후 회복할 아름다운 삶을 디자인을 통해 해결하고자 하는 희망의 의미를 담았다.      서울디자인 2022에선 ▶디자인 전시 컨벤션 ▶디자인 포럼 ▶영디자이너 워크숍 ▶디자인 마켓 ▶잡페어 ▶팝업 전시 ▶디자인 스팟 ▶시민체험 프로그램 ▶디자이너 네트워킹 ▶국제 디자인트렌드 포럼 ▶청년디자이너 취·창업 지원 프로그램 등이 선보였다. 행사의 주제인 ‘Beautiful Life’를 반영한 다양한 콘텐트는 참여 디자이너와 디자인 기업, 관람객들로부터 호평을 받았고, 서울디자인 2022를 모두가 즐기는 디자인 축제로 승화시켰다.      이길형(한국디자인단체총연합회 명예회장) 서울디자인 2022 운영위원장은 “디자인을 통한 지속 가능한 미래 구현이라는 원론적 선언과 동시에 디자인 MICE 플랫폼이자 글로벌 디자인 허브로서 DDP의 글로벌 위상을 제고할 수 있었다”고 전했다.     ━   디자인 비즈니스 플랫폼으로서도 큰 성과      서울디자인 2022는 디자인 비즈니스 플랫폼으로서의 역할도 톡톡히 했다. 핵심 콘텐트인 ‘DDP디자인페어’와 ‘B2B 바이어 데이’ ‘바이어 매칭 프로그램’ 등을 통해 비즈니스 성과를 냈다.      특히 디자이너와 소상공인을 매칭하는 DDP디자인페어가 주목받았다. 이 프로젝트는 제품 개발부터 활로 개척까지 지원하는, 다른 디자인박람회와의 차별화로 국내외 디자인계 및 산업계에서 큰 관심을 받아왔다.      올해 DDP디자인페어에선 소상공인 약 180개 팀과 전문 디자이너가 힘을 합쳐 약 5개월간 제품을 개발했다. 그중 지난 8월 큐레이터와 디자인 전문가의 심사를 거쳐 우수상으로 선정된 120종의 신제품과 유망 디자인스튜디오에서 론칭한 19개 제품이 선보였다. 심사는 상품성·전시 적합성·창의성에 중점을 두고 이뤄졌다.      최우수상인  ‘서울시장상’을 받은 전형호 디자이너는 “소상공인과의 협업을 통해 양산 프로세스를 직접 볼 수 있는 새로운 경험을 할 수 있어 뜻깊었다”고 소감을 전했다. 또한 소상공인으로서 서울시장상을 받은 ‘어고 스튜디오’ 한동기 대표는 “금속 재료를 사용하는 실험적인 작업으로 가구 구조에 대한 견해가 넓어진 것 같다”고 말했다.      청년 디자이너를 지원하는 ‘영디자이너 주제 워크숍 &amp; 전시’와 ‘영디자이너 잡페어’도 큰 관심을 끌었다. 영디자이너 주제 워크숍 &amp; 전시는 약 70명의 젊은 디자이너와 멘토를 맡은 디자인계 선배 15명이 함께 행사 주제인 ‘뷰티풀 라이프’를 인문학적으로 해석한 결과물을 만드는 프로젝트다. 5월부터 4개월간 4번에 걸친 공통 워크숍과 멘토와의 수시 팀별 워크숍을 통해 탄생한 결과물을 오픈스튜디오 형태로 아트홀 1관에서 선보였다.      ‘영디자이너 잡페어’는 올해 3회째를 맞은 영디자이너 취업 지원프로그램이다. 지난해 참여한 디자이너 70명 중 29명(42%)이 희망 기업에 취업하는 성과를 냈다. 첫해엔 온라인 구인·구직 플랫폼으로 시작했으나 다음 해부터 현업에 활동 중인 선배 디자이너를 멘토로 영입해 멘토링 프로그램을 시작하는 등 취업 지원프로그램을 강화했다.      올해도 영 디자이너들의 선호도를 반영해 삼성·LG·토스·라인프렌즈·GS리테일 등의 현직 디자이너 23명을 멘토로 영입했다. 프로그램에 참여한 90여 명의 영디자이너는 8월 말까지 포토폴리오와 자기소개서 코칭, 모의면접 등 총 5회의 멘토링을 완료했다.      이번 서울디자인 2022에선 성수동·연남동·을지로 등 서울의 대표적 힙플레이스 100곳이 참여한 ‘서울디자인 2022 스팟’도 능동적 시민 참여의 모델로 자리 잡으며 관심을 끌었다. 서울디자인 2022의 공간적 확장을 위해 진행된 프로젝트로서, 기획의 일환으로 제작된 서울 디자인 스팟 지도와 홈페이지는 국내외 여행객을 위해 긴요하게 활용될 것으로 기대된다.      아울러 지난달 27일 열린 ‘디자이너의 밤: 디자인 네트워킹 파티’는 서울디자인 2022를 만들고 참여한 모든 사람을 위한 축제 한마당이었다. 디자이너·디자인기업·바이어·서울시민·도슨트·서울디자인재단 관계자들이 모여 서로를 위로하면서 행사의 의미를 되새겼다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.11.11.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>FTX 뱅크먼 프리드 "미안하다, 내가 일 망쳤다" 공식 사과</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004926660?sid=105</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>[샘 뱅크먼-프리드 페이스북 캡처. 재판매 및 DB 금지]  [파이낸셜뉴스] 샘 뱅크먼 프리드 FTX 최고경영자(CEO)가 10일(현지시간) 파산 위기에 놓인 FTX 사태에 공식 사과했다. 그는 94억달러에 달하는 자금조달을 모색하기 위해 투자자들과 접촉 중이라고 말했다.   야후파이낸스에 따르면 뱅크먼 프리드 CEO는 이날 자신의 트위터 계정에 "미안하다"고 사과했다. 그는 "내가 모든 일을 망쳤다. 더 잘했어야 했다"며 "더 많은 의사소통을 했어야 했지만 한동안 바이낸스와의 거래에 손이 묶여있었다"고 밝혔다.   FTX가 파산에 이르게 된 직접적인 원인이 된 지난 6일 뱅크런(가상자산 대량 인출) 사태에 대해서는 "애초에 생각한 것과 지난 6일의 대량 출금 사태의 양상이 전혀 달랐다"며 "이 같은 규모의 뱅크런은 예상하지 못했다"고 해명했다.   그는 "1순위는 이용자들을 위해 옳은 일을 하는 것"이라며 "현재 유동성을 최대한 끌어모으기 위해 노력하고 있다"고 했다.   이어 "지금도 여러 이해관계자를 만나 투자의향서(LOI), 거래 조건 등에 대해 논의하고 있다"며 아직 회생 시도가 진행 중이라고 강조했다.   일부 매체 보도에 따르면 이날 뱅크먼 프리드 CEO는 94억달러 자금을 조달하기 위해 다른 투자자 및 가상자산 업체 대표들을 접촉하고 있다.   그는 트론을 창업한 저스틴 선, 코인거래소 OKX, 스테이블코인 테더 플랫폼 등으로부터 각각 10억달러를 조달하는 방안을 논의 중이다.   한편 가상자산 시장의 '워런 버핏'이라 불리며 각광받던 30대 억만장자인 뱅크먼 프리드가 하루 아침에 추락하자 업계에서는 충격을 금치 못하고 있다.   미국 매사추세츠공대(MIT) 물리학과 수학을 전공한 그는 대형 퀀트투자사 제인스트리트캐피탈을 거쳐 2019년 5월 가상자산 거래소 FTX를 창업했다. 그보다 2년 앞선 2017년 FTX 계열사이자 이번 유동성 위기 사태의 발단이 된 알라메다리서치를 설립했다.   FTX는 가상자산 파생상품 거래를 무기로 빠르게 성장하며 거래량 기준 세계 3위 가상자산 거래소에 올랐다. 올해 1월 시리즈C 투자유치 당시 FTX의 기업가치는 320억달러로 평가 받았다.   올해 가상자산 혹한기에 뱅크먼 프리드는 '백기사' 역할을 해왔다. 올해 FTX는 알라메다를 통해 블록파이, 보이저 등 업체에 7억5000만달러대 구제 금융을 제공했다. FTX의 벤처캐피털인 FTX벤처스 역시 앱토스랩스, 메사리, 스카이마비스, 레이어제로, 유가랩스, 1인치네트워크 등 다수 가상자산 스타트업에 투자했다. 샘 뱅크먼 프리드 FTX 대표는 "시장을 위해서라면 더 좋지 않은 거래도 고려할 수 있다"고 말하기도 했다.   최근에는 미국 정계 로비 거물로 주목받기도 했다. 뱅크먼 프리드는 이번 미 중간선거를 앞두고 3000만달러 넘는 후원금을 정치권에 내놓으며 '가장 많이 후원한 미국 기업인 10인' 명단에 이름을 올렸다. 특히 올해 8월까지 민주당에만 3600만달러를 후원한 것으로 알려졌다.   블룸버그 억만장자지수에 따르면 뱅크먼 프리드의 자산은 한 때 260억달러로 평가됐다. 그러나 이번 사태로 FTX코인(FTT) 가격이 폭락하면서 그의 자산은 하루만에 94% 급감한 9억9150만달러로 주저앉았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.11.13.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>[80년대생 뉴오너 시대③] 그들을 지배하는 키워드는?</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011533099?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>기사내용 요약뚜렷한 '목적(Aim) 의식'과 '최고(Best)' 지향'소통(Communication)' 중시…수평적 리더십 디지털(Digital) 기반 온라인 비즈니스 강화미래 먹거리 확보 위한 사업 확장(Expansion) 계속돼[서울=뉴시스]안경무 기자 = 1980년대생 오너 경영인들은 젊은 나이만큼 새로운 키워드로 무장하고 있다. 아버지로부터 배운 경영수업에 자신의 젊은 감각을 더해 저마다 경영 색깔이 남다르다. 하지만 이들에게도 공통적인 경영 특징이 포착되는데, 이를 알파벳 A부터 E까지 5가지 키워드로 정리해본다.뚜렷한 '목적(Aim) 의식'과 '최고(Best)' 지향[서울=뉴시스] 한화그룹은 29일 9개 계열사 대표이사 내정 인사를 발표했다. 사진은 부회장으로 승진한 김동관 한화솔루션 사장. (사진=한화그룹 제공) 2022.08.29. photo@newsis.com *재판매 및 DB 금지한화그룹은 김승연 회장의 장남인 김동관 부회장 경영 체제를 갈수록 확고히 하고 있다. 최근 방위산업 부문을 통합하고, 태양광 사업 강화를 골자로 하는 사업 구조 개편을 단행한 것이 대표적이다. 이는 김동관 부회장의 '글로벌 방산 탑 10 기업 진입'이라는 뚜렷한 경영 목표가 강하게 작용했다. 구체적으로 김 부회장이 맡고 있는 한화에어로스페이스가 이달 1일자로 자회사 한화디펜스를 흡수합병했고, 오는 30일엔 한화 방산 부문 주식을 100% 취득한다. 이를 통해 김 부회장은 한화그룹 근간을 이루는 방산 사업들을 한 데 모아 글로벌 탑티어 방산 기업을 탄생시킨다는 목표다.[서울=뉴시스]이규호 코오롱모빌리티그룹 대표이사 사장 (사진=코오롱그룹 제공) *재판매 및 DB 금지최근 승진한 이규호 코오롱모빌리티그룹 사장은 '1등 DNA'를 강조하며 조직원에게 최고로 거듭날 것을 당부했다. 올해 1월 이 사장은 코오롱글로벌 자동차부문 임직원에게 직접 메시지를 작성해 전달하며 "자기 반성적 고찰로 미래 성장의 기회를 창출하고, 지금의 성과가 스스로의 힘에서 비롯된 것인지 되돌아보고 우리만의 방법론을 세워 1등 DNA를 만들어 내야 한다"고 강조하기도 했다. 최고를 지향하는 경영 방침은 실제 실적 개선으로 이어지는 양상이다. 이 사장이 지난해 맡기 시작한 자동차 부문 매출은 2조원을 넘어 전년 대비 40% 매출 신장을 보이며 역대 최대 실적을 달성했다. 영업이익도 571억을 기록해 65% 이상 늘었다.'소통(Communication)' 중시하는 수평적 리더십 강조[서울=뉴시스] 정기선 한국조선해양 사장(사진=현대중공업그룹) *재판매 및 DB 금지정기선 HD현대 사장은 '소통'을 강조하는 대표 리더로 꼽힌다. 올 초 미국에서 열린 CES 2022에서 정 사장은 지난해 입사한 1999년생 직원과 나란히 연단에 섰다. 이 자리에서 정 대표는 이 직원에게 "긴장하지 말고 같이 잘해봅시다, 잘하고 있어요"라고 독려하며 편안한 분위기를 연출했다. 정 대표는 자회사 부스에 직접 도넛을 사들고 방문해 직원들과 소통하기도 했다. 이 행사를 다녀온 후 동행한 직원들에게 직접 감사 편지를 전달하는 수평적 리더십도 보여줬다.[서울=뉴시스] 장선익 동국제강 상무(사진=동국제강) 2022.11.11 photo@newsis.com *재판매 및 DB 금지 장선익 동국제강 상무는 2020년 12월 인천공장 생산담당 상무로 임명돼 생산 부문을 총괄하고 있다. 이 회사는 오너 일가가 대대로 현장 경험을 중시해왔는데, 제조업 기반 회사에서 현장에 대한 이해 없이는 경영의 방향성 확립이 어렵다는 판단으로 장 상무를 생산 부문에 배치했다. 장 상무는 특히 인천 공장에서 직원과의 소통에 집중하는 것으로 알려졌다. 그는 인천공장 바비큐 행사에 직접 참가해 직원들의 목소리에 귀 기울이고, 이를 통해 사업장 내실을 강화하는 데 집중하고 있다. 디지털(Digital) 친화 행보와 계속되는 사업 확장(Expansion)이규호 코오롱모빌리티그룹 사장은 '디지털 트랜스포메이션'을 중점 과제로 선정해 MZ세대를 타킷으로 한 온라인 비즈니스 강화에 집중하고 있다. 지난해 12월 모바일 금융전문서비스 토스를 운영 중인 비바퍼블리카와 파트너십을 체결해 핀테크를 활용한 전자결제시스템을 도입하기도 했다. 이어 자동차 구매 등 관련 서비스 이용에 온라인 결제가 가능하도록 지원했다. BMW 공식 딜러사로 MZ세대들의 관심을 받는 e모터스포츠 경기 후원에도 나섰다. 회사 측은 "단순한 자동차 유통을 넘어 모터스포츠 문화까지 사업 영역을 확장해 모빌리티 기업으로서 전문성과 브랜드 가치를 축적하기 위함"이라고 설명했다. 부친으로부터 물려받은 사업을 단순히 유지하는 것에서 벗어나 계속된 사업 확장을 도모하는 것도 80년대생 오너들의 공통점이다. [서울=뉴시스] HD현대 정기선 사장과 팔란티어 피터 틸 회장이 조인트벤처를 설립하기로 하고 기념사진을 촬영하고 있다. (사진=HD현대 제공) *재판매 및 DB 금지정기선 HD현대 사장도 빅데이터 기업인 미국 팔란티어 테크놀로지스 피터 틸(Peter Thiel) 공동 창업자 겸 회장과 최근 만나 신규 사업 추진과 경영 현안 전반을 논의하는 등 디지털 트랜스포메이션에 적극적이다. 정 사장은 이 자리에서 양사가 협력 중인 현대중공업그룹의 조선, 에너지, 건설기계 사업분야 전반에 걸친 디지털 전환(DX) 진행 사항을 점검했다. 세계 각국의 인플레이션과 금리 인상 움직임, 에너지 복합 위기 등 경영 환경 변화에 대한 의견을 교환하고 성장 전략 아이디어도 함께 공유했다.재계 관계자는 80년대생 오너들에 대해 "유연한 사고와 수평적 리더십, 해외 경험을 통한 뛰어난 글로벌 감각이 이들의  공통된 특징"이라며 "부친 세대에서 물려 받은 강력한 목표 의식과 1등 주의가 몸에 배 있어 충분히 시너지 효과를 낼 수 있다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.11.02.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>대출비교 무한경쟁 시대…중저신용자 선택률 가장 높다는 '이곳' [긱스]</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004770071?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>온투업계 3위 '어니스트펀드' 신윤제 CDO 인터뷰100% AI 신용평가로 금리·한도 개선대출 플랫폼서 선택률 2~3배 더 높아신용대출 출시 두 달만에 100억원 달성경제성장률·기준금리·실업률 등 거시지표도 신용평가에 반영 예정이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.올 상반기 토스·카카오페이·핀다 등 3대 대출 비교 플랫폼을 통해 실행된 대출은 모두 71만2454건. 작년 연간 대출 건수(80만9687건)를 반년 만에 거의 따라잡았다. 대출 금액도 9조9951억원에 달해 '대출 호황'이었던 작년 연간 규모(12조6691억원)의 80%를 이미 채웠다. 그만큼 대출 비교 플랫폼이 활성화됐다는 뜻이다.  은행 저축은행 카드사 캐피털 등 다양한 업권의 금융사 수십곳이 입점한 대출 비교 플랫폼에서 최근 유독 소비자의 선택을 많이 받고 있는 회사가 있다. 옛 P2P(Peer to peer·이용자간) 금융으로 익숙한 온라인투자연계금융업체 '어니스트펀드'다. 온투업은 온라인 플랫폼을 통해 대출 희망자와 투자자를 연결해주는 금융업이다. 어니스트펀드가 지난 7월 새로 출시한 개인신용대출 상품은 최근 주요 대출 비교 플랫폼에서 다른 금융사보다 평균 두 배 이상 높은 선택률을 나타내고 있다. 고금리 예금의 등장으로 투자자 모집이 원활하지 않은 가운데서도 대출 취급액은 상품 출시 두 달여 만에 100억원을 넘어섰다. 자체 개발한 머신러닝 기반 대안신용평가모델(CSS)을 통해 상대적으로 낮은 금리와 높은 한도를 제시한 것이 통했다는 설명이다.  서울 여의도 어니스트펀드 본사에서 만난 신윤제 어니스트펀드 최고데이터책임자(CDO) 겸 인공지능랩장은 "순수 AI 기반의 CSS를 가동하면서 대출 심사 변별력이 크게 높아졌다. 리스크를 통제하면서도 더 많은 사람에게 대출을 승인해줄 수 있게 됐다는 뜻"이라며 "타사 대비 대출 한도는 약 1.4배 높이고, 금리는 저축은행 평균 금리보다 2.6%포인트 더 낮췄다"고 했다.  대출 업무가 핵심인 금융사에 있어 신용평가는 가장 손꼽히는 역량이다. 대출 비교 플랫폼 활성화로 소비자가 앉아서 수십 개 금융사의 대출 조건을 한 번에 조회할 수 있는 환경이 되면서 개인의 갚을 능력을 정확히 평가하는 역량은 더욱 중요해졌다. 신 CDO는 "지금처럼 비대면 대출 비교가 늘어나는 상황에서는 다른 금융사와 차별화되는 대안신용평가모델을 갖추는 게 핵심"이라며 "금리가 급격하게 오르고 경제 성장이 둔화하는 환경에 발맞춰 대내외 거시 지표도 개인 신용평가에 반영할 예정"이라고 말했다.  13년 신용평가 솔루션 전문가, 어니스트펀드로어니스트펀드는 2015년 2월 설립됐다. 국내에 P2P금융을 내건 업체가 다섯 곳이 채 안 됐을 때다. 어니스트펀드는 업계 최초로 자동분산투자시스템을 도입하고, 개인신용대출은 물론 부동산담보대출, 부동산자산유동화대출(ABL) 등 다양한 금융상품을 백화점식으로 출시하며 종합 포트폴리오를 제공하는 서비스로 인기를 끌었다. 올 9월 말 기준 이 회사의 누적 투자금액은 1조2811억원, 연평균 수익률은 11.39%에 달한다. 대출잔액 기준으로는 48개 등록 업체 중 3위다.  하지만 여정은 순탄하지 않았다. 규제 공백 속에 2018년 즈음에는 P2P 업체가 200곳 넘게 난립했다. 부실·사기 등 크고 작은 사건 사고가 이어지며 P2P 금융 전체가 뭉뚱그려 천덕꾸러기 취급을 받았다. 어니스트펀드처럼 업력이 길고 취급 대출 규모가 큰 상위 업체도 찬바람을 피하지 못했다. 어니스트펀드는 개인 투자자 유치가 어려워졌던 2019년부터 개인신용대출 취급을 아예 중단했다.  이후 2020년 온투업법이 시행되면서 업계도 재정비를 거쳤다. 지난해 8월부터는 당국의 정식 승인을 받아 등록된 업체만 영업할 수 있게 됐다. 어니스트펀드는 지난해 8월 온투업자로 정식 등록하고 그 해 10월에는 산업은행·미래에셋증권으로부터 110억원 브릿지 투자도 유치했다. 사업을 정상화할 준비를 마친 것이다. 어니스트펀드는 금융·신용평가·AI·법률 등 분야별 전문가를 대거 충원하고 올 7월엔 개인신용대출을 재개했다.신윤제 어니스트펀드 최고데이터책임자(CDO) 겸 인공지능랩장이 서울 여의도 본사에서 한국경제신문과 인터뷰를 하고 있다. 어니스트펀드 제공 신윤제 CDO 겸 AI랩장은 어니스트펀드가 이 과정에서 영입한 핵심 인력이다. 국내 굴지의 신용평가사(CB)인 나이스평가정보에서 13년을 근무한 신 CDO는 지난해 10월 어니스트펀드에 합류했다. 솔루션팀 리더였던 그는 나이스평가정보에서 신용평가모델을 설계하고 금융사에 이를 도입하는 업무를 해왔다.  신 CDO는 "신용평가모델을 구축하는 것은 CB사이지만 실제로 그것을 운영하고 소비자의 반응을 얻어낼 수 있는 것은 금융사"라며 "비대면 대출, 금융 플랫폼의 성장으로 급변하는 시장에서 플레이어로서 직접 신용평가모델을 설계하고 운영해보고 싶었다"고 했다. 다른 업권이 아닌 온투업을 택한 이유에 대해서도 그는 "온투업은 이제 라이선스를 받아 새롭게 시작하는 '리부팅' 단계"라며 "다양한 설계를 처음부터 할 수 있는 부분이 매력"이라고 했다.  머신러닝 AI만으로 신용평가 똑같은 리스크로 승인율 67%↑ 어니스트펀드는 신 CDO 합류 직후 신용평가모델 고도화에 착수했다. 그 결과물이 현재 어니스트펀드가 운영 중인 'CSS 3.0'이다.  CSS 3.0은 순수하게 머신러닝 AI로만 대출 가능 여부와 금리·한도를 결정하는 게 특징이다. 과거 1.0, 2.0 버전은 전통적인 평점표(스코어카드) 방식이었던 것과 차별된다. 평점표는 10~20개 안팎의 정보를 토대로 개인의 신용을 점수를 매겨 평가하는 방식을 말한다. KCB·나이스 신용점수가 대표적이다. 현재 대부분의 금융사가 주로 쓰는 방식이기도 하다.  평점표 방식은 가령 '12개월 내 대출 연체 건수' '2금융권 대출 건수'처럼 계량화가 쉬운 정보를 중심으로 신용을 평가한다. 12개월 내 연체가 한 건도 없었으면 50점, 한 건이면 38점, 두 건이면 0점을 매기는 식이다. 이렇게 여러 항목의 점수를 합쳐 전체 신용 점수를 산출한다. 항목당 점수가 정해져 있기 때문에 소비자에게 설명하기 쉽다는 게 장점이지만, 대량의 다양한 데이터를 신용 평가에 반영하기는 사실상 불가능하다는 게 평점표 방식의 한계다. 특히 대출 비교 플랫폼의 등장으로 대출 조회가 기하급수적으로 늘어나고 개인의 신용을 보다 정교하게 평가해야 할 필요성이 커지면서 이런 문제점이 더욱 두드러지고 있다.  어니스트펀드가 머신러닝 기반의 CSS 3.0을 개발한 것도 이런 이유에서다. 어니스트펀드는 100% 평점표 방식의 CSS 1.0, 평점표로 산출된 심사 결과를 머신러닝 기반 심사로 보정하는 CSS 2.0을 거쳐 이제는 100% 머신러닝으로 개인 신용을 평가하는 CSS 3.0을 도입했다.신윤제 어니스트펀드 최고데이터책임자(CDO) 겸 인공지능랩장이 서울 여의도 본사에서 한국경제신문과 인터뷰를 하고 있다. 어니스트펀드 제공 CSS 3.0은 기존의 일반 금융 데이터 외에도 비신용 데이터 200여 개를 적용해 개인별로 더 정확하고 신속한 평가가 가능하다는 게 회사 측의 설명이다. 가령 대출자가 재직하는 회사의 재무 정보나 온라인 행동패턴, 금융 심리데이터 등 훨씬 다양한 정보를 활용해 개인의 상환 능력을 추정할 수 있다. 신 CDO는 "평점표 방식은 태생적으로 활용할 수 있는 정보가 10~20개 정보로 한정되지만 머신러닝을 활용하면 학습할 수 있는 데이터가 무궁무진해진다"며 "여러 개 정보를 결합해 새로운 평가 항목을 만들어낼 수 있다는 것도 머신러닝 기반 CSS의 장점"이라고 했다.  신용평가가 정교해지면 변별력은 올라간다. 어니스트펀드에 따르면 CSS 3.0은 종전 모델에 비해 변별력이 대폭 개선됐다. 숫자로 따져보면 대출 부실이 발생할 리스크는 동일하게 통제하면서도 승인율은 기존보다 67% 높일 수 있게 됐다. 반대로 승인율을 유지하면서 불량률(대출을 받아간 사람이 향후 연체를 일으킬 가능성)은 53% 낮추는 것도 가능하다. 리스크가 낮아지면 그만큼 대출 금리를 낮출 수 있다.  신 CDO는 "기존에는 대출을 받지 못했던 금융소외자에게도 새로운 CSS 하에서는 대출을 내줄 수 있다. 포용적 금융을 달성할 수 있다는 뜻"이라며 "동일한 상품이어도 기존보다 더 높은 승인율이나 더 낮은 금리를 제시하는 게 가능해진다"고 강조했다.  대출 플랫폼서 선택률 2~3배 더 높아실제 어니스트펀드가 지난 7월 재개한 개인신용대출 상품은 상대적으로 낮은 금리와 높은 한도로 대출 비교 플랫폼에서 두각을 나타내고 있다. 어니스트펀드에 따르면 62개 금융사가 입점한 대출 비교·중개 플랫폼 핀다에서 대출을 조회해본 사람이 어니스트펀드를 선택할 확률은 다른 금융사 대비 평균 2.4배 높은 것으로 나타났다.  어니스트펀드를 찾는 대출 희망자의 대부분은 신용점수가 770점 안팎이다. 저축은행이나 캐피털 같은 제2금융권 대출을 주로 이용하는 중·저신용자들이다. 어니스트펀드 대출의 경우 기존 저축은행에 비해 대출 금리는 평균 2.6%포인트 낮게, 한도는 약 40% 높게 나오다 보니 수요가 적지 않다는 설명이다. 어니스트펀드의 개인신용대출 상품 금리(수수료 포함)는 최저 연 5.4%, 최고 연 17.7% 수준이다. 신 CDO는 "현재 대출 비교 플랫폼에서 유입되는 건수를 보면 하루에만 약 5000억원의 대출 수요가 있다고 추정할 수 있다"며 "지금은 투자자금 유치 문제로 극소량만 대출을 내주고 있지만 기관투자 길이 열리면 수요에 부응할 수 있을 것"이라고 했다. 대내외 거시지표도 신용평가에 반영  어니스트펀드는 조만간 또 한 번의 CSS 업그레이드에 나설 계획이다. 경제 성장률, 실업률, 기준금리, 자영업자 비율, 다중채무자 비율 등 다양한 대내외 거시 지표를 CSS에 반영하는 게 핵심이다. 유례 없이 빠른 속도로 기준금리가 인상되고 경기 침체 우려가 제기되는 환경에 발맞춰 개인 신용평가도 고도화할 필요가 있다는 판단에 따라서다.  이렇게 되면 가령 금리가 인상되는 상황에서는 기존에 신용점수가 800점으로 평가됐던 사람도 700점으로 간주하고 보다 보수적으로 대출을 내줘야 한다는 판단이 가능해진다. 신 CDO는 "이제까지의 신용평가는 사실 과거의 데이터가 기반인데, 지금처럼 금리가 빠르고 급격하게 오르는 사례는 역사적으로도 희귀하기 때문에 과거 데이터만 반영해서는 개인이 받을 충격과 상환 능력의 변화를 제대로 평가하기 어렵다"며 "보다 동적인 신용평가 전략이 필요하다는 생각"이라고 말했다.  어니스트펀드는 내년중 소액 대출, 자영업자 대출, 신파일러 대출 등 특정 고객군에 맞춰 CSS를 꾸준히 업그레이드하고 맞춤형 대출 상품도 순차적으로 내놓을 계획이다. 이를 위해 새로운 데이터 확보부터 상품 설계 및 출시에 이르는 모든 과정을 머신러닝으로 설계하겠다는 게 신 CDO의 포부다.  그는 "AI랩장으로서 신용평가뿐 아니라 고객 유치, 상품 설계, 대출 실행, 사후관리 등 모든 과정에서 AI 기반 의사결정이 이뤄지도록 하겠다는 게 목표"라며 "해오던 방식과 관행이 얽매이지 않는 핀테크이기 때문에 가능한 것"이라고 했다. 이어 "제도권 진입 이전의 일들로 온투업에 대해 소비자들의 부정적 인식이 남아있는 게 사실이지만, 연체율과 부실률이 안정적으로 관리되고 믿을 수 있는 금융사라는 것이 향후 1~2년 내 증명되면 자연스럽게 평판이 만들어질 것이라고 본다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.11.10.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>한국청소년활동진흥원, 국민비서 통해 봉사활동 알림서비스 제공</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006448544?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>(좌측) 국민비서에서 청소년 봉사활동 알림서비스 신청 화면, (우측) 모바일로 봉사활동 알림을 수신한 화면(한국청소년활동진흥원 제공)(서울=뉴스1) 임해중 기자 = 한국청소년활동진흥원은 청소년이 더욱 편리하게 봉사활동에 참여할 수 있도록 국민비서를 통해 e청소년 자원봉사 Dovol(두볼)의 봉사활동 알림 서비스를 제공한다고 10일 밝혔다.국민비서 서비스는 행정안전부가 제공하는 대국민 알림 서비스로 카카오톡, 네이버, 토스 앱 등, 민간 앱으로 신청만 해 놓으면 각종 생활정보를 때맞춰 제공하고 있으며 현재 국민 4명 중 1명 이상이 사용 중인 서비스이다.한국청소년활동진흥원은 청소년 봉사활동 알림 서비스를 위하여 행정안전부의 지원을 받아 국민비서 서비스 기획 및 시스템 개발ㆍ관리를 추진해 왔다.청소년 봉사활동 알림 서비스는 △청소년들이 신청한 봉사활동을 알려주는 봉사활동 신청 알림 △봉사활동 1일 전 재 알림 △봉사활동 확인서 발급 알림 △신규 봉사활동 프로그램 알림 등 청소년 개인별로 맞춤화된 봉사활동 정보 11종이 카카오톡, 네이버를 포함한 8개의 민간 앱으로 안내된다.특히 청소년 봉사활동 알림 서비스는 국민비서 서비스로는 최초로 융복합 서비스를 개발, 12월부터는 별도의 로그인 절차 없이 사전 신청한 민간 앱으로 자신의 봉사활동 내역을 실시간 확인할 수 있다.아울러 국민비서 알림서비스 내 챗봇(상담)서비스도 함께 제공하여 청소년 봉사자가 궁금한 사항을 시간과 장소의 구애 없이 해결할 수 있게 된다.청소년 봉사활동 알림 서비스를 받기 위해서는 행정안전부 국민비서 사이트 혹은 국민비서 앱에 접속한 후 ‘청소년 봉사활동(Dovol)’ 알림 서비스를 신청하면 해당 서비스를 이용할 수 있다.이광호 한국청소년활동진흥원 이사장은 “이번 국민비서 알림서비스를 통해 봉사활동 편의성이 높아진 만큼 청소년들의 봉사활동 참여 문화가 확산되길 바란다”면서 “향후 AI 기술을 접목 활용해 개인별 맞춤형 서비스를 지속적으로 확대해 나갈 수 있도록 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.11.14.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>놓쳐서는 안 될 2023년 콘텐츠 트렌드는 무엇[이 주의 책]</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000062833?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>[이 주의 책]2023 콘텐츠가 전부다노가영‧김봉제‧이상협 지음 | 미래의창 | 1만8000원1974년 에미상의 역사를 뒤집은 ‘오징어 게임’에 이어 ‘지금 우리 학교는’, ‘이상한 변호사 우영우’, ‘수리남’까지 K-드라마의 글로벌 성공이 계속되고 있다. ‘스트릿 우먼 파이터’, ‘솔로지옥’과 같은 K-예능도 그 존재감을 뽐내며 K-콘텐츠의 상한가를 이어 가고 있다. 현재 우리가 놓쳐서는 안 될 최신 콘텐츠 트렌드는 무엇일까. 글로벌 온라인 동영상 서비스(OTT) 산업에서 일어나고 있는 커다란 변화부터 일본의 망가와 미국 코믹스가 주름잡던 글로벌 만화 시장을 점령한 웹툰의 비결, K-게임만의 오리지널리티를 통해 새로운 비상을 꿈꾸는 게임 산업, 크리에이터 이코노미가 실현되는 소셜 메타버스 세계의 이야기까지 더 넓고 더 깊어진 시각으로 시시각각 변화하는 콘텐츠·미디어 판을 샅샅이 살펴본다. 특히 ‘2023 콘텐츠 트렌드 키워드’와 ‘소년심판’, ‘솔로지옥’ 등 K-콘텐츠를 대표하는 전문가 9인과의 스페셜 인터뷰를 선보인다. 콘텐츠 산업의 화두는 무엇이고 관련 비즈니스는 어떻게 흘러가고 있는지 한눈에 파악할 수 있을 것이라고 저자는 말한다.신뢰를 팔아라샌드라 서처‧샬린 굽타 지음 | 박세연 역 | 더퀘스트 | 2만1000원파타고니아·애플·구글·러쉬…. 요즘 사람들이 열광하는 기업에는 ‘신뢰’가 두텁게 깔려 있다는 공통점이 있다. 특히 최근에는 환경·사회·지배구조(ESG)와 기업의 사회적 책임, 이해관계인 자본주의, 공정 키워드 등의 대두로 고객은 물론 직원들도 믿을 수 있는 기업을 까다롭게 고르고 있다. 그들은 이런 가치에 기반해 열정적으로 일하기도, 제품과 서비스를 구매하기도 한다. 신뢰는 기업의 물건만 팔아주는 게 아니다. 신뢰가 뒷받침된 기업은 실수나 문제가 드러나는 사건이 터졌을 때도 큰 흔들림 없이 다시 일어날 수 있다. 이 책은 신뢰의 속성을 크게 ‘역량, 동기, 공정한 수단, 선한 영향력’으로 나누고 조직에 적용하는 방법을 알려준다. 유난한 도전정경화 지음 | 북스톤 | 1만7000원2015년 토스 애플리케이션(앱)이 나온 후 사용자들이 간편 송금으로 아낀 시간을 모두 합하면 928억 시간이 넘는다. 대한민국 성인 2.5명 중 한 명은 토스 앱에서 자신의 신용 점수를 확인하고 신용 등급을 관리하기 시작했다. 퇴근길 버스에서, 잠들기 전 침대에서 클릭 몇 번으로 조건에 맞는 대출을 찾고 귀찮은 보험금 청구도 1분 이내에 완료했다. 간편 송금으로 시작해 뱅킹·증권·보험·결제 등을 아우르는 종합 금융 플랫폼으로 성장한 토스팀은 어떻게 이런 성과를 냈을까. 그들의 독특한 기업 문화는 어떻게 만들어졌을까. 창업자 등 35명을 인터뷰하고 회의록 등 내부 자료를 샅샅이 뒤져 토스가 달려온 11년의 유난한 도전사를 정리했다.니콜라스 다바스 박스이론니콜라스 다바스 지음 | 김나연 역 | 페이지2 | 1만6000원가장 완전한 투자 고전 시리즈 ‘월가의 영웅들’ 셋째 도서 ‘니콜라스 다바스 박스이론’이 출간됐다. 미국에서 출간되자마자 40만 부가 팔렸던 ‘나는 주식투자로 250만불을 벌었다’의 후속작이다. 중고 시장에서 최고 16만원까지 판매되는 ‘어메이징 박스이론’을 복간한 책이기도 하다. 주식 시장의 본질을 꿰뚫고 나서 니콜라스 다바스는 자신만의 투자 원칙과 박스이론을 만들었고 그만의 투자 원칙으로 성공했다. 박스이론의 성공담을 담은 첫 책과 달리 이 책에는 다바스만의 시장을 바라보는 날카로운 통찰과 함께 개인 투자자로서 기관이나 세력, 공매도에 흔들리지 않고 성공하는 노하우를 아낌없이 담았다. 팀장의 본질장윤혁 지음 | 빅피시 | 1만6800원유능한 업무 능력으로 회사에서 인정받아 남들보다 빠르게 팀장이 됐다. 그런데 막상 팀장이 되니 막막하고 당황스럽다. 관리 업무에 치이다 보면 실무는 뒷전이고 성과를 내기도 어렵다. 나름대로 팀원 관리도 하지만 팀원들의 불만은 늘고 퇴사자도 생긴다. 이러한 과정을 통해 실무 능력과 팀장의 역량은 별개라는 것을 알게 되지만 막상 배운 적은 없다. 문제는 알겠는데 해결책이 보이지 않는다. 특히 MZ세대(밀레니얼+Z세대) 팀원에게 인정받는 리더십, 동기 부여 방법에 대해 궁금하다. 이 책은 당장 현실에 적용할 만한 구체적인 사례와 방법론을 통해 팀장의 역할이 무엇인지 제시한다. 팀원들이 스스로 알아서 일하게 만드는 법을 담았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.11.03.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>디지털 전환 가속화…커지는 스타트업과 '협회들' 간 갈등 [긱스]</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004770590?sid=105</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.최근 스타트업 업계와 전문직 협회 간 '전선(戰線)'이 확대하고 있습니다. 프롭테크(부동산기술)업계를 겨낭한 규제 법안이 국회에 제출됐습니다. 기득권을 가진 한국공인중개사협회를 보호하기 위한 법안이라는 분석이 지배적이죠. 비슷한 일이 반복되고 있습니다. 스타트업이 정보기술(IT)을 앞세워 관련 산업의 디지털 전환에 나서자 기존 사업자들이 정부와 정치권을 끌어들여 크게 반발하고 있습니다. 기존 사업자는 소비자 보호를, 스타트업은 소비자 편익 증가를 각각 주장합니다. 일부 다툼은 경찰과 검찰의 수사, 재판으로 이어지기도 했습니다. 이 같은 상황에도 스타트업의 전문 영역 진출이 이어지고 이용자는 늘고 있습니다. 산업계의 변화 흐름을 무조건 막기는 어렵기 때문이죠. 한경 긱스(Geeks)가 심화하는 스타트업 업계와 전문직 단체 간 갈등을 짚어봤습니다. 타다금지법에 이어 직방금지법?김병욱 더불어민주당 의원은 지난달 공인중개사가 한국공인중개사협회(한공협)에 의무적으로 가입하도록 하는 내용의 공인중개사법 개정안을 대표 발의했다. 개정안에 따르면 12만여 명이 가입한 국내 최대 공인중개사 단체인 한공협을 법정단체로 인정하고, 앞으로 공인중개사가 개업하려면 한공협 회원으로 반드시 가입해야 한다. 한공협의 회원 감독 권한을 강화하는 내용도 담겼다. 정부가 놓칠 수 있는 사기 등 무질서한 부동산 중개 행위로부터 국민을 보호하겠다는 것이 개정안의 취지다.직방, 다방 등 스타트업 중심의 프롭테크(부동산기술)업계는 이 개정안에 거세게 반대하고 있다. “기존 공인중개사의 기득권만 보호하는 법”이라는 이유에서다. 개정안이 통과되면 한공협이 프롭테크업체와 제휴하는 중개사를 다양한 이유로 압박할 수 있다고 우려한다. 한국프롭테크포럼은 “특정 이익단체의 독점화에 따른 공정 경쟁 기반을 훼손하고 소비자 편익 침해와 서비스 다양성, 품질 저하 등의 부작용이 생길 것”이라고 강조했다. 프롭테크업계 관계자는 “부동산 중개 시장의 기득권 세력이 혁신은 외면하고 ‘반값 중개수수료’ 등 새로운 서비스를 시도하는 프롭테크업체를 견제하기 위해 정치권을 끌어들였다”고 말했다. 앞서 한공협은 프롭테크 기업이 신규 서비스를 내놓을 때마다 “골목상권 침해”라며 비난했다.변호사 광고 플랫폼 ‘로톡’을 운영하는 로앤컴퍼니와 대한변호사협회(변협) 간 대립도 격화하고 있다. 변협은 지난달 로톡에 가입한 변호사 9명에게 최대 과태료 300만원의 징계를 내렸다. 변협이 로톡 가입을 이유로 변호사를 징계한 것은 이번이 처음이다. 앞서 변협은 작년 5월 변협의 변호사 광고에 관한 규정을 개정해 로톡을 통한 변호사 알선 및 광고를 원천 차단했다.하지만 헌법재판소는 올해 5월 변협의 변호사 광고 규정에 대해 ‘일부 위헌’ 결정을 내렸다. 사건이 아니라 변호사 소개나 알선은 변협이 제재할 수 없다는 취지였다. 하지만 변협과 로앤컴퍼니는 각자 유리하게 헌재 판결을 해석하면서 양측의 충돌은 심화했다. 변협은 로톡의 서비스는 불법 브로커 같은 행위로 안전한 법률 서비스 제공을 위해 막아야 한다는 입장이다. 반면 로앤컴퍼니는 변호사와 법률 소비자 간 거리를 좁히고, 보다 많은 정보를 제공하는 리걸테크(법률기술) 서비스가 필요하다고 주장한다.의료 분야에서도 유망 스타트업과 협회 간 갈등이 커지고 있다. 비대면 진료 플랫폼 업체 닥터나우는 지난 6월 ‘원하는 약 담아두기’ 서비스를 출시 한 달 만에 중단했다. 서울특별시의사회가 “해당 서비스는 의료법·약사법 위반”이라며 닥터나우를 고발하면서다. ‘원하는 약 담아두기’는 환자가 닥타나우 앱에 나온 의약품 중 원하는 것을 골라 의사의 처방을 원격으로 받을 수 있는 서비스다. 의사회는 의료 관련 알선 행위를 금지한 의료법을 위반했다고 주장했다.대한의사협회는 성형정보 플랫폼 '강남언니'를 운영하는 힐링페이퍼와 사사건건 다투고 있다. 의협은 강남언니 등 온라인에 올라온 병원 홍보 게시글도 '의료 광고'라며 관련 협회의 심의를 받도록 소관 법령을 개정해야 한다고 정부에 요청하기도 했다. 연합뉴스대한의사협회는 성형정보 플랫폼 ‘강남언니’를 운영하는 힐링페이퍼와 사사건건 다투고 있다. 지난 9월에는 정부가 강남언니 등 온라인 의료 플랫폼을 통해 ‘비급여 진료비’ 정보를 공개할 수 있도록 허용하자 의료계가 반발했다. 의협은 “비급여 진료비 정보가 공개된다면 환자들이 진료비만 단순 비교하고 의료기관을 선택하는 상황이 조성될 우려가 있다”고 주장했다. 의협은 강남언니 등 온라인에 올라온 병원 홍보 게시글도 ‘의료 광고’라며 관련 협회의 심의를 받도록 소관 법령을 개정해야 한다고 정부에 요청하기도 했다. 힐링페이퍼는 의료 소비자의 편익 증진과 소규모 의원의 홍보를 위해 관련 서비스가 필요하다고 설명했다. 디지털 전환 가속화에 신·구 사업자 갈등 격화이런 다툼이 커진 것은 사회 곳곳의 디지털 전환이 가속하면서다. 스마트폰 확산과 인터넷 속도 향상 등으로 오프라인과 온라인을 연계하는 서비스가 급증했다. 이를 O2O(online to offline) 서비스라고도 부른다. 오프라인 서비스가 인터넷 위에 올라오면서 관련 산업은 혁신으로 이어졌다. 소비자는 스마트폰으로 음식 주문, 택시와 렌터카 호출, 숙박과 레저 시설 예약, 부동산 계약, 가사도우미 요청 등을 언제 어디서나 할 수 있게 됐다. 과학기술정보통신부에 따르면 국내 O2O 시장 규모는 2018년 2조2765억원에서 지난해 5조4323억원으로 3년 새 두 배 이상 커졌다. 거래액으로 따지면 지난해 147조3877억원까지 증가했다. 카카오모빌리티, 우아한형제들(배달의민족) 등 업체들이 포함된 운송 서비스 분야의 시장 규모는 3조904억원으로 가장 컸다. 코로나19 확산으로 비대면 의료 서비스 수요도 크게 늘었다. 의료 및 보건 서비스 분야의 작년 매출은 1년 전보다 81.1% 급증하기도 했다. 다양한 서비스에 대한 소비자의 디지털 전환 수요가 급증하면서 기존 사업자도 O2O 스타트업을 마냥 막을 수 없는 상황이 된 것이다.전문직 단체와 다투는 스타트업의 사업 경로는 크게 두 가지로 예상할 수 있다. ‘제2의 토스’ 아니면 ‘제2의 타다’가 되는 경우다. 핀테크 스타트업 비바리퍼블리카는 간편 송금 서비스 토스를 앞세워 가입자를 확대했다. 은행업, 증권 등 다른 금융 서비스로 사업을 확대하자 금융권은 반발했고, 금융당국도 각종 규제로 토스를 가로막았다. 하지만 스마트폰으로 금융 서비스를 이용하는 소비자가 급증하면서 기존 금융권도 토스 서비스를 참고하기 시작했다. 정부도 금융규제 샌드박스 등을 통해 관련 규제 개선에 나설 수밖에 없었다.토스는 국내 금융권에서 ‘메기’ 역할을 톡톡히 했다는 평가다. 지난해 오프라인 영업점이 없는 토스뱅크, 토스증권 등을 잇달아 내놨다. 토스뱅크는 지난달 출시 1년 만에 이용자 480만 명을 확보했다. 기존 제1금융권에서 대출받기 어려웠던 중저신용자의 대출 비중이 39%로 가장 높았다.타다는 회원 170만 명을 모았다. 하지만 택시업계의 반발로 결국 타다금지법에 막혀 사업을 접어야 했다. 연합뉴스반면 타다는 디지털 전환의 흐름을 정치권이 막은 사례다. 타다는 2018년 차량 호출 서비스를 시작했고, 1년 만에 회원 170만 명을 모았다. 기존 택시에서 접하기 어려웠던 고급 차량과 승객 맞춤 서비스로 소비자를 공략했다. 하지만 택시업계의 반발이 거셌다. 택시업계는 타다가 ‘위법 콜택시’라고 주장했다. 이에 정치권은 2020년 택시 면허를 다량 확보하거나 일정 기여금을 내는 업체만 모빌리티 사업을 할 수 있다는 내용을 법제화했다.모빌리티 서비스를 갓 시작한 스타트업에는 버거운 조건이었다. 업계가 해당 법안을 ‘타다 금지법’(여객자동차운수사업법 개정안)으로 부른 이유다. 결국 타다는 관련 서비스를 접어야 했다. 이후 카카오의 자회사인 카카오모빌리티 등 자금력이 있는 일부 기업만 모빌리티 사업을 확장할 수 있었다. 타다도 지난해 비바리퍼블리카로부터 거액의 투자를 받고서야 모빌리티 사업을 본격적으로 다시 시작할 수 있었다.피해는 소비자들이 봤다. 모빌리티 시장의 진입 장벽이 높아져 신규 업체가 크게 줄어든 가운데 코로나19 확산으로 택시 운전사들이 택시업계를 떠나자 택시 대란이 터졌다. 소관 부처인 국토교통부는 과거 타다와 비슷한 서비스(플랫폼 운송 사업 타입 1) 관련 규제를 완화하겠다고 지난달 밝혔다. 모빌리티업계 관계자는 “모빌리티 시장에 진출하기에는 여전히 거금이 필요하다”며 “법인택시, 개인택시, 택배업체 등 이해관계자가 복잡하게 얽혀 있고 곳곳에 규제가 많아 새로운 시도가 나오기 어렵다”고 지적했다. 립서비스만 하는 정부?정부의 역할이 중요하다. 토스의 성장과 타다의 좌절에 모두 정부가 깊이 개입했다. 정부가 마련한 인터넷전문은행 제도의 자격을 얻은 토스는 사업을 확대했다. 반면 타다는 택시업계 반발을 의식한 정치권이 타다 금지법을 내놓자 시장을 떠나야 했다. 정부는 타다 금지법에 대한 비난이 커지자 2020년 기획재정부를 중심으로 ‘한걸음 모델’이라는 신구(新舊) 사업자를 중재하는 새로운 방식을 도입했다. 신산업 분야 활성화를 위해 이해관계자가 각자 ‘한걸음’씩 양보해 함께 ‘더 큰 걸음’을 내딛자는 취지였다.하지만 성과는 미미하다. 그동안 한걸음 모델로 이해관계자 간 갈등이 제대로 해결된 경우가 없었다. 2년 동안 농어촌 빈집 숙박, 산림 관광, 도심 공유 숙박, 단초점 안경 전자상거래, 드론과 로봇 등 미래형 운송 수단을 활용한 생활물류 등 다섯 개 사안을 논의했다. 농어촌 빈집 숙박만 규제 샌드박스 정책으로 지난해 시범 사업을 시작하는 데 그쳤다. 이 사업도 50채만 한시적으로 허용해 규제 완화 효과가 거의 없다는 지적이 나온다.아산나눔재단, 스타트업얼라이언스, 코리아스타트업포럼 등의 '2022 스타트업코리아!' 보고서기재부는 지난 3월 강남언니와 로톡도 한걸음 모델의 신규 과제로 선정했다. 하지만 이 역시 해당 업체를 둘러싼 갈등을 해결하기는커녕 분란을 키웠다. 정부가 규제 개혁, 신구 사업자 갈등 중재 등에서 시늉만 한다는 지적이 나오는 이유다. 최근 전국경제인연합회 조사에 따르면 국내 기업들의 정부 규제개혁 만족도는 2018년 15.1%에서 2021년 7.8%로 떨어졌다. 국내 창업 생태계 활성화를 위한 규제 개선 방향을 연구한 ‘2022 스타트업코리아!’ 보고서 작성에 참여한 박경수 삼정KPMG 상무는 “정부가 국내 기업이 성장할 수 있는 여건을 제공하지 못한 것에 대해 아쉬움을 넘어 국내 기업들이 향후 규제가 해소된 뒤에 글로벌 기업과의 경쟁에서 생존할 수 있을지 우려가 크다”고 했다.혁신을 앞세운 스타트업과 기존 사업자 간 갈등은 계속될 전망이다. 최근 화상투약기 제조 스타트업인 쓰리알코리아의 ‘약 자판기’가 정부의 규제 샌드박스 심의를 통과하자 대한약사회가 크게 반발했다. 세무회계 플랫폼 ‘삼쩜삼’을 운영하는 텍스테크(세무기술) 스타트업 자비스앤빌런즈와 한국세무사회 간 다툼도 확산 일로에 있다. 유망 스타트업이 신규 디지털 전환 서비스를 내놓을 때마다 기존 사업자는 반발하고, 관련 이용자가 증가하면 갈등의 골은 깊어진다.도심항공교통(UAM), 로봇 등 정부가 집중 육성하겠다는 신산업 분야 역시 장기적으로는 이 같은 갈등을 피하기 힘들 것으로 보인다. 업계는 3년 뒤인 2025년 UAM을 통한 에어택시의 상용화를 예상한다. 지금은 상상 같은 얘기지만 현실이 되면 다양한 이해관계자가 정부와 정치권에 안정성 우려 등을 제기하며 막아설 가능성이 높다.참 한 가지 더 세계 100대 유니콘 중 몇 곳이나 한국에서 제대로 영업 활동할 수 있을까?아산나눔재단, 스타트업얼라이언스, 코리아스타트업포럼 등의 '2022 스타트업코리아!' 보고서기존 사업자의 반대뿐만 아니라 각종 규제로 한국에서 스타트업 운영이 만만치 않다. 누적 투자액 기준 글로벌 100대 기업 중 절반 이상이 규제로 인해 지난 5년간 국내에서 제대로 된 사업을 할 수 없었다는 조사 결과가 나오기도 했다. 아산나눔재단, 구글 스타트업 캠퍼스, 스타트업얼라이언스, 코리아스타트업포럼, 아마존웹서비스(AWS) 등 5개 기관과 업체는 이 같은 내용의 ‘2022 스타트업코리아!’ 보고서를 지난 9월 내놨다. 관련 보고서는 2017년에도 글로벌 유니콘 100개 중 56개 업체가 국내서 규제 때문에 제대로 영업 활동을 할 수 없다고 지적했다. 당시 56개 유니콘 기업 중 23개 업체는 이미 상장사로 성장했다.보고서는 규제혁신 제도의 실효성 부족이 문제 원인으로 지목했다. 규제 해소와 지원 방안 강화가 동시에 이루어지지 못했다는 지적이다. 사업 검토 단계에선 스타트업이 관련 규제를 명확히 인지할 수 있도록 지원하는 것이 필요하다. 이후엔 규제 샌드박스 등에 참여해 상용화 가능성을 검증받고 투자 유치 등이 연계될 수 있도록 정책 개선이 필요하다는 설명이다. 규제 샌드박스의 경우에는 소요 기간과 평가 기준을 명확하게 정비해서 기업의 운영 부담을 줄여야 한다고 보고서는 밝혔다.장석환 아산나눔재단 이사장은 “창업 생태계 활성화를 위해 관련 연구를 시작한 지 5년이 지났지만 글로벌 유니콘 기업의 핵심 사업은 여전히 국내 시장에 도입될 수 없었다”고 지적했다.김주완 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.11.04.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>'AI SEOUL 2022' 개막, "디지털 전환 시대, 인공지능이 바꿀 서울의 모습은"</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006436879?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>AI SEOUL 2022 운영사무국 제공(서울=뉴스1) 임해중 기자 = 서울시가 주최하는 국제 인공지능(AI) 콘퍼런스 ‘AI SEOUL 2022’가 3일 양재 aT센터에서 개막했다.‘AI SEOUL 2022’는 ‘인공지능’ 산업의 열린 생태계를 만들고, 기업·산업 관계자들의 네트워크 강화를 위해 매년 열리는 국제 콘퍼런스다. 올해는 ‘인공지능으로 그려보는 서울의 미래(AI, Drawing the future of Seoul)’를 주제로 열렸으며, 개막일인 첫날 글로벌 콘퍼런스에는 200여 명이 현장을 찾아 함께 했다.3일과 4일 2일간 △산업경향 콘퍼런스 △인재채용 박람회 △퀘백 클러스터와 협력 △투자유치회 등 다양한 사업적인 프로그램에 참여해 산업 동향을 확인할 수 있으며, CES 2022 혁신상을 대거 수상하며 기술의 잠재력을 인정받은 ‘AI 양재 허브 기업’들의 성과도 한 눈에 확인할 수 있다.올해로 5번째를 맞는 ‘AI SEOUL 2022’는 인공지능 특화기업 지원 전문기관인 ‘AI 양재 허브’가 함께 주관하며, 콘퍼런스는 온·오프라인 동시 진행 및 유튜브 채널을 통해서도 생중계해 참관객의 편의성을 높였다.서울시는 이번 콘퍼런스에서 양재 인공지능(AI) 혁신지구와 세계적인 인공지능 산업 클러스터인 ‘퀘백’과의 본격적인 협력도 공개한다. 캐나다 퀘백 주 몬트리올 관련 연사들과 허비에라(HerbiaEra), 율컴 테크놀로지(Yulcom Technologies) 등 캐나다 스타트업이 서울을 방문해 새로운 비즈니스 협력, 창출의 기회를 찾는다.‘글로벌 인공지능(AI) 콘퍼런스’의 첫날인 11월 3일(목)에는 ‘인공지능과 사회’를 주제로 한 기조연설이 진행됐다. 사회적으로 책임감 있는 인공지능 개발에 대한 화두를 가지고 MILA(밀라) 연구소 전무이사 ‘벤자민 프루돔므(Benjamin Prudhomme)’이 연단에 오르고, 이어 ‘인공지능 기술 동향 및 미래’에 관해 카이스트(KAIST) 김재철AI대학원장 ‘정송’이 연사로 나섰다.세션 1에서는 도시의 미래에 가장 많이 바뀌게 될 분야로 ‘모빌리티’를 선정하고, 자율주행 기업인 퍼셉틴(PerceptIn) ‘샤오산 리우’ 대표 등 전문가 강연에 이어 패널토크를 진행했다. 세션 2에서는 모두를 위한 인공지능 기술을 공유하는 ‘인공지능(AI) 트랜스포메이션과 스타트업(AI for Everyone)’을 소주제로 ‘AI 양재 허브’와 캐나다 스타트업의 사례를 공유했다.또한 개막 당일 aT센터 4층 창조룸에서 개발자 직군 뿐 아니라 UX/UI 디자이너, 데이터 분석 등 인공지능 관련 전 분야에서의 스타트업 인재 채용을 진행하는 ‘AI 인재 채용 박람회’도 진행됐다. 유망 기술을 보유한 국내 인공지능 스타트업 21개 기업이 채용 부스를 운영하며, 인공지능 분야 스타트업 취업을 희망하는 대학(원)생 및 취업준비생이 참여를 이끌었다. 여기에 취업 강연, 현장 면접, 직무 멘토링 등 다양한 정보도 공유해 의미를 더했다.취업 강연은 유명 인공지능 기업 인사담당자 출신 연사가 직접 진행에 나섰다. 직무 멘토링의 경우, 개발자, UX/UI 디자이너, 데이터 분석의 3개 직군으로 나눠서 진행됐으며, 토스, 우아한 형제들 등 기업의 현직자로부터 직무 노하우를 전달받았다.2일 차인 4일에는 △인공지능 스타트업 종사자와 관련 대학원(생) 등을 대상으로 ‘인공지능(AI) 워크숍’ △이미지 해상도 복원을 주제로 하는 ‘오픈소스 활용 경진대회(발표, 시상식)’ △인공지능의 새로운 가치에 대해 의견을 나눠보는 ‘AI+X 포럼’ △성공적인 투자유치를 위해 현직 투자자로 구성된 평가위원이 참여하는 모의투자유치 대회(IR Runway), 투자 유치율 제고를 위해 1:1 멘토링 등이 진행된다. 인공지능(AI)워크숍, 오픈소스 활용 경진대회 발표 및 시상식, AI+X 포럼, 모의투자유치 대회(IR Runway)는 온, 오프라인 동시 진행하며, 유튜브 생중계를 통해 시청할 수 있다. AI+X 포럼은 인공지능 산업이 바이오의료, 핀테크 등 다양한 산업에 융합된 사례를 제시하고, 서울 10대 산업 거점 간 AI기술을 통한 연계 가능성과 전망 등을 제시한다. 콘퍼런스가 진행되는 3일, 4일 양일 간 3층 세계로룸에서는 참관객이 직접 기업별 인공지능 기술 및 서비스를 체험해볼 수 있는 기술체험존이 운영된다. ‘AI 양재 허브’에 소속된 20개의 기업이 참여하며, 인공지능 스타트업에 관심 있는 일반 시민, 기업 및 투자사는 현장에서 미팅도 가능하다. 참가기업 ‘툰스퀘어’는 인공지능 기술을 활용해 글과 아이디어만 있다면 그림 실력과 상관없이 누구나 웹툰을 그릴 수 있는 투닝(Tooning) 서비스를 제공한다.‘AI SEOUL 2022’는 시민 누구나 참관할 수 있으며, 공식 누리집을 통해 자세한 사항을 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.11.14.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>KB리브엠·LG헬로·스테이지파이브, 내년부터 전파사용료 다 낸다</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011535108?sid=105</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>기사내용 요약대기업 계열 알뜰폰 서비스 전파사용료 내년부터 100% 납부해야중소 알뜰폰은 기재부 협의 통해 내년 말까지로 기간 연장그간 같이 감면 받았으나 작년 20%, 올해 50% 부담이통사와 ARPU 격차 큰데 사용료 동일…현실화 목소리도[서울=뉴시스] 알뜰폰 스퀘어 (사진=한국알뜰통신사업자협회  제공) 2022.6.8 *재판매 및 DB 금지[서울=뉴시스]심지혜 기자 = 중소 알뜰폰 사업자들이 전파사용료 납부를 1년 더 유예받을 수 있게 됐다. 반면 올해까지 전파 사용료 절반 가량을 감면 받았던 대기업 계열 알뜰폰 사업자들은 당장 내년부터는 100%를 다 내야 한다. 이미 예고된 일이라 반발 할 순 없지만 납부하는 전파사용료 기준이 이통사와 같아 내심 속앓이를 하는 분위기다. 14일 정부에 따르면 과학기술정보통신부는 중소 알뜰폰 사업자에 대한 전파사용료 면제 기간을 올해 12월 31일에서 내년 12월 31일로 1년 연장하는 내용의 전파법 시행령 일부개정령안을 입법예고 했다. 면제를 위해서는 과기정통가 세수를 담당하는 기획재정부와의 협의를 거쳐 전파사용료를 규정하고 있는 전파법 시행령을 개정하는 절차를 밟아야 한다.이동통신 사업자들은 매년 전파사용료를 납부해야 하는데, 정부는 알뜰폰 사업자에 한해 이를 면제해줬다. 사업 초기만 해도 한시적으로 시행할 계획이었으나 시장 성장을 위해 기간을 매년 연장했다. 특히 대다수 알뜰폰 업체들이 수익을 내지 못하고 있다는 점이 크게 작용했다. 대기업 계열은 속앓이…중소 알뜰폰도 불안</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.11.09.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>블록체인 인프라 스타트업 a41, 21억 추가 투자 유치…시드 투자 150억 클로징</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005042187?sid=105</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>- 인터베스트, 베이스인베스트먼트 참여… 투자 누적금 150억 달해에이포엑스 a41블록체인 인프라 스타트업 에이포엑스(이하 a41)는 인터베스트, 베이스인베스트먼트로부터 21억 원을 추가 투자 유치했다고 9일 밝혔다.이번 투자를 통해 a41은 시드(초기) 단계 투자에서 총 150억 원의 투자를 이끌어냈다. a41은 지난 9월 SK주식회사, DSC인베스트먼트, 슈미트, KB인베스트먼트, 스프링캠프 등으로부터 129억 원을 유치했다.a41은 블록체인 산업의 기초에 집중하며 블록체인 업계의 ‘린치핀’으로 주목받고 있다. a41은 블록체인 인프라 스타트업으로, 다양한 서비스를 제공하고 있다. 밸리데이터(검증인) 사업과 서비스형 거버넌스(Governance-as-a-Service), 리서치 콘텐츠, 프로덕트 개발 등이다.a41은 이번 투자 유치를 통해 블록체인 인프라 기업으로서 글로벌 진출을 위한 교두보를 확보할 계획이다. a41은 현재 밸리데이터 사업부의 역량 고도화에 힘쓰는 한편, 블록체인 산업 전반에 대한 리서치를 수행하고 콘텐츠화하고 있다. 향후 밸리데이터 외 인프라 사업 내 다양한 영역 확장과 리서치 인력 확충, 프로덕트 개발 등에 박차를 가한다는 방침이다.이번 투자에 참여한 이호건 인터베스트 수석심사역은 “아직 밸리데이터가 트랜잭션 ‘검증’에만 초점을 맞추고 있지만 거버넌스와 디파이 분야로도 확장해 나갈 것이라 믿는다”며 “a41은 탄탄한 사업 개발과 리서치 역량을 갖춘 만큼 밸리데이터를 넘어 웹 3.0 산업의 성장을 다방면에서 지원하는 기업으로 성장할 것으로 기대된다”고 말했다.이무영 베이스인베스트먼트 이사는 “a41는 크립토 업계 최고 수준의 ‘맨파워’를 보유한 팀”이라며 “밸리데이터 사업을 본격적으로 전개해 팀의 역량과 진정성을 십분 발휘할 수 있을 것이라 확신한다. 웹 3.0 비전을 현실로 만들고 있는 a41과 함께하게 되어 영광”이라고 전했다.박광성 a41 대표는 “크립토 윈터(crypto winter, 가상자산 혹한기)가 지속되고 있어 힘든 시기이지만, 금번 시드 투자 유치에 안주하지 않고 밸리데이터 사업 확장과 신사업 발굴을 통해 글로벌 블록체인 인프라 기업으로 발돋움하겠다”고 말했다.한편 a41은 최근 앱토스에 밸리데이터로 참여하기 시작하며 멀티체인 생태계 속 밸리데이터로 나아가고자 하는 기조를 확립했다. 앱토스는 메타(옛 페이스북)의 암호화폐 프로젝트 ’디엠(전 리브라)’으로부터 파생된 메인넷이다. 이 외에도 a41은 현재 채용을 진행 중이며, 채용 솔루션 그리팅 내 a41 채용 페이지를 통해 지원 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.11.10.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>[단독]'유동성위기說' 새한창투, 무리한 투자에 LP들 뿔났다</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005175580?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>두나무·토스 주식 담보로 돈 빌려 '김태호PD·테디'에 투자사채 상환 못할 지경인데 ‘고밸류’ 투자 집행최악의 경우 GP 법인 청산 가능성펀드 참여 민간 LP ‘골머리’ 벤처투자 시장에서 ‘소리 없는 강자’로 통하던 새한창업투자가 무리한 투자로 펀드 츨자자(LP)들과 마찰을 빚고 있다. 만기 도래하는 사채를 상환하기 어려운 상황에서 보유하고 있던 주식을 담보로 돈을 빌려 높은 밸류에이션(기업가치)으로 기업 투자를 단행했기 때문이다. 이에 대해 LP들은 유동성 위기를 해결하지 않고 무리한 투자를 한 데 대해 강한 불만을 제기하고 있다.10일 투자은행(IB) 업계에 따르면 새한창투는 조만간 만기 도래하는 채권을 상환하기 어려운 상황이다. 지난해 11월17일 발행한 800억원 규모의 무보증 선순위 채권의 만기가 오는 17일 돌아오는데 상환 자금을 확보하지 못한 것으로 알려졌다. IB업계 관계자는 "자금시장이 경색된 상황에서 사채 상환을 위해 여러 기업들에 자금을 빌리려고 손을 벌리고 있지만, 아직 상환 자금을 확보하지 못한 것으로 안다"고 전했다.이 와중에 새한창투는 최근 MBC 출신 김태호PD가 세운 콘텐츠 제작사 ‘테오(TEO)’와 그룹 원타임 출신 YG엔터테인먼트 대표 제작자(프로듀서) 박홍준(테디)씨가 설립한 음악·연기 매니지먼트사 ‘더블랙레이블’에 투자금을 집행했다. 테오의 밸류에이션을 1000억원으로 평가해 10%인 100억원을 투자했다. 더블랙레이블에는 밸류에이션 1500억원에 425억원을 베팅했다. 앞서 테오의 경우 카카오가 투자를 검토하다 포기한 것으로 알려졌다. 이어 새한창투가 단독으로 참여해 딜(거래)을 성사시켰다.업계에서는 이같은 밸류에이션으로 투자한 사실 자체에 의문부호를 던진다. 새한창투는 회사 설립 10개월 밖에 되지 않은 테오에 투자하면서 1000억원이나 되는 몸값을 쳐줬다. 유명인사에 대한 프리미엄을 적용한다 하더라도 과한 평가라는 지적이 나온다. 더블랙레이블의 몸값 1500억원도 인정하기 어렵다는 게 LP들의 대체적인 분위기다.더 큰 문제는 투자금의 원천이다. 새한창투는 투자할 자금이 없어 두나무(업비트)와 비바리퍼블리카(토스) 주식을 담보로 투자금을 확보했다. 두나무와 토스 지분은 지난해 사채를 발행해 자체적으로 투자한 것이다. 당시 투자한 두나무 주식 전량(21만5000주)과 보유 중이던 토스 주식 전량(124만4144주)을 담보로 내놓았다. 새한창투가 투자할 당시 약 2300억원에 이르던 두나무와 토스의 지분 가치는 최근 850억원 수준으로 추락했다.IB업계 관계자는 “금융채 만기가 얼마 남지 않았고, 이를 상환하려면 주식담보대출로 받아놓은 자금으로 빚을 갚는 게 우선”이라며 “이런 상황에서 높은 밸류에이션으로 무리한 투자를 했다는 사실을 믿기 어렵다”고 말했다. 새한창투가 조성한 펀드에 참여한 LP 관계자는 “VC가 풀 레버리지을 일으켜(최대치의 자금을 빌려) 투자한 자체가 찾아보기 어려운 사례”라며 “다른 투자 포트폴리오 지분을 담보로 걸어서까지 이런 투자를 했어야 했는지 의문”이라고 지적했다. 이어 “만약 만기까지 돈을 갚지 못하면, 최악의 경우 법인청산까지 우려된다”며 “앞으로 LP들이 이 운용사(GP)를 어떻게 믿겠냐”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.11.10.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>인뱅 부실채권 반년새 330억↑ …관리 ‘비상등’</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002656418?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>출범 1년 차 토뱅도 54억 증가기업대출 진출에 리스크 부담케이뱅크(왼쪽부터)·카카오뱅크·토스뱅크 전경. ⓒ각사[데일리안 = 김효숙 기자] 인터넷 전문 은행들이 떠안고 있는 부실 채권이 반년 새 330억원 넘게 불어난 것으로 나타났다. 여신 포트폴리오를 확장하기 위해 적극 대출을 늘리고 있는 인터넷 은행 입장으로서는 리스크 관리에 더욱 고삐를 죄야하는 상황이다.10일 금융감독원에 따르면 올해 6월 말 기준 카카오뱅크·케이뱅크·토스뱅크의 고정이하여신 잔액은 1289억5000만원으로 지난해 말 보다 34.0% 증가했다. 액수 기준으로는 327억원이 늘었다. 고정이하여신은 금융사가 내준 여신에서 3개월 넘게 연체된 사례를 통칭하는 표현으로 통상 부실채권을 분류하는 잣대로 쓰인다.회사별로 보면 카카오뱅크 고정이하여신이 714억7100만원으로 같은 기간 대비 22.9% 증가했다. 액수로 보면 6개월 새 133억원 늘었다.케이뱅크는 520억5900만원으로 36.8% 늘었고 토스뱅크도 53억2000만원으로 15841.2% 급증했다. 토스뱅크가 지난해 10월 출범한 것을 감안한다고 해도 6개월 새 부실채권이 폭발적으로 늘어난 것이다.인터넷은행 3사의 고정이하여신비율도 악화했다. 고정이하여신비율이란 은행의 총 여신 중 고정이하여신이 차지하는 비율로 자산건전성을 나타내는 지표다.6월 말 기준으로 보면 고정이하여신비율이 가장 높은 곳은 케이뱅크로 같은 기간 0.06%포인트(p) 올라 0.6%을 기록했다.그다음 카카오뱅크가 0.27%로 0.05%p 올랐다. 상승폭이 가장 컸던 곳은 토스뱅크로 0.12%p 오른 0.13%를 기록했다.인터넷전문은행 부실채권 추이. ⓒ금융감독원특히 인터넷은행 3사는 중저신용 대출 비중이 높은 데다 최근 개인사업자 대출 영역으로 적극 확장하고 있어 이같은 부실채권 관리가 더욱 중요해질 것으로 보인다.카카오뱅크와 케이뱅크는 7월 말 기준 중·저신용 대출 비중이 각각 23%, 24%를 기록했으며 토스뱅크도 9월 말 기준 40%를 넘어섰다.이들은 올해부터 개인사업자 대출을 시작하면서 중신용 자영업자까지 영역을 넓히겠다는 포부를 밝혔다.카카오뱅크는 지난 1일부터 최대 1억원 한도의 개인사업자 대출 상품을 출시했다. 대상은 사업자등록 후 영업 중인 개인사업자로 자사 대출이 어려울 경우 제휴사 연계대출로 이어준다. 또 사업장 운영 데이터를 활용한 신용평가시스템(CSS)을 고도화해 금융 이력이 부족한 씬파일러 자영업자들에게도 합리적인 서비스를 제공하겠다고 설명했다토스뱅크도 올해 2월 개인사업자 대출을 출시했다. 보증서나 담보 없이 신용도에 따라 최대 1억원까지 대출해주는 상품으로 금리는연 5~15% 수준이다. 케이뱅크도 올해 5월 보증서담보 사업자대출을 출시한 데 이어 9월 말부터 최대 1억원 한도의 개인사업자 신용대출 ‘사장님 대출’을 출시했다.금융권 한 관계자는 “중신용 자영업자의 경우 소득에 불확실성이 많아 부실채권 리스크도 상대적으로 높을 수밖에 없다”며 “여신 포트폴리오 확장을 위해 인터넷은행들의 기업대출 진출이 필요하지만 그만큼 CSS 고도화에 심혈을 기울여 부실채권을 관리해야 할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.11.15.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>‘고래’들도 5% 예금 내놨다, 저축·지방銀 새우등 터지나</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003728404?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>우리·국민·농협 잇따라 출시							주요 시중은행의 1년 정기예금 금리가 연 5%를 넘겼다. 14일 금융권에 따르면 NH농협은행의 ‘NH올원e예금’이 연 5.1%, KB국민은행의 ‘KB스타정기예금’이 5.01%로 금리를 올렸다. 매일 시장금리에 따라 변동되는 우리은행의 ‘우리WON플러스예금’은 전날 연 5.18%를 찍고 이날은 4.98%로 살짝 내려왔다. 2008년 8월 이후 14년 만에 연 5% 정기예금 시대가 열린 것이다. 하나은행은 15일부터 ‘하나의정기예금’ 금리를 연 5%로 인상한다. 신한은행 정기예금 금리(연 4.85%)도 5% 돌파가 코앞이다. 1억원을 예치해두면 1년에 세전으로 500만원 상당의 이자가 붙는 셈이다.										안전성이 강점인 5대 은행(KB국민·신한·하나·우리·NH농협)이 금리 경쟁력까지 갖추게 되면서 시중 자금을 ‘블랙홀’처럼 흡수하는 현상은 가속화할 것으로 보인다. 이미 지난 한 달간 5대 은행에서만 정기예금이 47조원 넘게 불었다.예금 전성시대…들썩이는 소비자들							1금융권 예금을 선호하는 보수적인 예·적금족들은 환호하고 있다. 한 30대 주부는 지난 13일 우리은행 정기예금 금리가 업계 최고인 연 5.18%로 오르자 한 달 전 가입한 4.65% 예금을 깨고 갈아탔다. 그는 “저축은행에 6% 넘는 예금도 많지만, 써본 적이 없어 낯설기도 하고 망하면 어떡하나 노파심도 들더라”며 “목돈이다 보니 이율이 약간 낮더라도 안심되는 은행을 찾게 된다”고 했다.5대 은행은 저축은행들처럼 복잡한 우대금리 요건을 달지 않고, 모든 가입자에게 최고 금리를 주는 구조여서 더 인기다. 오는 24일 한국은행이 기준금리를 추가로 인상하면 은행 금리도 더 오를 가능성이 높다. 일부 소비자들은 “월말이면 5% 중반대 1금융권 예금도 등장할 것”이라며 기대감을 높이고 있다.비상 걸린 저축은행, 지방은행							5대 은행이 예금금리를 공격적으로 올리면서 저축은행들은 고객 이탈을 막느라 비상이 걸렸다. 저축은행 평균 금리(연 5.49%)와 시중은행의 격차는 1%포인트 미만으로 좁혀졌다.일부 저축은행은 자금 이탈을 막기 위해 지난달 말, 연 6.5% 특판 정기예금을 내놓기도 했다. 그러나 무한정 금리를 올리기는 어려운 사정이다. 한 저축은행 관계자는 “얼마 전 금융 당국에서 지나친 고금리 특판 경쟁을 자제하라는 지침을 내린 탓에 이전처럼 떠들썩하게 금리 인상 마케팅을 벌이기 애매한 상황”이라며 “대응이 훨씬 어려워졌다”고 했다.지방은행도 5대 은행으로 뭉칫돈이 몰리면서 수신고를 지키는 데 안간힘을 쓰고 있다. 이들은 1금융권 최고 금리 마케팅으로 고객 이목을 끌고 있다. 부산은행의 ‘더 특판 정기예금’이 연 5.4%, 전북은행의 ‘JB 1·2·3 정기예금’이 연 5.3%, 제주은행 ‘J정기예금’이 연 5.1% 금리로 5대 은행보다 약간 더 높다. 하지만 첫 계좌 개설이거나 매월 앱 로그인 횟수를 채워야 하는 등의 우대금리 요건이 까다로워 ‘미끼 상품’이라는 비판도 나온다. 한 금융권 관계자는 “지방은행은 인지도가 낮다 보니 최고 금리 타이틀로 고객을 사로잡으려는 전략을 쓰고 있다”며 “가입 시 상세한 금리 요건을 살펴보는 게 필요하다”고 했다.조용한 인터넷은행							정기예금 전성시대가 열렸지만, 인터넷은행은 상대적으로 조용하다. 1년 정기예금 최고 금리가 카카오뱅크 연 4.5%, 케이뱅크 4.6%로 5대 은행에 못 미친다. 토스뱅크는 연 2.3% 수시입출식 통장(파킹통장)이 유일하다. 우대조건이 붙지 않는다는 장점은 있지만, 5대 은행 금리에도 추월당하면서 고객들의 관심에서 멀어지고 있다. 한 30대 직장인은 “예전엔 인터넷은행 앱이 편리해서 자주 썼는데, 이제는 시중은행 앱도 많이 간편해져 차이점을 느끼지 못할 정도”라고 했다.‘고객이 고민할 필요 없게 하나의 상품으로 최선의 혜택을 돌려주겠다’는 인터넷은행의 전략이 독이 되고 있다는 분석도 나온다. 시중은행들은 개인과 사업자 등 10여 개 예금 상품 중 한두 개 금리만 올려도 되지만, 인터넷은행의 경우 예금상품이 한 개씩밖에 없어 금리를 시중은행 이상으로 올리면 조달 비용이 급증하는 문제가 생긴다. 그렇다 보니 시중은행의 최고 금리 경쟁에 적극적으로 참여하지 않고 거리를 둔다는 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.11.04.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>"신용점수 1점이라도 더"…꼬박꼬박 낸 통신비 내역까지 챙긴다 [S머니]</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004118492?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>◆'대출이자 줄이기' 손품 바쁜 영끌족핀테크·인뱅 '신용 올리기' 활용은행·보험계좌 등 마이데이터에통신비·건보료 자료까지 한데모아유리한 데이터로 신용점수 재심사평균 12점 ↑··· 최고 50점도 껑충6~7등급 중저신용자 가장 큰 혜택[서울경제] 미국 기준금리와의 격차가 3년여 만에 1%포인트로 벌어지면서 한국은행도 24일 기준금리를 최소 0.25%포인트 이상 올릴 가능성이 커졌다. 시장에서는 연말께 은행 신용대출 및 주택담보대출 금리 상단이 8~9%에 이를 것이라는 관측이 나온다. 차주 부담이 커지면서 신용점수를 조금이라도 올려 이자를 줄여보려는 ‘신용점수 영끌족’도 등장했다.4일 마이데이터 기업 뱅크샐러드가 지난달 18일부터 이달 3일까지 약 보름간 자체 신용점수 올리기 서비스 ‘신용점수 레벨업’ 이용자를 분석한 결과 이용자들은 신용점수를 코리아크레딧뷰로(KCB) 기준 평균 12.6점 올린 것으로 집계됐다. 신용점수가 기존보다 10~19점 오른 이용자가 전체 이용자 중 49.4%로 가장 많았다. 50점 이상 상승한 이용자도 2.36%를 차지했다. 이외 0~9점 상승이 20.2%였고 △20~29점 상승 15.26% △30~39점 상승 7.45% △40~49점 상승 5.31% 등 순이었다. 앞서 뱅크샐러드는 7월 말 은행·증권·개인형퇴직연금(IRP) 계좌 납부 내역 등 금융 마이데이터 18종을 활용한 ‘신용점수 레벨업’을 출시한 데 이어 지난달 18일에는 신용점수를 올리는 데 활용되는 데이터를 기존 18종에서 통신비·건강보험·국민연금·소득증명원 등 공공 마이데이터 4종으로 확대했다.신용점수 심사에 반영될 수 있는 데이터들을 활용할 수 있도록 나선 것은 다른 핀테크사도 마찬가지다. 대출 비교 플랫폼 업체 핀크는 9월 말부터 ‘신용점수 올리기 서비스’에 통신비와 은행 계좌 및 보험 거래 내역 등 금융 마이데이터를 추가했다. 기존에는 국민연금·건강보험·소득증명원 등 공공 마이데이터 3종으로만 신용점수 향상 심사가 가능했다.서비스 제공사들은 데이터를 추가할수록 신용점수를 효과적으로 올릴 수 있다고 설명한다. 예를 들어 20대 ‘신파일러(금융 이력 부족자)’의 경우 국민연금 납부 내역만으로는 신용점수를 올리기 힘들지만 매월 납부하는 통신비 내역을 추가하면 점수 상승을 기대해볼 수 있다.실제로 뱅크샐러드와 핀크가 각각 데이터 활용 범위를 높이기 전후 이용자들의 신용점수 상승률을 분석한 결과 데이터 확대 후 평균 상승 점수는 기존 대비 각각 3점, 4.23점씩 확대됐다. 뱅크샐러드 관계자는 “신용점수가 높아지면 은행 등에 금리인하요구권을 사용할 수 있어 실질적으로 대출이자를 경감하는 효과를 누릴 수 있다”고 말했다.신용점수 심사에 반영되는 데이터가 확대되면서 특히 가장 큰 혜택을 본 건 신용점수가 530~697점(6~7등급)인 중저신용자다. 핀크 집계 결과 데이터를 확대하기 전 신용점수 올리기 서비스를 통해 실제로 점수가 오른 6~7등급 이용자의 비중은 전체 이용자의 32%였다. 하지만 금융 마이데이터를 반영할 수 있게 되면서 전체 신용점수 상승 고객 중 6~7등급의 비중은 61%로 두 배 가까이 급증했다.권영탁 핀크 대표는 “금융 이력이 부족한 신파일러들이 자신에게 유리한 정보를 제출할 수 있도록 서비스를 개편하면서 이를 통해 유의미한 결과를 얻을 수 있었다”며 “추후 마이데이터 정보 제공 범위가 확대되면 고객들이 스스로에게 가장 유리한 데이터를 골라 신용점수를 올릴 수 있도록 서비스를 고도화하겠다”고 말했다.‘대출이자 부담 완화’에 나선 건 토스·카카오페이·네이버페이 등 대형 핀테크사와 인터넷은행도 마찬가지다. 2019년 5월 신용점수 올리기 서비스를 처음 개시한 토스는 올해 6월 서비스를 업데이트하고 점수 향상 심사 과정을 단축했다. 토스 관계자는 “기존 신용점수 올리기는 통신비 납부 내역 등을 하나하나 스스로 제출해야 했다면 현재는 통신비 및 일반 납부 내역을 한 번에 제출할 수 있게 했다”며 “또 기존에는 공동인증서가 요구됐지만 현재는 공공 마이데이터를 활용하면서 공동인증서도 필요 없게 됐다”고 말했다.이외 카카오페이와 네이버페이는 신용점수, 대출 정보 등을 또래 평균과 비교할 수 있게 하는 서비스를 함께 실시하고 있다. 카카오뱅크·케이뱅크는 KCB와만 제휴해 신용점수 올리기 서비스를 제공하고 있다. 건강보험·소득증명원 등 공공 마이데이터를 활용해 신용점수 심사를 다시 받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.11.15.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>애플페이도 상륙한다는데…카드사 오픈페이는 '자중지란'</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000310694?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>카카오페이와 네이버페이, 토스 등 빅테크의 간편결제에 대응하기 위해 일부 카드사들이 준비 중인 '오픈페이'가 연내 출시될 예정입니다. 하지만 출시 시기가 재차 미뤄진 데다 당장 애플페이까지 국내 서비스를 시작할 것으로 알려지면서 시장 점유율을 높이긴 쉽지 않다는 분석이 나옵니다.오늘(15일) 카드업계에 따르면 연내 출시를 목표로 오픈페이 시스템을 준비 중인 카드사는 신한카드와 KB국민카드, 롯데카드, 하나카드 등 4곳입니다. 오픈페이에 참여하기로 한 우리카드와 NH농협카드, BC카드는 내년 상반기 중 출시를 준비하고 있습니다.오픈페이는 하나의 카드사 애플리케이션에서 다른 카드사의 카드를 등록해 결제할 수 있는 간편결제 서비스입니다. 각 카드사가 구축한 시스템을 여신금융협회가 중개하는 구조입니다. 업계 관계자는 "최대한 여러 카드사가 동시에 서비스를 출시해야 소비자 이용에 불편이 없다"며 "현재 구체적인 출시 시점 등은 카드사들 간 조율 중"이라고 설명했습니다. 가장 먼저 출시를 예고했던 카드사는 KB와 하나카드였습니다. 당초 10월 말 시스템 구축을 완료하고 첫 선을 보일 예정이었지만 일부 시스템에 보완이 필요해 연내 목표로 출시 시점을 늦췄습니다. 신한과 롯데카드는 기존 계획대로 12월 중 출시에 차질이 없도록 하겠다는 계획입니다.하지만 업계에선 출시 시기를 두고 카드사들 간 조율이 쉽지 않은 점을 더 큰 문제로 보고 있습니다. 업계 관계자는 "처음 선보이는 서비스인 만큼 시스템 완비도 중요하지만 카드사들 간 이견을 좁히지 못하고 있다"며 "시스템 준비가 된 카드사 한 두곳만이라도 먼저 출시할지 아니면 4개사가 다 같이 출시할지 조율이 안 된 상황"이라고 설명했습니다.일부 카드사의 경우 자사 앱을 이용하던 고객이 다른 카드사의 앱에 자사 카드를 등록해 결제서비스를 이용하게 되면, 앱 유입이 기존보다 줄어들 것으로 보고 있기 때문입니다. 이렇게 되면 서비스 출시 직후 더 많은 고객들을 유인하기 위해 마케팅 등 출혈 경쟁이 불가피합니다. 업계 관계자는 "관건은 얼마나 편리한 서비스를 제공할지, 고객을 유인하기 위해 어떤 이벤트를 진행하는지에 달렸다"고 말했습니다.반면, 다수의 카드사들이 시스템 구축을 끝낸 뒤 동시에 서비스를 출시할 경우 시점이 더 늦어질 수밖에 없어 핀테크 등의 시장 점유율이 더 높아질 수밖에 없다는 우려도 나옵니다. 때문에 카드사 한 두곳이라도 준비되는대로 서비스를 선보여야 한다는 것입니다. 서지용 상명대 경영학부 교수는 "카드사들이 연내를 목표로 하고 있지만 지금 상황대로라면 세부 조율이 잘 이뤄지지 않아 연내 출시가 불투명한 상황"이라며 "업계 2~3위권을 다투는 삼성과 현대카드도 참여를 보류하면서 1차적으로 동력이 떨어졌는데, 여기에 애플페이의 국내 진출까지 구체화되면서 카드사들이 경쟁력 확보에 어려움을 겪을 수 있다"고 전망했습니다.이어 "대형사 위주로 선발주자가 구성됐고, 중형사들은 내년 출시를 준비하고 있어 결국 일부 대형사가 주도하는 서비스가 될 것으로 보인다"며 "핀테크 등의 간편결제 시장 진출에 카드사들이 공동 대응하기 위한 취지가 약화될 수 있다"고 덧붙였습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.11.14.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>철옹성 금융업 무모한 도전기..'유난한' 토스의 10년 기록</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004817911?sid=103</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>[[서평]'유난한 도전']금융의 패러다임을 바꿨다는 평가를 받는 '토스'의 지난 10년간을 기록한 책이 나왔다. 지금은 대부분의 은행 앱에서 쓰고 있는 '간편송금'을 무모하고 유난한 도전 끝에 만들어낸 토스의 잦은 실패담과 성공과정이 담겼다.  내부 직원들의 증언과 충실한 자료조사로 픽션같은 논픽션 스토리를 완성했다. 스타트업 초기 모델에서 흔히 볼 수 있는 들뜬 도전담과 동시에 경험부족으로 벽에 부딪혔던 좌절과 사내 갈등을 가감없이 보여준다.특히 다양한 규제를 통해 가진 것 없는 경쟁자는 쉽게 시장에 들어올 수 없도록 돼 있는 금융산업에 도전한 스타트업이 겪어야했던 여정이 당사자들의 생생한 기억에 의해 소환된다. 저자는 2020년 토스에 합류한 조선일보 기자 출신 컨텐츠 매니저다. 지난 1년간 이승건 대표를 포함해 전·현직 토스팀원 35명을 인터뷰하고, 사내 메신저에서 오간 대화와 이메일을 자료로 삼았다.스타트업을 꿈꾸는 이들과 스타트업의 성공과 실패담을 알고 싶은 이들 모두에게 재밌게 읽힐 만하다. 저자는 이 책이 "성공적인 창업 지침서나 핀테크 경영서가 될 수 없다"고 잘라 말하지만 스타트업에서 일하는 이들에게 토스의 지난 11년을 기록한 이 책은 아주 좋은 교과서가 된다. 반대로 토스의 실패담만 배우고 싶은 이들에게도 반면교사로 작용할 수 있다. 창업자인 이승건 대표는 에필로그에서  "부정당하고 실패했던 경험을 비참하게 느낀 적은 없었다. 오히려 이를 넘어서면 만들어낼 변화에 대한 기대로 흥분되었다. 이런 우리의 이야기가 더이상 낯선 소수자들의 것이 아니라, 흔한 주류의 경험이 될수 있다면 얼마나 멋진 미래가 펼쳐질 수 있을까?" 라고 한다. 꽤 큰 회사가 된 지금도 자신들의 회사를 '토스팀'으로 부른다는 구성원들이 만들어 낸 독특한 조직문화를 엿보는 재미도 있다. 관료화된 대기업이나 중견기업에선 절대 찾아볼 수 있는 '자율과 책임'이 토스의 문화로 자리잡고 이어진 사연도 소개된다. 유니콘을 꿈꾸는 많은 스타트업들이 대기업 흉내 혹은 창업자의 독단으로 쓰러지고 사라져가기 쉬운 점을 고려하면, 토스의 독특한 '상호존중과 합리적 토론'을 기본으로 하는 '신뢰'문화는 스타트업이라면 공유해볼만 하다.  비효율과 허례허식에 대한 무관용, 속도와 실행에 방점을 둔 조직구조, 서로 헐뜯지 않고 존경할 수 있는 동료, 투명한 정보 공유를 통한 공감대 형성, 실무자의 결정은 CEO도 번복할 수 없는 신뢰와 위임의 문화가 토스팀의 성공을 이끌었단 점도 확인 할 수 있다. 아직 현재 진행형인 토스의 앞날은 예측할 수 없지만, 적어도 끝이 실패로 끝날 지라도 지난 10년간 달려 온 과정을 살펴볼 수 있는 기회를 이 책은 제공한다. 저자의 다른 책은  핀란드 특파원 때 경험을 담은, '세상에서 제일 우울한 동네 핀란드가 천국을 만드는 법'(틈새책방)이 있다◇유난한 도전/정경화 지음/북스톤/1만7000원</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.11.04.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>자릿값 10만원 받는 토스트집.. 지나친 상술일까 주인 마음일까</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005172404?sid=103</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>서울 한 '이삭토스트' 매장에서 단체 손님에 자릿값 받아 논란점주 “손님 못 받으니 손해.. 1시간 30분 이상 이용 때만 요구"고객들 “간식 먹는 업소인데 지나쳐", 본사 “금지할 규정 없어"이삭토스트 매장. 기사 내용과는 무관함. 사진=이삭토스트 홈페이지토스트를 파는 작은 매장에 단체 손님이 들어와 장시간 머문다면 주인 입장에선 매우 곤란한 일이다. 그렇다고 손님에게 '자릿값'을 내라고 하는 게 상식적일까. 또 그 집 음식값이 3000원 남짓인데 자릿값이 10만원이라면? 서울의 한 토스트집에서 자릿값을 받겠다는 주인과 황당하다는 손님 사이 분쟁이 발생해 관심을 끈다. 서울 서초구에서 이삭토스트 매장을 운영 중인 한 점주는 10인 이상 단체 손님이 매장에 1시간 30분 이상 머물 때 자릿값 명목으로 10만원을 받고 있다. 이 점주는 4일 본지 통화에서 "단체 손님이 자리를 오래 차지하면 다른 손님을 받지 못하기 때문에 부득이 그렇게 안내하고 있다"고 말했다. 그러면서 "오히려 고객 쪽에서 먼저 자릿값을 내고 오래 있겠다고 문의해 온 적도 있다"고 덧붙였다.그러나 손님의 생각은 다른 경우도 있다. 이 매장을 찾았다 자릿값 10만원을 내게 됐다는 A씨는 "근처에 모임을 할 장소가 마땅치 않아 어쩔 수 없이 돈을 냈지만, 제품 가격보다 수십 배 비싼 자릿값을 받는 건 지나치다"고 분통을 터트렸다. 또 다른 소비자 B씨도 "다른 카페나 식당처럼 이용 시간을 제한한다든지 하는 안내가 있었다면 따랐을 텐데 느닷없이 자릿값을 요구해 황당했다"며 "큰 축제나 행사 주변 매장에서도 이런 바가지요금은 본 적이 없다"고 했다.이들의 불만은 결국 한국소비자원으로 전달됐다. 소비자원 관계자는 "소비자보호법령상 자릿값을 요구해서는 안 된다는 지침이 없어 계도로 이어지긴 어렵다"며 "물건을 비싸게 파는 것이 파는 사람의 마음인 것처럼 개인사업자인 점주의 결정 사항"이라고 했다.이삭토스트 본사도 난감한 건 마찬가지다. 이삭토스트 관계자는 "본사가 규제할 만한 규정이 따로 있는 것은 아니다"라면서 "다만 소비자 불만 사항이 접수된 만큼 점주에 대한 교육과 안내 조치를 한 뒤 시정을 해야 할 부분으로 보인다"고 했다.프랜차이즈협회에 따르면 해당 가맹점주는 개인사업자이며 매장은 사유지이기 때문에 본사라 해도 가맹점의 가격 정책 등을 강제로 바꿀 순 없다. 다만 해당 점주의 돌발적 행위가 이삭토스트라는 브랜드에 대한 불만으로 이어지고, 이것이 또 다른 가맹점에 피해를 줄 우려가 있다고 협회 측은 경계했다. 이삭토스트가 파는 제품들은 저렴한 가격 덕에 ‘가성비 간편식’, ‘국민 간식’으로 불린다. 전국에 800개 이상의 가맹점이 운영되고 있다. 가장 저렴한 ‘햄치즈’가 2800원이고, 가장 비싼 ‘베이컨 포테이토 피자’는 4700원 수준이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.11.04.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>10대의 스마트폰 금융 생활, 괜찮을까?</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/308/0000031710?sid=102</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>‘내돈내관(내 돈은 내가 관리하는)’ 10대가 늘어나고 있다. 미성년자는 원칙적으로 현행법상 금융 활동에 여러 제한을 받는다. 최근 성장하는 금융 서비스들은 규제의 틈새에서 방법을 찾았다.카카오 미니 카드와 토스 유스카드 서비스(왼쪽부터).©김흥구중학생 신소윤 양(13)은 지난 5월 인생 첫 본인 명의의 계좌와 카드를 만들었다. 만드는 데 몇 분이 걸리지 않았다. 스마트폰에서 금융 애플리케이션(앱)을 깔고, 이용약관에 동의 버튼을 누르고, 본인과 보호자 생년월일과 전화번호를 입력하고, 인증 문자를 받고, 마음에 드는 카드 디자인을 고르면 끝이었다. 며칠 뒤 배송된 카드로 편의점·식당 등에서도 쓰고 인터넷 쇼핑할 때도 활용했다. 앱으로 간편히 송금도 되니 친구들과 놀고 나서 더치페이를 하기도 용이했다. 신 양은 “내 이름으로 된 카드가 있으니 뿌듯하기도 하고, 카드를 긁을 때마다 알림 문자가 와서 관리가 편하다. 내가 어디에 가장 많이 소비를 했는지, 지난달과 비교해 어떤지도 알 수 있어서 좋은 것 같다”라고 말했다.‘내돈내관(내 돈은 내가 관리하는)’ 10대가 늘어나고 있다. 스마트폰과 금융사 앱이 그 필수 수단이다. 돼지 저금통에 꼬깃꼬깃한 지폐와 동전을 모으고 종이 용돈기입장에 지출액과 소비액을 꼼꼼히 기록하는 대신, 이제 많은 어린이와 청소년들이 스마트폰 ‘핀테크’를 활용해 성인처럼 돈을 쓰고 모으고 부치고 받는다. 카카오뱅크의 ‘미니’, 토스의 ‘토스 유스카드’, 국민은행의 ‘리브 넥스트’, 하나은행의 ‘아이부자’, 신한은행의 ‘신한밈’ 등이 10대를 겨냥한 대표적인 금융 서비스다.미성년자는 원칙적으로 현행법상 금융 활동에 여러 제한을 받는다. 만 19세까지는 신용카드를 만들 수 없고 만 14세 미만은 스스로 통장을 개설할 수 없다. 보호자가 각종 서류와 도장을 갖추고 은행을 방문해야 미성년자 명의의 정식 계좌를 만들 수 있다.최근 성장하는 10대 금융 서비스들은 이 규제의 틈새에서 방법을 찾았다. 대부분 가상계좌, 선불충전 방식을 활용한다. 정식 계좌가 아니어서 예금자보호법의 대상이 아니고 이자도 붙지 않는다. 일별·월별 사용 한도도 작다. 하지만 일상 용도로 사용하기에는 성인의 계좌·카드와 별다를 바가 없다. 스마트폰 앱으로 이용내역과 잔액을 확인하고, 지문 인식이나 비밀번호 입력 하나로 송금을 하며, 간편결제를 등록해 각종 ‘페이’로 인터넷 쇼핑이 가능하다.카카오뱅크·토스뱅크 등 인터넷 전문은행의 등장으로 시장은 더욱 커졌다. 카카오뱅크는 2020년 10월 만 14~18세 청소년 대상의 선불 전자 지급수단 서비스 ‘미니’를 출시했다. 온·오프라인 결제, ATM 현금 인출은 물론이고 카카오톡으로 친구 간 간편이체도 할 수 있다. 2년 사이 146만명, 해당 연령대 인구의 약 64%가 가입했다.토스는 지난 2월 ‘토스 유스카드’를 내놓았다. 연령대를 더 낮춰, 만 7세부터 가입을 받았다. 이제 초등학생도 자기 명의의 스마트폰 하나만 있으면 웬만한 소비와 송금은 모두 보호자의 관리나 승인 없이도 스스로 할 수 있게 되었다. 토스 측은 “지금까지 어린이와 청소년의 금융 생활은 부모 의존적이었다. 돈을 벌고 쓰고 관리할 수 있는 기회는 누구에게나 주어져야 한다. 10대가 주체적이고 독립적인 금융 생활을 할 수 있도록 도와주고 싶다”라고 밝혔다.‘카뱅’이나 ‘토스’ 생활은 이제 10대 사이에 유행이 되었다. 유튜브·틱톡 등에는 ‘카뱅 미니 발급기’ ‘토스 유스카드 (부모님 몰래) 만드는 법’과 같은 동영상이 인기를 끈다. 많은 청소년들이 SNS 프로필에 자신의 사진과 함께 카뱅·토스 계좌번호를 함께 공개해놓기도 한다. 친구들과 같이 밥 먹거나 놀고 나서 비용을 나눌 때 현금이나 ‘엄카(엄마 카드)’를 내밀면 영 폼이 나지 않는다며 너도나도 ‘내 명의 카드를 만들게 해달라’고 보호자를 조른다. 토스 유스카드를 사용하는 한 청소년은 “친구들 사이에서는 부모님에게 사용내역 알림이 안 간다는 장점 때문에 특히 이 카드의 인기가 높다”라고 말했다.경기도 지역 학부모 은 아무개씨는 최근 또래 친구들이 다 가입했다며 자신에게도 토스 계좌 개설을 동의해달라는(가입 시 보호자 휴대전화 번호로 인증 확인이 1회 간다) 중학생 1학년 자녀의 요청을 거부했다. 은씨는 “아이가 돈을 어디에서 얼마나 썼는지 동선 체크도, 안전관리도 전혀 할 수가 없다. 금융범죄나 학교폭력 등에 악용될 소지도 많은 것 같아 아이에게 허락하지 않았다”라고 말했다.실제 문제가 종종 발생한다. 올해 알려진 사건만 보자면, 광주광역시 한 중학교에서 학생들 사이 토스 앱을 통한 금전 갈취 사건이 일어났다. 가해 학생들은 피해 학생에게 토스로 ‘월 상납’을 받았다. 이를 거부하면 앱 화면 인증을 요구했다. 충남 당진시의 한 고등학교 학교폭력 가해자는 피해자가 용돈받는 날마다 스마트폰을 빼앗아 카카오뱅크·토스 등에 접속한 다음, 자신의 계좌로 돈을 인출했다.무분별한 인터넷 쇼핑이나 게임 아이템 구매에서부터 금융 사기나 불법 사채에 연루되는 일까지, 어른들에게 돈과 관련돼 일어나는 모든 어두운 사건들이 10대에게도 지금 똑같이 벌어지고 있다. 자녀의 친구들이 토스나 카카오 계좌 등을 활용해 고금리 사채놀이, 불법도박(스포츠) 자금 거래, 중고거래 사기, 주식이나 비트코인 거래 등에 가담하거나 연루되는 모습을 자주 목격한 학부모 김민정씨(가명)는 “자기들끼리 삥 뜯기, 이자놀이, 돈세탁 등 난리도 아니다. 애초 용돈 말고 소득이 없는 10대 청소년들이 이토록 자유롭게 계좌를 만들고 돈거래를 할 수 있게끔 놔두는 게 과연 옳은 일인지 모르겠다”라고 말했다.청소년 주식계좌 비대면 개설도 검토윤정하 토스 커뮤니케이션팀 매니저는 미성년자의 계좌 사용내역이 보호자에게 공유되지 않는 이유에 대해 “청소년도 소비와 지출을 할 때 프라이버시가 있었으면 좋겠다는 소비자 목소리를 반영했다”라고 말했다. 윤 매니저는 “보호자가 고객센터에 연락을 주면 미성년 자녀의 입출금 내역 확인이 가능하고, 미성년자가 앱 내 새로운 기능을 최초로 쓰면 보호자에게 알림이 가기도 한다. 또 청소년 유해 업종에서는 카드 이용을 금지하며, 송금이나 결제 시 반복적이고 의심스러운 거래를 미리 감지하고 차단하는 등 부작용을 막기 위한 전방위적 노력을 지속적으로 하고 있다”라고 말했다.새로운 금융 세대가 출현했다. 돼지 저금통을 안고 은행을 방문하던 ‘첫 금융 기억’은 옛말이다. 이제 자라나는 세대는 SNS 메시지를 보내듯, 클릭 몇 번으로 계좌 속 숫자가 오르내리는 경험을 통해 돈의 세계를 배우고 있다. 과거 세대에게 없던 새로운 금융 이해도와 상상력이 이들에게 주어질 순 있을 것이다. 반면 안전한 금융 생활에 필수적인 신중함·인내심 같은 미덕은 경험해볼 기회가 줄어들었다.핀테크 시장은 10대와 점점 더 접점이 늘어날 전망이다. 지난해 11월 금융위원회는 만 14세부터 19세 미만 미성년자도 마이데이터(개인 금융·신용정보 통합조회 및 관리) 서비스를 이용할 수 있도록 관련 규제를 풀었다. 청소년이 주식계좌를 비대면으로 개설할 수 있게끔 해달라는 증권업계의 요구도 금융 당국이 계속 검토하는 중이다. 규제가 풀리면, 만 14~18세 청소년도 간단한 본인인증과 보호자 동의 절차 등만 거치면 스마트폰 앱으로 자유롭게 주식계좌 개설과 거래가 가능해진다.시장은 앞서 나가는데 이에 걸맞은 10대 금융 교육은 아직 한참 부족하다. 학교에서 배우는 내용은 아직 ‘지폐와 동전의 종류를 알아봅시다’ ‘은행 창구를 방문해보아요’ 수준에 머물러 있는 경우가 많다. 배중기 금융감독원 금융교육국 학교금융교육팀 부국장은 “금감원에서 초중고용 표준 금융 교과서를 만들어 배포하기도 했지만 정규 교과과정에서 활용되는 경우가 많지 않다. 학생들이 불법 금융거래 예방, 개인정보 보호 등에 필요한 지식을 얻고 합리적 의사결정을 할 수 있도록 금융 교육 노출 기회가 더욱 많아질 필요가 있다”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.11.09.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>다야몬즈, 모바일 게임 '하이큐!!' 사전예약 개시</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003057652?sid=105</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>하이큐!! TOUCH THE DREAM다야몬즈가 지홀딩스와 개발·서비스 계약을 체결한 '하이큐!! TOUCH THE DREAM'의 사전예약을 시작했다. 배구 소재 인기 스포츠 애니메이션 '하이큐!!' 지식재산권(IP)에 기반을 둔 모바일 게임이다.'하이큐!!'는 일본 고교 배구를 무대로 한 청춘 스포츠 만화다. 2012년부터 일본 만화 잡지 '소년 점프'에 연재되어 시리즈 누계 발행 부수 5500만부를 돌파한 인기 작품이다. 2014년 애니메이션화가 이뤄졌다. 정통 스포츠물의 재미와 독특한 개성과 매력을 가진 캐릭터로 두터운 팬덤을 형성하고 있다.'하이큐!! TOUCH THE DREAM'은 카라스노, 네코마, 아오바조사이 등 애니메이션 등장 캐릭터가 귀여운 3D SD캐릭터로 구현됐다. 서브, 리시브, 토스, 스파이크, 블로킹 등 스킬을 활용해 전략적이고 박진감 넘치는 경기를 즐길 수 있다. 연내 국내 정식 서비스 예정으로 지홀딩스가 판권 관리와 일본 서비스를, 다야몬즈가 게임 개발과 한국 및 아시아 지역 퍼블리싱을 맡았다.김동균 다야몬즈 대표는 “스포츠 애니메이션의 신드롬을 일으켰던 '하이큐!!'는 일본뿐만 아니라 국내에도 두터운 팬 층이 있는 매력적인 IP”라며 “원작의 주인공이 선보이는 가슴 뜨거운 도전과 감동의 순간을 게임에 담아 선보일 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.11.13.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>대형 증권사 발행어음 급증… 미래에셋 9개월새 10배 늘었다</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002765844?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>자금 경색에 유동성 확보 사활NH·KB증권도 50% 넘게 증가연 6% 금리 제시 등 경쟁 가열연합뉴스    최근 단기 자금시장이 메마르면서 대형 증권사들이 자체 신용을 바탕으로 발행하는 1년 이내의 단기 금융상품인 발행어음의 규모도 급격히 증가하고 있다. 특히 한국은행의 기준금리 인상 기조가 당분간 지속될 가능성이 높게 점쳐지는 만큼, 증권사들의 발행어음 경쟁도 보다 치열해질 것으로 전망된다.자기자본 4조원 이상 요건을 충족한 초대형 투자은행(IB) 중 발행어음을 취급 가능한 단기금융업 인가를 받은 증권사는 미래에셋·한국투자·NH투자·KB증권 등 4개사다. 이들 증권사의 최근 발행어음 잔액은 지난해 말보다 큰 폭으로 증가했다. 이들은 자기자본의 200% 한도 안에서 발행어음을 발행할 수 있다. 상반기 기준 자기자본은 미래에셋증권 10조6000억원, 한국투자증권 7조2000억원, NH투자증권 7조2000억원, KB증권 5조8000억원 등이다. 보수적으로 계산해도 미래에셋증권이 최대 약 20조원, 한국투자증권과 NH투자증권이 각각 14조원, KB증권이 10조원 가량 발행 가능한 셈이다.금융투자협회에 따르면 지난 10일 기준 증권사 4곳의 발행어음형 CMA(종합자산관리계좌)에 예치된 잔액은 12조3646억원으로 집계됐다. 지난해 연평균치인 7조4646억원을 훌쩍 상회하는 액수다. 계좌수도 500만좌에 달해 지난해(361만좌) 대비 35% 이상 늘었다.규모가 가장 크게 늘어난 곳은 미래에셋증권이다. 지난해 말 4365억원에서 지난 9월 말 기준 4조4232억원으로 10배 이상 급증했다. 같은 기간 NH투자증권은 약 3조4000억원에서 5조4000억원으로 58.8% 증가, KB증권은 4조4745억원에서 6조7844억원으로 51.6% 확대됐다.현재 기준 발행어음 잔액 자체는 한국투자증권이 가장 많다. 지난달 말 기준 12조1990억원으로, 지난해 말(8조3719억원)보다 45.7% 늘었다. 현재 이들 4개사의 발행어음 상품 금리는 유형에 따라 조금씩 차이가 있지만 대부분 연 5%대에 육박한다. 5~ 6%대인 저축은행 정기예금의 금리와 비교해도 크게 뒤지지 않는다는 평가다. 최근 KB증권은 선착순으로 판매하는연 6% 약정식 특판 발행어음을 출시하기도 했다. 기존 1년물 발행어음 약정수익률(연 5.0%)보다 1.0%포인트나 높은 수준이다. 앞서 한국투자증권은 지난달 14일 개인 고객(신규자금)을 대상으로 연 수익률 5.2%의 6개월물 발행어음 특판 상품을 출시했다. 역시 기존 1년물 발행어음(5.10%)보다도 높은 수준이다. 지난 8월에는 토스뱅크와 제휴해 연 4.5% 수익률의 발행어음 상품을 선보이기도 했다. 이 상품은 4일 만에 한도 2000억원이 전량 소진되는 등 투자자들의 관심을 끌었다. 한국은행의 금리 인상에 따라 이 상품 금리도 1년물의 경우 4.5%에서 5.3%, 6개월물은 4.2%에서 5%로 올랐다.이렇게 발행어음 규모가 급증한 것은 '유동성 가뭄'에 시달리는 증권업계의 상황과 연결된다. 하반기 들어 레고랜드 자산유동화기업어음(ABCP) 사태가 촉발한 단기자금시장 투자심리 위축으로 프로젝트 파이낸싱 자산유동화증권(PF ABCP) 차환이 어려워지자 관련 사업을 활발히 벌여온 증권사들의 유동성 경색 리스크가 불거진 상태다.증권사 입장에서는 발행어음의 높은 금리를 앞세워 고객을 확보, 발행어음으로 자금 여력이 생기면 고금리 상품에 투자해 증권사 자체 수익을 낼 수도 있다.하지만 일각에서는 발행어음 급증 현상을 우려하는 목소리도 나온다. 업계 관계자는 "일부 증권사의 경우 한도액수에 육박한 수준으로 이미 발행어음을 발행하고 있다"며 "지나치게 높은 금리의 발행어음을 내는 곳은 수익을 남기기 위한 것이 아니라 그만큼 돈이 급하다는 신호일 수 있다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.11.01.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>민간끼리 '상장 공통 가이드라인' 적용…잡코인에 경고딱지 붙여</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004117223?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>[미래 산업 찾는 암호화폐 거래소]&lt;중&gt;제도 앞선 거래소 자율규제 현황은5대 원화 거래소 손잡고 '블랙리스트 방식' 적용부실코인 땐 '신중' 공지하며 투자자 보호 잰걸음위험성 지표 도입, 위믹스 유통량 논란 공동 대처도[서울경제] 이재원(왼쪽부터) 빗썸 대표, 차명훈 코인원 대표, 이준행 고팍스 대표, 김재홍 코빗 최고전략책임자, 이석우 업비트 대표가 6월 22일 디지털자산거래소 공동협의체(DAXA) 출범 업무협약을 맺은 후 기념사진 촬영을 하고 있다. 사진 제공=DAXA투자자 보호를 위한 암호화폐 업계의 자율규제가 본격 시행됐다. 업계 내 민간사업자들이 상호 협력하기 위해 업무협약(MOU)을 맺고 법정 기구가 아닌 협의체 형태로 자율규제를 시행하는 글로벌 첫 사례다. 전문가들은 공동 협의체가 더 많은 권한을 부여 받고 시장과 투자자의 신뢰를 얻기 위해서는 이해 상충 문제 해소, 협의체 내 역할·권한 구체화 등의 노력도 병행돼야 한다고 조언했다.1일 암호화폐 업계에 따르면 5대 원화 마켓 거래소(업비트·빗썸·코인원·코빗·고팍스)로 구성된 디지털자산거래소 공동협의체(DAXA)는 지난달부터 ‘거래 지원(상장) 심사 공통 가이드라인’을 각 사에 도입했다. 거래소가 암호화폐 거래 지원 여부를 결정할 때 자사의 기준과 정책을 따르되 공통 가이드라인을 블랙리스트 방식으로 적용하는 식이다. ‘적어도 이런 암호화폐의 상장은 안 된다’는 기준이 만들어진 셈이다. 지난달 27일 고팍스에 상장된 글로벌디지털콘텐츠(GDC)와 20일부터 빗썸이 거래를 지원한 체인(XCN), 업비트가 19일 상장한 앱토스(APT) 등은 모두 DAXA의 공통 가이드라인을 적용 받았다. 특히 APT는 지금껏 국내외 거래소에서 상장된 적이 없는 ‘단독 상장’ 암호화폐인 만큼 업비트는 공지에서 “타 거래소에서의 거래가가 없어 시세 산정이 어렵다”는 문구를 붉은 글씨로 강조하기도 했다.DAXA가 마련한 자율 개선안에는 △거래 지원 심사에 외부 전문가 최소 2명 또는 최소 30% 이상 포함 △암호화폐경보제 도입 △신규 광고 및 이벤트 진행 시 경고 문구 삽입 △암호화폐 유형별 위험성 지표 및 모니터링 방식 마련 등도 담았다. 경고 문구는 즉시 시행됐고 경보제 도입 및 위험성 지표 적용은 향후 협의를 통해 구체화될 예정이다.업계에서는 위험성 지표가 공동 적용되면 문제 상황이 발생할 시 대응이 빨라질 것으로 기대한다. 고팍스를 제외한 DAXA 소속 4개 거래소는 지난달 27일 오후 위메이드가 발행한 암호화폐 ‘위믹스(WEMIX)’를 일제히 유의종목으로 지정했다. 4대 거래소는 “DAXA 회원사에 제출된 유통량 계획 정보와 실제 유통량에 차이가 있는 등 정보의 신뢰성에 문제가 있다고 판단했다”고 지정 이유를 밝혔다.제도보다 앞선 암호화폐 사업자들의 자율규제는 해외에서도 유례를 찾아보기 어렵다. 스위스와 일본에도 각각 스위스자금세탁방지기구(VQF SRO), 암호자산거래업협회(JVCEA) 등 자율규제기관(SRO)이 있지만 이는 모두 각국 정부로부터 공식적으로 권한을 부여 받은 법정 기구다. 법적 기반 없이 ‘협의체’ 형태로 거래소들이 자율규제에 나선 경우는 없다.이외에도 각 거래소는 투자자보호센터·자금세탁방지(AML)센터 등을 설립하고 투자자 보호책을 강화화고 있다. 지난해 10월 AML센터를 설립한 코인원은 9월 말 12명이던 AML 국제 공인 자격증 보유 인력을 현재 17명까지 늘리며 8월 한 달간 총 3억 원 규모의 보이스피싱 피해를 막기도 했다.다만 일각에서는 거래소들의 자율규제 협의체가 향후 법정 공식 협회의 전신으로 자리매김하기 위해서는 가입사 확대, 이해 상충 문제 해결 등이 필요하다고 지적한다. 현재 DAXA에 가입한 5개사 외에도 가상자산사업자는 31곳이 더 있기 때문이다. 게다가 일부 코인 마켓 거래소의 거래량은 원화 거래소보다 크다. 김갑래 자본시장연구원 선임연구위원은 “이해 상충 문제가 해결돼야만 가상자산거래업자가 신뢰성 있는 문지기 기능을 잘 수행할 수 있고 정부로부터 높은 수준의 자율규제 권한을 부여 받을 수 있다”며 “가상자산거래업자의 구조적 이해 상충을 해결하기 위해서는 예탁결제와 매매의 분리, 시장 조성 불허용 등의 조치가 필요할 것”이라고 짚었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.11.01.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>토스, 자회사 토스페이먼츠 지분 추가매입…지분율 63.9%로</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013546656?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>토스페이먼츠 로고[토스 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 임성호 기자 = 모바일 금융 서비스 토스 운영사 비바리퍼블리카(이하 토스)는 전자결제(PG) 계열사인 토스페이먼츠의 지분 약 12%를 추가 확보했다고 1일 밝혔다.    이는 390억원 규모의 유상증자를 통해 토스페이먼츠의 2대 주주인 특수목적법인(SPC) 지분을 25.4% 추가로 매입하는 방식으로 이뤄졌다.    이에 따라 토스의 토스페이먼츠에 대한 직·간접 지분율은 당초 51.2%에서 약 63.9%까지 늘어나게 됐다.     토스는 당초 지난달 18일 614억 규모의 유상증자를 통해 토스페이먼츠 지분을 약 20% 취득하고, 지분율을 70%까지 높이기로 했다고 밝혔으나 약 2주 만에 취득 지분 규모를 대폭 줄였다.    토스 관계자는 이에 대해 "콜옵션 행사량에 대해 투자사와 논의를 거쳐 일부 조정이 있었다"면서 "토스페이먼츠에 대한 의결권 추가 확보 계획에는 변함이 없다"고 설명했다.    토스페이먼츠는 토스가 LG유플러스 PG사업부를 3천650억 원에 인수해 2020년 8월 설립한 회사다.     토스는 토스페이먼츠 상장 추진은 현재 검토하지 않는 것으로 알려졌다.    sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.11.13.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>‘경기똑D’ 14일부터 간편인증 서비스 도입</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001566145?sid=102</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>경기도가 14일부터 ‘경기똑D’에 민간전자서명인 ‘간편인증’ 서비스를 도입한다.경기똑D는 공공마이데이터를 활용한 맞춤형 행정서비스 앱을 말한다.이에 따라 사용자는 공동인증서 없이도 주민등록등본 등 66종의 전자증명서를 경기똑D에서 간편하게 발급받을 수 있게 됐다.지금까지 경기똑D의 전자지갑 서비스를 이용하려면 사용자는 공동인증서로 본인인증을 해야 했고, 공동인증서를 PC에서 스마트폰으로 옮겨야 하는 불편함이 있었다.도는 이런 불편을 해소하고자 간편인증 방식을 추가 도입했다.간편인증은 기존의 공동인증서처럼 경기똑D 앱에 등록하지 않아도 되고 매년 갱신할 필요가 없다.발급 인증 절차도 공동인증서보다 간편하다.사용자가 자주 사용하는 간편인증서(네이버·카카오·PASS·토스 등)를 선택해 본인인증을 받으면 전자지갑 서비스를 이용할 수 있다.전자지갑을 통해 주민등록등본과 건강보험료 납부확인서, 자동차등록원부 등 66종의 전자증명서를 조회·저장·공유할 수 있다.도는 지난 7월 도의 정책과 사업을 점검하고 의견을 제시하는 ‘경기사랑 도민참여단’의 서비스 이용 의견과 8월에 실시한 ‘경기똑D 이용자 만족도 설문조사’ 결과에서 ‘공동인증서 이용 불편함’이 제기돼 이번 서비스를 도입하게 됐다고 설명했다.4월 27일 개시한 경기똑D는 도민을 위한 복지정보와 공개채용정보 등 ‘맞춤수혜정보 서비스’, 공공마이데이터 기반의 본인 확인서비스인 ‘도민카드 서비스’, 다양한 전자증명서를 휴대폰에서 보관하고 활용할 수 있는 ‘전자지갑 서비스’, 도민의 마이데이터 정보를 생활에 도움이 되는 리포트 형식으로 제공하는 ‘마이리포트 서비스’ 등을 제공하고 있다.경기똑D는 구글 플레이스토어나 애플 앱스토어에서 ‘경기똑D’나 ‘경기똑디’를 검색한 후 내려받을 수 있다.별도의 회원가입이나 로그인이 필요 없이 본인인증만 거치면 대부분의 서비스를 이용할 수 있다.전승현 도 데이터정책과장은 “도민들이 쉽고 편리하게 경기똑D를 사용할 수 있도록 지속적인 품질관리와 서비스 확대에 힘쓰겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.11.07.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>[단신]삼양사, 美식품원료박람회 스페셜티 부스 운영 外</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003460660?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>■ 삼양사, 美식품원료박람회 스페셜티 부스 운영 삼양사가 이달 2일(현지 시간)부터 3일까지 미국 라스베이거스에서 열린 식품원료박람회에 참가해 스페셜티(고부가가치) 소재 부스(사진)를 운영했다고 6일 밝혔다. 삼양사는 이번 ‘2022 서플라이 사이드 웨스트’에서 당류 저감화 감미료인 ‘알룰로스’, 건강기능식품 원료로 사용되는 프락토올리고당의 일종 ‘케스토스’ 등 주력 소재 사업을 홍보했다. 양철호 삼양사 식품그룹 스페셜티사업PU장은 “향후 해외 식품원료박람회에 적극 참가해 글로벌 시장 진출에 속도를 내겠다”고 했다. ■ 농심 건면 1~10월 매출, 작년보다 40% 늘어 농심이 저칼로리 열풍에 따라 튀기지 않은 라면(건면) 제품 수요가 오름세라고 6일 밝혔다. 농심에 따르면 올해 1∼10월 건면 제품 매출은 780억 원으로 전년 동기보다 40% 늘었다. 연간 매출 기준으로 역대 최대 수준이다. 일반 신라면 제품 대비 열량이 30% 낮은 신라면 건면은 같은 기간 매출이 15.7% 증가했다. 농심 관계자는 “맛있으면서도 건강한 먹거리에 소비자들이 지갑을 여는 추세”라며 “올해 매출 1000억 원을 넘어설 것으로 예상한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.11.13.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>[모바일 신분증 시대②]실물 '증' 없어도…금융계좌·국내선 탑승 OK</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011533379?sid=105</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>기사내용 요약스마트폰 안에 운전면허증·주민증 담아 간편 활용시중은행, '모바일 신분증' 비대면·대면 고객 실명확인성인인증은 기본…민원처리부터 국내선 탑승까지 수월본인 명의 1개 단말기에만 발급…분실시 잠금상태 전환[서울=뉴시스] 김금보 기자 = 행정안전부는 28일부터 모바일 신분증 역할을 할 수 있는 모바일 운전면허증 발급을 전국으로 확대한다. 사진은 현행 운전면허증과 같은 효력을 지닌 모바일 운전면허증. 2022.07.28. kgb@newsis.com[서울=뉴시스] 오동현 기자 = #. 카카오뱅크, 신한은행, 농협, 우리은행 등 시중은행에서는 신분증 사본을 제출하지 않아도 비대면으로 은행 계좌 개설이 가능하다. 은행 앱이 모바일 운전면허증과 연계돼 신원을 확인할 수 있다. 또 은행 창구 방문 시 모바일 신분증 앱으로 창구에 표출된 QR코드를 촬영하면, 은행 직원이 고객의 실명확인을 수행할 수 있다.#. GS25, CU, 이마트24, 세븐일레븐 등 편의점에서는 점원이 바코드 리더기로 모바일 운전면허증 QR을 인식해 고객의 성년 여부를 확인한다. 실물 신분증 위조를 판별하기 위해 별도의 장치를 구비하지 않아도 술·담배 등 19세 이상 상품을 구매하려는 청소년들을 걸러낼 수 있다. #. 제주도청에서는 민원인이 민원실에서 모바일 신분증 앱으로 키오스크에 표출된 QR코드를 촬영하면, 민원신청서가 출력된다. 민원인·공무원 모두의 업무가 한결 빠르고 수월해질 전망이다. 이처럼 이제는 실물 신분증을 들고 다닐 필요가 없어진다. 스마트폰 앱 안에 자동차운전면허증과 주민등록증을 담아 간편하게 언제 어디서든 활용할 수 있다.  13일 업계에 따르면 SK텔레콤, KT, LG유플러스 등 통신3사는 '모바일운전면허 확인서비스'에 이어 '주민등록증 모바일 확인서비스'까지 패스(PASS) 앱에서 제공한다. 기존 자동차운전면허증·주민등록증과 동일한 효력을 지닌다. 카카오와 네이버도 각사 앱을 통해 '모바일 신분증' 서비스를 준비 중이다.모바일 신분증 도입이 빠르게 확산하고 있는 대표적인 영역이 금융업이다. 시중 은행 대부분이 연내 시스템 연계를 완료할 방침이다. 지난 7월 기준 시스템 연계를 완료해 모바일 운전면허증을 사용할 수 있는 13개 은행(국민·신한·우리·하나·농협은행·수협은행·기업·경남·광주·대구·부산·전북·제주)에서는 창구 방문 시 은행직원이 제시한 정보무늬(QR) 코드를 모바일 신분증 앱으로 촬영해 금융거래를 할 수 있다. 신한, 우리, 농협은행, 카카오뱅크 등 4개 은행에서는 비대면 계좌개설 시에도 모바일 운전면허증을 이용할 수 있다.  이 외에도 휴대폰 개통(통신3사 직영점), 편의점(GS25, CU, 이마트24, 세븐일레븐, 씨스페이스) 성인인증, 정부24 회원 로그인, 본인확인서비스 가입(토스), 숙박시설 무인 체크인(야놀자), 네이버페이 송금 등 사용처별로 특화된 다양한 온라인 및 현장(오프라인) 편의 서비스들이 제공되고 있다.국내선 비행기를 탈 때도 모바일 신분증으로 탑승객 신분을 증명할 수 있다. 통신3사·한국공항공사는 다수 항공사와 함께 '패스' 모바일운전면허 확인서비스의 적용 다음 단계로 모바일 항공권과 모바일 운전면허를 결합한 '스마트탑승권' 서비스도 공동 개발하고 있다.한국산업인력공단이 시행하는 국가자격시험에서도 모바일 신분증을 활용한 신분 확인이 가능하다. YBM이 주관하는 토익, 토익스피킹 등 어학시험과 IT 활용 능력 시험에도 정부가 발급한 모바일 신분증(통신3사 패스앱 제외)을 활용할 수 있다.[서울=뉴시스] 김금보 기자 = 28일 서울 강서구 강서운전면허시험장에 모바일 운전면허증 발급 창구가 운영되고 있다. 행정안전부는 서울서부와 대전지역부터 모바일 운전면허증 발급을 전국으로 확대해 간다. 2022.07.28. kgb@newsis.com필수 개인정보만 제공…화면 캡쳐X, 단말 분실 신고시 이용X모바일 신분증은 본인 명의의 1개 단말기에만 발급받을 수 있다. 스마트폰 등 단말기 교체 시에는 모바일 신분증을 다시 발급받아야 한다. 휴대폰을 교체하지 않더라도 모바일 운전면허증 유효기간인 3년이 경과하면 재발급 해야 한다.모바일 신분증은 기존 실물 신분증과 달리 필요한 정보만 골라서 제공할 수 있어서 개인정보를 보호하는데 유용하게 쓰일 전망이다. 가령 편의점에서 주류나 담배를 구매할 때 신분증을 제시해야 하는데, 모바일 운전면허증에는 전체 주민번호나 주소가 노출되지 않는다.특히 모바일 운전면허증에는 위변조가 어려운 블록체인 기술을 적용했다. 개인정보가 암호화 형태로 저장되며 화면을 캡처해 사용할 수 없기 때문에 타인 도용 등으로부터 안전하다. 스마트폰을 분실한 경우에도 신고하면 즉시 잠금상태로 전환돼 타인으로부터 정보 노출을 차단한다.모바일 운전면허증은 그동안 무면허 운전자들의 면허증 명의도용 문제로 골머리를 앓았던 렌터카 업계에서 유용하게 활용될 것으로 전망된다. 최근엔 롯데렌탈의 카셰어링 브랜드 그린카가 업계 최초 시범 운영 사업체로 선정됐다.김경봉 그린카 대표는 "무면허 운전자들의 면허증 명의도용 이슈로 카셰어링 업계 역시 까다로운 인증 절차를 통해 서비스 보안 강화에 다양한 방법을 강구하고 있다"며 "모바일 운전면허증은 네트워크 보안 기술력과 인프라를 기반으로 디지털 개인화시대의 혁신을 가져왔다. 그린카는 이번 모바일 운전면허 시범 운영을 통해 더 안전하고 편리한 카셰어링 서비스 플랫폼을 구축할 것"이라고 밝혔다.정보통신평가기획원은 "모바일 신분증 시장이 안착되기 위해서는 편리성·신뢰성을 기반으로 완성도 높은 차별화 서비스를 제공에 만전을 기할 필요가 있다"면서 "보다 다양한 영역에서 모바일 운전면허증을 사용할 수 있도록 제휴처를 지속 확대할 필요가 있다. 또한 사용처별로 편리성을 높이는 동시에 위·변조 등을 철저히 차단할 수 있는 신뢰·보안성 강화도 필수"라고 제언했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.11.07.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>급물살 탄 '비대면 대환대출 인프라' 구축… 금융업계 난색</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004924529?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>당정 "서민 이자부담 경감 차원"내년 상반기 도입 밀어붙여은행 "구체적 논의 없었다" 반발고금리 주로 취급 2금융권 '난감'  은행업계 등의 반발로 좌초된 비대면 대환대출 인프라가 이르면 내년 상반기에 도입된다. 하지만 업권별 이해관계가 명확하게 조율되지 않아 향후 협상에 난항이 예상된다. 금융업계는 "무리한 일정"이라며 난색이다. 비대면 대환대출 인프라는 소비자들이 은행, 저축은행, 카드사 등 여러 금융사의 대출상품을 모바일 앱에서 비교 확인한 후 갈아탈 수 있도록 돕는 시스템이다.   ■밀어붙이는 국회, 금융업계 난감   7일 금융업계에 따르면 당정은 금리 상승기를 맞아 늘어난 서민들의 이자 부담을 덜어주기 위해 비대면 대환대출 인프라를 내년 상반기까지 구축하기로 했다.   성일종 국민의힘 정책위의장은 지난 6일 국회에서 민생금융 점검 당정 협의회를 마친 후 기자들과 만나 "대환대출 인프라를 구축하고 있는데 전산 시스템을 새로 구축해 지금부터 8개월이 걸린다"며 "내년 상반기까지 완료할 계획"이라고 말했다.   비대면 대환대출 시스템이 구축되면 소비자 입장에서는 저금리 상품으로의 이동이 매우 쉬워진다. 은행 등 금융회사를 여러 번 방문하지 않고 온라인 원스톱 방식으로 이뤄지기 때문이다. 금융사들끼리 고객을 유치하기 위해 선제적으로 대출 금리를 인하하면 결과적으로 이자 상환 부담 경감으로 이어질 수 있다는 것이다. 하지만 금융업권의 반응은 싸늘하다. 업계 간 구체적인 합의점이 나오지 않은 상태에서 추진 일정부터 확정시키는 것이 무리한 처사라는 것이다.   은행업계가 가장 반발하고 있다. 인프라에 참여할 경우 빅테크 등 플랫폼 중개업체들 중 한곳에 불과해진다는 우려 때문이다. 대출 시장점유율이 높은 상황에서 굳이 대환대출 인프라에 참여할 이유가 없다는 것이다.   은행업계 관계자는 "구체적으로 합의된 내용이 아직 없다"면서 "정부가 밀어붙이니까 당국 입장도 추진하고는 현재 중개 수수료, 참여 업체 등 정확한 가이드라인도 없는 상황"이라고 말했다. 또다른 관계자는 "은행들끼리 대출 이동시스템 만드는 것까지는 합의가 이뤄졌다"면서 "다만 직접 금융 상품의 금리를 비교하고 있는 토스, 카카오페이 등 빅테크 업체과 시중은행이 어떻게 어우러질지는 의논한 바 없다"고 했다.   ■저축은행도 불만, 갈등 불가피   당정의 입장을 은행업계에 전달하는 은행연합회도 곤혹스러운 입장이다. 아직 구체적인 안이 나오지 않은 상태에서 마치 은행들이 이미 합의를 본 것처럼 진행하고 있다는 것이다.   은행연합회 관계자는 "금융당국에서 끌어가는 방향대로 단계별로 이어나갈 예정이지만 아직 어떠한 내용도 나온 것이 없다"면서 "금융회사들이 비용을 분담해서 만드는 인프라 구축에 관한 부분부터 차근히 설득해 추진해 나가는 단계"라고 말했다.   제2금융권도 불만이다. 은행에 비해 상대적으로 사업기반이 약해 수익성이 악화될 수 있다는 이유에서다. 저축은행 관계자는 "신용대출 취급 비중 등을 통해 산정한 20개사 이하가 이번 인프라에 참여할 예정"이라며 "당국에서 추진하니 따를 수밖에 없지만 고금리의 상품을 주로 다루는 2금융권 입장에서 참여할 동기도 마련해 줘야 한다"고 말했다.   금융당국은 그간 실무자들과 만나 여러 입장을 수렴했고 이해관계를 계속 조율하겠다는 입장이다. 금융당국 관계자는 "비대면 대환대출 인프라 구축 관련 9개월여간 업계와 접촉해왔다"며 "구체적인 시기는 아직 말할 수 없지만 세부 내용을 구체화하는 중"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.11.13.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>토스·카카오페이 손잡은 中 알리페이…직접진출 대체 전략?</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000041408?sid=105</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>비바리퍼블리카(토스)는 해외 온라인 판매 쇼핑몰 알리익스프레스에 토스페이를 제공한다.(사진=토스) 중국 알리페이는 2020년 말 한국 진출 가능성을 타진한 적이 있었다. 알리페이가 속한 알리바바그룹은 금융감독원에 국내 전자금융업자로 등록하는 방안을 문의한 바 있다. 현행법상 해외 글로벌기업은 전금업자로 등록이 어렵다는 답변을 받은 알리바바 측은 예외적용이 가능한지를 질의했다. 한국시장에 대한 '집념'이 작지 않다는 것을 시사하는 대목이다. 이런 사실이 알려지자 알리페이는 "한국 소비자를 타깃으로 직접 서비스할 계획은 없다"고 선을 그었었다.알리페이는 직접 진출 대신 한국의 주요 빅테크와 협력해 국내 시장과 접촉면을 넓히는 모습이다. 알리페이는 한국인이 직접 자사 솔루션을 사용하지 않더라도 제휴에 따른 인지도와 잠재적 사업기회를 확보할 수 있는 효과가 예상된다. 국내 빅테크 역시 세계 주요시장인 중국에 진출해 실적 규모를 배가하는 수혜를 볼 것으로 전망된다.13일 업계에 따르면 모바일 금융 플랫폼 토스를 운영하는 비바리퍼블리카(이하 토스)는 해외 온라인 판매 쇼핑몰 알리익스프레스에 토스페이를 제공한다. 알리익스프레스에서 이용 가능한 국내 간편결제 서비스 중 계좌, 포인트 외에 카드까지 결제 수단으로 제공하는 건 토스페이가 처음이다. 이번 제휴는 토스페이의 해외 가맹점 확대 전략의 일환으로 이뤄졌다.토스는 이번 서비스 제공을 위해 '알리페이플러스' 솔루션 제공사 앤트그룹과 제휴했다. 앤트그룹은 알리익스프레스의 결제 서비스를 총괄하고 있다. 토스의 페이테크 계열사인 '토스페이먼츠'는 앤트그룹과 협업을 통해 국내 카드 기반의 간편결제 서비스를 구현했다. 알리익스프레스 앱 혹은 웹사이트에서 물품 주문 시 결제 수단에서 토스페이를 선택한 후, 토스 앱에서 간단한 본인 인증을 거치면 된다. 토스는 이번 제휴를 시작으로 양사 간 협업을 확대해 나갈 계획이다.제휴를 기념하는 결제 할인 이벤트도 진행된다. '광군제' 기간 알리익스프레스에서 미화 50달러 이상 토스페이로 결제하는 모든 고객에게 결제 금액의 20%를 즉시 할인해주는 혜택을 최대 20달러 한도로 제공한다. 알리익스프레스는 11월 24일부터 11월 30일까지 광군제와 동일한 할인 혜택을 제공하는 블랙프라이데이 이벤트도 진행할 예정이다.토스페이는 쉽고 편리한 결제 경험을 내세워 빠르게 성장하고 있다. 이달 기준 토스페이를 도입한 가맹점은 1만2000개에 달하며, 전년 동기 대비 토스페이 거래액 증가율 및 월 활성 이용자(MAU)는 각각 106%, 55% 성장했다. 토스 관계자는 "해외 직구 시장이 지속적으로 성장함에 따라 간편 결제 경험에 익숙한 국내 사용자를 유치하기 위한 해외 브랜드의 니즈가 더 커질 것으로 기대된다"고 말했다.대한민국의 해외 직구 거래액은 꾸준히 늘어나고 있다. 통계청의 자료에 따르면 올해 3분기 온라인 해외 직접 구매액은 1조3065억원으로 전년 동기 대비 19.0% 증가한 것으로 나타났다.알리페이는 한국인의 중국 여행 수요도 눈여겨보고 있다. 이달 3일부터는 카카오페이와 알리페이플러스의 제휴를 통해 중국 일부 지역 오프라인 매장에서도 '카카오페이 결제'를 이용할 수 있게 됐다. 이로써 카카오페이는 중국에서 사용이 가능한 최초의 해외 간편결제 사업자가 됐다.카카오페이 사용자들은 아시안게임이 개최되는 항저우 근교 이우시의 상업 지구 소상공인 가맹점에서 결제 서비스 이용이 가능하다. 사용자들은 카카오페이 로고가 비치된 사용처에 QR코드나 바코드를 제시하는 방식으로 카카오페이 결제 서비스를 이용할 수 있고, 12월 초부터는 사용자가 매장에 붙어 있는 QR코드를 촬영하는 방식으로도 결제가 가능하다. 결제처는 중국의 대도시 중심으로 점차 확대될 예정이다.카카오페이는 사용자들이 국내에서의 편리한 결제 경험을 해외에서도 이어갈 수 있도록 시스템을 구축했다. 화면의 QR코드나 바코드를 제시하거나 사용자가 매장에 붙어 있는 QR코드를 촬영해 결제하면 '카카오페이머니'로 쉽고 빠르게 결제가 완료된다.알리바바 역시 빅테크 기업이기에 지속적으로 '성장성'이 요구된다. 그러나 중국 내수만으로는 성장을 이루는 게 어려울 것으로 보인다. 알리바바그룹은 지난 12일 홈페이지에 게재한 성명에서 “올해 14회째를 맞이한 쌍십일(광군제) 행사가 원만하게 끝났다"며 "거시적 환경의 도전과 코로나19 영향에도 불구하고 지난해 상품 교역액과 대등한 결과를 냈다"고 밝혔다.그러나 알리바바는 쌍십일 행사의 총 매출액 수치는 공개하지 않았다. 지난해에는 쌍십일 행사 기간 거래액이 2020년 대비 8.45% 성장했다고 밝힌 바 있다. 이러한 공식적 발표는 회사의 시장 장악력을 확인하는 수단도 된다. 이를 비공개했다는 점에서 올해 알리바바의 쌍십일 매출액이 기대에 미치지 못하거나 역성장했다는 해석이 나오고 있다.또, 시진핑 중국 국가주석이 지난달 전당대회에서 AI와 IT를 신성장동력으로 내세웠지만 인터넷 규제를 담당하는 중국 국가사이버정보판공실(CAC)은 지난 7일 기자회견에서 "인터넷 플랫폼을 위한 발전과 규제 병행 개념을 고수하겠다"고 밝혔다. 시 주석의 메시지에서 인터넷 플랫폼의 확장과 관련한 언급은 없었고, CAC가 온라인 콘텐츠 검열에 집중해온 점을 종합하면 중국은 사회 안정과 IT 발전을 함께 추구하는 이중적 전략을 펼 것으로 해석된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.11.10.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>넥슨, ‘블루 아카이브’ 1주년 특별 방송…2만 명 시청자 큰 ‘호응’</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005042903?sid=105</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>넥슨(대표 이정헌)은 지난달 28일 ‘블루 아카이브’ 서비스 1주년 기념 특별 방송 ‘키보토스 1주년 축하파티’를 진행했다. 이날 방송은 약 2만 명의 시청자가 함께했다.방송을 통해 넥슨은 지난 1년을 돌아보고 향후 업데이트 및 계획을 소개하고 이용자들과 소통의 시간도 가지며 밝은 미래를 예고했다.20분이 넘는 긴 영상 동안 이용자들은 “개발진이 게임에 대해 진심인 모습이 잘 느껴졌다”, “개발진들이 ‘블루 아카이브’를 사랑하는 모습이 보여서 너무 재밌었다. 업데이트 때마다 비하인드 스토리를 전해줬으면 좋겠다”와 같은 댓글을 남기며 호응했다.특별 방송 후반부에는 콜라보레이션 카페 운영과 ‘Anime X Game Festival’ 참가 등 이용자들의 구미를 당기는 오프라인 행사 소식을 연이어 알렸다.12월 21일까지 ‘애니플러스’와의 협업을 통해 서울 합정과 부산 서면에 컬래버 카페를 운영한다.게임 내 등장하는 식음료를 현실에서도 선보이는 한편 아크릴 스탠드, 머그컵, 키홀더 등 각양각색의 매력을 지닌 ‘블루 아카이브’ 학생들을 배경으로 제작된 수많은 굿즈를 판매할 예정이다.이와 함께 12월 3일과 4일 일산 킨텍스에서 개최되는 AGF 2022 참가 소식도 밝혔다.서비스 1주년인 지난 9일에는 김용하 EPD 등 개발진 4인의 인터뷰 영상이 공개됐다.이 외 이용자들로부터 꾸준한 사랑을 받고 있는 디지털 굿즈를 추가로 배포했다.또한 ‘비트바이트’와의 제휴를 통해 ‘블루 아카이브’ 대표 이미지를 활용한 테마 키보드를 선보였다.한편 넥슨은 ‘블루 아카이브’ 서비스 1주년을 맞아 11월 16일까지 접속한 모든 이용자에게 ‘10회 모집 티켓’과 학생에게 선물할 수 있는 ‘반짝이는 꽃다발’ 아이템을 지급한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.11.12.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>[80년대생 뉴오너 시대②] 신사업 발굴이 핵심 화두</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011532547?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 한화그룹은 29일 9개 계열사 대표이사 내정 인사를 발표했다. 사진은 부회장으로 승진한 김동관 한화솔루션 사장. (사진=한화그룹 제공) 2022.08.29. photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 옥승욱 기자 = 국내 주요 그룹들의 세대 교체가 가속화하며 1980년대생 뉴오너 시대가 본격화하고 있다. 대표적으로 김동관 한화그룹 부회장과 정기선 한국조선해양 사장, 이규호 코오롱모빌리티 사장, 구동휘 E1 대표이사 전무, 장선익 동국제강 상무 등을 꼽을 수 있다. 이들은 그룹 신사업을 맡으며 성장동력 확보와 함께 미래 먹거리 발굴에 주력하는 모습이다.재계에서 가장 승진이 빠른 80년대생 뉴오너로는 김동관 한화그룹 부회장(1983년생)이 대표적이다. 김승연 회장의 장남인 김 부회장은 한화큐셀을 통해 태양광 사업을 성공시킨 장본인으로 우주사업 확장에 적극 나서고 있다.한화그룹의 우주 산업을 총괄하는 스페이스 허브(Space Hub)는 KAIST와 공동으로 우주연구센터를 설립했다. 민간 기업과 대학이 함께 만든 우주 분야 연구센터로는 국내 최대다. 이를 위해 한화는 KAIST 연구부총장 직속으로 설립되는 연구센터에 100억원을 투입한다. 스페이스 허브는 지난 3월 출범한 우주 사업 총괄 본부격으로 한화에어로스페이스, 한화시스템, ㈜한화와 쎄트렉아이 등이 참여하고 있다. 김동관 부회장은 스페이스 허브팀의 리더인 팀장을 맡으며 그룹 우주산업을 이끌고 있다.김동관 부회장은 수소에너지 사업의 밸류체인 구축에도 속도를 낸다. 그린수소 생산에서부터 저장, 유통, 발전 등 전 과정에 사업 역량을 구축해 시너지 확보와 시장 경쟁력을 강화한다는 전략이다.김 부회장이 수장으로 있는 한화솔루션은 수소사업 확대에 많은 노력을 기울이고 있다. 한화솔루션 수소기술연구센터는 전력 소모가 많은 기존 수전해 기술의 단점을 보완한 차세대 ‘음이온 교환막 수전해 기술(AEMEC)’을 개발하고 있다. [라스베이거스=뉴시스]5일(현지시간) 미국 라스베이거스 ‘CES 2022’ 현장에서 개최된 현대중공업그룹 프레스 콘퍼런스에서 현대중공업지주 정기선 대표가 그룹의 미래비전인 ‘퓨처 빌더(Future Builder)’를 소개하고 있다. (사진=현대중공업그룹 제공) *재판매 및 DB 금지정몽준 아산재단 이사장의 장남인 정기선 HD현대 사장(1982년생)도 대표적인 80년대생 뉴오너다. 정 사장은 4차 산업혁명을 비롯한 경영환경 변화에 적극 대응하기 위해 ICT기술을 그룹 주요사업에 융합하는 디지털 혁신을 주도하며, 친환경 기술 고도화에 힘쓰고 있다. 정 사장은 최근 세계 최고의 빅데이터 기업인 미국 팔란티어 테크놀로지스(Palatir Technologies)의 피터 틸(Peter Thiel) 공동 창업자 겸 회장과 만나 신규 사업 추진과 경영 현안 전반에 대해 논의했다. 정 사장은 양사가 협력 중인 현대중공업그룹의 조선, 에너지, 건설기계 사업 전반에 걸친 디지털 전환(DX) 진행 사항을 점검하고, 세계 각국의 인플레이션과 금리 인상 움직임, 에너지 복합 위기 등 경영 환경에 대한 의견을 교환하기도 했다. 또 지난 9월에는 이탈리아 밀라노에서 열린 가스텍 2022에서 현대중공업그룹의 친환경 선박 관련 기술력을 전 세계에 선보였다. 특히 액화이산화탄소운반선과 암모니아추진·운반선, LNG-수소 혼소 엔진 등에 대해 글로벌 기관 및 기업들로부터 총 10건의 기술인증 획득과 기술협력 MOU 체결을 진행하며 친환경 기술력을 인정 받았다. [서울=뉴시스]이규호 코오롱모빌리티그룹 대표이사 사장 (사진=코오롱그룹 제공) *재판매 및 DB 금지이웅렬 코오롱그룹 명예회장의 장남인 이규호 사장(1984년생)도 그룹의 주요 사업 분야 체질을 개선하고, 미래 신사업으로 전환을 주도하며 경영 행보를 이어가고 있다. 이 사장은 지난 7일 코오롱그룹 정기 임원인사에서 사장으로 승진했다. 그는 코오롱글로벌에서 인적분할로 신설하는 코오롱모빌리티그룹(주)의 대표이사 사장을 맡게 된다. 모빌리티사업 분야의 급속한 변화와 MZ세대의 등장으로 급변하는 경영 환경에서 젊은 감각과 크리에이티브를 발휘해 그룹의 미래성장 전략을 세우고 신사업 발굴을 담당할 예정이다.   이규호 사장은 최근 유통 패러다임 변화에 따라 디지털 트랜스포메이션 (Digital Transformation)을 중점 추진 과제로 선정하고 MZ세대를 타겟으로 한 온라인 비즈니스도 강화한다. 지난해 12월 모바일 금융전문서비스 토스를 운영 중인 비바퍼블리카와 파트너십을 체결해 핀테크를 활용한 전자결제시스템을 도입하고, 자동차 구매 등 관련 서비스 이용에 온라인 결제가 가능하도록 지원하기도 했다. [서울=뉴시스] 장선익 동국제강 상무(사진=동국제강) 2022.11.11 photo@newsis.com *재판매 및 DB 금지장세주 회장의 장남인 장선익 상무(1982년생)은 재계 4세 중 비교적 승진이 느린 편이다. 장 상무는 2016년말 동국제강 비전팀 이사로 발탁되며 존재감을 드러냈다. 이후에는 비전팀 수장으로 회사의 지속 가능한 성장 전략을 수립하는 역할을 맡았다. 지난 2018년 6월부터는 사내 핵심 부서인 경영전략팀으로 자리를 옮겨, 그룹 후계자로서 계열사 전반을 관리하고 경영 노하우도 익혔다. 2020년 상무로 승진한 그는 인천공장 생산담당으로 또 한번 보직을 바꾸며 현장에서 경험을 쌓고 있다.[서울=뉴시스] 국내 LPG 가스 수입사인 E1의 구동휘 전무 최고운영책임자(COO) (제공=LS그룹)구자열 LS그룹 회장의 장남인 구동휘 전무(1982년생)도 재계에서 주목하는 80년대생 뉴오너다. 지난 2021년 E1 대표이사에 선임된 후 E1 차세대 경영 전략 수립 역할을 맡고 있다. 구 전무는 특히 수소 및 전기차(EV) 사업 외에 신재생에너지 사업을 맡으며 미래성장동력 확보에 주력하고 있다.최신원 전 SK네트웍스 회장의 장남인 최성환 사업총괄(1981년생)도 올해 주주총회에서 사내이사에 선임됐다. 최 전 회장이 횡령·배임 혐의로 사내 모든 직책에서 물러나며 앞으로 경영 승계가 본격화 할 수 있다는 관측이다. 최 사업총괄은 SK네트웍스의 기존 사업 관리와 회사 미래 전략 수립, 신규 투자 등을 맡고 있다. 앞으로 그룹 신성장동력으로 꼽히는 전기차 충전사업과 신소재, 블록체인에 집중할 전망이다. [서울=뉴시스] 최성환 SK네트웍스 사업총괄. (사진=SK네트웍스 제공) *재판매 및 DB 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.11.15.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>토스증권 3분기 영업이익 22억원…출범후 첫 분기 흑자</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013577032?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>토스증권 로고[토스 제공. 재판매 및 DB 금지](서울=연합뉴스) 채새롬 기자 = 토스증권은 3분기 매출 492억원, 영업이익 22억원, 당기 순이익 21억원을 기록했다고 15일 밝혔다.    토스증권이 분기 흑자를 달성한 것은 회사 출범 1년 9개월 만에 처음이다.     매출은 전 분기 대비 40%, 전년 대비 1천950% 증가했다. 작년 3분기에는 102억원 영업 손실, 전 분기에는 65억원 손실이었다.     토스증권은 해외주식 서비스가 작년 12월 출시된 이후 올해 1분기 37억원, 2분기 100억원, 3분기 130억원의 매출을 내며 큰 폭 성장했다고 설명했다.     해외주식 거래대금도 1분기 6조2천억원, 2분기 10조6천억원, 3분기 13조5천억원으로 지속해서 증가했다.    작년 12월 500여개 종목으로 시작한 해외주식 서비스는 현재 3천600개 미국주식과 상장지수펀드(ETF)로 대상을 넓혔다. 전 종목에 온주 및 소수점 단위로 투자할 수 있다.        토스증권은 연말까지 해외주식 브로커 및 환전 은행 이중화를 마무리하고, 서비스 안정성 강화에 주력할 예정이다.    10월 말 기준 토스증권 고객 수는 450만명이고, 월활성유저(MAU)는 200만명 이상이다.    srchae@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.11.01.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>혁신과 기득권 싸움 끝은…토스의 성공일까, 타다의 좌절일까 [김주완의 스타트업 나우]</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004769929?sid=110</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>한경 DEEP INSIGHT법률·부동산·의료 등 디지털 전환 빨라져 오프라인·온라인 연계서비스 3년새 2배↑산업 커지자 스타트업과 기존사업자 갈등정부 '한걸음 모델' 등 양쪽 중재한다지만성과 적고, 규제 풀린 후엔 경쟁력 이미 약화UAM 등 신산업도 이해관계 얽히면 '난기류'택시업계에 이어 의사, 변호사, 세무사, 공인중개사, 숙박업체 대표들까지…. 국내 스타트업업계와 전문직 단체 간 갈등은 전방위로 확산하고 있다. 스타트업이 정보기술(IT)을 앞세워 관련 산업의 디지털 전환에 나서자 기존 사업자들이 크게 반발하는 모양새다. 기존 사업자는 소비자 보호를, 스타트업은 소비자 편익 증가를 각각 주장한다. 일부 다툼은 경찰과 검찰의 수사, 재판으로 이어지기도 했다. 이 같은 상황에도 스타트업의 전문 영역 진출이 이어지고 이용자는 늘고 있다. 대표적 갈등 사례로 꼽히는 승차 공유 플랫폼 ‘타다’ 논란은 법적 규제로 사업이 사실상 막히기도 했다. 하지만 ‘택시 대란’이 이어지자 정부는 결국 규제를 완화하기로 했다. 산업계의 변화 흐름을 막무가내로 막기는 어렵다는 얘기다. 디지털 전환이 가속하면서 사회적 공론화와 적극적인 정부 중재가 필요하다는 목소리도 커진다. 직방도 막아선 정치권김병욱 더불어민주당 의원은 지난달 공인중개사가 한국공인중개사협회(한공협)에 의무적으로 가입하도록 하는 내용의 공인중개사법 개정안을 대표 발의했다. 개정안에 따르면 12만여 명이 가입한 국내 최대 공인중개사 단체인 한공협을 법정단체로 인정하고, 앞으로 공인중개사가 개업하려면 한공협 회원으로 반드시 가입해야 한다. 한공협의 회원 감독 권한을 강화하는 내용도 담겼다. 정부가 놓칠 수 있는 사기 등 무질서한 부동산 중개 행위로부터 국민을 보호하겠다는 것이 개정안의 취지다.그래픽=신택수 기자직방, 다방 등 스타트업 중심의 프롭테크(부동산기술)업계는 이 개정안에 거세게 반대하고 있다. “기존 공인중개사의 기득권만 보호하는 법”이라는 이유에서다. 개정안이 통과되면 한공협이 프롭테크업체와 제휴하는 중개사를 다양한 이유로 압박할 수 있다고 우려한다. 한국프롭테크포럼은 “특정 이익단체의 독점화에 따른 공정 경쟁 기반을 훼손하고 소비자 편익 침해와 서비스 다양성, 품질 저하 등의 부작용이 생길 것”이라고 강조했다. 프롭테크업계 관계자는 “부동산 중개 시장의 기득권 세력이 혁신은 외면하고 ‘반값 중개수수료’ 등 새로운 서비스를 시도하는 프롭테크업체를 견제하기 위해 정치권을 끌어들였다”고 말했다. 앞서 한공협은 프롭테크 기업이 신규 서비스를 내놓을 때마다 “골목상권 침해”라며 비난했다.변호사 광고 플랫폼 ‘로톡’을 운영하는 로앤컴퍼니와 대한변호사협회(변협) 간 대립도 격화하고 있다. 변협은 지난달 로톡에 가입한 변호사 9명에게 최대 과태료 300만원의 징계를 내렸다. 변협이 로톡 가입을 이유로 변호사를 징계한 것은 이번이 처음이다. 앞서 변협은 작년 5월 변협의 변호사 광고에 관한 규정을 개정해 로톡을 통한 변호사 알선 및 광고를 원천 차단했다.하지만 헌법재판소는 올해 5월 변협의 변호사 광고 규정에 대해 ‘일부 위헌’ 결정을 내렸다. 사건이 아니라 변호사 소개나 알선은 변협이 제재할 수 없다는 취지였다. 하지만 변협과 로앤컴퍼니는 각자 유리하게 헌재 판결을 해석하면서 양측의 충돌은 심화했다. 변협은 로톡의 서비스는 불법 브로커 같은 행위로 안전한 법률 서비스 제공을 위해 막아야 한다는 입장이다. 반면 로앤컴퍼니는 변호사와 법률 소비자 간 거리를 좁히고, 보다 많은 정보를 제공하는 리걸테크(법률기술) 서비스가 필요하다고 주장한다. 디지털 전환 흐름에 갈등 격화의료 분야에서도 유망 스타트업과 협회 간 갈등이 커지고 있다. 비대면 진료 플랫폼 업체 닥터나우는 지난 6월 ‘원하는 약 담아두기’ 서비스를 출시 한 달 만에 중단했다. 서울특별시의사회가 “해당 서비스는 의료법·약사법 위반”이라며 닥터나우를 고발하면서다. ‘원하는 약 담아두기’는 환자가 닥타나우 앱에 나온 의약품 중 원하는 것을 골라 의사의 처방을 원격으로 받을 수 있는 서비스다. 의사회는 의료 관련 알선 행위를 금지한 의료법을 위반했다고 주장했다.대한의사협회는 성형정보 플랫폼 ‘강남언니’를 운영하는 힐링페이퍼와 사사건건 다투고 있다. 지난 9월에는 정부가 강남언니 등 온라인 의료 플랫폼을 통해 ‘비급여 진료비’ 정보를 공개할 수 있도록 허용하자 의료계가 반발했다. 의협은 “비급여 진료비 정보가 공개된다면 환자들이 진료비만 단순 비교하고 의료기관을 선택하는 상황이 조성될 우려가 있다”고 주장했다. 의협은 강남언니 등 온라인에 올라온 병원 홍보 게시글도 ‘의료 광고’라며 관련 협회의 심의를 받도록 소관 법령을 개정해야 한다고 정부에 요청하기도 했다. 힐링페이퍼는 의료 소비자의 편익 증진과 소규모 의원의 홍보를 위해 관련 서비스가 필요하다고 설명했다.이런 다툼이 커진 것은 사회 곳곳의 디지털 전환이 가속하면서다. 스마트폰 확산과 인터넷 속도 향상 등으로 오프라인과 온라인을 연계하는 서비스가 급증했다. 이를 O2O(online to offline) 서비스라고도 부른다. 오프라인 서비스가 인터넷 위에 올라오면서 관련 산업은 혁신으로 이어졌다. 소비자는 스마트폰으로 음식 주문, 택시와 렌터카 호출, 숙박과 레저 시설 예약, 부동산 계약, 가사도우미 요청 등을 언제 어디서나 할 수 있게 됐다. 과학기술정보통신부에 따르면 국내 O2O 시장 규모는 2018년 2조2765억원에서 지난해 5조4323억원으로 3년 새 두 배 이상 커졌다. 거래액으로 따지면 지난해 147조3877억원까지 증가했다. 카카오모빌리티, 우아한형제들(배달의민족) 등 업체들이 포함된 운송 서비스 분야의 시장 규모는 3조904억원으로 가장 컸다. 코로나19 확산으로 비대면 의료 서비스 수요도 크게 늘었다. 의료 및 보건 서비스 분야의 작년 매출은 1년 전보다 81.1% 급증하기도 했다. 다양한 서비스에 대한 소비자의 디지털 전환 수요가 급증하면서 기존 사업자도 O2O 스타트업을 마냥 막을 수 없는 상황이 된 것이다. 제2의 토스 또는 제2의 타다?전문직 단체와 다투는 스타트업의 사업 경로는 크게 두 가지로 예상할 수 있다. ‘제2의 토스’ 아니면 ‘제2의 타다’가 되는 경우다. 핀테크 스타트업 비바리퍼블리카는 간편 송금 서비스 토스를 앞세워 가입자를 확대했다. 은행업, 증권 등 다른 금융 서비스로 사업을 확대하자 금융권은 반발했고, 금융당국도 각종 규제로 토스를 가로막았다. 하지만 스마트폰으로 금융 서비스를 이용하는 소비자가 급증하면서 기존 금융권도 토스 서비스를 참고하기 시작했다. 정부도 금융규제 샌드박스 등을 통해 관련 규제 개선에 나설 수밖에 없었다.토스는 국내 금융권에서 ‘메기’ 역할을 톡톡히 했다는 평가다. 지난해 오프라인 영업점이 없는 토스뱅크, 토스증권 등을 잇달아 내놨다. 토스뱅크는 지난달 출시 1년 만에 이용자 480만 명을 확보했다. 기존 제1금융권에서 대출받기 어려웠던 중저신용자의 대출 비중이 39%로 가장 높았다.반면 타다는 디지털 전환의 흐름을 정치권이 막은 사례다. 타다는 2018년 차량 호출 서비스를 시작했고, 1년 만에 회원 170만 명을 모았다. 기존 택시에서 접하기 어려웠던 고급 차량과 승객 맞춤 서비스로 소비자를 공략했다. 하지만 택시업계의 반발이 거셌다. 택시업계는 타다가 ‘위법 콜택시’라고 주장했다. 이에 정치권은 2020년 택시 면허를 다량 확보하거나 일정 기여금을 내는 업체만 모빌리티 사업을 할 수 있다는 내용을 법제화했다.모빌리티 서비스를 갓 시작한 스타트업에는 버거운 조건이었다. 업계가 해당 법안을 ‘타다 금지법’(여객자동차운수사업법 개정안)으로 부른 이유다. 결국 타다는 관련 서비스를 접어야 했다. 이후 카카오의 자회사인 카카오모빌리티 등 자금력이 있는 일부 기업만 모빌리티 사업을 확장할 수 있었다. 타다도 지난해 비바리퍼블리카로부터 거액의 투자를 받고서야 모빌리티 사업을 본격적으로 다시 시작할 수 있었다.피해는 소비자들이 봤다. 모빌리티 시장의 진입 장벽이 높아져 신규 업체가 크게 줄어든 가운데 코로나19 확산으로 택시 운전사들이 택시업계를 떠나자 택시 대란이 터졌다. 소관 부처인 국토교통부는 과거 타다와 비슷한 서비스(플랫폼 운송 사업 타입 1) 관련 규제를 완화하겠다고 지난달 밝혔다. 모빌리티업계 관계자는 “모빌리티 시장에 진출하기에는 여전히 거금이 필요하다”며 “법인택시, 개인택시, 택배업체 등 이해관계자가 복잡하게 얽혀 있고 곳곳에 규제가 많아 새로운 시도가 나오기 어렵다”고 지적했다. 말로만 중재하겠다는 정부정부의 역할이 중요하다. 토스의 성장과 타다의 좌절에 모두 정부가 깊이 개입했다. 정부가 마련한 인터넷전문은행 제도의 자격을 얻은 토스는 사업을 확대했다. 반면 타다는 택시업계 반발을 의식한 정치권이 타다 금지법을 내놓자 시장을 떠나야 했다. 정부는 타다 금지법에 대한 비난이 커지자 2020년 기획재정부를 중심으로 ‘한걸음 모델’이라는 신구(新舊) 사업자를 중재하는 새로운 방식을 도입했다. 신산업 분야 활성화를 위해 이해관계자가 각자 ‘한걸음’씩 양보해 함께 ‘더 큰 걸음’을 내딛자는 취지였다.하지만 성과는 미미하다. 그동안 한걸음 모델로 이해관계자 간 갈등이 제대로 해결된 경우가 없었다. 2년 동안 농어촌 빈집 숙박, 산림 관광, 도심 공유 숙박, 단초점 안경 전자상거래, 드론과 로봇 등 미래형 운송 수단을 활용한 생활물류 등 다섯 개 사안을 논의했다. 농어촌 빈집 숙박만 규제 샌드박스 정책으로 지난해 시범 사업을 시작하는 데 그쳤다. 이 사업도 50채만 한시적으로 허용해 규제 완화 효과가 거의 없다는 지적이 나온다.기재부는 지난 3월 강남언니와 로톡도 한걸음 모델의 신규 과제로 선정했다. 하지만 이 역시 해당 업체를 둘러싼 갈등을 해결하기는커녕 분란을 키웠다. 정부가 규제 개혁, 신구 사업자 갈등 중재 등에서 시늉만 한다는 지적이 나오는 이유다. 최근 전국경제인연합회 조사에 따르면 국내 기업들의 정부 규제개혁 만족도는 2018년 15.1%에서 2021년 7.8%로 떨어졌다. 국내 창업 생태계 활성화를 위한 규제 개선 방향을 연구한 ‘2022 스타트업코리아!’ 보고서 작성에 참여한 박경수 삼정KPMG 상무는 “정부가 국내 기업이 성장할 수 있는 여건을 제공하지 못한 것에 대해 아쉬움을 넘어 국내 기업들이 향후 규제가 해소된 뒤에 글로벌 기업과의 경쟁에서 생존할 수 있을지 우려가 크다”고 했다.혁신을 앞세운 스타트업과 기존 사업자 간 갈등은 계속될 전망이다. 최근 화상투약기 제조 스타트업인 쓰리알코리아의 ‘약 자판기’가 정부의 규제 샌드박스 심의를 통과하자 대한약사회가 크게 반발했다. 세무회계 플랫폼 ‘삼쩜삼’을 운영하는 텍스테크(세무기술) 스타트업 자비스앤빌런즈와 한국세무사회 간 다툼도 확산 일로에 있다. 유망 스타트업이 신규 디지털 전환 서비스를 내놓을 때마다 기존 사업자는 반발하고, 관련 이용자가 증가하면 갈등의 골은 깊어진다.도심항공교통(UAM), 로봇 등 정부가 집중 육성하겠다는 신산업 분야 역시 장기적으로는 이 같은 갈등을 피하기 힘들 것으로 보인다. 업계는 3년 뒤인 2025년 UAM을 통한 에어택시의 상용화를 예상한다. 지금은 상상 같은 얘기지만 현실이 되면 다양한 이해관계자가 정부와 정치권에 안정성 우려 등을 제기하며 막아설 가능성이 높다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.11.08.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>[단독] ‘풀 레버리지’ 쓴 새한창투, 800억 금융채 만기 임박…두나무·토스 주식도 담보로 걸었다</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000853252?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>작년 9월 두나무에 667억 베팅, 두 달 후 두나무·토스 지분 담보로 사채 발행크래프톤 주식도  950억 담보대출        지난해 국내 벤처 투자 시장 최고의 ‘큰손’이었던 새한창업투자(새한창투)가 유동성 위기를 맞았다. 작년 말 발행한 800억원 규모 금융채의 만기가 열흘도 채 남지 않은 가운데, 금리 상승과 ‘레고랜드 사태’가 촉발한 신용 경색으로 차환사채의 발행도 매우 어려워졌다.일러스트=이은현        8일 투자은행(IB) 업계에 따르면 오는 17일 새한창투가 발행했던 제11회 무보증 선순위 이표채의 만기가 도래한다. 신기술금융사가 발행하는 신기술금융채로, 발행일은 지난해 11월 17일이며 표면이율은 7.5%다.새한창투는 올해 2월과 5월, 8월 세 차례에 걸쳐 15억원씩 총 45억원의 이자를 납입했다. 원금 800억원은 만기에 상환하도록 돼있다.새한창투는 지난해 스타트업 시장에 총 3738억원을 쏟아부으며 투자액 1위로 등극한 VC다. 투자 업계 마이더스의 손으로 불리는 알토스벤처스와의 ‘판박이 포트폴리오’로도 유명하다. 쿠팡·로블록스·크래프톤·비바리퍼블리카(토스 운영사)에 이어 작년 9월 말에는 두나무에 667억원을 투자하며 화제가 됐다.새한창투는 이 투자금을 융통하는 과정에서 사채를 발행한 것으로 보인다. 667억원을 들여 인수한 두나무 주식 전량(21만5000주)과 보유 중이던 비바리퍼블리카 주식 전량(124만4144주)을 사채의 담보로 제공했다.현 상황에 새한창투가 사채를 차환 발행하는 것은 거의 불가능하다고 IB 업계 관계자들은 말한다. 신용 경색으로 여신전문금융채(여전채) 발행 시장이 얼어붙었을뿐 아니라, 현재 만기를 앞둔 11회 사채도 담보 가치가 60% 이상 폭락하며 기한이익상실(EOD) 사유가 발생했다는 추측이 나오고 있기 때문이다.지난해 사채 발행 당시 새한창투가 보유한 두나무와 비바리퍼블리카 지분 가치는 약 2300억원에 달했을 것으로 추산된다. 현재는 약 850억원으로 줄었다. 두 회사 모두 통일주권이 발행된 비상장사인 만큼, 장외 주식 거래소에서 시가를 확인할 수 있다.이미 주식담보대출을 통해서도 ‘풀 레버리지’를 활용했다는 점은 새한창투의 유동성에 있어 상당한 부담 요인이다. 새한창투는 작년 말 기준으로 한국증권금융·KDB캐피탈·한국산업은행·롯데손해보험·IBK연금보험·미래에셋증권에서 총 950억원의 주식담보대출을 받은 상태였으며, 그 후 일부 증권사의 대출은 모두 상환하기도 했다. 담보 자산은 보유 중인 크래프톤 주식 전량(50만4220주)이며, 만기는 2023년 10월 5일, 연 이자율은 3.6%다.이와 관련, 새한창투 관계자는 “문의에 일절 응하지 않겠다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.11.04.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>[출근길money]금융소비자, 어떤 앱 가장 많이 이용하나</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004923215?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>컨슈머인사이트 제공   컨슈머인사이트 제공 [파이낸셜뉴스] 소비자가 꼽은 '필수 금융 앱' 1위를 토스가 차지했다. 2위는 KB국민은행 스타뱅킹, 3위는 카카오뱅크 순이었다.   이같은 결과는 '휴대폰에 설치된 금융 앱 중 평소에 정기적으로 이용하거나 생활에 꼭 필요한 앱'을 꼽으라는 질문에 대한 응답자의 선택 비율을 토대로 산출했다. 소비자리서치 전문 연구기관 컨슈머인사이트가 지난 10월 한 달 동안 진행한 설문조사에서다.   구체적으로 토스의 확보 고객이 34.5%, KB국민은행 스타뱅킹의 확보 고객은 29.7%로 집계됐다. 지난 9월 조사에서 토스(33.7%)와 KB국민은행 스타뱅킹(32.7%) 간 차이가 1.0%p였던 것이 10월 조사에서는 4.8%p 차이로 벌어졌다.   카카오뱅크와 신한 쏠(SOL)은 지난달에 이어 3위와 4위 자리를 지켰다. 신한플레이와 삼성카드는 순위가 높아져 각각 5위, 6위를 기록했다.   연령별로는 20~40대는 토스, 카카오뱅크 등 핀테크 앱을, 50~60대는 KB국민은행 스타뱅킹을 가장 선호하는 것으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.11.01.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>시중은행보다 비싼 인뱅 신용대출…포용금융 '무색'</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002653868?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>저신용자 금리 차이 최대 4%P"취급 비중 커 가산금리 ↑"인터넷전문은행 3사. ⓒ각 사[데일리안 = 김효숙 기자] 인터넷전문은행들이 중저신용자에게 내준 신용대출이 대형 시중은행보다 비싼 것으로 나타났다. 포용금융과 혁신을 내세우며 출범한 인터넷은행이 기존은행보다 비싼 이자로 서민 대출을 내주는 것은 설립 취지에 어긋난다는 지적이 나온다.1일 은행연합회에 따르면 케이뱅크, 카카오뱅크, 토스뱅크의 신용점수(KCB 기준) 850~801점 구간의 평균 신용대출 금리는 7.44%로 같은 구간의 5대 은행 평균 신용대출 금리보다 0.94%포인트(p) 높았다. KCB기준 신용점수 850~800점은 대개 중신용자로 판단한다.회사별로 보면 케이뱅크가 6.86%, 토스뱅크가 7.58%, 카카오뱅크가 7.88% 순이다. 가장 높은 카카오뱅크의 경우 5대 은행에서 가장 금리가 낮은 신한은행과 비교하면 1.52%p까지 차이난다. 같은 구간 5대 은행 신용대출 금리는 ▲신한은행 6.36 ▲우리은행 6.40% ▲하나은행 6.50% ▲NH농협은행 6.58% ▲KB국민은행 6.64% 순이다.은행연합회는 지난 8월부터 신용점수를 50점씩 구간별로 나눠 신용대출 금리를 공시하는데, 중저신용자 기준인 850점 이하 구간은 모두 인터넷은행의 평균 금리가 5대 은행 보다 높았다.인터넷은행의 평균 신용대출 금리는 ▲800~751점 8.17% ▲750~701점 8.79% ▲700~651점 9.44% ▲650~601점 10.83% ▲600점 이하 10.81%이다. 5대 은행의 평균 금리는 ▲800~751점 8.17% ▲750~701점 8.79% ▲700~651점 9.44% ▲650~601점 8.71% ▲600점 이하 9.74%였다. 구간 별로 인터넷은행이 5대 은행보다 1~2%p 높은 셈이다.KCB 신용점수 650~601점 구간 신용대출 금리. ⓒ은행연합회특히 저신용자 구간에서 인터넷은행이 최대 4%p 가까이 금리가 높은 사례도 있었다. 650~601점 구간에서 가장 높았던 케이뱅크의 신용대출 금리는 11.24%로 이중 가장 낮은 농협은행보다 3.92%p 차이났다.이 구간 카카오뱅크, 토스뱅크의 금리도 각각 10.44%, 10.80%로 5대 은행에서 가장 높은 하나은행의 9.38%보다 1%p 이상 차이났다.문제는 고신용자 구간에서 인터넷은행의 신용대출이 5대 은행보다 저렴했다는 점이다. 신용점수 1000~951점 구간에서 인터넷은행 3사 평균 금리는 5.23%로 5대 은행의 평균 금리인 5.28%보다 0.05%p 낮았다.인터넷은행은 포용금융 역할에 충실하다는 입장이다. 중저신용 대출 취급액이 시중은행보다 압도적으로 많은 만큼 가산금리가 다소 올라갈 수 있다는 설명이다. 대출금리는 기존금리에 가산금리를 더한 다음 가감조정금리를 뺀 값으로 결정된다. 가산금리는 자금 조달 금리 등이 포함된다.인터넷은행 관계자는 "애초 기존은행에서 신용대출을 못받는 사람들까지 대출을 내주다보니 가산금리가 시중은행보다 높은 측면이 있다"라며 "기존 은행이 한 구간에서도 비교적 높은 점수를 가진 이들에게만 대출을 내준다면 그 구간에서 금리가 낮아질 수 있다"고 설명했다. 이어 "인터넷은행 중저신용자 대출 비중이 기존은행보다 큰데, 이들이 실제 기존은행에서 낮은 금리로 대출을 받을 수 있다면 인터넷은행을 왜 찾았겠느냐"고 부연했다.카카오뱅크와 케이뱅크는 7월 말 기준 중·저신용 대출 비중이 각각 23%, 24%를 기록했으며, 토스뱅크도 9월 말 기준 40%를 넘어섰다.하지만 시중은행보다 중저신용자 대출을 비싸게 내주는 것은 설립 취지를 무색하게 하는 행보라는 비판도 나온다. 애초 인터넷은행은 기존은행이 하지 못하는 포용금융과 혁신금융 역할을 주문받으며 탄생했다. 신용점수가 낮은 사람들이 사채 시장으로 빠지는 것을 막고 제도권 금융을 이용하게 하자는 취지다.금융권 관계자는 "10% 이상 금리로 신용대출을 해주는 비율은 인터넷은행이 압도적으로 높다"면서도 "다만 전체 대출 중에서 7~8%대 금리로 신용대출을 내준 비중은 인터넷은행과 시중은행이 모두 비슷한데, 이 구간 대출 금리가 인터넷은행이 높은 것은 의문"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.11.11.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>토스, 중국 광군제 앞두고 알리익스프레스서 간편결제 서비스</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013569633?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>13일까지 결제 20% 할인 이벤트알리익스프레스서 토스페이 결제 가능[토스 제공. 재판매 및 DB 금지](서울=연합뉴스) 임성호 기자 = 모바일 금융 플랫폼 토스 운영사 비바리퍼블리카(토스)는 중국 알리바바그룹의 글로벌 전자상거래 플랫폼 알리익스프레스에서 토스페이를 제공한다고 11일 밝혔다.    국내 간편결제 서비스 중 알리익스프레스에서 계좌, 포인트 외에 카드까지 결제 수단으로 제공하는 건 토스페이가 처음이다.    토스는 이번 서비스 제공을 위해 알리페이플러스 결제 서비스를 총괄하는 솔루션 제공사 앤트그룹과 제휴했다. 토스의 페이테크 계열사인 토스페이먼츠가 앤트그룹과 협업해 국내 카드 기반의 간편결제 서비스를 구현했다.    이번 제휴는 토스페이의 해외 가맹점 확대 전략의 일환으로 이뤄졌다.     제휴를 기념하는 결제 할인 이벤트도 열린다. 중국판 블랙 프라이데이로 여겨지는 광군제(光棍節)가 시작되는 이날부터 오는 13일까지 알리익스프레스에서 50달러 이상 토스페이로 결제하는 모든 고객에게 결제 금액의 20% 즉시 할인 혜택(최대 20달러 한도)을 제공한다.     오는 24일부터 30일까지는 광군제와 동일한 할인 혜택을 제공하는 블랙프라이데이 이벤트도 열린다.    토스 관계자는 "해외 직구 시장이 지속해서 성장함에 따라 간편 결제 경험에 익숙한 국내 사용자를 유치하기 위한 해외 브랜드의 니즈가 더 커질 것으로 기대된다"면서 "많은 해외 가맹점에서 토스페이의 간편하고 안전한 결제를 경험할 수 있도록 제휴를 확대해 나가겠다"고 말했다.토스페이 로고[토스 제공. 재판매 및 DB 금지]    sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.11.02.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>이커머스, ‘성장세 둔화·투자심리 악화’…전략 대폭 수정</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002653979?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>시장 침체·자금난에 사업 정리, 기업 매각 사례 급증투자시장 위축, 기업 가치 평가 잣대도 성장성에서 수익성으로 선회서울 광진구 동서울우편물류센터에서 직원들이 추석 명절을 앞두고 택배를 분류하고 있다.ⓒ뉴시스[데일리안 = 최승근 기자] 이커머스 업계가 내년 사업전략을 놓고 대대적인 전략 수정에 들어갈 것으로 보인다.지금까지는 적자를 내도 성장성을 중심으로 높은 기업 가치를 인정받고 외부 투자 유치가 가능했지만, 올 들어 이커머스 시장 성장세가 둔화되고 금리, 환율 상승으로 투자시장이 얼어붙으면서 기존 전략으로는 사업 운영이 어려워졌기 때문이다.2일 관련 업계에 따르면 스트리트 패션 원조 1세대 쇼핑몰로 알려진 힙합퍼는 지난달 31일을 끝으로 서비스 운영을 종료했다.한 때 무신사와 선두 경쟁을 벌일 정도로 젊은층으로부터 인기가 높았지만 대내외 경기 악화, 업계 간 출혈경쟁 등을 견디지 못한 데다 매각에도 실패하면서 결국 서비스를 종료하게 됐다.국내 1위 배달대행 플랫폼 ‘부릉’ 운영사인 메쉬코리아는 경영권 매각에 나선 상태다.앞서 네이버, GS리테일 등 대기업으로부터 투자를 유치하며 승승장구 했지만 자금난으로 새벽배송, 식자재유통 같은 적자 사업을 정리하는 등 고강도 구조조정을 추진 중이다.티몬은 지난 9월 글로벌 역직구 플랫폼 큐텐에 매각됐고, 수산물 당일 배송 서비스 ‘오늘회’를 운영하는 오늘식탁은 자금난으로 서비스를 중단했다가 최근 일부 서비스를 재개했다.업계에서는 올 들어 투자유치가 부쩍 어려워졌다는 하소연이 많이 나온다.최근 대한상공회의소와 코리아스타트업포럼이 국내 스타트업 250개사를 대상으로 공동으로 진행한 ‘스타트업 애로현황 및 정책과제’ 조사에 따르면 작년과 비교해 올해 경영상 어려움이 가중됐다는 응답이 59.2%로 조사됐다. 반면 좋다고 응답한 비율은 16.8%에 그쳤다.또 조사기업 중 36%는 올해 투자가 지난해와 비교해 감소했다고 응답했다. 증가했다고 답한 곳은 16%에 그쳤다.시장 내 경쟁은 갈수록 치열해지는 반면 투자유치는 어려워지면서 자금난을 겪는 기업도 우후죽순 늘고 있다. 이에 업계에서는 온라인 플랫폼 등 이커머스업계도 기존 오프라인 유통채널처럼 수익성으로 평가받게 될 것이란 전망이 제기되고 있다.지금까지처럼 적자를 내면서 몸집을 불리는 전략은 투자자들에게 매력적이지 않다는 의미다. 때문에 업계에서는 내년 사업전략의 중심을 수익성에 둘 것이란 전망에 힘이 실리고 있다.하지만 경쟁체제에서 한 기업만 할인, 쿠폰 등 출혈경쟁을 멈출 경우 매출이 급격하게 감소할 수 있어 누가 먼저 어떤 방식으로 전략을 변경할지에 대해 촉각을 곤두세우는 분위기다.대대적인 마케팅 중단에 따른 손실을 상쇄할 대표 전략으로는 플랫폼 환경을 개선해 이용자 편의성을 높이거나 단독 상품·해외 유명 상품 등 소싱 능력을 키우는 방법이 꼽힌다.이미 야놀자, 위메프 등 주요 이커머스 기업들은 아마존, 애플, 토스 등에서 성과를 입증한 전문 인력을 잇달아 영입하며 인재 확보에 열을 올리고 있다.이커머스업계 관계자는 “수년간 적자를 유지하며 투자유치를 통해 사업을 확대해온 전략이 투자시장 위축으로 더 이상 통하지 않게 됐다”며 “그나마도 가능성이 높은 일부 기업에만 몰리는 상황이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.11.10.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>FTX 사태, 가상자산 신뢰 무너저…규제 강화도 불가피</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005364090?sid=105</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>믿었던 거래소까지 부실 운영 정황 드러나가상자산 산업 전반 신뢰 무너져...자금경색 심화될 듯산업 생태계 악영향·규제 강화도 우려"자율규제 확립하는 계기로 삼아야"[이데일리 임유경 기자] FTX발 코인 대규모 인출(뱅크런)과 유동성 위기는 가상자산 산업 역사상 최악의 사건이라는 평가가 나온다. 가상자산 침체가 한동안 지속할 것이며, 미국 규제 당국이 가상자산 투자자보호를 위한 규제 강화에 나설 것이란 전망도 있다.산업 전반의 신뢰가 무너질 수 있다는 우려가 가장 크다. FTX 같은 대형 거래소는 안전하다는 믿음이 있었는데, 이제는 ‘누구도 믿을 수 없다’는 불신이 커졌다. 공시플랫폼 쟁글을 운영하는 크로스앵글의 이현우 대표는 “고객이 예치한 자금을 정상적으로 출금해주지 못하고 있는 것을 보면, 고객 예치금이 제대로 관리되지 않았을 가능성도 있다”고 지적했다. 그는 “단기적으로 상황이 꽤 심각할 것으로 본다”며 “사람들이 거래소에 돈을 맡겨 놓는 게 안전하지 않다고 느끼게 되면 시장 전체의 자금경색으로 이어질 수 있다”고 짚었다.(디자인 문승용 기자)산업 생태계에 악영향도 예상된다. FTX는 관계사인 알라메다리서치와 FTX벤처스를 통해 솔라나, 앱토스, 수이 등 주요 블록체인 프로젝트에 초기 투자를 집행했다. 이들 프로젝트도 FTX 사태가 터진 후 연관성이 대두되면서 흔들리고 있다. FTX를 등에 업고 성장했다는 평가를 받는 솔라나는 이번 사태 이후 가격이 50% 넘게 떨어졌다. FTX가 실리콘밸리 쟁쟁한 벤처캐피탈(VC)에서 투자를 받은 회사라는 점에서, FTX가 무너지면 금융시장까지 파장이 미칠 수 있다. 윤준탁 에이블랩스 대표는 “FTX가 파산하면 블랙록, 세콰이어캐피탈, 소프트뱅크, 캐나다 연기금까지 돈을 날리게 된다”며 “금융시장까지 연쇄적으로 영향을 받을 수 있는 상황이다”고 지적했다.미국에서 가상자산 산업 규제가 강화되는 계기가 될 것으로 보인다. FTX 사태로 가상자산 거래소들의 △불투명한 자금운영 △투자자 자산 보호 미흡 △자체 코인을 이용한 과도한 레버리지 발생 등의 문제가 드러났기 때문이다. 월스트리트저널 등 외신에 따르면 미국 증권거래위원회(SEC), 상품거래위원회(CFTC)가 FTX에 대한 조사에 착수했다. 사전 승인 없이 가상자산을 판매해 증권법을 위반했는지와 고객 자산을 올바르게 관리했는지 여부 등을 따져볼 것으로 알려졌다. 그간 정치권에 적극 로비해 온 FTX가 위기에 몰리면서, 가상자산 규제 강화 흐름은 더 강화될 것으로 보인다. 샘 뱅크먼 프리드 FTX CEO는 올해 8월까지 미국 민주당에만 3600만달러를 후원한 로비계의 거물이기도 하다. 가상자산 업계가 자율규제를 정립하고, 신뢰를 회복하는 계기로 삼아야 한다는 목소리도 높다. 윤 대표는 “이번 일을 기점으로 거래소가 지갑주소를 공개하거나 정기적으로 고객 예치 자금 보유량은 등 일반투자자와 기관투자자들에게 신뢰를 줄 수 있는 방법을 고민해야 한다”고 했다. 블록체인 인프라업체 DSRV 김지윤 대표도 “이번 사태가 전화위복이 돼야 한다”며 “국내 거래소들은 잔고증명을 하고 있지만, 글로벌에서는 이런 자율규제가 활성화되지 않았다. 이번 일을 계기로 글로벌 차원에서 산업 건전성을 높이기 위한 논의가 활발해져야 한다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.11.14.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>내년 5월부터 한 앱에서 대출 갈아타기 가능해진다</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004817529?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>대환대출 개념/사진=금융위원회내년 5월부터 한 앱에서 50여개 금융사의 대환대출 상품을 비교하고 갈아탈 수 있게 된다. 저축은행, 캐피탈 등 2금융권에서 시중은행 등 1금융권으로 대환대출도 가능해진다. 이를 통해 금융당국은 금리 인상기에 서민의 이자 부담이 줄어들 것으로 기대하고 있다.금융위원회는 14일 제4차 금융규제혁신회의를 열고 비대면 대환대출 인프라를 구축한다고 밝혔다. 비대면 대환대출 인프라는 '비대면-원스톱'으로 여러 금융사의 대출상품을 확인한 후 갈아탈 수 있도록 돕는 시스템이다. 그간에는 고객이 대환대출을 하려면 오프라인 영업점을 방문해야 하는 등 번거로운 절차를 거쳐야만 했다. 구체적으로 금융당국은 이동 시스템을 구축한다. 대환대출 상환 요청, 원리금 잔액, 수수료 등 기타비용에 해당하는 필요정보와 최종 상환 확인 절차를 금융결제원 망을 통해 완전 전산화한다. 이를 통해 은행, 저축은행, 여신전문금융사 등 50개 금융사의 대출을 비대면으로 대환대출 할 수 있게 된다. 금결원 망을 이용하지 않는 대부업권과 관련 대출 규모가 적은 보험업권은 이번 인프라 구축에서 빠졌다. 온라인 대환대출 인프라 이용 흐름도/사진=금융위원회인프라 구축에 참여하는 모든 금융사 앱에서 대환대출 이용이 가능할 전망이다. A은행의 대출을 보유한 고객이 B은행 앱에서 B은행 대출로 갈아타기를 할 수 있다는 뜻이다. 또 기존 신규 대출상품을 비교할 수 있는 카카오페이, 토스, 핀다 등 플랫폼사에서도 대환대출이 가능해진다. 더불어 금융당국은 금융권과 협의해 대환대출에 따른 비용과 이자부담 감소분 등 편익을 정확히 판단하는 데 필요한 대출정보를 소비자에게 추가적으로 제공할 계획이다.금융사의 대출비교 플랫폼 운영에 따른 이해상충 방지를 위해  비교·추천 알고리즘 검증을 강화한다. 주기적인 검증을 통해 자사 금융상품 위주로 고객에 소개하는 건 아닌지 확인하기 위함이다. 또 다수 대출상품 조회에 따른 고객의 신용점수 하락도 방지책도 마련한다. 대출자산의 급격한 쏠림현상, 자금운용의 단기화에 따른 금융시장 리스크 관리를 위해 시범운영 기간도 도입한다. 금융당국은 비대면 대환대출 인프라 구축으로 고객의 이자 부담이 낮아질 것으로 기대하고 있다. 금리가 더 낮은 상품으로 쉽게 갈아탈 수 있고, 고객을 뺏기지 않으려는 금융사 간 금리 인하 경쟁이 발생해 간접적인 이자 경감 효과도 발생할 수 있기 때문이다. 금융사와 플랫폼사도 경우에도 새로운 사업 영업을 잡을 수 있는 기회라고 설명했다.금융당국은 내년 5월까지 인프라 구축을 완료한다는 계획이다. 이를 위해 이달부터 금융업권·핀테크·금결원이 참여하는 태스크포스(TF)를 구성해 대출이동 요건과 방식에 관한 세부적인 의견을 조율한다. 또 플랫폼사와 금융사간 협의체를 구성해 플랫폼 중개 수수료의 합리적인 산정방안도 논의한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.11.13.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>'경기똑D' 간편인증으로 전자증명서 발급 쉬워진다</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011533204?sid=102</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>기사내용 요약14일부터 민간전자서명 '간편인증' 서비스 도입경기똑D(사진=경기도 제공) *재판매 및 DB 금지[수원=뉴시스] 이병희 기자 = 경기도가 공공마이데이터를 활용한 맞춤형 행정서비스 앱 '경기똑D'에 민간전자서명인 '간편인증' 서비스를 도입한다. 공동인증서 없이도 주민등록등본 등 66종의 전자증명서를 간편하게 발급받을 수 있는 것이다. 13일 경기도에 따르면 지난 4월27일 정식 개시한 경기똑D는 ▲복지정보와 공개채용정보 등 '맞춤수혜정보 서비스' ▲공공마이데이터 기반의 본인 확인서비스 '도민카드 서비스' ▲다양한 전자증명서를 휴대폰에서 보관하고 활용할 수 있는 '전자지갑 서비스' ▲도민의 마이데이터 정보를 생활에 도움이 되는 리포트 형식으로 제공하는 '마이리포트 서비스' 등을 제공한다. 다만 지금까지 경기똑D의 전자지갑 서비스를 이용하려면 공동인증서로 본인인증을 해야 하는 불편함이 있었다. 이에 도는 도민 불편을 해소하기 위해 오는  14일부터 간편인증 방식을 추가 도입한다.간편인증은 기존의 공동인증서처럼 경기똑D 앱에 등록하지 않아도 되고 매년 갱신할 필요가 없으며, 발급 인증 절차도 공동인증서보다 간편하다. 사용자가 자주 사용하는 간편인증서(네이버·카카오·PASS·토스 등)를 선택해 본인인증을 받으면 전자지갑 서비스를 이용할 수 있다. 전자지갑을 통해 주민등록등본과 건강보험료 납부확인서, 자동차등록원부 등 66종의 전자증명서를 조회·저장·공유할 수 있다.아울러 도는 다음 달 행정안전부의 온라인 복지 신청 서비스와도 연계하는 또 한번의 서비스 확대를 계획하고 있다. 이를 통해 경기똑D에서 원스톱으로 다자녀 가정 입학 축하금 지원 등 각종 복지 신청을 할 수 있게 될 전망이다.전승현 경기도 데이터정책과장은 "도민들이 쉽고 편리하게 경기똑D를 사용할 수 있도록 지속적인 품질관리와 서비스 확대에 힘쓰겠다"고 말했다.한편, 경기똑D는 구글 플레이스토어나 애플 앱스토어에서 '경기똑D'나 '경기똑디'를 검색한 후 내려받을 수 있으며, 별도의 회원가입이나 로그인이 필요 없이 본인인증만 거치면 대부분의 서비스를 이용할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.11.03.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>[사고]경기 둔화로 내년 IT 소폭성장…디지털 혁신기업 리더에게 듣는 전략</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005357818?sid=105</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>제9회 이데일리 IT컨버전스포럼(ECF)앰배서더 서울 풀만 호텔서 11월 16일 열려‘우영우’ 공동제작 스튜디오지니 김철연 대표 기조연설차세대 인터넷 웹3는 오세현 SKT 부사장이토스, 티맵모빌리티, 네이버클라우드 등 전문가 강연무료 입장 유튜브 '이데일리 프렌즈 채널' 생중계[이데일리 김현아 기자]글로벌 경기 둔화로 ‘23년 세계경제 성장률은 2.2~2.7%에 머물 것으로 보입니다. OECD, 한국은행에 따르면, 글로벌 경기 둔화의 영향이 본격화되면서 우리나라의 내년 경제상장률도 2.0~2.2%에 그칠 것으로 보입니다.디지털 경제를 이끄는 글로벌 IT 시장은 어떨까요. 가트너에 따르면 디지털 전환 수요로 소프트웨어와 IT 서비스가 증가함에도 내년에는 5.1%로 소폭 성장하리라고 합니다. 올해(0.8%)보다는 높지만, 코로나 팬데믹 시절인 ‘21년(10.2%)에 비하면 절반 수준이죠. 올해로 9번째를 맞이한 ‘ECF 2022(이데일리IT컨버전스포럼 2022)’의 주제는 &lt;위기 넘어 기회 있다: 디지털 전환 시대 생존전략&gt;입니다. 이 행사를 통해 경기 침체기에 미래를 준비하는 국내 대표 디지털 혁신 기업의 사업 전략과, 산업 분야별 내년 시장 전망, 우수 기업의 기술 및 사업화 전략에 대해 각 분야 리더들의 지혜를 공유하고자 합니다.스튜디오지니, SKT, 토스, 티맵모빌리티, 네이버클라우드 등 1등 기업 리더 한자리에콘텐츠 분야에서는 ‘우영우’를 에이스토리와 공동제작한 KT그룹의 미디어 사업형 지주사인 스튜디오지니의 김철연 대표님이 맡아주셨습니다. 올해 글로벌 시청 시간 4억 시간을 넘긴 ‘이상한 변호사 우영우’(Extraordinary Attorney Woo)의 성공비결과 함께, 글로벌 콘텐츠&amp;미디어 시장에 대해 조망해 볼 수 있는 시간이 될 것으로 기대합니다. 차세대 인터넷으로 주목받는 웹3(블록체인)은 오세현 SK텔레콤 Digital Asset CO(부사장)님이 맡아주셨습니다. 오 부사장님은 얼마 전 출범한 국가과학기술자문회의 심의위원이시기도 합니다. 이용자가 인터넷상 자기 데이터에 대한 소유권을 가지고 경제 활동에 참여하는 새로운 인터넷 환경인 웹3는 미래를 어떻게 바꿔 놓을까요.이외에도 ▲연결의 힘을 바탕으로 금융 혁신을 이끄는 토스의 수퍼앱 전략에 대해 서현우 비바리퍼블리카 사업전략 헤드님이 ▲D2C 허브 플랫폼으로서 기업들의 글로벌 커머스 시장 진출을 지원하는 카페24의 박준희 디지털전략연구소장님이 지혜를 나눠 주십니다.또, ▲도심항공모빌리티(UAM) 시대를 이끄는 모빌리티 플랫폼의 진화에 대해서는 티맵모빌리티의 박서하 퓨처모빌리티 그룹장님이 ▲글로벌 리걸테크 동향과 로톡의 사업전략에 대해선 정재성 로앤컴퍼니 부대표님이 각각 선두 업체로서 바라보는 미래 시장과 글로벌 동향 등에 대해 알려주십니다.2부는 기술 분야별 선도기업의 전략을 듣는 시간으로 준비했습니다. ▲인터넷의 새로운 모습이 될 것으로 보이는 메타버스에 대해 컴투버스 이경일 대표님이 ▲CEO들이 디지털 전환 시 가장 중요한 기술로 꼽는 인공지능(AI)에 대해선 AI기술업체 업스테이지의 권순일 Biz 총괄님이 강연해 주십니다.이어 ▲디지털 경제의 신경망인 클라우드 산업과 시장 전반에 대해서는 대한민국의 대표 클라우드 기업인 네이버클라우드의 한상영 기획&amp;전략 상무님이 발표해 주시고, 마지막으로 ▲민간 우주개발 시대를 앞당길 우주 스타트업의 생생한 도전기를 이노스페이스의 김수종 대표이사님이 들려주십니다.규제 한 방에 혁신 멈출라…좌담회도 열려요 경기 둔화로 사업 환경은 어려워졌지만, 무분별한 규제 시도는 여전합니다. 이에 ‘디지털 경제 성공을 위한 규제혁신 방향: 플랫폼, AI, 데이터를 중심으로’를 주제로 하는 좌담회도 준비했습니다.이성엽 고려대 기술법정책센터장(좌장)님, 엄열 과학기술정보통신부 인공지능기반정책관님, 박성호 한국인터넷기업협회 회장님, 이윤조 김앤장 변호사님이 토론합니다.좌담회에서는 △국회의 온라인플랫폼법 재시동과 공정거래위원회의 독과점 규제 강화 방안이 자칫 대한민국 혁신 기업의 싹을 자르지 않을까 하는 부분과 △AI활용과 AI로인한 공정성, 투명성 문제 등에 대한 대책 △지난해 데이터 3법 개정 이후에도 여전히 남은 데이터 규제혁신에 대한 문제 등을 토론합니다.여러분의 응원과 따뜻한 관심을 당부드립니다. ECF2022는 무료입니다. 행사 당일, 행사장 접수 선착순 200명에게 점심 식사 식권을 제공합니다. 홈페이지에서 사전 등록을 해주시면 행사 준비에 많은 도움이 될 듯합니다. 감사합니다.◇명 칭 : 제9회 이데일리IT컨버전스포럼(ECF 2022)◇주최 : ㈜이데일리◇후원: 과학기술정보통신부, 방송통신위원회, 한국인터넷기업협회, 한국통신사업자연합회, 코리아스타트업포럼, 정보통신기획평가원, 한국IPTV방송협회◇일시: 2022년 11월 16일(수) 10:00~17:30◇장소: 앰배서더 서울 풀만 호텔 그랜드볼룸(2F)·유튜브 ‘이데일리 프렌즈’ 채널 생중계◇사전등록 행사 홈페이지:https://ecf.edaily.co.kr/ECF2022/◇문의: 이데일리 02-3772-9409, 02-3772-9407·jeong@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.11.09.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>트렌드마이크로 “확 늘어난 공격접점…통합 보안플랫폼 관점에서 막아야”</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011527100?sid=105</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>기사내용 요약트렌드마이크로, 2023년 비즈니스 전략 발표 기자 간담회 개최‘변화하는 보안 트렌드에 따른 역할 재구성’ 주제로 보안의 확대 강조클라우드섹 코리아 2022 동시에 열려…AWS·메가존·토스 등 참가[서울=뉴시스]송종호 기자 = 클라우드 확산 등 급변하는 정보기술(IT) 환경에서 발생하는 사이버 위협에 기업은 전체 역량을 동원해 대응해야 한다는 주장이 나왔다. 최근 사이버 위협이 갈수록 지능화되고, 공격 범위 역시 한곳에 머물기보다 확장되기 때문에 보안도 플랫폼 관점에서 통합적 접근이 필요하다는 지적이다.김광진 트렌드마이크로 한국 지사장은 9일 서울 인터컨티넨탈 파르나스 호텔에서 기자 간담회를 갖고 "사이버 위협은 보안 팀만의 문제가 아니라 기업 전체의 문제로, 강력한 보안은 궁극적으로 사업 목표 달성에 기여하는 요소가 될 것”이라며 이같이 밝혔다. 클라우드가 산업 분야를 막론하고 급격한 확장세를 보이는 가운데 디지털 전환과 더불어 끊임없이 변화하는 기술에 대응하면서 기업 내 보안 부서의 책임과 중요도가 높아지고 있다. 특히, 원격 근무 체제와 가속화된 클라우드 전환에 따라 기업의 디지털 자산을 침해할 수 있는 공격 접점은 계속해서 확장되며 사이버 보안 대응이 점차 어려워지고 있다. 이에 기업 보안팀은 확장된 공격 접점에서 원활한 탐지 및 대응에 어려움을 겪고 있다.김 지사장은 "기존 인력으로 효과적인 보안 전략을 전개하기 위해, 기업은 확장된 공격 접점의 가시성을 높이는 통합 보안 솔루션을 채택해 보안 담당의 업무 부담을 줄이고, 기업의 안전성을 보다 강화해야한다”고 강조했다. 이를 위해선 공격 접점 위험 관리 주기 전반을 관통하는 가시성 확보 및 지속적 위험 평가가 선제적으로 진행돼야 하는데, '트렌드마이크로 원’과 같은 통합 보안 플랫폼이 이를 해결할 수 있다는 설명이다.'트렌드마이크로 원'은 올 상반기 발표된 클라우드 기반 통합 사이버 보안 플랫폼으로, 기업의 IT 인프라와의 별다른 충돌없이 적용돼 보안 업무를 간소화하고, 침해 등의 보안 사건 발생 시 보다 빠른 탐지 및 대응을 지원한다. 매년 5조건 가량의 위협 쿼리를 처리하며 2억 5000만개 센서와 전세계 16개 리서치 센터를 기반으로 작동해 동적인 공격 접점의 지속적인 관리와 사이버 위험 현황 평가, 위협에 대한 시의적절한 대응이 가능하다는 게 회사측 설명이다. 한편 이날 ‘초연결 사회의 사이버 보안’을 주제로 개최된 클라우드 보안 컨퍼런스인 클라우드섹 코리아 행사도 개최됐다. 이 자리에서 김 지사장은 “‘초연결 사회’에서 나타나는 취약점, 확장된 공격 접점을 관리하고 더욱 안전히 지키기 위해 새로운 대응 방법을 모색해야 한다”라고 밝혔다. 이날 기조연설자로 나선 단야 타커 트렌드마이크로 아태지역 총괄 부사장은 보안 기술의 진화에 따라 재구성되는 사이버 보안 리더의 역할을 전하며 적합한 솔루션의 필요성을 강조했다. 이밖에 아마존웹서비스(AWS), 메가존클라우드, 토스 등이 업계 현황과 현장에서 적용하는 최신 기술 등을 공유했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.11.11.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>'최적경로 택배' 브이투브이, 95억원 시리즈A 투자 유치</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004816774?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>최적경로 택배 서비스 투데이(To-Day)를 운영중인 브이투브이가 95억원 규모의 시리즈A 투자를 유치했다. 기존 투자사인 티비티 파트너스(TBT), 휴맥스가 후속 투자를 이어갔고, 스마일게이트 인베스트먼트, 우미글로벌, 더웰스 인베스트먼트, 신용보증기금 등의 기관이 신규로 참여했다. 브이투브이는 이번 투자유치금으로 본격적인 서비스 확대에 나설 계획이다.투데이(To-Day)는 기존 택배 업계에서 보편적으로 사용하는 전국단위 허브앤스포크(Hub&amp;Spoke) 방식의 비효율적인 동선 문제를 '대중물류망'이라는 새로운 솔루션으로 해결한 택배 서비스다. 대중물류망은 수도권 버스 대중교통망 체계를 택배 시스템에 적용해 물건이 메가허브(Mega Hub)를 경유하기 위해 먼 길을 돌아가지 않고, 최적경로로 빠른 시간 내에 배송이 가능하도록 설계됐다.사람이 수도권 버스 대중교통망을 이용할 경우 몇 시간 내 수도권 어디든 도착하듯이, 투데이(To-Day)의 대중물류망을 이용하는 쇼핑몰의 물건들도 이와 유사한 경로로 이동해 주문한 당일에 대부분의 물건을 수령할 수 있는 방식이다.권민구 브이투브이 이사는 "IT기술이 고도로 발달한 시대에 도시 외곽에서 도시 내부로 배송되는 물건을 메가허브를 경유해 다음날 받을 이유가 없다"며 "대중물류망을 활용해 최적경로 택배를 구현한 투데이 택배 서비스는 이번 투자를 통해 많은 고객사와 시민들이 혜택을 받을 수 있도록 서비스를 빠르게 확대해 나가겠다"고 밝혔다.2021년 4월 설립된 브이투브이는 인천광역시 디지털 물류 서비스 실증 지원사업을 시작으로 Cafe24 패스트박스, 삼영물류, 롯데글로벌로지스, NS홈쇼핑, W쇼핑, 아모레퍼시픽, 블루박스(Apple 공식 인증 리셀러), 오즈키즈 등의 대형 고객사를 유치하는데 성공했다. 네이버 스마트스토어와도 배송 협력을 준비하고 있다.박진 TBT 심사역은 "구현하기 어려운 대중물류망이라는 네트워크를 고도화된 기술력으로 만드는 과정을 지켜보며 브이투브이의 잠재력에 주목했다"면서 "투데이 서비스가 기존 물류 산업의 문제점을 해결하는 것은 물론 당일 배송 시장의 저변을 확대할 것으로 기대한다"고 밝혔다.김승필 스마일게이트 인베스트먼트 팀장도 "브이투브이는 도시내 배송 물량 증가에 따른 규모의 경제를 달성할 수 있는 사업성을 갖춘 데다, 물류업 종사자의 작업환경까지 개선할 수 있어, 물류산업의 지속가능한 성장을 이끌 솔루션이라고 판단했다"고 말했다.한편, 브이투브이는 네이버, 카카오, 토스(Toss), 크래프톤, 데브시스터즈, 타다(TADA) 등에서 경험을 쌓은 IT 전문 인력들과 롯데글로벌로지스, 한진, 쿠팡, 배달의 민족 등에서 경험을 쌓은 물류 전문 인력들이 조화를 이루고 있다.[머니투데이 스타트업 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.11.12.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>[VC’s Pick] ‘창작이 곧 경쟁력’…뤼튼·지로 등 투자 유치</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005365331?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>[이데일리 김연지 기자] 이번 주(11월 7일~11월 11일)에는 이커머스와 인공지능(AI), 물류 등 다양한 분야의 스타트업이 벤처캐피털(VC)과 액셀러레이터(AC)로부터 투자를 유치했다. 특히 간단히 키워드를 입력하거나 코딩 없이도 콘텐츠 및 AI 개발이 가능한 ‘창작’ 플랫폼들이 투자사 눈길을 사로 잡았다. (사진=이미지투데이) AI로 콘텐츠 생성 ‘뤼튼’AI 기반의 콘텐츠 생성 서비스를 제공하는 뤼튼테크놀로지스는 수이제네리스파트너스와 캡스톤파트너스, 앤파트너스, IBK기업은행, 신용보증기금 등으로부터 38억원 규모의 프리A 시리즈 투자를 유치했다.뤼튼테크놀로지스는 생성 AI(Generative AI)를 기반으로 광고 문구를 비롯해 다양한 글 초안을 작성해주는 ‘뤼튼’ 서비스를 운영 중이다. 간단히 키워드만 입력해도 완성도 높은 초안을 생성할 수 있는 것이 특징이다. SNS 광고문구와 세일즈 이메일 등 각 업무 상황에 활용 가능한 50개 이상의 AI 툴을 제공한다. 투자사들은 위튼테크놀로지스의 기술력과 경쟁력을 높이 평가했다. AI와의 협업이 당연하게 여겨지게 될 사회에서 새로운 킬러앱이 될 것이라는 설명이다. 뤼튼테크놀로지스는 이번 투자금을 통해 초거대 생성 AI 응용 기술을 고도화한다는 계획이다. 또 현재 제공하고 있는 AI 콘텐츠 생성 서비스 ‘뤼튼(wrtn.ai)’, AI 글쓰기 훈련 서비스 ‘뤼튼 트레이닝’ 외에도 초거대 생성 AI를 활용한 신규 서비스 개발에 착수할 예정이다. 코딩 없이도 AI 개발 ‘에이아이노믹스’코딩 없이 인공지능(AI)을 개발할 수 있는 ‘노코딩AI’ 운영사 에이아이노믹스는 신용보증기금으로부터 추가 시드투자를 유치했다. 에이아이노믹스는 기업에서 코드 없이 자연어만으로 AI를 개발할 수 있도록 한 ‘노코딩AI’ 솔루션을 개발하고 있다. 복잡한 코드 대신 만들고 싶은 AI에 대한 설명을 입력하면 사용자의 의도를 자동 파악해 AI를 개발해준다. 노코딩AI서비스는 이달 중 오픈 베타서비스를 예정하고 있다. 회사 측은 이번 후속 투자 유치를 계기로 내년부터 본격 투자를 유치한다는 계획이다. 영상제작 플랫폼 ‘지로’영상 제작 플랫폼 ‘두둠’을 운영하는 지로는 블루포인트파트너스와 롯데벤처스, 프라이머사제, 본엔젤스벤처파트너스 등으로부터 10억원 규모의 프리시리즈A 투자를 유치했다. 지로는 영상 제작 시장 내 전문가와 비전문가 간의 정보 비대칭을 해결하고자 설립된 회사다. 지난해 11월 정식 출시 이후 현대자동차와 토스, 배달의민족 등 200여개 기업 및 기관과 협업을 진행해왔다. 올해 10월 기준 총 430여팀의 국내 정상급 영상 제작사를 파트너사로 확보하고 빠른 속도로 시장 점유율을 높여가고 있다.투자사들은 회사의 성장 잠재력을 높이 평가했다. 영상 제작 분야에서 기존 시장의 비효율에 대한 이해를 바탕으로 디지털 전환에 앞장서고 있다는 설명이다. 지로는 이번 투자 유치를 계기로 글로벌 진출을 추진한다는 계획이다.  최적경로 택배 서비스 ‘브이투브이’최적경로 택배 서비스 ‘투데이’를 운영중인 브이투브이는 TBT파트너스와 휴맥스, 스마일게이트인베스트먼트, 우미글로벌, 더웰스 인베스트먼트, 신용보증기금 등으로부터 95억원 규모의 시리즈A 투자를 유치했다. 회사가 운영하는 투데이는 기존 택배 업계에서 보편적으로 사용하는 전국단위 허브앤스포크(Hub&amp;Spoke) 방식의 비효율적인 동선 문제를 ‘대중물류망’이라는 새로운 솔루션으로 해결한 택배 서비스다. 대중물류망은 수도권 버스 대중교통망 체계를 택배 시스템에 적용해 물건이 메가허브(Mega Hub)를 경유하기 위해 먼 길을 돌아가지 않고, 최적경로로 빠른 시간 내에 배송이 가능하도록 설계됐다.투자사들은 브이투브이의 잠재력에 주목했다. 투데이 서비스가 기존 물류 산업의 문제점을 해결하는 것은 물론 당일 배송 시장의 저변을 확대할 것이라는 기대다.  주류주문 플랫폼 ‘키햐’주류 스마트오더 플랫폼 키햐는 서울대기술지주회사와 TBT파트너스 등으로부터 프리시리즈A 투자를 유치했다.키햐는 앱 설치 없이 스마트폰이나 컴퓨터로 원하는 술을 주문한 뒤 자신이 지정한 식당이나 매장에서 직접 픽업해갈 수도록 하는 서비스다. 2020년 이전까지 주류를 온라인으로 구매하는 것은 불가능했으나 국세청이 통신판매법 개정안을 시행하면서 주류를 영업장에서 소비자에게 인도하는 방식이 가능해졌다.투자사들은 키햐가 온라인 주류 시장에 혁신을 불러오고 있다고 봤다. 플랫폼 사업에 대한 높은 이해도를 바탕으로 단기간에 온라인 주류 시장을 변화시킬 수 있을 것이라는 설명이다. 키햐는 이번 투자 유치를 계기로 전국으로 서비스를 확장할 계획이다. 또 제품군을 강화하고 희소성 있는 제품들을 늘리기 위해 수입사, 유통 제품 확대도 준비 중이다. 양조장들과 협업해 자체 상품 개발 등도 추진하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.11.11.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>서울대도 주목한 '술'타트업…AI 기반 카피라이터 [이번주 VC 투자]</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004773672?sid=105</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.한경 긱스(Geeks)가 벤처캐피털(VC) 및 스타트업 정보업체인 The VC와 함께 한 주간의 VC 투자 현황을 요약 정리해드립니다. 어떤 스타트업에 투자금이 몰렸을까요? 지금 출발합니다."온라인으로 술 사고 매장에서 픽업하세요" 키햐, 프리A 유치온라인 주류 주문 플랫폼 키햐가 프리 시리즈A 투자를 유치했다. 금액은 비공개다. 서울대기술지주, TBT 등이 투자에 참여했다.이 회사는 전화나 앱 통해 주문한 주류를 판매 허가를 받은 매장에서 픽업할 수 있는 서비스를 내놨다. 현 주세법상 주류를 온라인에서 사고 배송받는 구조는 불가능하다. 2020년 일부 규제가 풀리면서 이처럼 온라인 주문 뒤 매장에서 픽업하는 형태가 가능해졌다. '스마트오더'라 불리는 이 서비스는 이마트24, GS25, 데일리샷 등이 진출해 있다.초기투자사들이 주목한 '두둠', 10억원 유치영상 제작 플랫폼 '두둠' 운영사 지로가 10억원 규모 프리 시리즈A 투자를 유치했다고 10일 밝혔다. 이번 투자에는 블루포인트파트너스, 롯데벤처스, 프라이머사제파트너스, 본엔젤스 등 다양한 초기 투자사가 참여했다.두둠은 지난해 11월 정식 출시됐다. 제품 광고나 브랜드 홍보, 교육 등 다양한 종류의 영상을 제작하길 원하는 이용자와 영상 제작 전문 회사를 매칭해주는 기업 간 거래(B2B) 플랫폼이다. 현대자동차, 토스, 배달의민족 등 200여 개 기업과 협업해 왔다. 지난달 기준 총 430여 개의 영상 제작사를 파트너사로 확보했다.AI 카피라이터 뤼튼테크놀로지스, 45억원 유치인공지능(AI) 스타트업 뤼튼테크놀로지스가 45억원 규모 프리 시리즈A 투자를 유치했다. 수이제네리스파트너스가 주도하고 캡스톤파트너스, 앤파트너스, 기업은행, 신용보증기금 등이 투자에 참여했다.이 회사가 내놓은 '뤼튼'은 초거대 생성 AI를 기반으로 광고 문구를 비롯해 다양한 글의 초안을 대신 작성해주는 서비스다. 키워드만 입력하면 글의 초안이 생성된다. SNS 광고문구나 세일즈 이메일 등에 적용 가능하다. 원하는 말투나 느낌, 키워드 등 포함해 세밀한 조정이 가능한 게 특징이다. 크리에이터테크 빅크, 50억원 프리A 마무리크리에이터 테크 스타트업 빅크가 50억원 규모의 프리 시리즈A 투자 라운드를 마쳤다. LG테크놀로지벤처스, 네이버D2SF, 펄어비스캐피탈, 본엔젤스 등 6개 투자사가 참여했다.빅크는 크리에이터를 위한 스튜디오와 팬을 위한 앱을 운영 중이다. 스튜디오는 라이브 서비스, 콘텐츠 판매, 멤버 데이터 분석, 커뮤니티 등의 기능을 제공한다. 또 앱에서는 크리에이터와 팬들이 소통할 수 있는 플랫폼을 내놨다.'최적경로 택배' 브이투브이, 95억원 시리즈A 유치최적경로 택배 서비스 '투데이' 운영사 브이투브이가 95억원 규모 시리즈A 투자를 유치했다. TBT, 스마일게이트인베스트먼트, 우미글로벌, 더웰스인베스트먼트, 신용보증기금 등이 이 회사의 성장성에 베팅했다.투데이는 '대중물류망' 솔루션으로 택배 동선의 비효율성을 해결한다. 수도권 버스 대중교통망 체계를 택배 시스템에 적용, 물건이 메가허브를 경유하기 위해 먼 길을 돌아가지 않고 최적 경로로 배송되도록 설계했다. 당일배송이 가능하다는 게 장점이다.온라인으로 안경 미리 써보고 구매…라운즈, 50억원 투자 유치이스트소프트의 자회사 라운즈가 50억원 규모의 시리즈A 브릿지 투자를 받았다. 이스트소프트와 이지스자산운용의 이지스코스닥벤처 제1호 펀드와 삼성증권이 투자했다. 누적 투자금은 100억원이다.2016년 설립된 라운즈는 안경과 선글라스를 온라인에서 가상으로 미리 피팅해보고 구매할 수 있는 기술을 개발했다. 딥러닝 기술을 바탕으로 앱 내에서 카메라로 얼굴을 찍으면 안경을 쓴 모습을 자연스럽게 미리 볼 수 있는 게 특징이다.'자원순환 로봇' 에이트테크, 31억원 투자 유치인공지능(AI) 기반 폐기물 선별 솔루션을 가진 로봇 스타트업 에이트테크가 31억원 규모 투자를 유치했다. 비전크리에이터, 소풍벤처스, GS벤처스 등이 참여했다.2020년 문을 연 이 회사는 스마트 자원순환 선별로봇 '에이트론'을 내놨다. 에이트론은 폐기물 처리장에서 재활용품을 골라내는 로봇이다. 사람이 하는 작업보다 속도가 세 배 이상 빠르고, 인건비는 80% 줄였다는 설명이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.11.09.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>온라인 예·적금 비교 서비스, 내년 6월부터 가능해진다</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004120310?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>금융위, 네파 등 사업자 9곳 선정'화재 사고' 카카오는 서비스 불발[서울경제] 온라인 플랫폼에서 다양한 예금 상품을 비교·추천할 수 있는 시범 사업에서 카카오는 제외됐다. 데이터센터 화재로 금융감독원이 현장 검사를 진행하고 있는 카카오페이가 지정 대상에서 빠졌기 때문이다. 카카오 외에 네이버페이·토스(법인명 비바리퍼플리카) 등 빅테크(대형기술기업)와 신한은행이 시범 사업자로 선정됐다.금융위원회는 9일 뱅크샐러드·NHN페이코·줌인터넷·깃플·핀크·비바리퍼블리카·네이버파이낸셜·씨비파이낸셜·신한은행을 온라인 예금 상품 중개서비스 시범 사업자로 선정했다. 9개사는 제휴를 맺은 여러 금융사의 예·적금 상품을 자사 플랫폼에서 소비자에게 비교·추천할 수 있게 됐다. 특히 마이데이터(본인신용정보관리업)와 연계해 소비자의 자산 분석 등으로 우대금리 적용 여부 등 맞춤형 상품 추천이 가능할 것으로 기대된다.금융 당국은 금융소비자보호법상 금융상품판매업 등록의무 금융사·중개업자 간 1사전속의무 규제에 대한 특례를 부여했다. 현행 법상 대출·보험·금융투자상품과 달리 예금 상품은 관련 규율 체계가 부재한 상황이다. 더군다나 같은 유형의 금융 상품에 대해 둘 이상의 금융사를 위해 중개 업무를 수행할 수 없도록 하고 있지만 예외를 인정한 것이다.다만 서비스 출시 시기는 내년 6월 이후로 예고했다. 금리 인상기에 특정 금융사로 예·적금이 쏠리는 문제를 미연에 방지하고자 출시 시점을 조정할 필요가 있다는 판단이 작용했다. 시범 운영 기간 플랫폼을 통한 판매 비중도 제한한다. 전년도 예·적금 신규 모집액 기준으로 은행은 5% 이내, 저축은행·신협은 3% 이내로 설정했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.11.08.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>"불황땐 자리 지키는게 최선"…고연봉자 이직시장 찬바람</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005042054?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>이직 뚝 끊긴 여의도·판교얼어붙은 이직시장"올해 초 이직 제안이 오긴 했는데 흐지부지 끝이 났습니다. 7월 이후에는 증권가 이직 시장이 거의 사라진 상황입니다."(A증권사 채권 담당 직원)"지난해 시장이 좋을 때는 세 군데서 이직 제안을 받았습니다. 올해 여름 이후부터는 주변에서 이직 제안을 받았다는 직원이 확 줄었습니다."(B증권사 기업대출 담당 직원)올해 들어 세계적인 경기 침체 우려와 함께 국내에서는 레고랜드 채무불이행(디폴트) 사태로 금융권의 유동성 위기까지 등장했다. 이런 분위기 속에 고소득 직장인의 대명사로 불리던 여의도 금융·증권가 이직 시장이 얼어붙고 있다. 주식 시장이 활황일 때는 "출근하면 옆자리 직원이 바뀌어 있더라"는 말이 통용될 정도로 활발했던 증권가 이직 시장이 빠르게 사그라든 것이다. 이는 증권가뿐 아니라 회계사, 변호사와 같은 고소득 직장인 전반으로 확산하는 모양새다. 이직을 포함한 채용 동향은 경기를 한발 늦게 반영하는 후행지표로 꼽히는 만큼 고소득 직장인의 이직 시장 한파는 당분간 이어질 것으로 전망된다.증권가는 이직률이 상당히 높은 직종으로 꼽힌다. 직장에 소속돼 있지만 주식이나 채권, 선물 등을 다루는 경우 수익률이 꼬리표처럼 따라붙어 실적이 좋은 직원들을 채용하려는 증권사 간 경쟁이 치열하다. 증권사에서 채권을 담당하는 한 직원은 "국고채 거래와 같은 일부 직종의 경우 진입장벽이 높은 만큼 이직도 활발하다"며 "시장이 좋을 때는 한 달 새 두 차례나 직장을 옮기는 직원도 종종 있었다"고 말했다.특히 코로나19 이후 경기 부양을 위해 저금리 시대가 열리면서 국내 증권 시장은 활황을 맞았다. 그만큼 이직도 늘어났다. 미래에셋증권에 따르면 이 회사의 이직률은 2020년 5.0%에서 지난해 6.0%로 늘어났다. 퇴직이 아닌 본인 스스로 직장을 나가는 자발적 이직률도 높아지는 경향을 보였다. 카카오뱅크나 토스와 같은 핀테크기업의 빠른 성장을 비롯해 비트코인, 이더리움과 같은 가상화폐 시장이 열린 것도 증권가의 이직이 확대되는 데 불을 지폈다. 하지만 올해 들어서면서 이 같은 추세가 빠르게 꺾이고 있다. 코스피 하락과 함께 하반기 들어서는 채권 시장까지 얼어붙는 유동성 위기가 닥치면서 증권사들이 이직 시장 문을 단단히 걸어 잠갔다. 증권사의 경우 인력이 곧 비용이다 보니 지금처럼 시장 유동성이 얼어붙은 상황에서는 채용을 최소화하는 경향을 보인다. 한 자산운용사 관계자는 "대형 운용사 외에는 신입 채용도 내년부터 줄일 가능성이 상당히 커졌다"고 말했다.또 작년까지는 이직에 따른 연봉 인상과 사이닝보너스가 이직으로 발생할 손실(성과급 등)을 상쇄할 만큼 많았지만 올해는 이마저도 기대하기 힘들다. 증권사 관계자는 "현업 부서의 경우 잘못 이직하면 부실 자산을 맡는 어려운 업무를 할 수도 있다"며 "기본적으로 기존보다 채용도 많이 줄었고 직원들도 불확실한 시기이다 보니 이직을 보류하는 분위기가 생기고 있다"고 전했다.회계업계에도 퇴사자들이 사라지고 있는 분위기다. 업계 관계자는 "최근 몇 년간 인수·합병(M&amp;A) 시장의 활성화로 인해 금융권, 사모펀드(PEF), 벤처캐피털(VC) 등 분야로 회계사들의 이직이 활발했다"면서도 "이들 업종의 상황이 이전보다 안 좋아지자 퇴사 후 이직의 움직임도 뚝 떨어졌다"고 분위기를 전했다. 실제로 A회계법인이 자체적으로 파악한 결과 이 회사의 7월부터 10월까지 퇴사자 수는 지난해 같은 기간 대비 절반 이하인 것으로 나타났다. C회계법인 관계자는 "회계사가 진출해왔던 스타트업 등의 시장이 급격히 투자겨울을 맞이한 것도 퇴사율 하락에 영향을 준 것으로 보인다"고 말했다. B회계법인도 상황은 비슷하다. 지난해부터 올해 초까지 퇴사자 수가 세 자릿수를 기록했지만 올 3분기 이후에는 뚝 떨어졌다고 한다. D회계법인 관계자는 "M&amp;A를 맡는 딜 부문은 아예 PEF 등으로 이직하는 사례가 빈번했으나, 올해 7월 이후로는 이 부문의 이직·퇴사율이 5%포인트 낮아진 것으로 파악된다"고 전했다.로펌들도 취업난의 영향을 실감하고 있다. 지난해까지 활발하던 기업 사내 변호사 이직이 눈에 띄게 줄어든 모습이다. 법무법인 율촌의 이준희 변호사는 "지난 3~4년 동안 급성장한 스타트업 회사들을 중심으로 3~9년 차 변호사에 대한 수요가 많았지만, 최근 들어서는 경기 불황과 취업난이 가시화하면서 법무 인력 수요가 줄었다"고 설명했다. 이어 "젊은 변호사들이 이직하기보다는 로펌에서 '버텨야 한다'는 분위기가 확산되고 있다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.11.14.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>전화번호로 돈을 보내면 안 되나요? [두 번째 수수께끼]</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005366577?sid=105</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>[편석준 칼럼]②아빠와 함께 풀어보는 수수께끼들-주기장(週企帳) 시리즈편석준 작가출처 : 특허, 전자적 정보와 실제 자금을 분리하여 처리하는 금융 서비스 방법 및 시스템, ㈜비바리퍼블리카이데일리는 IT적인 상상력을 키우는데 지혜를 주는 편석준 작가의 칼럼을 매주 월요일 연재하려 합니다. 그는 세상의 디지털전환을 앞당기는데 전사 역할을 하게 될, 아이들의 사고력을 높이는데 관심이 많습니다. 아이들의 사고력을 높이는 방법은 많지만, 아이들에게 직접 기획적 사고를 해보게 하는 것도 좋은 방법이라는 편 작가는 이데일리를 통해 &lt;아빠와 함께 풀어보는 수수께끼들-주기장(週企帳) 시리즈&gt;를 연재합니다. &lt;편집자주&gt;상희 가족은 아빠, 엄마, 아들 상희 세 명으로 이루어져 있다. 겨울방학이 끝날 때쯤 회사 발령으로 엄마는 제주도에서 일 년 정도 일하게 되었다. 대신 아빠는 육아휴직을 내고 상희를 돌보기로 했다. 아빠는 일 년 동안 상희와 마음껏 놀 생각도 하고 있었지만, 한편으로 상희를 어떻게 하면 잘 가르칠 수 있을까 생각했다. 그저 돈만 내고 걱정하면서, 스트레스 받는 것을 노력했다고 자위하면서 이런저런 학원에만 보내면 될까? 아빠는 평소에도 “생각하는 법”이 가장 중요하다고 여기고 있었다. 그래서 이제 열 살이 된 아들에게 직접 생각하는 법을 가르쳐 주기로 결심했다. 그래서 만든 것이 주기장(週企帳)이었다. 일주일에 하나씩 ‘기획(企劃)’을 해보고 기록하는 공책이란 뜻이었다. ‘기획’이란 현실 위에 미래를 꿈꾸며 그리는 그림이었다. 생각이 먼저 있는 다음에 세상을 바꿀 수 있다. 아빠는 상희가 주기장을 처음 접해보기 때문에 의욕을 돋구어야 한다고 생각했다. 주기장을 작성해야 매주 용돈을 주기로 했고, 나중에 비싼 물건을 살 수 있도록 상희 이름으로 된 통장에 별도의 적립금도 입금해주기로 했다. 적립금은 일종의 보너스로 보너스 지급 여부와 금액은 아빠가 결정하기로 했다. 아빠와 상희는 본 내용으로 계약서를 작성했고 서로 지장을 찍었다. 그리고 서두에 “주기장은 상희가 아빠에게 돈을 내고 배워야 정상이지만, 아직 상희의 나이가 어려 경제활동이 어렵고 혈연관계임을 감안해 특별히 무상으로 교육함을 밝힌다.”라고 쓰는 것을 잊지 않았다. 그리고 아직 ‘기획’이란 말은 아이에게 어렵기 때문에, ‘수수께끼’란 말을 사용하기로 했다. 아빠는 한숨을 쉬고 있었다. 게다가 자기 머리까지 툭툭 때려가며. 장모님 생신을 맞아 용돈을 보내드린다는 것을 그만 생판 모르는 다른 사람에게 보내버리고 만 것이다. 상희가 뒤에서 “아빠, 빨리 놀자!”를 연발했기 때문에 마음이 급했다. 그래서 그만 계좌번호의 마지막 숫자를 다르게 입력했는데, 그대로 이체해버리고 만 것이다! 받는 사람의 이름까지 우연하게도 장모님과 비슷해서 전송 버튼을 누르는 순간 잘못 보낸 것을 깨달은 것이다.은행 고객센터에 요청하면 수취인과 협의해 구제받을 가능성도 있지만, 어쨌든 일이 꼬여서 귀찮게 돼버렸다. 괜스레 상희를 쳐다보는 아빠의 얼굴은 어두워졌지만, 아빠는 금세 마음을 고쳐먹었다. 이 일이 언젠가 상희가 살아가는 데 도움이 될지도 몰라. 이걸로 두 번째 수수께끼를 내보자. 아빠는 상희에게 조금만 더 기다리라 말하고, 주기장을 펼쳤어요. 그리고 두 번째 수수께끼를 내었어요.■수수께끼 2 : 은행에 가지 않고 스마트폰으로 실수 없어 계좌이체를 할 방법은 없을까?하지만 며칠이 지나도록 상희는 주기장에 해결 방법을 쓰지 못하고 있었어요. 그래서 아빠는 상희에게 은행과 계좌이체에 대해 쉽게 설명해주고, 힌트도 주었어요.힌트 ●거의 모든 사람이 갖고 있어야 한다.●계좌번호가 사람마다 다르듯, 사람마다 가진 그것도 사람마다 달라야 한다.●돈을 보내는 사람이 쉽게 기억하거나 스마트폰에서 쉽게 찾을 수 있어야 한다. 엄마가 오는 토요일 하루 전인, 금요일 오후 5시가 되어서야 상희는 주기장을 갖고 왔어요. 상희가 말했어요. “아빠, 이번 수수께끼는 너무 어려웠어요.” 아빠도 머리를 긁적였어요. 계좌이체란 것은 아이가 평소에 쓸 일이 없으니, 어려웠겠다는 생각이 뒤늦게 들었거든요. 역시 현실과 일상이 뒷받침되지 않은 가르침은 공허하다는 생각이 들었어요. ■수수께끼 2 : 은행에 가지 않고 스마트폰으로 실수 없어 계좌이체를 할 방법은 없을까●해결 방법 : 사람들은 모두 스마트폰 전화번호를 가지고 있고, 전화번호는 모두 스마트폰에 저장돼있으니까 계좌번호를 따로 기억할 필요가 없다.●문제점 1 : 예전에는 계좌번호로 이체했었는데, 갑자기 전화번호로 바꾸면 예전의 계좌번호를 모두 전화번호로 바꾸어야 하는 게 아닐까? ●문제점 2 : 전화번호를 바꾸면 어떡하지? 엄마의 전화번호도 한 번 바뀌었는데●문제점을 생각한 이유 : 잘못 입금되면 큰일이다. 아빠의 말로는 잘못 입금되면 돌려받는 게 쉽지 않다고 했어. 게다가 큰돈이면 얼마나 큰일이겠어?●문제점 해결책 : 계좌번호와 전화번호를 미리 연결해두면 된다. 내 전화번호와 내 계좌번호는 모두 고유하니까, 연결해도 고유할 거야. 그리고 내 전화번호는 스마트폰에 등록돼있으니까, 전화번호가 바뀌면 스마트폰이 다시 계좌번호와 연결하라고 알려주면 될 거야. 지금도 앱들에서 업데이트할 게 있으면 스마트폰에서 알려주고 있으니까.■전체 과정 ●전화번호와 계좌번호를 연결한다.●계좌이체하고 싶을 때, 주소록에서 전화번호를 불러와 계좌이체를 한다.아빠는 너무 대견했어요. 상희의 어깨를 토닥여준 뒤 “정말 수고했어.”라고 말했어요. 그리고 아빠는 상희가 게임을 하며 쉬는 동안, 주기장을 펼쳐 오른쪽에 다음과 같이 썼어요. 상희야, 사실 전화번호를 이용한 계좌이체는 ㈜비바리퍼플리카란 회사에서 토스란 이름의 서비스로 이미 시작했어. “전자적 정보와 실제 자금을 분리하여 처리하는 금융 서비스 방법 및 시스템”이란 특허에도 자세히 소개돼있어. 계좌번호를 잘못 입력해 실수로 입금하는 경우도 있지만, 기존 방식으로 정상 입금을 해도 너무 불편한 점이 많았거든. 기존 온라인 이체 방식은 프로그램 설치도 많이 해야 하고, 단 한 번의 이체를 위해 필요한 클릭 횟수가 평균 11회였대. 사람들이 오랜 시간 동안 불편해했던 것을 잘 파악해서, 가장 쉬운 방법으로 해결한거지. 그런데 그 해결하는 과정이 쉬웠을까? 어떤 어려운 점이 있었을지 나중에 상희가 조금 더 크면 아빠와 같이 생각해보자. 편석준 작가는아이와 성인을 대상으로 다양한 장르의 글쓰기 연습을 돕고 있습니다. 아이들을 위한 책으로 특허동화 『상상이상 미래세상』, 일반동화 『이제 내가 대장이야』 『토끼 손잡이와 여섯 손가락』을 출간했으며, 어른들을 위한 책으로 에세이 『너는 내일부터 치킨집 사장이다』, 인문교양서 『구글이 달로 가는 길』, 소설 『10년 후의 일상』, 경제경영서 『사물인터넷』, 『사물인터넷, 실천과 상상력』, 『가상현실』, 『스타트업 코리아』, 『왜 지금 드론인가』, 『전기차 시대가 온다』 『4차산업혁명 IT트렌드 따라잡기』, 『미래의 직업전망』 등을 출간했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.11.11.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>[인뱅, 거품vs혁신]②한때 참신했는데…이젠 '그 나물에 그 밥'</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005175644?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>간편함 내세우며 등장…시중은행 변화 이끌어내제휴 강화, 플랫폼 강조하지만 차별화 '글쎄'인터넷전문은행 등장만으로 시중은행들은 경각심을 가지고 사용자 친화적으로 접근하기 시작했다. 금융권에서 이용자 중심으로 변화와 경쟁이 시작된 반면 정작 인터넷은행 사이에는 별다른 차별화 지점이 부족하다는 반응이 나온다.11일 카카오뱅크에 따르면 현재 고객수는 2000만명 수준이다. 올해 2분기말 1917만명 대비 83만명가량 늘어났다. 2017년 7월 출범 당일 24만명과 비교하면 83배 가까이 늘어난 규모다. 케이뱅크도 지난해 말 700만명을 돌파한 이후 지난달 말 기준 808만명을 기록했다. 올해 들어 100만명 넘게 고객이 가입한 셈이다. 토스뱅크는 10월말 기준 504만명을 기록해 가입자수 500만명을 돌파했다. 산술적으로 전국민의 절반 이상이 인터넷전문은행을 이용하고 있는 셈이다.세 곳 모두 시중은행 대비 '간편함'을 내세웠지만 각자의 확대 전략은 다르다. 카카오뱅크는 막강한 플랫폼 기반의 금융 서비스를 강조했다면 케이뱅크는 다양한 산업군과의 제휴를 내세우고 있다. 지난해 10월 출범한 토스뱅크는 각종 실험적인 서비스와 상품으로 시장 공략에 힘을 쏟는 모양새다.맏형 격인 카뱅, 플랫폼과 은행 모두 공략인터넷전문은행 중 가장 먼저 흑자로 전환한 카카오뱅크는 플랫폼 경쟁력과 사업다각화를 강조하고 있다. 플랫폼은 청소년 대상의 카카오뱅크 미니, 증권계좌 개설 대행, 제휴사 연계 대출, 제휴 신용카드, 광고 플랫폼이다. 당장 현재 '돈'이 되는 고객보다는 향후 미래 주역이 될 세대를 공략하려는 포석으로 풀이된다. 최근 가상자산 거래소 코인원과 실명계좌 개설 계약을 맺고 대대적인 홍보에 나선 것도 같은 맥락으로 풀이된다.은행 본연의 역할인 여·수신 상품에도 힘을 기울이고 있다. 입출금통장, 세이프박스, 저금통, 26주 적금 등 수신상품을 제공하는 한편 최근에는 개인사업자 대상 서비스를 대거 출시했다. 간편함을 무기로 통장 개설부터 대출까지 공략하겠다는 방침이다. 별도의 애플리케이션(앱)을 설치할 필요 없이 카카오뱅크 앱 하나로 개인과 개인사업자 뱅킹을 모두 이용할 수 있게 만드는 한편 각종 서류 제출 과정과 수수료를 없앴다. 장기적으로는 주택담보대출, 전월세 보증금대출 등 담보대출의 비중을 늘릴 전망이다.상장 앞두고 속도전…적극 제휴&amp;공격적 영업케이뱅크는 적극적인 제휴와 공격적인 금리 정책을 앞세웠다. 당초 케이뱅크의 시장 안착부터 업계 압도적 1위 가상자산 거래소인 업비트와의 제휴가 주효했다. 단독으로 업비트 고객의 신규 실명계좌를 발급해주면서 안정적인 수신 잔고와 고객수를 확보할 수 있었다. 제휴 두 달 만에 신규고객이 100만명에 이를 정도였기 때문이다.그 결과 케이뱅크는 지난해 첫 연간 흑자를 기록했다. 이후에도 흑자행진을 이어가고 있다. 올해 3분기 순이익 256억원으로 분기 역대 최대 실적을 기록했다. 전년 동기 대비 52.4%, 전분기 대비 20.2% 늘어난 규모로 지난해 3분기 이후 5개 분기 연속 흑자를 달성했다.케이뱅크는 업비트 이후 다양한 산업군과 제휴를 맺는 전략을 밀어붙이고 있다. 이미 미래에셋증권, 롯데카드, 당근마켓의 당근페이 등과 손잡았다. 여기에 공격적인 상품 경쟁도 나섰다. 1년 만기 예금 상품 금리를 연 4.6%로 인상하는 한편 수시입출금식 예금인 파킹통장 상품 '플러스박스'의 금리도 시중은행 최고 수준인 2.7%로 인상했다.'선택과 집중'…토스뱅크, '특색'에 몰두인터넷전문은행 중 가장 늦게 출범한 토스뱅크는 차별화가 가장 절실하다. 케이뱅크가 각종 상품의 경쟁력에 집중하고 카카오뱅크는 막강한 플랫폼 영향력을 발휘하고 있는 상황이다.때문에 토스뱅크는 상품군 확장에 힘을 기울이지 않았다. 반면 기존 은행은 물론 다른 인터넷은행에서 볼 수 없는 서비스를 발굴하기 위해 노력했다. 매일 이자를 지급하는 서비스가 대표적이다. 월 단위가 아닌 고객이 매일 원할 때마다 이자를 받을 수 있는 방식이다. 이용자 입장에서는 복리효과를 누릴 수 있는 한편 매일 이자를 받는 성취감도 누릴 수 있게 됐다. 토스뱅크가 이같이 선도한 흐름은 전 은행권의 파킹통장 경쟁으로 이어졌다. 세 인터넷은행 중 개인사업자대출 상품도 토스뱅크가 가장 먼저 내놓았다.토스 계열사와 시너지를 누릴 수 있는 '원앱' 전략도 두드러진다. 은행, 보험, 증권 등의 서비스에 대해 별도 애플리케이션(앱)을 두지 않고 모두 금융 서비스라는 테두리 안에 묶었다. 토스 생태계 안에서 모든 금융활동을 소비할 수 있다는 자신감을 내비친 것이다. 토스뱅크도 앱 활성화를 중요하게 여기고 있다. 채팅과 게시판 등의 기능도 실험적으로 도입한 배경도 이용자를 머물게 하려는 의도로 풀이된다.이미 익숙해진 간편함…이용자는 또 다른 혁신 원해전문가들과 업계 종사자들은 인터넷전문은행들이 초기 등장했을 당시의 차별성이나 새로운 열풍 등이 점차 사라져버렸다고 지적했다. 카카오뱅크의 경우 처음에 간편한 사용성을 비롯해 프렌즈캐릭터 체크카드 열풍 등 하나의 사회적 문화까지 만드는 듯 했으나, 5년이 지난 지금 제도권의 은행과도 차이점을 느끼기 힘들다는 것이다. 금융권 관계자는 "카카오뱅크는 선발주자라 그나마 상징성이 있지만, 케이뱅크는 조직문화부터 조금 더 보수적인 느낌이고, 토스뱅크는 '혁신'을 내세우지만 카뱅을 넘어설 특별한 무기가 있는 것 같지 않다"고 평가했다.위정현 중앙대 경영학과 교수도 "시중은행들도 편의성이 높아지면서 인터넷전문은행들의 초반에 내세우던 혁신성은 이미 의미가 퇴색됐다. 게다가 고금리 시대가 도래하면서 금리 경쟁력마저 사라져 차별성을 찾기 힘든 상황"이라며 "제도권 은행들도 젊은층을 공략하고 있고 반격에 나선 시점에서 어떻게 대처할지가 관건"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.11.01~2022.11.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.11.01~2022.11.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.11.10.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>초기투자사들이 일제히 주목한 영상제작 스타트업 '두둠' [김종우의 VC 투자노트]</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004773065?sid=105</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>영상 제작 플랫폼 '두둠' 운영사 지로가 10억원 규모 프리 시리즈A 투자를 유치했다고 10일 밝혔다. 이번 투자에는 블루포인트파트너스, 롯데벤처스, 프라이머사제파트너스, 본엔젤스 등 다양한 초기 투자사가 참여했다.두둠은 지난해 11월 정식 출시됐다. 제품 광고나 브랜드 홍보, 교육 등 다양한 종류의 영상을 제작하길 원하는 이용자와 영상 제작 전문 회사를 매칭해주는 기업 간 거래(B2B) 플랫폼이다. 현대자동차, 토스, 배달의민족 등 200여 개 기업과 협업해 왔다. 지난달 기준 총 430여 개의 영상 제작사를 파트너사로 확보했다.기업 영상 제작을 위해 광고대행사나 인맥, 검색을 통해 알음알음 접촉해야 했던 기존의 불편함을 해결했다는 평가다. 크몽과 같은 프리랜서 전문가들이 있는 개인 매칭 플랫폼과 달리 건당 수천~수억원이 드는 '하이엔드'급 영상이 필요한 기업들을 대상으로 영상 전문 회사를 매칭해주는 점이 경쟁력이다.회사는 지난해 5월 본엔젤스로부터 시드(초기) 투자를 유치했다. 또 중소벤처기업부가 운영하는 민간투자 프로그램 팁스(TIPS)에 선정되기도 했다. 황길환 지로 공동대표는 "K콘텐츠 제작 역량을 알리기 위해 북미 시장 등 글로벌 진출을 계획 중"이라며 "내년엔 영상 스톡 거래 서비스로 사업을 확장할 예정"이라고 말했다.투자를 주도한 김준혁 블루포인트파트너스 수석심사역은 "성장 잠재력이 높은 영상 제작 분야에서 기존 시장의 비효율을 타파해 디지털 전환에 앞장서는 회사"라고 평가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.11.15.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>낮은 대출로 갈아타는 '대환대출 플랫폼', 이번엔 나오나</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011536086?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>기사내용 요약수수료 등 놓고 금융사 vs 핀테크 치열한 기싸움은행권 "중개 수수료, 결국 소비자에 부담으로 이어질 것"[서울=뉴시스] 정옥주 남정현 기자 = 금[서울=뉴시스] 권창회 기자 = 금융감독원이 윤창현 국민의힘 의원실에 제출한 자료에 따르면 대출자 1천646만명 중 가계 대출 평균 금리가 7% 수준이 되면 총부채원리금상환비율(DSR) 90% 초과 대출자는 120만명이 되는 것으로 나타났다. DSR 90% 초과 대출자는 소득에서 소득세와 건강보험료 등 세금만 내도 원리금을 못 갚는 사람을 의미한다. 사진은 9일 서울 시내 은행에 걸려있는 대출금리 현수막. 2022.11.09. kch0523@newsis.com급격한 금리 상승기 소비자들의 이자부담을 줄여주기 위해 금융당국이 내년 5월 대환대출 플랫폼을 개시하겠다고 밝혀 주목된다. 다만 기존 금융사들과 핀테크 업체간 중개 수수료 문제, 과도한 금리경쟁 등의 우려가 여전히 팽배해 대환대출 플랫폼이 당국의 계획대로 출범할 수 있을지 시선이 모아진다.15일 금융권에 따르면 금융위원회는 전날 개인대출을 대상으로 은행, 저축은행, 여전사가 참여하는 대출이동 시스템을 구축해 내년 5월 온라인·원스톱 대환대출을 개시한다고 밝혔다.대환대출 플랫폼이란 하나의 플랫폼에서 은행, 저축은행, 캐피탈 등 여러 금융기관 대출상품을 비교하고 낮은 금리로 갈아탈 수 있게 하는 비대면 원스톱(One-stop) 플랫폼을 말한다. 이 서비스가 도입되면 금융소비자들은 은행을 직접 방문하지 않고도 플랫폼 한 곳에서 금리 수준을 비교한 뒤 가장 저렴한 대출상품으로 이동할 수 있게 된다.당초 금융위는 이 플랫폼을 지난해 출범시킬 계획이었으나, 논의 과정에서 빅테크 종속·수수료 지급 등을 이유로 금융사들이 불참을 선언하면서 결국 도입이 무산됐다. 하지만 최근 금리 인상이 가파르게 진행되면서 대환대출 플랫폼 도입 필요성에 대한 논의가 다시 재점화된 상황이다. 특히 정치권에서 대환대출 플랫폼의 필요성을 강조하고 나서면서 금융업권간 갈등으로 중단됐던 대환대출 플랫폼 사업 추진이 탄력을 받게 됐다. 금융위에 따르면 현재 시중에 나와 있는 대출비교 플랫폼은 10개 정도로, 이들과 제휴를 맺고 대환대출 전용상품을 취급 중인 은행은 3개에 불과한 실정이다. 또 기존대출을 상환하고 옮기려면 영업점을 방문하거나 유선연락을 통해 확인서류를 전달해야 하는 등 시간과 비용이 소요되는 불편함이 있었다. 대환대출 비교 플랫폼 운영회사, 참여 금융회사, 기존대출 정보가 제한돼 소비자 선택권에도 제약이 있었다.따라서 당국은 대환대출 상환 요청, 상환필요금액, 상환계좌, 대출약정금액, 최종 상환 확인 등의 절차를 금융결제원 망을 통해 완전히 전산화한다는 것이다. 이렇게 되면 은행, 저축은행, 카드·캐피탈사로부터 대출을 받은 소비자가 보다 손쉽게 유리한 조건의 상품으로 이동할 수 있게 된다.마이너스 통장, 직장인대출, 카드론 등 개인 신용대출과 같이 여신거래약관 등에 따라 표준화된 대출에 우선 적용된다. 담보권 이전 등 추가절차 없이 온라인으로 이동 가능하기 때문이다. 기업대출의 경우 심사절차가 복잡해 비대면 대환대출 진행이 불가하다.금융위에 따르면 현재 각 금융업권별로 시스템 구축 역량을 갖춘 대형사 위주로 총 50여개 금융사가 대환대출 이동시스템에 참여 의사를 표명한 상태다. 단 금결원망을 이용하지 않는 대부업권과 관련 대출규모가 미미한 보험업권은 제외됐다.다만 금융권에서는 여전히 금리인하 경쟁 심화, 중개 수수료부담 등 업권별로 이해관계가 첨예하게 엇갈리고 있어 내년 5월 출범까지 적잖은 진통이 있을 것으로 예상하고 있다특히 금융당국은 소비자들의 선택권을 넓혀주기 위해 시중은행 등 금융회사가 대환대출 상품 공급자 외에도 대출비교 서비스 제공자로 대환대출 시장에 참여할 수 있도록 하겠다고 밝혔다. 은행, 카드사 등 기존 금융회사들에도 대출비교 플랫폼 운영을 허용해 그간 금융사들이 주장해온 빅테크 종속 문제를 해소하겠다는 것이다.한 금융권 관계자는 "핀테크 업체만 할 수 있었던 비교 플랫폼을 은행 등 대형 금융사들까지 할 수 있도록 해줬으니 핀테크 입장에서는 경쟁 상대가 늘어나게 된 것"이라며 "특히 시중은행 앱 이용자들이 800만~1000만에 달하는 상황에서 이미 천만 고객을 갖고 시작하는 은행들과 일부 대형 업체를 제외한 대부분 핀테크 업체들간 경쟁력 차이가 날 수 밖에 없다"고 우려했다. 한 핀테크 업체 관계자는 "물론 시중은행들이 대환대출 플랫폼을 운영하게 되면 경쟁이 더욱 치열해질 수 있다"며 "다만 현재 금리가 상승하면서 대출금리를 비교하는 등 플랫폼을 이용하는 소비자들이 늘어나고 있고, 장기적으론 플랫폼 금융 산업의 성장과 파이 확대 측면에서 부정적이지만은 않을 것"이라고 말했다. *재판매 및 DB 금지아울러 상대적으로 금리 경쟁력이 약한 저축은행, 카드사 등 2금융권에서도 우려가 크다. 저축은행 등은 상대적으로 대출금리 조건이 좋은 1금융권에 고객을 빼앗길 가능성이 높고, 카드사들의 경우 대환이 빈번하게 이뤄지면 그만큼 빅테크에 지불해야하는 수수료가 커져 수익에 타격을 입을 수 있다.한 카드업계 관계자는 "토스뱅크·카카오뱅크와 카드업계의 경우 1금융에서 2금융 사이의 신용도를 가진 고객군이 겹치는 층이 있는데 이들이 체리피킹을 할 것이라 염려된다"며 "카드사의 경우 중도상환 수수료가 없기 때문에 고객의 이탈이 더 쉽게 이뤄질 것"이라고 말했다. 다른 카드업계 관계자도 "카드업권은 타 업권에 비해 금리 규제가 많이 있는 상황"이라며 "카드업권 규제 완화에 대한 충분한 논의가 없다면 카드업권에는 무조건적으로 손해일 수 밖에 없다"고 지적했다.중개 수수료 문제 역시 매우 첨예한 이슈다. 특히 은행 등 기존 금융사들은 높은 수수료는 결국 소비자들의 부담으로 전가될 수 있다는 논리로 적극 방어에 나설 것으로 보인다.한 은행 관계자는 "태스크포스(TF)에서 논의되는 방향에 따라 다르겠지만 핀테크 쪽은 최대한 수수료를 많이 받으려고 할 것이고 은행 등 금융사들 입장에서는 최대한 낮춰야 하는 입장"이라며 "무엇보다 과도한 수수료는 결국 금리인상 등 소비자들의 비용 부담 증가로 이어질 수 있는 만큼, 각 업권간 치열한 기싸움이 예상된다"고 말했다.또 다른 은행 관계자도 "고객들이 손쉽게 더 낮은 금리로 이동하는 것은 고객 편의성 측면에서 긍정적이나, 플랫폼 이용에 대한 중개수수료 부담이 있는 것은 사실"이라며 "시장상황을 면밀히 검토하며 대응해 나갈 예정"이라고 말했다.다만 금융권에서는 이러한 업계의 불만에도 내년 5월 대환대출 플랫폼이 예정대로 출범할 가능성이 높다고 보고 있다. 지난해의 경우 가계대출 급증에 따른 부채 총량 관리가 화두로 떠오르면서 대환대출 플랫폼 관련 논의가 중단됐지만, 지금은 본격적인 고금리 시대에 접어들면서 대환대출 플랫폼을 서둘러 구축해야 한다는 여론이 형성됐기 때문이다. 금융사들로서도 더 이상 이를 반대할 명분이 없다.한 금융권 관계자는 "카드업계와 저축은행을 중심으로 반발이 있을 순 있지만 지속적인 금리 인상 영향으로 더 이상 출범이 연기되지 않을 것"이라고 예상했다.한편 금융위는 이러한 업계의 우려에 대해 "대환대출 활성화 시 발생 가능한 머니무브 가속화 등 금융시장 리스크의 관리를 위해 시범운영 기간을 도입할 것"이라며 "또 자사 상품 판매 유인에 따라 이해상충 가능성이 더 큰 금융회사 플랫폼에는 코스콤 외의 추가 기관의 교차검증, 주기적인 재검증 의무화 등 이러한 규제를 강화할 계획"이라고 말했다. 이어 "중개 수수료 체계는 대출비교 플랫폼 운영주체와 대출상품 공급회사가 참여하는 협의체를 구성해 플랫폼 중개 수수료의 합리적인 산정방안 등을 논의할 계획"이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.11.13.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>경기도 행정앱 '경기똑D'에 간편인증 도입…증명서 발급 간소화</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013571509?sid=103</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>(수원=연합뉴스) 김경태 기자 = 경기도는 공공마이데이터를 활용한 맞춤형 행정서비스 앱 '경기똑D'에 민간전자서명인 '간편인증' 서비스를 14일부터 도입한다고 13일 밝혔다.    이에 따라 공동인증서 없이도 주민등록등본 등 66종의 전자증명서를 '경기똑D'에서 간편하게 발급받을 수 있게 됐다.     지금까지 경기똑D의 전자지갑 서비스를 이용하려면 공동인증서를 PC에서 스마트폰으로 옮겨 본인 인증 절차를 거쳐야 했다.[경기도 제공]    도는 지난 7월 도민참여단 의견과 8월 만족도 조사에서 제기된 이런 불편을 해소하고자 간편인증 방식을 추가 도입했다.     간편인증은 기존의 공동인증서처럼 경기똑D 앱에 등록하지 않아도 되고 매년 갱신할 필요가 없으며 발급 인증 절차도 더 단순하다.     자주 사용하는 간편인증서(네이버·카카오·PASS·토스 등)를 선택해 본인인증을 받으면 전자지갑 서비스를 이용할 수 있다.    전자지갑을 통해 주민등록등본과 건강보험료 납부확인서, 자동차등록원부 등 66종의 전자증명서를 조회·저장·공유할 수 있다.     도는 12월에 행정안전부의 온라인복지신청 서비스와도 연계해서 서비스를 더욱 확대할 계획이다. 이렇게 되면 경기똑D에서 원스톱으로 다자녀가정 입학축하금 등의 복지 신청도 할 수 있게 된다.    지난 4월 개통된 경기똑D는 ▲ 도민 복지·공개채용 정보 등 '맞춤 정보 서비스' ▲ 공공마이데이터 기반의 본인 확인서비스인 '도민카드 서비스' ▲ 다양한 전자증명서를 휴대전화에 보관하고 활용할 수 있는 '전자지갑 서비스' ▲ 마이데이터 정보를 생활에 도움이 되는 리포트 형식으로 제공하는 '마이리포트 서비스'를 제공하고 있다. 지금까지 안드로이드와 iOS 앱을 합쳐 9만여건을 내려받은 상태다.     전승현 도 데이터정책과장은 "도민들이 쉽고 편리하게 경기똑D를 사용할 수 있도록 지속해서 품질 관리와 서비스 확대에 힘쓰겠다"고 말했다.     ktkim@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.11.08.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>예·적금 관심 있는 `액티브 시니어` 잡아라</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002764845?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>KB국민은행, 노후 목돈펀드 선봬하나은행, 시니어 자문단 운영도신한銀, 맞춤 ATM 서비스 제공5060대 자산가들이 예·적금 상품에 관심을 보이면서 관련 상품이 나오고 있다. 연합뉴스    기준금리 상승으로 50·60대 자산가들의 관심이 예·적금 상품으로 몰리면서 은행들이 이른 바 '액티브 시니어'를 겨냥한 마케팅을 강화하고 있다. '액티브 시니어'는 은퇴 이후에도 소비생활과 여가생활을 즐기며 사회활동에도 적극적으로 참여하는 50~60대를 일컫는다.8일 한국은행에 따르면 지난 6월 말 기준 은행의 정기 예·적금, 기업자유예금, 저축예금 중 잔액이 10억원을 넘는 계좌의 총예금액은 787조9150억원으로 집계됐다. 이는 지난해 말(769조7220억원)보다 2.4% 늘어난 것으로 사상 최대 규모다. 1년 전(716조2350억원)과 비교하면 71조6800억원 증가했다. 자산가들이 주식 등 투자상품에서 돈을 빼 은행 금융상품으로 자금을 옮기는 '역 머니무브'에 따른 현상이다.이에 따라 은행과 핀테크는 너나 할 것 없이 맞춤형 관련 서비스와 상품을 선보이는 추세다. KB국민은행의 'KB더블모아예금'은 만 50세 이상부터 가입할 수 있다. 은퇴 준비를 할 수 있도록 '중장기 절세', '단기 목돈 관리'를 위한 상품으로, 개인종합자산관리계좌(ISA) 또는 연금저축펀드와 동시에 가입하면 우대금리를 준다. 이날 기준 1년 만기 최고 금리는 연 3.45%(세전)로, 가입금액은 1000만원 이상~ 4000만원 이하다.KB국민은행은 매주 노인복지관을 방문, 소액 현금 입출금 등 간단한 금융서비스를 제공하는 'KB 시니어 라운지'를 운영하고 있다.우리은행은 만 50세 이상의 노후 자금 마련을 돕는 패키지 상품인 '시니어플러스 우리 패키지(입출금통장·정기예금·적금)' 상품을 취급하고 있다. 입출금통장은 급여형과 연금형, 예금통장은 연금형과 회전형이 있다.4대 연금(국민·공무원·사학·군인)을 '시니어플러스 우리통장'으로 수급하면 무료 온천 이용권과 보이스피싱 보험, 헬스케어, 오마이스쿨 무료 동영상 등 다양한 부가 서비스를 제공한다. 회전형은 1000만원 이상부터 가입할 수 있고, 1년 만기 금리가 연 2.65%다. 우대조건을 충족하면 0.4%포인트를 더 준다. 만 65세 이상 고령자는 비과세저축 상품으로도 활용할 수 있다.하나은행은 지난 7월부터 '액티브 시니어 자문단'을 신설해 운영 중이다. '액티브 시니어 자문단'은 자영업자, 사무직, 주부, 프리랜서 등 다양한 직업을 가진 55세~59세 시니어 고객들로 구성됐다. 이들은 7월부터 6개월간 하나은행 고령층 전용 금융상품과 서비스를 직접 경험하고 시니어 금융 아이디어, 금융취약계층 배려 아이디어, 고령 금융소비자 보호 방안 등을 제시하는 자문 역할을 수행한다.신한은행은 지난 1월 시니어 맞춤 자동화기기(ATM)을 제작해 전국에 배치했다. 만 65세 이상 고령층 고객은 수수료를 면제한다. 고령층을 대상으로 '시니어 디지털 금융교육'도 진행하고 있다. 금융앱 토스도 '시니어 특화 서비스'가 준비돼 있다. 소비자가 원하는 지역·고용형태 등 조건에 따라 50대와 60대에 우대 일자리를 준다. 5일에서 10일 동안 만보 걷기 인증을 하면 수 백만원에 달하는 상금을 나눠주는 '토스 걷기 대회' 서비스도 운영 중이다. 이용자의 28%가 50세 이상이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.11.03.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>1천만원 넣으면 월 1만9천원…'이자 최고' 파킹통장은 어디</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003235830?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>30대 직장인 서모씨는 요즘 틈날 때마다 휴대전화로 여러 금융회사의 '파킹 통장(수시입출금 통장)' 금리를 비교한다. 수시로 돈을 넣고 뺄 수 있는 파킹통장은 하루만 맡겨도 이자가 붙어 비상금 등 목돈을 굴리기에 적합하다. 그는 “아내와 카카오뱅크 모임통장으로 비상금을 관리했는데 이자가 별로 붙지 않아 토스뱅크로 옮겼다가 최근엔 네이버통장으로 다시 옮겼다”고 말했다.  그는 평균 1000만원 정도를 파킹통장에 넣어두는 데 하루에 900원 안팎의 이자가 복리로 붙는다. 한 달이면 약 2만7000원이다. 그는 “과거엔 금리 차이가 어느 정도 있어도 은행에 가서 새로 계좌를 개설하고 이체하는 게 귀찮아 그냥 뒀는데, 휴대전화로 금방 할 수 있다 보니 더 높은 금리를 주는 곳을 찾으면 바로 돈을 옮기려 한다”고 말했다.      금융권의 치열해진 수신 경쟁 속 한 푼이라도 이자를 더 받기 위해 자금을 수시로 옮기는 '금리 노마드족'이 늘고 있다. 예·적금 금리가 기대 수준만큼 오를 때까지 잠시 파킹통장에 묻어둔 뒤 움직이겠다는 소비자도 '금리 노마드족' 대열에 합류하고 있다.       '금리 노마드족'이 0.1%포인트의 금리 차에도 민감하게 움직이다보니, 한달새 1조원이 늘고 주는 등 인터넷은행 등의 잔액도 출렁이고 있다. 케이뱅크의 10월 말 수신 잔액은 14조3000억원으로 전달보다 8100억원 증가했다. 케이뱅크 측은 “금리 인상기에 선제적으로 수신 금리를 올리면서 최근 잔액이 크게 늘었다”고 말했다.       케이뱅크의 파킹통장인 ‘플러스박스’의 금리는 연 2.7%(최대한도 3억원)다. 1000만원을 넣어두면 매달 세후 이자 1만9000원을 매월 넷째 주 토요일에 지급한다. 3일 기준 인터넷은행 파킹통장 중 금리가 가장 높다. 시중은행의 수시입출금통장 금리가 대부분 연 0.1~1%인 것과 비교하면 차이가 꽤 크다.     케이뱅크 플러스박스       반면 카카오뱅크의 10월 말 기준 수신 잔액은 전달보다 1조5759억원 줄었다. 카카오뱅크 측은 “요즘 이체가 워낙 쉽다 보니 금리가 조금만 차이가 나도 자금이 쉽게 들어오고 나간다”며 “자금 이탈을 막기 위해 카카오뱅크도 최근 수신 금리를 대폭 올렸다”고 말했다. 카카오뱅크의 파킹통장인 ‘세이프박스’의 금리는 지난달 19일부터 연 0.4%포인트 올라 연 2.6%가 됐다.       파격적인 시도도 했다. 지난 1일부터는 대표 수신 상품인 ‘26주적금’의 우대금리를 기존 연 0.5%포인트에서 연 3.5%포인트로 올렸다. 이에 따라 26주 연속 적금 납입에 성공하면 기본금리 연 3.5%에 우대금리 연 3.5%를 더해 연 7%의 이자를 받을 수 있다.       다만 납입 기간이 6개월(26주)로 실제 이자는 연간 금리의 절반(연 3.5%) 수준인 데다 납입 기간에 따라 이율도 낮아져 이자율과 실제 수익률이 낮을 수 있다는 지적도 있다.      카카오뱅크 세이프박스       네이버파이낸셜이 미래에셋증권과 연계해 만든 네이버통장은 CMA-RP 계좌다. 예탁금으로 RP(환매조건부 채권)에 투자해 단기 약정수익을 제공한다. 3일 기준 네이버통장 수익률은 연 3.05%(1000만원 초과 금액은 연 2.6%)다. 은행의 파킹통장처럼 입금과 출금이 자유롭지만 예금자보호 대상이 아니라는 위험도 있다.       불붙은 금융사의 금리 경쟁으로 '금리 노마드족'은 더 분주하게 됐지만, 대출금리 상승 등의 부작용으로 돌아올 수도 있다. 서지용 상명대 경영학과 교수는 “금융기관이 경쟁사를 의식해 출혈 경쟁을 하며 수신 금리를 올리면 그만큼 자금 조달 비용이 늘어 대출 금리도 따라 오르게 된다”며 “결국 금융 소비자에게 부담이 부메랑처럼 돌아올 수 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.11.14.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>내년 5월부터 온라인 신용대출 갈아타기 쉬워진다</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000707479?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>금융위, 원스톱 대환대출 시스템 추진은행 등 50곳 참여... 보험·대부업 제외김주현 금융위원장이 14일 오전 서울 전국은행연합회에서 열린 제4차 금융규제혁신회의에서 발언하고 있다. 왼쪽은 이복현 금융감독원장. 연합뉴스온라인으로 여러 금융회사의 대출상품을 비교해 유리한 상품으로 손쉽게 갈아탈 수 있는 원스톱 대환대출 시스템이 이르면 내년 5월 가동된다.14일 금융위원회는 제4차 금융규제혁신회의를 열고 ‘온라인ㆍ원스톱 대환대출 인프라 구축방안’을 심의했다. 소비자들이 낮은 금리를 찾아 이동할 수 있도록 길을 넓혀 금리 인상기 이자부담을 덜어주겠다는 구상이다. 대환대출은 새로운 대출을 제공하는 금융회사가 소비자의 기존 대출금을 대신 상환하는 제도다.은행, 저축은행, 카드ㆍ캐피털사 50곳이 참여하는 온라인 대출이동 시스템을 내년 5월까지 연결하는 게 핵심이다. 현재는 대환을 원하는 소비자가 직접 영업점을 오가며 서류를 발급, 전달해야 하는 등 절차가 번거롭다. 금융회사 입장에서도 업무 처리에 상당한 시간과 비용이 소요돼 상품 공급에 소극적일 수밖에 없었다. 하지만 금융회사 간 대출이동 시스템이 마련되면 대환대출 상환 절차가 완전히 전산화돼 효율성을 크게 제고할 수 있다.금융회사 간 온라인 대출 이동 시스템 구축 효과. 금융위원회 제공마이너스 통장, 직장인대출, 카드론 등 개인 신용대출이 우선 적용된다. 여신거래약관 등에 따라 표준화된 대출이라 온라인 이동 시스템 구축이 상대적으로 용이해서다. 담보대출은 담보권 이전 등 추가 절차가 필요하고, 기업대출은 심사 절차가 복잡해 대상에서 일단 제외됐다. 금융결제원 망을 이용하지 않는 대부업권과 관련 대출 규모가 미미한 보험업권도 참여 대상에서 빠졌다.대환대출 시장 참여자도 지금보다 확대한다. 금융당국은 카카오페이, 토스, 핀다 등 핀테크사뿐 아니라 은행 등 금융회사들도 대출비교ㆍ추천 플랫폼을 운영할 수 있도록 허용하기로 했다. 비교 플랫폼 외에 개별 금융회사 애플리케이션(앱)을 통해서도 대환대출 이용이 가능하다. 경쟁을 통해 서비스 질을 높이고 상품 공급을 활성화하겠다는 의도다. 각종 수수료 등 정보도 사전에 충분히 제공해 소비자들이 대환대출에 따른 비용과 편익을 정확히 따져볼 수 있도록 할 방침이다.당국은 이달 중 금융업계와 핀테크 등이 참여하는 태스크포스(TF)를 구성하고, 올해 안에 시스템 구축에 착수할 계획이다. 대출비교 플랫폼을 운영하는 핀테크사가 과도한 수수료를 요구할 수 있다는 우려에 대해선 “플랫폼 운영주체와 대출상품 공급회사가 참여하는 협의체를 구성해 합리적인 중개 수수료 산정방안을 협의하겠다”고 설명했다.이 밖에 금융위는 이날 회의에서 보험사들이 펫보험 등 전문분야에 특화된 자회사를 둘 수 있도록 ‘1사 1라이센스’ 규제를 개선하겠다고 밝혔다. 금융회사의 자회사 투자범위나 부수업무 범위에 대한 규제 개혁을 담은 구체적인 금산분리 제도개선안도 내년 초까지 마련하기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.11.04.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>[사고]위기 넘어 기회로…내년 디지털 전략 어떻게?</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005358701?sid=105</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>9회 이데일리 IT컨버전스포럼(ECF) 개최이달 16일 앰배서더 서울 풀만 호텔서 열려‘우영우’ 제작 스튜디오지니 김철연 기조연설무료 입장, 유튜브 ‘이데일리 프렌즈’ 생중계[이데일리 최훈길 기자] K-콘텐츠의 미래 전략과 디지털 산업 대응 방안을 토론하는 포럼이 열립니다. 글로벌 긴축 공포로 시장이 위축된 가운데, 앞으로 다가올 디지털 전략을 모색하는 기회입니다. 글로벌 시청 시간 4억 시간을 넘긴 ‘이상한 변호사 우영우’의 성공 비결과 못다한 이야기도 들을 수 있습니다. 이데일리는 오는 16일 서울 중구 앰배서더 서울 풀만 호텔 그랜드볼룸에서 ‘위기 넘어 기회 있다: 디지털 전환 시대 생존전략’ 주제로 제9회 ‘ECF 2022(이데일리IT컨버전스포럼 2022)’를 개최합니다. ‘우영우’를 에이스토리와 공동제작한 스튜디오지니의 김철연 대표가 기조연설로 포럼의 문을 엽니다. (사진=이데일리)‘디지털 경제 성공을 위한 규제 혁신 방향은? 플랫폼, AI, 데이터를 중심으로’를 주제로 디지털 정책을 논하는 자리도 마련했습니다. 이성엽 고려대 기술법정책센터장(좌장), 엄열 과학기술정보통신부 인공지능기반정책관, 박성호 한국인터넷기업협회 회장, 이윤조 김앤장 변호사가 토론합니다.오세현 SK텔레콤 Digital Asset CO(부사장)는 오후 세션 1부에서 블록체인의 미래를 밝힐 웹 3에 대해 강연합니다. ‘데이터 주권을 이용자 본인이 소유한다’는 웹 3가 우리의 미래를 어떻게 바꿀지 주목됩니다. 아울러 △서현우 비바리퍼블리카 사업전략 헤드가 토스의 슈퍼앱 전략을 △박준희 카페24 디지털전략연구소장이 글로벌 커머스 시장 진출을 △박서하 티맵모빌리티 퓨처모빌리티 그룹장이 도심항공모빌리티(UAM) 시대를 이끄는 모빌리티 플랫폼의 진화를 △정재성 로앤컴퍼니 부대표가 글로벌 동향과 로톡의 전략을 소개할 예정입니다. 2부는 기술 분야별 선도기업의 전략을 듣는 시간으로 준비했습니다. △이경일 컴투버스 대표가 메타버스의 새로운 세상을 △인공지능(AI) 기술업체 업스테이지의 권순일 Biz 총괄이 AI 현실과 미래에 대해 강연합니다. 또한 △한상영 네이버클라우드 기획&amp;전략 상무가 디지털 경제의 신경망인 클라우드 산업 현황과 미래를 △김수종 이노스페이스 대표이사가 민간 우주개발 시대를 앞당길 스타트업 도전기를 생생하게 전달할 계획입니다. 여러분의 응원과 따뜻한 관심을 부탁 드립니다. ECF 2022는 무료입니다. 행사 당일, 행사장 접수 선착순 200명에게 점심 식권을 제공합니다. ◇명 칭 : 제9회 이데일리IT컨버전스포럼(ECF 2022)◇주최 : ㈜이데일리◇후원: 과학기술정보통신부, 방송통신위원회, 한국인터넷기업협회, 한국통신사업자연합회, 코리아스타트업포럼, 정보통신기획평가원, 한국IPTV방송협회◇일시: 2022년 11월 16일(수) 10:00~17:30◇장소: 앰배서더 서울 풀만 호텔 그랜드볼룸(2F)·유튜브 ‘이데일리 프렌즈’ 채널 생중계◇사전등록 행사 홈페이지:https://ecf.edaily.co.kr/ECF2022/◇문의: 이데일리 02-3772-9409, 02-3772-9407·jeong@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.11.02.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>카뱅 3분기 실적 축포에도…인터넷은행 '생존고민' 여전, 왜</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005356814?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>카뱅, 분기 기준 최대 기록 갈아치워…호실적 평가미래 성장성 제고 및 주주환원정책은 여전히 숙제케뱅, 연내상장 물건너가…기업가치도 7조→3조대로 '뚝'토뱅, 인뱅3사 출혈경쟁 속 적자 여전…후발주자 '리스크'[이데일리 정두리 기자] 최근 주가 하락과 카카오 화재 사고 등 대내외적 악재로 홍역을 겪고 있는 카카오뱅크가 분기 기준 사상 최대 실적을 달성하며 모처럼 미소를 지었다. 예상보다 높은 ‘깜짝 실적’이라는 평가다. 카카오뱅크가 시장의 기대치를 뛰어넘으면서 인터넷전문은행업의 저력을 보여줬지만 나머지 인터넷은행의 사정은 썩 좋지 못하다. 케이뱅크의 경우 연내 상장 계획을 사실상 철회했고, 후발주자 토스뱅크는 여전히 적자 구조를 면치 못하고 있다. 물론 카카오뱅크 역시 주가 반등을 위해 성장성을 추가로 입증해야 하는 과제는 여전하다. 인터넷은행 전반에 걸친 성장성 둔화에 대한 우려의 시선은 지속되는 모양새다.카카오뱅크, 당기순익 787억…51.3% ↑카카오뱅크는 3분기 당기순이익이 787억원으로 지난해 같은 기간보다 51.3% 증가했다고 2일 밝혔다.3분기 순이익을 포함해 매출액(4118억원)과 영업이익(1046억원) 모두 나란히 분기 기준 최대 기록을 갈아치웠다. 매출액과 영업이익은 지난해 3분기보다 각각 48.5%, 46.9% 증가했다. 3분기 누적 매출액 기준으로 살펴보면 1조1211억원, 영업이익 2674억원을 기록, 9개월 만에 지난해 실적(매출액 1조649억원·영업이익 2569억원)을 넘어선 셈이다.카카오뱅크는 이 같은 여세를 4분기에는 주택담보대출 상품 확대와 개인사업자 뱅킹 출시, 인증 사업 진출 등에 박차를 가한다는 계획이다. 그럼에도 미래 성장성 제고와 주주환원정책에 대한 실행 방안 등은 남아 있는 숙제다. 앞서 카카오뱅크는 지난해 8월 상장 이후 1년여 만에 주가가 공모가의 절반 아래로 떨어지자 자사주 매입 등 주주환원정책을 실행하겠다고 밝힌 바 있다. 이날 김석 카카오뱅크 최고전략책임자(CSO)는 “(자사주 매입 관련해선) 대손준비금과 같은 추가 적립이 필요한 항목이 있기 때문에 향후에 어느 정도 자사주 매입을 할 수 있는 지 규모를 추산해 말하기는 어렵다”면서도 “내년 3월 이후 배당 가능 이익이 확정되고 나면 성장성에 대한 고민과 더불어 많은 주주분들이 요구하는 수준이 어느 정도인지 파악해 결정할 것”이라고 설명했다. IPO 미룬 케이뱅크, 흑자전환 못한 토스뱅크카카오뱅크에 이어 케이뱅크와 토스뱅크는 각각 이달 중순과 말 실적 발표를 앞두고 있다. 케이뱅크는 올 상반기 457억원의 순익으로 역대 최대 실적을 올리며 하반기 기업공개(IPO) 대어로 꼽혔지만, 연내 상장 계획이 사실상 물 건너가며 성장궤도 진입 시기에 제동이 걸렸다.  지난 9월 상장 예비심사를 통과한 케이뱅크는 하반기 시장 상황이 악화하면서 상장 시기를 내년으로 미룬 것으로 알려졌다. 금리 인상으로 플랫폼 주가가 올해 들어 크게 떨어진 데다, 카카오뱅크 주가 추락이 이런 결정에 영향을 끼친 것으로 풀이된다. 이에 기업가치 역시 당시 7조원에서 현재 3조원 중반대로 줄어들었다. 지난해 10월 출범한 토스뱅크는 여전히 적자 구조다. 토스뱅크는 올 상반기 1243억원의 순손실을 기록했다. 같은 해 1분기엔 654억원, 2분기엔 589억원으로 연속 적자를 기록했다. 적자 폭은 감소 추세지만 흑자 전환에는 적잖은 기간이 소요될 것이란 전망이다. 지난 2017년 출범한 카카오뱅크와 케이뱅크는 흑자 전환에만 각각 3년, 5년이 걸렸다. 금융권 관계자는 “인터넷은행이 기준금리 인상 여파로 이자 수익이 큰 폭으로 증가하며 실적 성장은 이룰 수 있다는 측면은 있지만, 그 과정에서 불거진 출혈경쟁이 성장성을 저해할 수도 있다”면서 “정부가 대출 확대 정책보다는 금융 안정을 위한 규제 강화 가능성이 높기 때문에 당분간 인터넷은행의 성장에 제약 요인이 될 수도 있다”고 봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.11.10.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>[fn마켓워치]블루포인트·롯데·프라이머사제·본엔젤스, 하이엔드 영상 제작 플랫폼에 투자</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004926033?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 하이엔드 영상 제작 플랫폼 '두둠'(Dudum)을 운영하는 지로는 10억원 규모의 프리시리즈A 투자를 완료했다고 10일 밝혔다.   이번 라운드는 블루포인트파트너스가 주도했다. 롯데벤처스, 프라이머사제 및 기존 시드 투자를 진행한 본엔젤스벤처파트너스가 참여했다. 이번 투자 유치로 지로는 글로벌 진출을 위한 자금을 안정적으로 확보하는 동시에 서비스 고도화에도 가속도를 붙일 예정이다.   지로는 이재석 공동대표와 네이버 클로바 출신 황길환 공동대표가 창업한 회사다. 2021년 11월 정식 출시 이후 현대자동차, 토스, 배달의민족 등 200여개 기업 및 기관과 협업을 진행해왔다. 올 10월 기준 총 430여팀의 국내 정상급 영상 제작사를 파트너사로 확보했다는 설명이다.   황길환 지로 공동대표는 “지금까지 쌓아온 영상 제작 분야의 노하우와 데이터를 바탕으로 북미 시장에서 K-콘텐츠 제작 역량을 알리기 위한 글로벌 진출을 추진할 계획”이라며 “내년에는 기존 두둠 플랫폼의 고도화와 함께 영상 스톡 거래 서비스로 확장해 영상 산업을 선도하는 콘텐츠 테크 기업으로서 자리매김하는 것이 목표”라고 강조했다.   김준혁 블루포인트파트너스 수석 심사역은 “향후 성장 잠재력이 높은 영상 제작 분야에서 기존 시장의 비효율에 대한 이해를 바탕으로 디지털 전환에 앞장서는 스타트업”이라며 ”이번 투자 유치를 통해 글로벌 진출을 본격화하여 한국의 콘텐츠 제작 역량을 세계에 알릴 수 있는 기업으로 성장하길 기대한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.11.01.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>11월 1일 알림</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002612735?sid=102</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>조세현 서울중구문화재단 사장.  ◇ 서울 중구문화재단은 10월 31일 제7대 사장으로 사진작가 조세현씨를 선임했다. 조 신임 사장은 중앙대 예술대에서 사진학을 전공했으며 사진작가로서 창작 활동을 이어왔다. 중앙대 예술대 석좌교수와 예술대학원 초빙교수를 지냈으며 서울시와 평창올림픽 홍보대사 등을 지냈다.◇ 한국신문윤리위원회(이사장 서창훈)는 10월 31일 제150차 이사회를 열어 한국신문협회에서 추천한 문진헌 &lt;내일신문&gt; 발행인과 우병현 &lt;아시아경제&gt; 발행인을 각각 윤리위원으로 위촉했다.◇ 국가인권위원회는 10월 31일 오후 2시부터 1일 정오까지 서울 송파구 올림픽파크텔에서 인권조례 제·개정 권고 10돌을 맞아 ‘2022 인권옹호자회의’를 한다. 인권기구 폐지 논란, 지역 인권제도의 성과와 한계를 논의하고 지역 인권 우수사례를 공유한다. ◇ 위메프는 10월 31일 김동민씨를 최고제품책임자(CPO)로 영입했다. 김 신임 CPO는 삼성전자 모바일 사업부와 외국계 증권사 CLSA를 거쳤으며 2017년 토스증권 창립멤버로 합류해 최근까지 이사회 보드멤버로 활약했다.◇ 대한무역투자진흥공사(KOTRA)는 한국방위산업진흥회와 함께 1∼3일 요르단 아카바 킹후세인 공항 전시장에서 열리는 ‘요르단 방위산업 전시회’(2022 SOFEX)에서 한국 기업 홍보관을 운영한다. 국내 기업 10개사가 참가해 제품을 전시하고 현지 바이어와 상담할 예정이다.◇ IBK 기업은행 하노이지점(지점장 박경일)은 28일 베트남 오지인 하장성의 유치원과 초등학교에 우물을 파주는 한국 봉사단체 글로벌 프랜드의 활동을 후원하고 학용품과 장학금을 전달했다.◇ 서울시는 3~4일 서울 양재 aT센터에서 ‘AI로 그려보는 서울의 미래’를 주제로 글로벌 에이아이(AI·인공지능) 콘퍼런스 ‘AI 서울 2022’를 한다. 창업기업과 학계, 정부 및 유관기관 관계자, 투자자를 비롯해 AI에 관심있는 시민 누구나 참석 가능하다. 누리집(aiseoul.or.kr) 참조.◇ 청년의사는 한미약품의 후원을 받아 12월 7일까지 ‘한미수필문학상’ 작품을 공모한다. 의사가 자신이 진료했던 환자를 소재로 원고지 20매 내외 분량의 수필 원고를 작성해 전자 메일로 제출하면 된다. 상금은 대상(1명) 1천만원, 우수상(3명) 각 500만원, 장려상(10명) 각 300만원이다. ◇ 비엔케이부산은행과 10월 31일 부산은행 창립 55돌을 기념해 노동조합과 함께 부산 지역 취약계층 아동을 위한 ‘어린이 동백선물세트’ 5550개(2억6천만원 상당)를 부산사회복지공동모금회에 전달했다. 학용품과 간식을 포함한 14종 선물로 꾸려졌으며, 지난달 5일 ‘노사화합 호프데이’에서 은행과 임직원이 기부한 4400만원도 선물 지원에 포함됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.11.12.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>FTX 파산, 메가톤급 '후폭풍' 우려…"코인판 리먼 사태"</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000310313?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>[사진제공=로이터 연합뉴스]가상자산거래소 FTX가 11일(현지시간) 파산 신청을 하면서 거센 후폭풍이 휘몰아칠 전망입니다.11일(현지시간) 워싱턴포스트(WP)등 외신에 따르면 FTX의 이번 파산 신청은 '코인판 리먼 사태'이자 '엔론 사태'로 불릴 정도로, 가상자산 시장을 넘어 금융시장 전반에 영향을 미칠 수 있다는 관측이 나옵니다.델라웨어주 파산 법원에 제출된 서류에 따르면 FTX는 최대 500억 달러(66조2천억 원) 부채를 안고 파산을 신청했고, 채권자는 10만 명이 넘습니다.FTX는 보유 자산도 부채 규모와 동일하다고 법원에 신고했으나 정확한 실사를 거쳐야 한다는 게 업계의 공통된 평가입니다.FTX와 어떤 형태로든 금융거래를 한 이해 당사자는 벤처캐피털과 연기금, 코인업체는 물론 개인 투자자와 유명인들에 이르기까지 광범위한데, 가장 취약한 당사자는 개인 투자자입니다. 코인 거래를 위해 FTX에 돈을 예치해뒀던 개인 투자자들이 한 푼도 건지지 못하고 몽땅 날릴 수 있다는 관측까지 나오고 있습니다. 블룸버그 통신은 "코인 거래소에 돈을 맡겼거나 심지어 저축 용도로 돈을 둔 일반인들이 가장 깊은 상처를 입게 될지도 모른다"고 지적했습니다.투자은행 오펜하이머의 오언 라우 애널리스트는 FTX 소매 고객이 무담보 채권자로 분류될 수 있다며 이럴 경우 기관 투자자보다 채권자로서 우선순위가 낮아져 돈을 잃게 될 것이라고 분석했습니다.FTX 투자로 손실이 예상되는 기관 투자자도 광범위합니다. 지난 1월 FTX 투자금 조달에 참여한 캐나다 온타리오 교사 연금, 싱가포르 국부펀드 테마섹, 소프트뱅크의 비전펀드, 헤지펀드 타이거 글로벌과 라이트스피드 벤처 파트너스등은 각각 수백억 원에서 수천억 원 돈을 떼일 가능성이 큰 것으로 분석됩니다.7천500만 달러(약 990억 원)를 투자한 온타리오 교사 연금은 전날 성명을 내고 손실 가능성을 인정했습니다.앞서 헤지펀드 세쿼이아 캐피털은 2억1천400만 달러(2천800억 원) FTX 투자금의 장부 가치를 0달러로 만드는 등 전액 손실 처리했습니다.헤지펀드 스카이브릿지 캐피털 창립자인 앤서니 스카라무치는 FTX가 자사 지분 30%를 보유하고 있지만, 이 지분을 다시 사들여 FTX와 관계를 정리할 계획이라고 밝혔습니다.FTX 위기가 다른 업체로 번질 경우 금융시장 불안정성은 더욱 커질 수 있습니다.블록체인 데이터 제공업체 앰버데이터의 파생상품 디렉터 그레그 마가디니는 "당장의 큰 공포는 전염 효과"라고 우려했습니다.이런 가운데 FTX와 금전 거래를 해온 코인 업체들은 직격탄을 맞았습니다.FTX로부터 한때 자금 지원을 받았던 코인 대부업체 블록파이는 유동성 위기에 고객의 자금 인출을 중단했고, 제네시스 트레이딩은 FTX 계좌에 1억7천500만 달러(2천300억 원) 자금이 묶였다고 발표했습니다.코인 억만장자 마이크 노보그래츠 갤럭시디지털 최고경영자(CEO)도 FTX 관련 자금 7천700만 달러(1천억 원)를 회수하지 못할 것으로 예상했습니다.이와 함께 FTX의 계열투자사 'FTX 벤처'는 헬륨, 앱토스 랩스, 니어 프로토콜 등 50개 가상자산 프로젝트에 투자했기 때문에 이들 스타트업들도 FTX 파산신청으로 재정적 타격을 입을 것으로 보입니다.FTX 파산 신청이 코인 업계를 넘어 수많은 금융기관 투자자와 연관돼 있기 때문에 이번 사건이 코인판 리먼 사태로 번질 수 있다는 우려도 제기되고 있습니다. CNN 방송은 2008년 전 세계에 충격을 준 투자은행 리먼브러더스 파산 사태에 빗대 FTX 붕괴가 '리먼 모멘트'라는 분석이 나온다고 전했습니다.래리 서머스 전 미국 재무장관은 FTX 몰락을 2001년 회계 부정으로 파산한 에너지 기업 엔론 사태에 비유하면서 "금융상 오류가 아니라 사기 냄새가 난다. 거대한 (코인) 재산이 어디서 비롯됐는지 아무도 잘 이해하지 못한 상황에서 폭발했다"고 지적했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.11.14.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>하루만 맡겨도 이자 쏠쏠...파킹통장, 매력 그 자체</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002065182?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>저축은행, 신규 고객 유치 고금리 경쟁짧게 굴리고 정기예금 수준 이자 얻고최대 5000만원까지 보호 안전장치도가입때 한도·카드실적 등 조건 살피고 입출금 수수료 있는지 꼭 확인해봐야파킹(parking)통장은 ‘주차’라는 영어 단어의 의미 그대로 자금을 잠시 맡겨 놓고 언제든지 입출금이 가능한 ‘자유 수시입출금 통장’을 뜻한다.또 일반 입출금 통장과 달리 하루만 맡겨도 이자가 지급된다. 예치 기간이 짧아도 비교적 높은 금리를 챙길 수 있고 예치금액이나 기간, 입출금 횟수에 관계없이 약정이자를 받을 수 있어 선호도가 높다.따라서 투자처를 찾을 때까지 여유 자금을 잠시 맡기는 용도로 활용하기 좋다. 자금을 장기간 묶어 두지 않고 필요할 때 쉽게 돈을 뺄 수 있으면서 정기 예금 수준의 이자를 얻고자 하는 이들에게 유용하다.파킹통장은 토스, 카카오뱅크와 같이 시중은행보다 더 높은 금리를 제공하는 인터넷 은행이 생기면서 관심을 갖는 이들이 많아졌다. 지금처럼 파킹통장의 매력이 높았던 때가 없다.주식과 부동산으로 쏠려있던 자금들이 은행으로 쏠리고 있다. 이들 시장이 ‘베어 마켓(Bear market, 곰이 싸울 때 아래로 내려 찍는 자세를 취한다는 데 빗대 하락장을 의미)’에 진입하면서 투자자들의 자금은 안전한 은행을 찾아 몰리고 있다. 여기에 예·적금처럼 가입과 해지를 반복하는 대신 단기간 넣어두면서 이자혜택을 받을 수 있는 상품이 바로 파킹통장이다.파킹통장은 특히 저축은행들이 경쟁적으로 파킹통장 금리를 높이면서 고객 유치에 적극 나서는 분위기다. 최근 저축은행 파킹통장의 금리는 연 3%를 넘어섰다.저축은행은 시장점유율에 따라 은행의 존폐가 갈리기도 한다. 지금과 같은 금리인상기에 자금이 은행권으로 몰리면서 시중은행이나 인터넷뱅킹과 경쟁하면서 신규고객을 유치하기 위한 노력이 절실하다. 시장점유율을 높이는 수단으로 상당히 높은 금리의 파킹통장을 출시하고 있는 이유이다.애큐온저축은행의 모바일 전용 입출금 자유 예금 통장 ‘머니쪼개기 통장’ 금리는 연 4%다. 1인 최대 5개의 계좌를 개설할 수 있으며, 계좌 잔액이 모두 합해 2000만원까지만 가입할 수 있다. 매월 셋째 금요일 기준으로 이자를 계산해 다음날 지급된다.웰컴저축은행은 10월 초 보통 예금 상품의 기본 금리를 0.5%포인트 올렸다. 이번 금리 인상으로 파킹통장으로 활용할 수 있는 ‘웰컴 직장인사랑 보통예금’은 연 2.3%의 기본 이자가 지급된다. 여기에 ▷100만원 이상 급여 이체 실적 ▷자동 이체 1건 이상 △마케팅 수신 동의 등의 조건을 충족하면 최고 연 3.8%까지 금리가 높아진다. 직장인만 가입할 수 있었던 요건을 완화해 만 19세 이상 실명의 개인 누구나 가입할 수 있도록 변경하면서 문턱도 낮췄다.OK저축은행은 지난 9월 중 주요 예금 상품 금리를 최대 0.6%포인트 인상했다. 비대면 전용상품 ‘OK비대면보통예금’에 가입하면 예치금 1억원까지 연 3.3%의 금리를 제공한다. 1억원 초과분에는 기존과 동일한 연 1.0% 금리가 책정된다. 최고 연 3.5% 금리를 제공하는 입출금통장 ‘OK세컨드통장’도 있다. 해당 상품은 1000만원까지 기본 금리 연 3%가 적용되고 다른 은행 오픈 뱅킹에 계좌를 등록하면 우대금리 0.5%포인트를 받을 수 있다.SBI저축은행도 같은 시기 금융 플랫폼 ‘사이다뱅크’의 수신 상품 금리를 0.25~1%포인트 인상했다. 이에 따라 파킹통장으로 쓸 수 있는 입출금 통장 금리는 기존 연 2.2%에서 연 3.2%로 책정됐다. 1억원까지 연 3.2%를, 1억원 초과분에 대해서는 연 0.2%의 금리를 지급한다.페퍼저축은행도 ‘페퍼스 파킹통장’ 금리를 기존 연 3.0%에서 연 3.2%로 인상했다. 최고 금리를 받을 수 있는 예치금 상한도 기존 300만원에서 5000만원으로 대폭 확대했다. 예치금 5000만원까지 조건 없이 연 3.2%의 금리를 받을 수 있다는 점이 장점이다. 다만 5000만원 초과분에 대해선 연 1.0%의 금리가 제공되고 매월이 아닌 매분기마다 이자가 지급된다. 해당 상품은 페퍼저축은행의 모바일 전용 애플리케이션 ‘디지털페퍼’를 통해 가입할 수 있다.저축은행들이 파킹통장을 비롯한 수신 금리를 잇따라 인상하는 것은 한국은행이 기준금리를 가파르게 인상한 데 따른 영향도 크다.은행채 등 자금 조달 방법이 다양한 시중은행과 달리 저축은행으로선 자금 조달의 대부분을 예·적금 등 수신 상품에 의존해야 하기 때문이다.저축은행 관계자는 “연말까지 기준금리 추가 인상 가능성이 높은 만큼 파킹통장 고금리 경쟁은 당분간 계속될 것으로 보인다”며 “시중 은행과의 수신 경쟁이 치열해지는 가운데 고객 유치 차원에서 금리 인상은 불가피한 측면이 있다”고 말했다.아무리 좋은 상품이라도 가입 시에는 장단점이나 유의사항을 꼼꼼히 살펴봐야 한다.앞서 언급한 바와 같이 돈을 일정 기간 묶어 둘 필요가 없어 유동성이 높고, 이에 더해 안정성이 높다. 파킹통장은 대부분 최대 5000만원까지 예금 보호가 적용돼 은행이 망하더라도 보장받을 수 있다.이와 비슷한 성격의 CMA통장은 이른바 ‘증권사 파킹통장’으로, 국공채, 양도성예금증서, 회사채 등에 투자한다. 이를 운용하고 여기서 얻는 수익으로 고객들에게 매일 이자를 지급한다. 파킹통장과 달리 CMA통장은 과거 종금사 일부 상품을 제외하고는 예금자보호 상품이 아니다.파킹통장 가입 시에는 첫 가입, 한도제한, 카드 실적, 자동이체 등 각종 조건을 충족해야 하는 경우가 있으니 가입할 때 이를 잘 살펴봐야 한다.또 이자 월지급과, 매일지급, 분기 지급 등의 조건도 다를 수 있다. 파킹통장은 이자지급이 은행별로 상이하기 때문에 이자 지급일이 중요하다면 은행별로 이자 지급일을 확인하는 것도 좋다.파킹통장 중에는 입출금 수수료가 존재하는 통장들이 있어 수수료가 없는 상품으로 선택하는 것도 빠뜨려선 안 될 사항이다.금리 상승기에 이자가 오를 때 기존 가입자들의 금리를 올려주는 게 아니라 새로 통장을 만들어서 가입해야 하는 경우도 있으므로 요즘과 같은 금리 변동기에 주의해야 한다.또 입출금통장이기 때문에 1개월 1계좌 규제로 인해 통장 신규 개설 후 2영업일 뒤에 개설이 가능한 제한이 걸릴 수 있다.최근 많이 발생하고 있는 보이스 피싱의 피해를 줄이기 위해 이체 한도를 제한하는 경우가 많은데 파킹통장도 여기에 해당한다. 한도 제한을 두는 것은 입출금 장벽이 낮은 점을 고려해 저축은행들이 수신액을 관리하기 위한 목적도 있다.저축은행 관계자는 “저축은행은 과거에는 파킹통장 한도가 1억원 이상이거나 한도가 없는 경우도 있었지만 최근에는 수신 포트폴리오 관리를 위해 금리를 올리는 대신 한도를 축소하는 방안을 강구하고 있다”고 설명했다.이태형 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.11.02.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>파킹통장 금리도 4%… “며칠 넣어도 이자가 붙네”</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000851986?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>2일 기준 애큐온 파킹통장 금리 연 4%·SC제일은행 연 3% 하루만 맡겨도 이자… 만기 없어        한국은행이 기준금리를 거듭 올리면서, 이른바 ‘파킹통장(자유 수시입출금 통장)’ 금리도 고개를 들기 시작했다. 차를 주차하듯 수시로 돈을 넣고 뺄 수 있어 ‘파킹통장’이라 불리는 수시입출금 통장은 하루만 맡겨도 이자가 붙어 목돈을 맡기기에 적합한 금융상품으로 꼽힌다.최근 시장에서는 고금리 예·적금 상품을 찾아다니며 가입과 중도 해지를 번복하는 대신, 예·적금 금리가 기대치만큼 오를 때까지 수시입출금 통장에 돈을 잠시 넣어두겠다는 금융 소비자들도 생겨나고 있다.지난 10월 31일 서울 시내의 한 금융기관에 상품 안내 현수막이 걸려있다. /뉴스1        2일 금융권에 따르면, 금융업계가 최근 수시입출금 예금 상품의 금리를 상향 조정하고 있다. 이날 기준 은행권 파킹통장 최고 금리는 연 3%, 저축은행권 파킹통장 최고 금리는 4%로 나타났다. 지난 9월만 해도 파킹통장 최고 금리는 은행권 연 2%, 저축은행권 연 3.3%였는데, 한 달 여 만에 파킹통장 금리가 1%포인트(p) 가량 오른 셈이다.고액자산가가 돈을 맡길 만한 파킹통장 상품으로는 SC제일은행의 ‘일복리저축예금(MMDA)’이 있다. 은행은 이달 1일부터 오는 30일까지 이 상품에 가입해 1억원 이상 최대 20억원 이내로 예치하는 첫 거래 고객을 대상으로 신규일로부터 최장 90일간 매일 잔액에 대해 최고 3%(세전) 특별금리 혜택을 준다.일복리저축예금은 수시 입출식 예금으로 매일 잔액에 따라 금리를 차등 지급한다. 매일 잔액에 대해 복리로 이자가 계산되기 때문에 돈을 많이 예치할수록 이자도 커진다. 예를 들어 1억원을 해당 통장에 90일간 예치하면, 세전 이자 총 74만2392원이 붙는다. 세후 62만8072원이 된다. 단, 이벤트인 만큼 90일이 지나면 기본 약정 금리로 돌아간다. 1억원 이상은 1.0%, 5000만원 이상~1억원 미만이면 0.6%, 3000만원 이상~5000만원 미만이면 0.3%, 3,000만원 미만은 0.1%의 기본금리가 적용된다.케이뱅크의 파킹통장 ‘플러스박스’ 금리는 연 2.7%다. SC제일은행 파킹통장의 이벤트 금리를 제외하면 은행권에선 가장 금리가 높다. 케이뱅크는 지난달 27일부터 플러스박스 금리를 종전보다 0.2%p 올렸다. 하루만 맡겨도 연 2.7%의 금리 이자가 적용된다. 매월 넷째 주 토요일 쌓인 이자를 받을 수 있다. 최대한도는 3억원이다.그래픽=손민균        카카오뱅크의 파킹통장 ‘세이프박스’ 금리는 연 2.6%다. 지난달 19일부터 기존보다 0.4%p 더 올랐다. 최대 보관 한도는 1억원으로 입출금계좌당 1좌씩 개설할 수 있다. 하루만 맡겨도 연 2.60% 금리를 준다.산업은행의 ‘KDB Hi 입출금통장’ 금리는 연 2.5%로, 한도가 없기 때문에 예치할 돈이 많은 사람들에게 유리한 상품이다. 매달 이자를 원금에 가산시키는 월 원가식으로 이자를 계산한다. 매달 이자에서 세금을 떼고 나머지를 원금에 포함하는식이다.토스뱅크의 파킹통장 ‘토스뱅크통장’ 금리는 연 2.3%로, 지난 달 21일부터 1억원 초과 금액에 대해서도 해당 금리를 적용한다. 이전에는 최대 1억원에 대해서만 연 2.0% 금리를 적용했는데, 한도 제한을 풀고 금리를 종전보다 올린 것이다. 다른 은행의 파킹통장보다 금리는 낮지만 ‘지금 이자받기’ 기능이 있다. 매일 원하는 때 한번 이자를 받을 수 있으며, 이자를 모을 경우 일복리 효과까지 누릴 수 있다.저축은행권에서는 금리 연 4%대 파킹통장도 나왔다. 애큐온저축은행의 모바일 전용 입출금 자유 예금 통장 ‘머니쪼개기(2000만원 가입 한도)통장’ 금리는 연 4%다. 1인 최대 5개의 계좌를 개설할 수 있는데, 계좌 잔액이 모두 합해 2000만원까지만 가입할 수 있다. 매월 셋째 금요일 기준으로 이자를 계산해 다음날 지급된다.웰컴저축은행의 ‘웰컴 직장인사랑 보통예금’의 경우 기본 금리는 연 2.3%인데, 우대금리가 총 연 1.5%로 최고 연 이자율이 3.8%다. 100만원 이상 급여 이체 실적이 있는 경우 연 0.5%p, 개인정보수집 이용 및 멤버십 가입 이용 동의 시 연 0.5%p, CMS 또는 지로 자동납부 1건 이상 시 0.5%p의 우대금리를 적용한다.OK저축은행의 파킹통장인 ‘OK세컨드통장(1000만원 한도)’ 금리는 연 3.5%다. 기본금리 3%에 시중은행·증권사 앱 오픈뱅킹에 해당 통장을 등록하면 0.5%p 우대금리를 적용하는 식이다.페퍼저축은행의 ‘페퍼스파킹통장’ 최고 금리는 연 3.2%다. 가입 금액 한도는 없으나 5000만원 이하에 대해선 연 3.2%, 5000만원 초과 분에 대해서는 연 1% 금리가 적용된다.SBI저축은행의 ‘사이다뱅크 입출금통장’은 1억원 이하로 예치할 경우 금리가 연 3.2%다. 1억원 초과 분에 대해서는 연 0.2% 금리가 적용된다. 만약 1000만원 예치하면 연 32만4735원의 이자(월 복리 세전)가 생긴다.돈이 묶이지 않는 점, 상품에 따라 복리 방식 등은 파킹통장의 장점이다. 일반 예적금 상품의 경우 만기 전 중도에 해지하면 수수료가 발생한다. 반면 파킹통장은 만기가 없어 필요할 때 언제든 꺼내쓸 수 있다.이런 상품 특성과 개인의 자금 이용 계획에 따라 단기에 쓸 자금이나 비상금은 파킹통장에 예치하고, 중장기로 목돈을 불리려는 목적이라면 고금리 예적금 상품을 이용하는 것도 방법이다. 파킹통장도 예금자보호법에 따라 원금과 이자를 합해 1인당 최고 5000만원까지 보호된다. 5000만원을 초과하는 나머지 금액은 보호하지 않는다.한편, 5대 은행(KB국민·신한·하나·우리·NH농협)의 지난달 총수신 잔액은 지난달 말 기준 1900조1421억원으로 전월보다 46조8657억원이 늘었다. 정기예금 잔액은 한달 새 47조7231억원 늘어 808조2276억원이다. 반면 수시입출금식 저축성예금(MMDA)을 포함한 요구불예금은 전월 대비 28조9646억원 감소한 641조8091억원이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.11.04.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>한 끗 차이가 천지 차이…신한은행이 야구팬, 긱 근로자 잡은 비결</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004771020?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>한경 CMO Insight 「케이스스터디」‘직장인’ 개념 확장, 긱 근로자 잡아프로야구 역대 최장기 타이틀 스폰서십“은행은 필요하지 않다”는 요구에 대응신한은행  '뉴 쏠' 광고모델인 걸그룹 뉴진스(New Jeans)“금융(banking)은 필요하지만, 은행(bank)은 사라질 것.” 빌 게이츠 마이크로소프트(MS) 공동창업자의 28년 전 예언은 현실이 되고 있다. 은행 업무를 보기 위해 영업점을 방문하는 대신 휴대폰의 뱅킹 앱을 이용하는 사람들이 빠르게 늘어나고 있다. 2017년 이후 지난 8월까지 5년여간 문을 닫은 국내 은행 영업점 수는 1112개에 달한다. 은행들은 미래 경쟁에서 살아남기 위해 디지털화에 총력을 기울이고 있다. 국내 은행권에서 신한은행은 발 빠르게 디지털화에 나서고 있는 은행으로 꼽힌다. 지난 3분기(7~9월) 신한은행 뱅킹 앱 ‘쏠’(SOL)의 평균 월간활성이용자수(MAU)는 847만명으로 전년 동기(754만명)보다 12.3% 급증했다. 토스 카카오뱅크 등 인터넷전문은행(MAU 1200만~1300만명)을 빠르게 따라잡고 있다는 평가다. 올해 3분기 신한은행의 전체 여신 중 디지털 채널을 통한 여신 규모는 71.4%로 2년 전(65.6%)보다 5.8%포인트 증가하기도 했다. 은행권에선 신한은행의 ‘디지털 올 라이프 플랫폼’ 마케팅 전략이 디지털 경쟁력 확보에 적지 않은 역할을 하고 있다고 보고 있다. 신한은행 관계자는 “온오프라인에서 파악한 고객 데이터를 활용해 디지털 플랫폼 트래픽을 유도하고 있다”며 “금융과 비금융을 망라한 콘텐츠로 신한은행 계좌가 없는 고객도 이용할 수 있는 범국민적 플랫폼을 지향하고 있다”고 설명했다. 상황 1 직장인을 잡아라도전 1 고정관념을 깨다직장인은 은행의 ‘귀한 손님’으로 꼽힌다. 일정한 소득이 있어 유동성 자금 확보에 유리하기 때문이다. 직장인은 예·적금 및 대출 수요가 많은 고객군이기도 하다. 은행들이 직장인을 대상으로 치열한 마케팅 경쟁을 벌이는 이유다.신한은행은 ‘발상의 전환’으로 직장인 마케팅을 차별화했다. ‘직장인’이란 개념을 ‘규칙적으로 직장에 다니면서 급료를 받는 사람’에서 ‘일정 소득이 있는 사람’으로 확장한 것이다. 2019년 6월 신한은행이 은행권에서 최초로 도입한 ‘소득 이체 고객을 위한 디지털 멤버십’이 대표적이다. 직장인에게만 주어지던 급여 이체 혜택을 ﻿연금 소득자, 주부, 학생, 아르바이트생, 긱(gig·임시직) 근로자 등 일정 소득이 있는 사람에게도 제공하기로 한 것이다. 신한은행은 매월 50만원 이상의 소득을 정기적으로 은행에 이체하면 이 멤버십에 가입할 수 있도록 했다. 이체 및 ATM(현금자동입출금기) 출금 수수료 혜택, 환율 우대 등 각종 금융 혜택이 제공된다. 매월 진행되는 이벤트 참여 기회와 문화 서비스도 주어진다. 소득 이체 고객을 위한 디지털 멤버십 출시 이후 3년 만에 가입자는 106만명을 넘어섰다. 디지털 앱으로만 가입할 수 있는 서비스라는 점을 고려하면 상당한 규모라는 평가다. 전체 가입자 중 26만명은 전통적 개념의 직장인 급여 소득자가 아닌 기타 소득(연금 소득자, 주부, 아르바이트 등) 보유자로 서비스의 취지가 극대화됐다. 상황 2 새로운 고객을 확보하라도전 2 야구 콘텐츠로 팬덤 생성시중은행들은 야구 농구 배구 골프 등 다양한 스포츠 분야에서 브랜드 마케팅에 나서고 있다. 특정 구단이나 선수, 대회를 후원하면 스포츠 팬들에게 브랜드를 널리 알릴 수 있기 때문이다. 비인기 종목을 지원해 사회적 책임을 다한다는 목적도 있다. 그러나 스폰서십과 같은 브랜드 마케팅엔 막대한 자원이 투입된다. 기업 입장에선 단순히 브랜드 이미지를 홍보하는 데 그쳐선 안 된다. 이를 새로운 고객을 유치하는 발판으로 삼아야 한다. 신한은행도 마찬가지다. 신한은행은 2018년 KBO(한국야구위원회)의 타이틀 스폰서십을 체결했다. 2021년 말엔 스폰서십을 2년 연장해 역대 최장기 타이틀 스폰서십 확보하게 됐다. 신한은행은 야구팬들을 새로운 고객으로 흡수하기 위해 노력하고 있다. 2018년 스포츠 마케팅 전담팀을 신설하고, 뱅킹 앱 쏠을 통해 야구 콘텐츠 ‘쏠야구’를 꾸준히 생산하고 있다. 매일 10만명씩 참여하고 있는 ‘야구·상식 퀴즈 이벤트’, 승리 팀을 맞히는 ‘쏠픽’, ‘월간 MVP 팬 투표’, ‘KBO 올스타 팬 투표’ 등이 대표적이다. 야구 팬덤은 신한은행 뱅킹앱의 이용자 수 확대로 이어지고 있다는 평가가 나온다. ‘쏠야구’ 이용 고객 수는 2019년 하루 평균 1만5000명에서 올해 10만명으로 급증했다. 연간 이용자 수는 100만명으로 신한쏠의 주력 콘텐츠로 자리 잡았다.신한은행  '뉴 쏠' 광고모델인 걸그룹 뉴진스(New Jeans) 상황 3 치열해진 뱅킹앱 경쟁도전 3 변화는 과감하게시중은행에 뱅킹 앱은 늘 고민거리였다. 디지털 경쟁에서 우위를 차지하려면 무엇보다 뱅킹 앱 사용자 수를 늘려야 하는데, 카카오뱅크 토스 케이뱅크 등 인터넷전문은행에 비해 앱이 무겁고 복잡해 이용이 불편하다는 지적이 꾸준히 제기됐기 때문이다. 이는 앱에 너무 많은 기능을 한데 모아 놓았기 때문이라는 분석이 많았다. 인터넷전문은행과 달리 카드사 증권사 보험사 자산운용사 캐피털사 등 여러 그룹사와 함께 금융지주 아래 묶여 있는 은행으로서는 풀기 어려운 숙제였다. 최근 신한은행은 ‘(과거의) 은행은 깨끗하게 지운다’는 철학으로 뱅킹 앱을 과감하게 업그레이드했다. 1년 전 1만명 규모의 자문단을 구성해 대대적인 뱅킹 앱 개편 작업에 돌입한 것이다. 50차례의 설문을 통해 접수된 4000여개의 고객 의견을 적극적으로 반영했다. 이렇게 탄생한 게 10월 20일 출시된 ‘뉴 쏠’이다. 뉴쏠은 기존 앱보다 작업 처리 속도가 4배 빨라졌다. 이용자가 원하는 대로 메뉴 화면을 자유롭게 구성할 수 있다. 친구·그룹 지정 기능을 만들어 계좌번호를 입력하지 않아도 간편하게 송금할 수 있도록 만들었다. 챗봇을 켜고 “김신한에게 10만원 이체해줘”라고 말한 뒤 ‘이체하기’ 버튼만 누르면 송금이 이뤄지도록 설계했다. 신한은행 관계자는 “금융은 필요하지만, 은행은 필요하지 않다는 시대의 요구를 귀담아듣기로 한 것”이라며 “소비자들이 쉽고, 편하고, 안전하게 금융 업무를 볼 수 있게 하는 게 목표”라고 했다. ■ 마케터를 위한 포인트우열을 가리기 어려운 기업간 경쟁에선 한끗 차이가 천지 차이를 만든다. 신한은행의 마케팅 전략은 이 한끗 차이를 만드는 데 초점이 맞춰져 있다. ‘하던 대로’ ‘남들처럼’이라는 사고방식에서 벗어나 집요하게 차별화를 꾀했다.직장인의 개념을 주부, 학생, 긱 근로자 등 일정한 소득이 있는 사람으로 확장한 것은 보수적인 은행권에서 ‘파격’으로 평가받는다. 그동안 이들에게 1금융권의 문턱이 높기만 했다. ‘사회적 책임을 다하는 금융사’라는 이미지와 ‘유동성 자금 확보’라는 두 마리 토끼를 잡은 사례로 분석된다.신한은행은 모든 은행들이 활발하게 추진 중인 스포츠 마케팅에서도 두각을 나타내고 있다. 스포츠 팬들에게 브랜드를 노출하는 데 그치지 않고, 야구라는 매개를 통해 신한은행에 대한 새로운 ‘팬덤’을 만들겠다는 전략이 통했다. 다양한 야구 콘텐츠와 금융 상품을 앞세운 덕에 많은 야구 팬들이 신한은행의 뱅킹 앱으로 유입됐다.새 뱅킹앱 ‘뉴쏠’은 공급자 중심에서 사용자 중심으로 관점을 바꾼 결과물이다. 그동안 “은행 앱엔 필요없는 기능이 너무 많다”는 지적이 많았지만, 과감하게 변화를 시도한 은행은 많지 않았다. 앱에서 특정 기능이 사라진다는 건 은행 내부의 누군가에겐 본인의 담당 업무가 후선으로 밀리는 ‘위기’로 받아들여질 수 있기 때문이다. 신한은행은 고객 의견을 적극 반영하고, 앱의 자유도를 높여 문제를 해결했다.박상용 기자 ■ 전문가 코멘트□ 천성용 단국대 교수마치 콜라를 파는 것과 컴퓨터를 파는 것이 다른 문제이듯 금융상품을 판매하는 것은 또 다른 문제이다. 그렇다면 “금융마케팅만의 독특한 특징”은 무엇일까?우선 금융마케팅은 기본적으로 서비스임을 이해해야 한다. 서비스는 (1)눈에 보이지 않으며(intangibility), (2)같은 서비스라고 해도 누가, 언제, 어디서 서비스하느냐에 따라 다르게 전달된다(heterogeneity). (3)생산과 서비스가 잘 분리되지 않으며(inseparability), (4)저장이 안된다는 특징(perishability)도 있다.   이 중 “서비스의 비분리성(inseparability)”을 좀 더 구체적으로 설명하면 다음과 같다. 제조업의 경우 일반적으로 “생산→판매→소비”의 순서대로 진행되는데 반해, 서비스업은 보통 먼저 판매되고 생산과 소비가 동시에 일어나는 특징이 있다(판매→생산&amp;소비).그렇다면, 생산과 소비가 동시에 발생하는 서비스업의 특징 때문에, 금융마케터들이 더 잘해야 하는 것은 무엇일까? 정답은 금융서비스의 성공적 전달을 위해 “더욱 치열하게 소비자 입장”에서 고민해야 한다는 것이다.특히 금융서비스의 경우 소비자의 니즈 자체가 매우 다양하고 복잡한 특징이 있다. 단순한 예적금 수준의 금융상품만을 원하는 소비자도 있는 반면, 다양한 투자상품, 절세 이슈 등에 대한 니즈를 가진 PB 고객도 있다.이런 상황에서 금융마케터가 소비자를 잘 이해하지 못하면 애초부터 생산이 잘 이루어지지 않는다. 서비스의 본질적 특성상 금융마케터는 소비자가 원하는 것이 무엇인지 끊임없이 확인하고, 이를 해결하기 위해 노력해야 하는 것이다.신한은행의 경우에도 뱅킹앱을 업그레이드하기 위해 1만명 규모의 자문단을 구성해 4000여개의 고객 의견을 적극적으로 반영했다. 이는 “서비스마케팅의 비분리성”을 이해한 적절한 시도였다고 평가한다.한편, 신한은행이 직장인의 개념을 일정한 소득이 있는 사람으로 확장해 연금 소득자, 주부, 학생, 아르바이트생, 임시직 근로자 등에게 급여 이체 혜택을 제공하고, KBO(한국야구위원회)에 최장기 타이틀 스폰서십을 제공한 것 역시 금융마케팅만의 독특한 특징을 잘 이해한 마케팅으로 해석된다.이는 특별히 금융마케팅의 또 다른 독특한 특징인 “수탁책임(Fiduciary responsibility)”을 잘 이해한 마케팅 전략이다. 수탁책임은 금융회사의 윤리적 책임, 평판 관리가 일반 회사에 비해 본질적으로 2배 이상 중요함을 의미하는 개념이다. 일반 제조업 제품의 경우 부품 공급자와 최종 제품 수요자가 다른데 반해, 금융 상품은 raw material의 제공자, 소비자 모두 최종소비자인 경우가 많기 때문이다.예를 들어, 대출 상품의 ‘raw material’은 돈인데, 이 돈은 대부분 최종 소비자인 고객의 수신 상품으로부터 나온다. 즉, 금융상품의 공급자, 소비자 모두 일반 소비자이다. 따라서 금융마케터의 경우 기업의 윤리 경영, 평판, 명성 관리 등이 매우 중요하다. 평판이 좋지 않은 금융회사에 아무도 돈(raw material)을 공급하지 않을 것이기 때문이다.이러한 관점에서 신한은행이 급여이체 혜택을 확장하고, 스포츠 스폰서십을 장기적으로 체결하는 것은 단지 “사회적으로 좋은 일” 이상의 의미가 있다. 이것이 금융마케팅의 본질적 특성상 반드시 잘해야 하는 일이기 때문이다. 이처럼 금융마케터는 “금융마케팅만의 차별적 특징”을 반드시 이해하고 마케팅 전략을 수립할 필요가 있다.  ※ 한경닷컴에서 한경 CMO 인사이트 구독 신청을 하시면, 매주 월요일 아침에 마케팅 콘텐츠를 메일로 받아보실 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.11.10.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>토스·네이버파이낸셜, 내년부터 예·적금도 추천해 준다</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000867906?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>내년 2분기 이후 온라인 플랫폼을 통해 여러 금융회사의 예·적금 상품을 비교해 볼 수 있다./사진=이미지투데이 내년 2분기부터 토스, 네이버파이낸셜 등 온라인 플랫폼을 통해 여러 금융회사의 예·적금 상품을 비교하고 추천 받을 수 있다.10일 금융위원회에 따르면 ▲뱅크샐러드 ▲NHN페이코 ▲줌인터넷 ▲깃플 ▲핀크 ▲비바리퍼블리카(토스) ▲네이버파이낸셜 ▲씨비파이낸셜 ▲신한은행 등 9개 기업의 온라인 예금상품 중개 서비스를 혁신금융서비스로 지정됐다.앞으로 이들 온라인 플랫폼을 통해 소비자들은 여러 금융회사의 예·적금 상품을 비교·추천받을 수 있다.현재 다른 금융회사의 예금성 상품을 비교·추천하는 건 '금융소비자보호법' 상 금융상품의 중개에 해당돼 금융상품판매대리·중개업 등록이 필요하다. 다만 현행 금융관련법령은 예금성 상품 중개업무의 등록에 관한 요건을 규정하고 있지 않아 등록이 불가한 상황이다.최초의 신직업 '집행자'또 금융상품판매대리·중개업자는 '1사 전속의무'에 따라 같은 유형의 금융상품을 둘 이상의 금융회사에 중개할 수 없다.이에 금융위는 서비스 제공이 가능하도록 금융상품판매업 등록, 1사 전속의무 등에 대한 특례를 부여했다.금융당국은 급격한 자금이동 등에 따른 금융시장 안정성 저해 가능성을 고려해 신청회사와 금융회사 간 중개 계약 체결시 판매비중 한도에 관한 사항을 계약사항으로 포함하도록 했다. 은행은 전년도 예·적금 신규 모집액의 5% 이내, 저축은행과 신협은 3% 이내로 제한했다.아울러 공정한 비교·추천이 이뤄질 수 있도록 알고리즘을 사전 검증하고 소비자 오인방지를 위해 예금성 상품의 계약주체는 신청회사(플랫폼 운영사)가 아닌 금융회사이며 해당 금융회사에서 상품가입이 진행된다는 점을 명확히 안내하도록 했다.금융당국은 오는 2023년 2분기 이후 개발상황, 출시가능성 등에 대한 점검을 거쳐 서비스를 출시할 예정이다.금융위 관계자는 "온라인 플랫폼을 통해 소비자는 간편하게 여러 예·적금 상품 정보를 추천받아 비교할 수 있게 돼 보다 원활한 자산관리가 가능해질 것으로 기대된다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.11.10.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>[15회 스마트금융콘퍼런스]송민택 동국대 교수 "핀테크 4.0, 초개인화 금융 실현이 성패가를 것"</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003058197?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>송민택 동국대 교수가 핀테크 4.0의 개화에 대해 발표하고 있다. 박지호기자 jihopress@etnews.com“핀테크 4.0 시대에는 누가 데이터를 더 많이 가지느냐를 넘어, 얼마나 깊이 있는 분석을 할 수 있는지가 미래 경쟁력 핵심이 될 것이다. 이를 통해 누가 더 초개인화 금융을 실현할지가 경쟁 우위를 선점하게 될 것이다.”송민택 동국대 교수는 10일 서울 여의도 전경련회관에서 열린 '제15회 스마트금융콘퍼런스'에서 이같이 밝혔다.송 교수는 핀테크가 과거 금융혁신 과정 일부였다면 핀테크 4.0은 미래 금융혁신 전부가 될 것이라고 강조했다.송 교수는 “과거 핀테크가 금융정보, 거래 및 결제 전달, 금융기관 상품과 서비스를 강화하기 위한 수단으로 정보기술이 활용됐던 반면에 핀테크 4.0시대는 금융소비자 행동을 선도하는 비즈니스 모델을 만드는 곳이 혁신을 이끌게 될 것”이라고 분석했다.핀테크는 최근 NFT거래에서 로보어드바이저를 통해 취향이나 금융에 대한 성향을 알려주면 포트폴리오를 형성하고, 리밸런싱까지 해주는 상황까지 진화했다. 특히 금융에 신개념을 접목한 카카오와 토스 등 빅테크 금융업 진출로 대부분 금융서비스가 가능한 슈퍼앱이 나왔고, 뱅크, 증권, 보험, 카드, 신용, 주민센터, 대출비교 등이 단일 플랫폼에서 가능하게 됐다.송 교수는 여기서 한발 더 나아가 신기술에 의한 기술 경쟁력 확보는 물론 고객 접점 확대, 수익화, 효율화 등이 핀테크 4.0 시대 전통 금융사와 핀테크 간 옥석가리기가 본격화할 것으로 내다봤다. 따라서 데이터 분석·활용 능력과 더불어 초개인화 금융 실현이 미래 핀테크 핵심 가치가 될 것으로 관측했다.송 교수는 “데이터를 누가 더 많이 가지고, 더 깊이 있는 데이터를, 그리고 그 데이터를 실시간으로 분석할 수 있는 역량이 중요해질 것”이라면서 “금융사들이 실시간 비금융 비정형 데이터를 모으고 있지만, 어느 정도 깊이를 가질지가 핵심이고, 이것을 기반으로 초개인화 금융을 실현할 수 있어야 경쟁력을 확보할 수 있을 것”이라고 말했다.송 교수는 초개인화를 기반으로 과거 정보뿐만 아니라 미래정보까지 예측하는 인프라 구축이 필요하다고 언급했다. 그러면서 대표적인 사례로 캐나다 로열뱅크의 사례를 들었다.송 교수는 “인터넷이 처음에 들어올 때 기술혁명이라고 언급하면서 정보비대칭이 감소할 것이라는 기대감이 컸다”면서 “현재 2~3주간 금융행동을 예측할 수 있지만, AI가 더 발전하고 분석이 더 철저히 된다면 미래에 행동까지 예측하는 초개인화 금융 실현이 가능해질 것”이라고 예상했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.11.08.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>[사고]생존을 넘어 도약으로…16일 ‘ECF 2022’ 열린다</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005361420?sid=105</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>제9회 이데일리 IT컨버전스포럼(ECF)앰배서더 서울 풀만 호텔서 16일 개최‘우영우’ 공동제작 스튜디오지니 김철연 기조연설웹3부터 우주개발까지, 분야별 핵심전략 눈길무료 참가, 현장 접수 선착순 200명에 점심 제공(사진=이데일리)[이데일리 김정유 기자] 글로벌 경제가 모두 얼어붙은 2022년 가을, 모두가 생존 방안을 고민해야 하는 시점입니다. 생존을 넘어 도약을 이뤄내야 하는 기업 입장에선 더욱 혹독한 시간입니다. 하지만 언제나 위기 속엔 기회가 있었습니다. 얼마나 더 선제로 대응하느냐가 매번 성공의 갈림길이 돼 왔죠.때문에 그 어느 때보다 기업들의 생존 전략이 중요합니다. 다양한 분야의 선도 기업들이 어떤 관점으로 산업을 보고 있고, 이 같은 경제 위기 속에서 어떤 식으로 대응할 지 서로 머리를 맞대 전략을 공유하는 것이 필요한 시점이죠. 이데일리는 오는 16일 서울 중구 앰배서더 서울 풀만 호텔 그랜드볼룸에서 ‘위기 넘어 기회 있다: 디지털 전환 시대 생존전략’ 주제로 제9회 ‘ECF 2022(이데일리IT컨버전스포럼 2022)’를 개최합니다. 산업별 내년 전망, 선도기업들의 기술력 및 전략들을 한 자리에서 들을 수 있는 귀중한 자리가 될 것입니다.기조강연은 올해 전 세계인들의 마음을 훈훈하게 만들었던 드라마 ‘이상한 변호사 우영우’를 공동제작한 스튜디오지니의 김철연 대표가 맡을 예정입니다. 김 대표는 포럼 기조연설을 통해 글로벌 콘텐츠 및 미디어 시장에 대한 전망, 그리고 ‘우영우’가 어떻게 글로벌 시청 4억 시간이란 대기록을 세울 수 있었는지에 대한 비결을 공유합니다.이어 ‘디지털 경제 성공을 위한 규제 혁신 방향은? 플랫폼, AI, 데이터를 중심으로’를 주제로 한 좌담회도 진행됩니다. 이성엽 고려대 기술법정책센터장(좌장), 엄열 과학기술정보통신부 인공지능기반정책관, 박성호 한국인터넷기업협회 회장, 이윤조 김앤장 변호사 등이 참석해 플랫폼사들을 향한 무분별한 규제에 대한 부작용, 우려에 대해 이야기를 나눕니다.오후 세션의 문은 오세현 SK텔레콤 Digital Asset CO(부사장)가 나설 예정입니다. 오 부사장은 블록체인의 미래를 밝힐 ‘웹 3’에 대해 강연합니다. 더불어 △서현우 비바리퍼블리카 사업전략 헤드가 토스의 슈퍼앱 전략을 △박준희 카페24 디지털전략연구소장이 글로벌 커머스 시장 진출을 △박서하 티맵모빌리티 퓨처모빌리티 그룹장이 도심항공모빌리티(UAM) 시대를 이끄는 모빌리티 플랫폼의 진화를 △정재성 로앤컴퍼니 부대표가 글로벌 동향과 로톡의 전략을 소개합니다.오후 2부 세션에선 분야별 선도기업들의 핵심 전략을 듣습니다. 이경일 컴투버스 대표가 메타버스의 새로운 세상을, 인공지능(AI) 기술업체 업스테이지의 권순일 Biz 총괄이 AI 현실과 미래에 대해 강연합니다. 또한 한상영 네이버클라우드 기획&amp;전략 상무는 클라우드 산업 현황과 미래를, 김수종 이노스페이스 대표는 민간우주개발 시대를 앞당길 스타트업 도전기를 전달할 계획입니다.이번 ECF 2022는 무료입니다. 행사 당일 현장 접수 선착순 200명에게 점심을 제공합니다. 여러분의 응원과 따뜻한 관심을 부탁 드립니다. ◇주최 : ㈜이데일리◇후원: 과학기술정보통신부, 방송통신위원회, 한국인터넷기업협회, 한국통신사업자연합회, 코리아스타트업포럼, 정보통신기획평가원, 한국IPTV방송협회◇일시: 2022년 11월 16일(수) 10:00~17:30◇장소: 앰배서더 서울 풀만 호텔 그랜드볼룸(2F)·유튜브 ‘이데일리 프렌즈’ 채널 생중계◇사전등록 행사 홈페이지:https://ecf.edaily.co.kr/ECF2022/◇문의: 이데일리 02-3772-9409, 02-3772-9407·jeong@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.11.11.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>취준생 '신의 직장'…네이버·카카오·쿠팡 신입·인턴 채용</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011530514?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 진학사 캐치 채용 정보. (사진=진학사캐치) 2022.11.11. photo@newsis.com  *재판매 및 DB 금지[서울=뉴시스]동효정 기자 = IT업계를 이끄는 대표주자인 '네카라쿠배당토(네이버·카카오·라인플러스·쿠팡·배달의민족·당근마켓·토스)' 가운데 네이버·카카오·쿠팡·당근마켓 등이 신입 및 인턴 직원을 채용한다.11일 채용플랫폼 캐치 채용공고에 따르면 네이버 사업개발센터에서 15일까지 체험형 인턴을 모집한다. 자격요건은 IT산업 리서치 및 분석 역량과 엑셀 등을 통한 데이터를 분석 및 인사이트 도출 역량을 갖췄다면 지원이 가능하다. 전략 컨설팅, 전략 사업개발 인턴 경험자는 우대 채용한다. 전형절차는 ▲서류전형 ▲1차인터뷰 ▲2차인터뷰 ▲인턴십 순이며 인턴기간은 3개월이다.카카오에서는 21일까지 경력 서버 개발자 대규모 모집을 진행한다. 채용 부서는 ▲뷰개발팀 ▲포털개발팀 ▲계정플랫폼 ▲인증플랫폼 등 9개 팀이다. 전형절차는 ▲서류전형 ▲코딩테스트 ▲1차인터뷰 ▲2차인터뷰 ▲최종합격 순이다.카카오모빌리티도 21일까지 신입·경력 개발자 공채를 진행한다. 모집 직무는 ▲백엔드 ▲안드로이드 ▲iOS ▲빅데이터엔지니어 ▲QA엔지니어다.신입 개발자의 경우 백엔드·iOS·안드로이드·프론트엔드 통합 지원 형식이다. 채용절차는 ▲서류접수 ▲1차 코딩테스트 ▲2차 코딩테스트 ▲1차 기술면접 ▲2차 컬처핏면접 ▲입사 순이며 최종 입사일은 내년 2월 말이다.쿠팡에서는 13일까지 신입 개발자 공채를 진행한다. 모집 직무는 ▲백엔드 엔지니어 ▲모바일 엔지니어 ▲프론트엔드 엔지니어 ▲데이터사이언티스트이다. 경력 2년 미만, 컴퓨터과학 혹은 관련 분야 학위 소유자라면 지원이 가능하다. 영어가 능통하거나 관련 프로젝트 진행 경험이 있는 경우는 우대 채용한다. 채용일정은 ▲서류접수 ▲코딩테스트 ▲면접 ▲입사 순이다.당근마켓은 13일까지 윈터테크(WINTERTECH) 인턴십 채용을 진행한다. 모집 부문은 ▲프론트엔드 엔지니어 ▲서버 엔지니어 ▲사이트 신뢰성 엔지니어 ▲인터널 소프트웨어 엔지니어다. 전형 절차는 ▲서류전형 ▲과제·인터뷰 ▲최종발표 순이며 인턴십 기간은 2개월이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.11.08.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>카카오뱅크 예·적금 '제동'…금리 경쟁 '신경전'</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002655800?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>카뱅 8천억↓케뱅 1조5천억 ↑폭풍성장세에 1위 쟁탈전 '치열'카카오뱅크. ⓒ카카오뱅크[데일리안 = 김효숙 기자] 인터넷전문은행 사이의 예·적금 금리 경쟁이 심화하고 있다. 기준금리 인상에 예민하게 대응해 선제적으로 금리를 올린 케이뱅크는 지난달 전체 수신액이 8000억원 가량 늘어난 반면, 상대적으로 인상이 더뎠던 카카오뱅크에서는 1억5000만원이 썰물처럼 빠져나갔다. 케이뱅크가 금리 경쟁력을 내세워 물린 몸집으로 인터넷은행 1위인 카카오뱅크 자리를 바짝 뒤쫓으면서 신경전이 더 치열해질 것으로 보인다.8일 금융권에 따르면 케이뱅크의 지난 달 말 기준 수신 잔액은 14조3000억원으로 한 달 새 6.0% 증가했다. 액수로 따지면 8100억원 늘었다.반면 카카오뱅크의 수신 잔액은 32조9801억원으로 같은 기간 5.0% 줄었다. 1조5759억원이 줄었다.카카오뱅크 관계자는 "한국은행이 기준금리 인상을 발표한 지난달 중순쯤 잔액이 많이 빠졌다"며 "저축은행이 6%대 이자를 주는 예금을 내놓는 등 전체 금융권금리 경쟁이 심화된 영향이라고 본다"고 설명했다.케이뱅크 관계자는 "파킹통장 이율을 업계 최대 수준으로 올리고, 새해 100일 특판 등 단기 예금성 상품을 출시한 것이 잔액을 끌어모은 요인이 된 거 같다"고 말했다.한은이 한번에 기준금리를 0.5%포인트(p) 올리는 빅스텝을 연일 밟으면서 은행의 금리 인상 행렬도 잦아지고 있다. 높은 금리의 수신상품을 찾아다니는 '금리 노마드족'들이 은행의 예적금 금리 인상에 신속히 자금을 이동시킨 것으로 분석된다.한은이 기준금리를 0.5%p 인상한 12일 전부터 케이뱅크는 선제적으로 수신금리를 올렸다. 같은 달 2일 파킹통장 성격의 '플러스박스'의 금리를 2.5%로 0.2%p 인상했고 7일 1년 만기 정기예금도 4.6%로 1.1%p 대폭 인상했다. 이어 27일 또 금리를 올려 플러스박스와 6월 미만 정기예금 금리는 각각 2.7%, 3.9%가 됐다.같은 달 초 카카오뱅크의 파킹통장 '세이프박스' 금리는 2.20%, 1년 만기 정기예금은 3.3% 였다. 한은이 기준금리를 올린 후 6일이 지나서 세이프박스와 정기예금 금리를 최대 1.2%p 대폭 인상했지만, 그 사이 수신 잔액이 준 것이다. 현재 카카오뱅크의 세이프박스와 1년 만기 정기예금 금리는 각각 2.6% 4.4%다.서울 중구 케이뱅크 사옥. ⓒ케이뱅크금리 대응에 예민하지 못하면 언제든지 인터넷은행 1위가 바뀔 수 도 있다는 걸 확인한 사례다. 특히 인터넷은행의 경우 이체, 가입 절차가 간편해 자금 이동의 더 큰 영향을 받을 수 있다.특히 케이뱅크가 연일 예·적금과 대출 금리 경쟁력을 강화하면서 카카오뱅크 자리를 맹추격하고 있다. 케이뱅크가 지난 7일 발표한 올해 3분기 누적 당기순이익은 746억원으로 전년 동기 대비 746% 증가하며 큰 성장세를 보여줬다. 3분기 당기순이익으로만 256억원으로 전년 동기 대비 52.2% 늘었다.카카오뱅크는 올해 3분기 누적 당기순이익은 2025억으로 전년 동기 대비 20.6% 증가했다. 3분기 당기순이익도 787억원으로 51.4% 늘었다.다만 아직 카카오뱅크의 여수신 규모는 인터넷은행 3사 중 가장 압도적이지만, 타사가 금리경쟁력을 바짝 따라오면서 긴장을 놓칠 수 없는 상황이다.카카오뱅크의 지난 9월 말 기준 수신잔액은 34조6000억원, 여신잔액은 27조5000억원이다. 케이뱅크의 수신잔액은 13조4900억원, 여신잔액은 9조7800억원이다. 막내 격인 토스뱅크의 지난달 12일 기준 수신잔액은 22조4000억원, 여신잔액은 7조2000억원으로 무섭게 성장하고 있다.금융권 관계자는 "인터넷은행은 편리함과 금리 경쟁력이 주된 특징"이라며 "3사 모두 간편이체 등 기능은 비슷하다보니 금리 경쟁력을 두고 고객 유치 경쟁이 치열해질 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.11.09.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>예적금 비교·추천 가능해진다…금융위, 혁신금융서비스 지정</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001064612?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>내년 2분기부터 토스와 네이버페이 등 9개 플랫폼에서 은행과 2금융권의 예적금 상품을 비교·추천받을 수 있게 된다.금융위원회는 9일 뱅크샐러드와 NHN페이코, 줌인터넷, 깃플, 핀크, 비바리퍼블리카, 네이버파이낸셜, 씨비파이낸셜, 신한은행 등 9개 기업의 온라인 예금상품 중개 서비스를 혁신금융서비스로 지정했다.마이데이터와 연계해 입출금 통장이나 신용카드 사용실적 등 자산분석을 바탕으로 소비자들한테 우대금리 적용 여부 등을 포함한 맞춤형 상품추천이 가능해질 전망이다.지방은행이나 저축은행 같은 중소형 금융사는 플랫폼과의 제휴를 통해 수신영업을 확대할 수 있다.다른 금융사의 예금상품을 비교·추천하는 행위는 금융소비자보호법상 금융상품 중개에 해당한다.따라서 금융상품판매대리·중개업 등록을 해야 하지만, 현행 금융관련 법령은 예금성 상품의 중개업무 등록에 관한 요건을 규정하고 있지 않다.이에 금융위가 혁신금융서비스 지정을 통해 이번 서비스를 가능하도록 한 것이다.급격한 자금이동에 따른 금융시장 안정성 저해 우려를 막기 위해 금융위는 판매비중 한도를 두기로 했다.은행은 플랫폼을 통한 예적금 판매 규모가 전년도 예적금 신규모집액의 5%를 넘지 않아야 한다. 저축은행과 신협은 3% 이내로 제한된다.금융위 관계자는 “최근 시장금리 상승 등으로 금융권의 유동성 관리 어려움이 증대되고 있는 만큼 서비스 출시 시점을 내년 2분기 이후로 금융감독원과 협의하도록 했다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.11.11.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>"개발자는 '우테코' 전과 후로 나뉜다"</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002273453?sid=105</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>11일 우아한테크코스(우테코) 수강생 대상 취업박람회 개최11일 서울 송파구 한국루터회관 14층. 배달의민족(배민) 운영사 우아한형제들 사무실로 쓰이는 이곳이 ‘우아한테크코스(우테코)’ 4기 수강생들과 기업 관계자들로 붐볐다. 수료를 앞둔 4기 수강생 중 한 명은 “개발자는 우테코 전과 후로 나뉜다”면서 “앞으로 개발자로 살아가는 데 있어, 소신 있게 질문할 힘을 키운 시간이었다”고 했다.이날 이 장소에선 우테코 수강생을 대상으로 한 취업박람회가 열렸다. 19곳 기업 인사, 개발 담당자들은 우테코 수강생들에게 회사 소개와 업무 등 내용을 소개했다. ▲네이버파이낸셜 ▲카카오페이 ▲두나무 ▲비바리퍼블리카(토스) ▲클래스101 ▲야놀자에프앤비솔루션 ▲오피지지 ▲퍼즐벤처스(오일나우) ▲마이페어 ▲지지틱스 ▲에이비일팔공(AB180) ▲스마트푸드네트웍스 ▲온더룩 ▲와드(캐치테이블) ▲파인더스에이아이 ▲스플랩 ▲디어코퍼레이션 ▲핵클주식회사가 ▲아이포트폴리오가 참여했다.11일 서울 송파구 한국루터회관 14층에서 '우아한테크코스(우테코)' 수강생을 대상으로 취업박람회가 열렸다.배민 개발자 양성 전문학교 '우테코'우테코는 배민이 2019년부터 무료로 운영해온 개발자 양성 전문학교다. 예비 개발자들이 실무에서 바로 활용할 수 있는 능력을 제고하는 게 우테코 교육 프로그램의 특징이다. 기본적인 백·프론트엔드 언어와 페어프로그래밍을 통한 피드백, 그리고 웹 프로그래밍과 개발 절차를 공유하는 팀 프로젝트 등 커리큘럼으로 10개월간 수업이 진행된다.우테코 포문을 연 1기부터 모집 경쟁이 치열했다. 1천명 웃돈 지원자 중 52명을 최종 선발해 45명이 수료했다. 2기 수료생은 50명으로, 1~2기 95명 중 90% 이상이 개발자 직함을 달게 됐다. 작년 3기의 경우 웹 백엔드, 프론트엔드에서 각각 1천68명, 450명이 지원하며 열기를 이어갔다. 순서대로 51명, 25명이 수료했다.서류 지원 후 온라인 코딩 테스트를 거쳐 3주간 프리코스가 진행되는데, 이때 또 한 번 시험을 치러 경쟁을 마친 뒤에야 우테코 일원이 될 수 있다. 올해 백엔드 76명, 프론트엔드 37명의 수강생들이 우테코 4기 수료를 목전에 뒀다.11일 서울 송파구 한국루터회관 14층에서 '우아한테크코스(우테코)' 수강생을 대상으로 취업박람회가 열렸다."학교서 경험할 수 없는, 개발에 열정적인 동료들 多"우테코를 이끄는 박재성 우아한형제들 테크코스교육개발팀 이사는 “처음에 부족한 게 많던 수강생들이 점차 성장하는 모습을 지켜보면서 큰 보람을 느끼고 있다”며 “업계 현직 개발자들로부터 건너건너 ‘우테코 수료생들 우수하다, 남다르다’는 얘길 들을 때 힘이 난다”고 말했다.우테코 교육 기간을 늘리고 싶다는 희망사항도 내비쳤다. 박 이사는 “인기가 높아져, 아무래도 막 프로그래밍을 시작한 지원자들이 기회를 받지 못하는 게 아닐까 우려되기도 한다”며 “1년6개월 과정으로 확장해 뛰어난 미래 개발자들이 우테코를 접하길 바란다”고 말했다.(사진=우아한형제들)컴퓨터공학을 전공하고 있는 4기 백엔드 수강생 김윤기(스컬)씨는 “학교에서 경험할 수 없는, 개발에 열정적인 동료들이 즐비한 곳이 우테코”라며 “어떤 질문이든 답변으로 돌아오며 실무진에게서 코드 리뷰도 받을 수 있어, 개발자로 성장할 수 있는 모든 여건이 마련됐다”고 말했다.비전공자인 김요욱(블링)씨는 우테코를 지원하기 전, 1년가량 동아리 활동과 개인 학습으로 기초 역량을 쌓았다. 그는 “자율적인 학습 문화와 창의적인 사고를 이끌어내는 페어프로그래밍을 통해 다양한 개발 방향을 공유할 수 있었다”며 “전공인 국제한국학과 접목해, 사회 문제를 해결할 수 있는 서비스를 만들어내는 개발자를 꿈꾼다”고 말했다.'우테코 5기' 모집…안드로이드 과정 추가배민은 현재 내년 2월부터 시작하는 ‘우테코 5기’ 수강생을 지난달 말까지 모집했다. 프로그래밍에 대한 기본적인 지식과 경험이 있으면 누구나 지원할 수 있다. 웹 백엔드와 프론트엔드에서 100명, 50명, 새로 추가되는 모바일 안드로이드 과정에서 25명까지 총 175명을 선발한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.11.02.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>카뱅, 3Q 순이익 787억 또 역대 최대…인뱅도 '이자장사'로 최대 실적 행진</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000308997?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>카카오뱅크가 지난 3분기 787억원의 당기순이익을 기록하며 역대 최대 분기 실적을 다시 한번 경신했습니다.오늘(2일) 카카오뱅크는 지난 3분기에 1년 전보다 51.3% 증가한 787억원의 당기순이익을 거뒀다고 공시했습니다. 이전 분기보다도 38.1% 늘어난 수준입니다.  이로써 올해 누적으로는 2025억원의 당기순이익을 올렸습니다.올 3분기까지 영업이익 지난해 전체보다 많아3분기 영업수익 4118억원과 영업이익 1046억원도 분기 기준으로 역대 최대입니다. 영업수익은 1년 전보다 48.5%, 영업이익은 46.9% 성장했습니다.올해 3분기까지 이미 지난 한 해 동안 벌었던 영업수익 1조 649억원과 영업이익 2569억원을 넘어섰습니다.지난 9월 기준 카카오뱅크 수신 잔액은 약 34조 6000억원으로, 지난해 말보다 15%, 약 4조 6000억원 불었습니다. 저원가성 예금이 전체 수신의 62.1%를 차지했습니다.여신 잔액은 같은 기간 약 25조 9000억원에서 27조 5000억원으로 1조 6000억원 늘었습니다. 약 6.2% 증가했는데 무보증 중·저신용자 대상 대출 잔액은 3조 288억원으로 1년 전보다 22.9% 증가했습니다.지난 2월 출시한 주택담보대출의 누적 약정 금액은 8070억원으로 집계됐습니다. 카카오뱅크는 “전반적으로 금융권 주택담보대출 시장이 부진했지만, 취급 지역을 전국으로 확대하고, 대상 주택 금액의 한도를 없애는 등 고객 접점을 늘리려고 노력했다”고 설명했습니다.늘어난 여신에 역대급 실적…중금리 대출 비중 1%포인트 상승카카오뱅크의 중·저신용 대출 잔액 비중은 지난해 말 17%에서 지난 9월말 현재 23.2%로 6%포인트 이상 상승했습니다. 올 상반기와 비교했을 때도 1%포인트 올랐습니다.카카오뱅크와 케이뱅크는 올해 중금리 대출 비중 목표는 전체 대출의 25%입니다. 상반기 이미 24%를 달성한 케이뱅크보다는 살짝 부족합니다.토스뱅크의 목표치는 42%로 인터넷은행 중에서는 가장 많지만 아직 36.3%에 그치고 있습니다. 케이뱅크와 토스뱅크도 각각 이달 중순과 이달 말에 3분기 실적을 공개할 예정입니다.내년에도 인터넷 은행들의 중금리 대출 확대 움직임은 계속될 전망입니다. 3사 모두 단계적으로 중금리대출 비중을 확대해 내년 말까지 30%를 넘기겠다는 목표를 제시해둔 상태입니다.은행별로 살펴보면 ▲케이뱅크 32% ▲카카오뱅크 30% ▲토스뱅크 44% 입니다.인터넷 은행 '삼국지' 고객 확보 경쟁 치열해졌다최근 들어 인뱅 3사의 수신 경쟁은 더 치열해지고 있습니다. 고객 확보를 위해 파킹통장 수신 금리를 올리고 있습니다. 케이뱅크는 지난달 27일 파킹통장 '플러스박스' 금리를 연 2.7%로 0.2%포인트 인상했습니다. 한도는 3억원까지입니다.이에 앞서 카카오뱅크는 지난달 19일부터 파킹통장 '세이프박스' 금리를 기존 2.2%에서 2.6%로 0.4%포인트 높였습니다. 최대 보관 한도는 1억원으로 입출금계좌당 1좌씩 개설 가능합니다.토스뱅크도 수시입출금식 '토스뱅크 통장' 금리를 지난달 6일 기존 2%에서 2.3%로 0.3%포인트 인상했습니다. 출시 당시 업계에서 이른바 '2% 통장' 마케팅으로 각광을 받았지만 다른 인터넷 은행보다 경쟁력이 떨어진다는 목소리가 나오고 있습니다. 하지만 카카오뱅크가 4분기부터 고객을 빼앗길 수 있다는 분석이 나옵니다. 지난달 중순에 발생한 '카카오 먹통' 사태로 서비스 이용에 불편을 느낀 고객이 빠져나갈텐데 금리까지 케이뱅크보다 낮기 때문입니다.실제로 가장 높은 파킹통장 금리를 제공하는 케이뱅크의 지난달 말 기준 수신 잔액은 14조 3000억원으로, 한 달 사이 8100억 원 늘며 꾸준히 늘고있습니다. 반면 카카오뱅크의 수신 잔액은 32조 9800억원으로 9월보다 1조 5800억원 줄었습니다.올해 상반기 케이뱅크도 457억원의 순익으로 역대 최대 실적을 올렸는데 지난해 연간 순익 225억원을 초과 달성했습니다. 같은 기간 이자이익도 1721억원으로 사상 최고치를 기록했는데 케이뱅크의 성장세는 가팔라지고 있습니다.카카오뱅크는 수신 잔액이 줄어든 것에 대해 "최근 전체 은행권의 저축성 예금 조달 경쟁이 심화하면서 수신 전체 잔액이 감소한 것으로 보인다"고 설명했습니다. 이어 서비스 오류와 관련해서도 "같은 문제가 재발하지 않기 위해 비상대응특별점검반을 신설해 떨어진 신뢰 회복에 총력을 기울이고 있다"고 덧붙였습니다.한편 토스뱅크도 1분기 당기 순손실이 654억원이었으나 2분기 589억원으로 적자폭이 65억 원 개선된 바 있습니다. 상반기에 총 1243억 원의 당기순손실을 기록했지만 가장 많은 고객수를 바탕으로 뚜렷한 여신 성장을 보이고 있습니다.'사장님'과 가상자산 투자자들 모시기 열 올려카카오뱅크는 이달 들어 개인사업자 대상 금융 서비스를 시작했습니다. 개인사업자 통장 개설을 비롯해 대출 상품과 신용카드 등도 나와 ‘카카오뱅크 개인사업자 뱅킹’ 종합 상품을 출시했습니다.개인사업자 통장은 별도 서류제출 없이 가입할 수 있도록 금융사별로 데이터를 확보한다는 계획이고 수수료까지 없습니다. 개인사업자 체크카드와 제휴 신용카드도 출시하는데 주유·통신·렌탈·해외 등 사업 운영에 필요한 업종의 소비 혜택이 있습니다.가상자산 거래소 코인원과도 협력할 예정인데 카카오뱅크는 실명확인 입출금 계정을 제공하기 위한 논의를 진행 중이라고 밝혔습니다.김석 카카오뱅크 최고전략책임자는 오늘 열린 3분기 실적발표 컨퍼런스콜에서 "11월 중에는 코인원 고객에게 실명확인 입출금 계정 서비스를 제공해 가상자산 거래의 안정성과 편의성을 도모하고자 협의 중"이라고 말했습니다.이어 "12월에는 국내 주식거래와 증시 뉴스 확인 등 증권 관련 핵심 기능을 마련해 카카오뱅크 앱 내에 주식거래 커버리지를 완성할 예정"이라면서 자산관리 서비스에 대한 확장도 암시했습니다.카카오뱅크의 3분기 실적이 4분기까지도 이어질 지 관심이 주목되는데 이런 서비스 확장이 최근 잃은 신뢰를 살아나게 할 수 있을지 지켜봐야겠습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.11.14.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>은행 5% 이자 주는데…증권사 예탁금 이자율 0%대</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011534565?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>기사내용 요약증권사 예탁금 이용료율 0~1%대 '인색'예탁금 줄고 시중은행 정기예금에 뭉칫돈[서울=뉴시스] 임태훈 기자 = 서울 여의도 증권가 전경. 2020.09.03. taehoonlim@newsis.com[서울=뉴시스] 강수윤 기자 = 기준금리 인상으로 시중은행의 예금 금리가 5%를 넘어섰지만 투자자들이 맡긴 돈에 증권사들이 주는 이용료율은 여전히 0%대에 머무르는 것으로 나타났다. 14일 금융투자협회에 따르면 KB증권과 토스증권의 투자자 예탁금 이용료율은 각각 1.03%와 1.0%로 국내 증권사들 가운데 가장 높았다. 이어 미래에셋증권이 0.7%로 뒤를 이었고, NH투자증권 0.5%, SK증권·교보증권·삼성증권·유화증권 0.4%, 케이프투자증권 0.35%. 메리츠증권·다올투자증권·카카오페이증권 0.3%, 키움증권 0.25%, 현대차증권·한양증권·하이투자증권 0.2% 등으로 뒤를 이었다.대신증권·흥국증권·신영증권·한화투자증권 등이 0.10%대 이율로 가장 낮았다.증권사의 투자자예탁금 이용료는 시중은행의 예금 이자와 비슷한 개념이다. 증권사는 고객이 증권계좌에 맡긴 금액을 한국증권금융에 예치해 수익을 얻는다. 증권사가 얻은 수익에서 인건비 등 비용을 제외한 뒤 고객에게 지급하는 것이 투자자예탁금 이용료다.증권사들의 0~1%대 예탁금 이용료율은 국내 시중은행의 정기예금이 최대 5%대의 이율을 제공하는 것에 크게 미치지 못한다. 금융권의 수신금리 경쟁이 심화되면서 시중은행의 예금금리는 5%를 넘어섰다. 은행연합회 소비자포털에 따르면 이날 기준 은행권에서 금리가 가장 높은 정기예금(12개월) 상품은 BNK부산은행의 '더(The) 특판 정기예금'으로 최고 연 5.40%를 제공한다. 국민은행 'KB STAR 정기예금'은 1년 만기 기준 최고 연 5.01% 금리를 제공한다. NH농협은행의 'NH올원e예금'도 이날 기준 연 5.1%의 금리가 적용된다.특히 고금리 국면에서 증권사들이 신용거래융자 금리 인상에는 적극 나서는 반면, 예탁금 이용료 인상에는 미온적이라는 비판이 나온다.고객이 보유한 주식을 담보로 증권사에 돈을 빌릴 때 적용되는 신용공여 금리는 10%대까지 치솟았다. 현대차증권은 일반 고객 대상 90일 초과 신용융자 금리를 10.5% 수준으로 적용하고 있다. 유안타증권도 150일을 초과해 신용융자를 이용하는 소비자에게 10.3%의 금리를 부여하고 있다. 삼성증권과 신한투자증권도 90일 초과 신용융자 이자율이 9.8% 수준이다.한 증권사 관계자는 "예탁금 이자는 기준금리와 시장금리 상승에 따라가는데 시장 금리 안에 리스크 비용이 포함돼 있다"면서 "시중 은행에서도 목적이 있는 적금·예금금리는 높지만 수시입출금 계좌나 증권사 CMA(종합자산관리계좌) 금리는 높지 않다. 증권금융에 예치한 예탁금은 수시로 입출할 수 있어 증권금융에서 증권사에 주는 이자가 높지 않다"고 말했다. 시중은행이 높은 이율을 내건 예금 상품을 출시하는 데 반해 예탁금 이용료율은 저리를 유지하면서 은행 정기예금으로 뭉칫돈이 몰리는 '역머니무브'가 가속화하고 있다. 금투협에 따르면 투자자예탁금은 지난 8일 기준 46조9386억원을 기록하며 연중 최저치를 경신했다. 올 초 대비로는 25조원 가량 줄었다. 반면 예금 금리가 오르면서 지난달에만 47조원 이상이 5대 은행의 정기예금으로 향했다. 정기예금 잔액은 800조원을 돌파했다. KB국민·신한·하나·우리·NH농협은행의 지난달 정기예금 잔액은 808조2276억원으로 한 달 사이 47조7231억원이 늘었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.11.10.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>영상제작 플랫폼 ‘두둠’ 운영사 지로, 10억원 규모 프리A 투자 유치</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005042927?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>두둠, 프리A 투자유치하이엔드 영상 제작 플랫폼 ‘두둠’(Dudum)을 운영하는 지로(대표 이재석, 황길환)가 10억원 규모의 프리시리즈A 투자를 완료했다고 10일 밝혔다.지로가 유치한 이번 프리시리즈A 라운드 투자는 △블루포인트파트너스가 주도했으며, △롯데벤처스 △프라이머사제 및 기존 시드 투자를 진행한 △본엔젤스벤처파트너스가 참여했다. 이번 투자 유치로 지로는 글로벌 진출을 위한 자금을 안정적으로 확보하는 동시에 서비스 고도화에도 가속도를 붙일 예정이다.지로는 이재석 공동대표와 네이버 클로바 출신 황길환 공동대표가 창업한 회사다. 지로는 지난해 5월 본엔젤스벤처파트너스로부터 시드 투자를 유치 후 빠른 매출 성장 및 기술력을 증명하면서 6개월 만에 중소벤처기업부가 운영하는 민간투자 프로그램 TIPS 프로그램에 선정된 바 있다.영상 제작 플랫폼 ‘두둠’의 운영사 지로는 영상 제작 시장의 전문가와 비전문가 간의 정보 비대칭을 해결하고자 한다. 지난해 11월 정식 출시 이후 현대자동차, 토스, 배달의민족 등 200여개 기업 및 기관과 협업을 진행해왔다. 올 10월 기준 총 430여팀의 국내 정상급 영상 제작사를 파트너사로 확보하고 빠른 속도로 시장 점유율을 높여가고 있다.지로 황길환 공동대표는 “지금까지 쌓아온 영상 제작 분야의 노하우와 데이터를 바탕으로 북미 시장에서 K-콘텐츠 제작 역량을 알리기 위한 글로벌 진출을 추진할 계획”이라고 밝혔다. 또한 “내년에는 기존 두둠 플랫폼의 고도화와 함께 영상 스톡 거래 서비스로 확장하여 영상 산업을 선도하는 콘텐츠 테크 기업으로서 자리매김하는 것이 목표”라고 밝혔다.이번 투자를 리드한 블루포인트파트너스 김준혁 수석 심사역은 “향후 성장 잠재력이 높은 영상 제작 분야에서 기존 시장의 비효율에 대한 이해를 바탕으로 디지털 전환에 앞장서는 스타트업”이라며 ”이번 투자 유치를 통해 글로벌 진출을 본격화하여 한국의 콘텐츠 제작 역량을 세계에 알릴 수 있는 기업으로 성장하길 기대한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.11.09.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>'크립토 백기사'의 몰락..가상자산 혹한 이어지나</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004925736?sid=105</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>FTX CEO인 샘 뱅크맨 프라이드. ⓒ 로이터=뉴스1 ⓒ News1 박형기 기자 /사진=뉴스1 [파이낸셜뉴스] 세계 최대 가상자산 거래소인 바이낸스가 유동성 부족 사태에 내몰린 세계 3위 가상자산 거래소 FTX 인수를 추진하고 나서자 전 세계 가상자산 업계가 충격에 휩싸인 모습이다.   '가상자산 혹한기' 속에 '백기사' 역할을 자처했던 샘 뱅크먼 프리드 FTX 최고경영자(CEO)가 한 순간에 몰락하면서 '가상자산 시장의 취약성이 생각보다 심각한 것 아니냐'는 위기감이 확산되고 있다. 일각에서는 FTX가 발행하는 FTX토큰(FTT) 가격이 80% 이상 폭락한 것과 관련, ‘제2의 루나 사태’가 발생하는 것 아니냐는 우려도 커지고 있다.    ■FTX 유동성 위기에 수일만에 무너진 '크립토 백기사' 장펑차오 바이낸스 대표는 9일 자신의 트위터 계정을 통해 "심각한 유동성 부족 사태에 직면한 FTX가 우리에게 도움을 요청했다"며 "투자자 보호 취지에서 FTX닷컴을 전량 인수하는 내용의 인수의향서(LOI)를 체결했다"고 밝혔다. 샘 뱅크먼 프리드 FTX CEO 역시 "FTX닷컴의 첫 번째이자 마지막 투자자는 동일 주체"라며 "바이낸스와 전략적 거래를 하기로 합의했다"고 말했다.   이번 인수 발표는 FTX가 '유동성 위기는 루머일 뿐'이라고 반박한지 하루가 채 지나지 않아 나온 것이다. FTX는 최근 관계사인 알라메다의 재정 부실설로 뱅크런 사태가 발생하면서 유동성 위기에 시달렸다. 지난 2일 가상자산 전문매체 코인데스크는 알라메다의 대차대조표를 입수해 자산의 대부분이 FTT로 채워져 있다고 보도한 바 있다.   이에 시장에서는 'FTX가 FTT를 발행하면 알라메다가 대부분 사주는 것 아니냐'는 해석과 함께 두 회사의 재정 부실로 이어질 수 있다는 우려가 번졌다. FTX와 알라메다는 모두 뱅크먼 프리드 CEO가 창업한 회사다. 이런 상황에서 FTX와 경쟁 관계에 있던 바이낸스가 결정적 한 방을 날렸다.   자오창펑 대표는 보도가 나온지 5일 만인 이달 7일 바이낸스가 보유한 FTT를 모두 팔겠다고 발표했다. 그러면서 자신의 결정은 "최근의 폭로에 따른 것"이라며 FTX와 알라메다의 코인 거래 구조를 겨냥했다. 이 발표로 FTX에서 뱅크런이 벌어지자 뱅크먼 프리드 CEO는 "거짓 루머"라며 반발했으나 FTX의 유동성 경색 현상은 더욱 심해졌다.   결국 뱅크먼 프리드는 자오창펑에게 백기를 들었고, 이날 바이낸스는 FTX 인수 추진을 발표했다.   가상자산 커뮤니티에서는 며칠 새 뱅크먼 프리드 CEO이 추락했다는 사실을 충격으로 받아들이고 있다. 어려움을 겪는 스타트업들에 투자하며 '백기사'를 자처했던 인물이기 때문이다. FTX의 벤처캐피털인 FTX벤처스는 앱토스랩스, 메사리, 스카이마비스, 레이어제로, 유가랩스, 1인치네트워크 등 다수 가상자산 스타트업에 투자한 것으로 알려졌다.    ■글로벌 가상자산 전반 취약성 우려 심화 이번 인수 발표 이후 주요 가상자산의 가격은 일시 반등했다가 인수 거래가 성사되지 않을 수도 있다는 불안감이 확산하면서 낙폭이 오히려 더 커졌다. 비트코인 가격은 인수 발표 직후 급반등하며 한때 2만달러를 회복했다가 1만7000달러 선까지 미끄러졌다. 글로벌 가상자산 중계 사이트 코인마켓캡에 따르면 지난 24시간 동안 가상자산들의 총 시가총액은 1조3000억달러에서 9150억달러로 11% 이상 감소했다.   자오창펑 대표는 이번 인수 추진과 관련 "구속력이 없는 투자의향서"라며 "매우 역동적인 상황에서 실시간으로 상황을 평가하고 있다. 바이낸스는 언제든 거래에서 손을 뗄 재량권이 있다"고 강조했다. 가상자산 분석업체 크립토컴페어는 "자오창펑이 인수 거래에서 손을 뗄 경우 여전히 (FTX의 유동성) 문제가 불거질 수 있다"고 전망했다.   세계 3위 가상자산 거래소로 올해 초 320억달러 몸값을 평가받았던 FTX가 한순간에 무너졌다는 사실은 글로벌 가상자산 거래소들의 구조적인 취약성과 불안정성을 보여준다는 지적도 나온다. 미 증권거래위원회(SEC)의 전 집행 변호사인 존 리드 스타크는 "가상자산 죽음의 소용돌이는 순식간에 시작될 수 있으며 매우 임박한 것처럼 보인다"고 경고했다.   이번 사태로 비트코인 등 가상자산 가격 하락세가 심해질 수 있다는 전망도 있다. 크립토컴페어는 "올해 비트코인이 사상 최악의 손실을 기록할 수 있다"며 "과거 약세장과 비교했을 때 비트코인은 아직 바닥에 도달하지 않았다"고 분석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.11.07.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>짠테크 열풍에 `디지털 폐지줍기` 유행</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002764548?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>고금리·고물가에 '티끌모아 태산'10원 단위의 포인트 모으기 인기출석 체크·만보기·퀴즈 등 다양고물가시대 짠테크 열풍이 불면서 토스의 만보기 등을 통한 리워드를 모으려는 '디지털 폐지줍기'가 인기를 끌고 있다. 토스 제공    고금리·고물가시대를 맞아 이른바 '짠테크'(짠돌이+재테크) 열풍이 불고 있다. 특히 앱에서 이벤트로 제공하는 포인트로 '티끌 모아 태산'을 실천하는 소비자들이 늘어나면서 온라인 상에는 '디지털 폐지줍기'라는 용어까지 탄생하고 있다. 값이 많이 나가지 않는 폐지값과 같은 10원 20원을 모아 사용한다는 의미다.금융사들도 신규 고객 확보·앱 이용 활성화를 위해 현금 전환이나 물품 구매가 가능한 포인트 이벤트를 우후죽순 내놓으면서 이런 현상은 계속될 것으로 전망된다.금융앱 월간활성이용자수(MAU) 선두를 달리는 토스는 오래 전부터 만보기를 이용한 리워드 지급을 이어오고 있다. '만보기' 서비스는 하루 5000보를 걸으면 10원, 1만보를 걸으면 20원의 포인트를 지급하고 있다. 내 주변의 지정된 장소를 방문하면 하루 최대 100원까지 더 받을 수 있다. 또 매일 제휴페이지 접속, 행운퀴즈 풀기 등 과제를 수행하면 하루 100원을 추가로 받을 수 있다. 토스에 따르면 지난해 8월 46만명이었던 '만보기' 이용자는 지난 5월 400만명으로 불었다.핀테크 업계 신흥 강자로 떠오르는 네이버파이낸셜의 '네이버 페이 포인트'는 쇼핑 때마다 현금처럼 사용 가능하면서 이용자들을 끌어모으고 있다. 특정 금융상품 웹페이지에 접속하는 것만으로도 10원에서 15원의 포인트를 준다. 온라인 커뮤니티에는 '네이버 폐지줍기' 목록이 올라오기도 한다.은행권도 참전 중이다. 만보기를 통한 리워드 지급이 많으며, 통장에 바로 지급되는 형태도 있다. KB국민은행은 'KB스타뱅킹' 앱 내 'KB 매일걷기'를 이용해 일주일에 3만5000 걸음을 걸으면 100포인트를, 7만 걸음을 걸으면 500포인트를 지급한다.KB국민카드 앱 '리브메이트'는 매일 오전 10시 '오늘의 퀴즈'를 풀면 10포인트를 준다.KB국민카드는 자체 결제 서비스인 'KB페이'에 출석체크하거나 결제하면 랜덤으로 현금성 포인트를 지급한다.삼성 앱 '모니모'에서는 '젤리'라는 이름의 포인트를 지급한다. 매일 출석체크와 걷기 챌린지, 기상 챌린지를 신청해 달성할 경우 '젤리'를 준다.신한카드도 '신한플레이' 앱에서 출석체크를 할 때마다 3~7 포인트를, 출석일수 10, 30, 50일 달성시 포인트를 랜덤지급(최대 1만 포인트) 하는 이벤트를 진행 중이다.웰컴저축은행도 자체 뱅킹앱 '웰뱅'의 만보기 '웰뱅워킹'을 운영 중이다. 계좌를 통한 자동이체 1건을 등록해두면 1000보에 10원, 3000보에 10원, 5000보에 10원, 1만보에 10원을 수시입출금 통장으로 입금해준다. 하루에 1만보를 걸으면 40원을 쌓을 수 있는 셈이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.11.02.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>소비자가 선택한 `금융 앱 1위`는 토스뱅크</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002763547?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>KB스타뱅킹과 4.8%p 차이로 선두지난달 가장 많은 소비자들이 찾은 금융 앱은 토스인 것으로 나타났다. 컨슈머인사이트 제공    10월 한달간 소비자가 선택한 '정기적·생활 필수 앱(확보고객)' 1위는 토스인 것으로 나타났다.2일 컨슈머인사이트가 매주 500명 이상씩 총 2016명을 대상으로 조사한 결과 토스뱅크가 확보고객 34.5%로 1위를 차지했다. 2위는 KB국민은행 스타뱅킹(29.7%), 3위는 카카오뱅크(28.7%) 순이었다. 1·2위를 다투는 토스와 KB국민은행 스타뱅킹 간 차이는 지난 9월 1.0%포인트에서 10월 4.8%포인트로 벌어졌다.이어 신한 쏠(SOL·22.6%), 신한플레이(20.3%)와 삼성카드(20.1%)가 각각 4~6위를 기록했다.조사 결과 20~40대는 토스, 카카오뱅크 등 핀테크 앱, 50·60대는 KB국민은행 스타뱅킹 선호가 뚜렷한 것으로 나타났다.30대에서는 신한 쏠(SOL), 50대에서는 삼성카드, 60대에서는 NH스마트뱅킹이 강세를 보였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.11.07.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>“이자 2배 새마을금고가 뭐에요?”...Z세대, 카카오·토스뱅크 떠난다</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003726877?sid=102</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>지난 10월 27일 오전 서울 관악신협 앞에서 연 10% 금리를 제공하는 특판 적금에 가입하기 위해 영업시간 전부터 번호표를 뽑은 시민들이 대기하고 있다./연합뉴스 										경기 수원에 사는 직장인 박모(27)씨는 지난 8월 지난해 가입했던 금리 연 2% 짜리 카카오뱅크 적금을 해지하고 동네 새마을금고에서 판매하는 연 5% 짜리 적금을 새로 들었다. 친구가 추천을 해줬다는 박씨는 “새마을금고가 뭐하는 곳인지도 몰랐는데, 적금 가입할 수 있는 은행 같은 곳이란 걸 이번에 처음 알았다”면서 “금리가 2배여서 옮기지 않을 이유가 없었다”고 했다.한때 코인 같은 가상화폐나 주식에만 관심을 가졌던 20대 젊은 층이 빠르게 적금으로 돌아서고 있다. 특히 소셜미디어로 고금리 적금 정보를 알게 되는 경우가 많은데, 이 과정에서 카카오·토스 같은 자신들이 익숙했던 인터넷 은행 대신 처음으로 ‘신협’ ‘새마을금고’ ‘저축은행’ 등 2금융권 금융기관 상품에 가입해봤다는 사람도 많이 나오고 있다. 새마을금고 적금 상품에 가입했다는 김모(27)씨는 “난생처음 제 2금융권 상품을 이용해 처음엔 불안했는데, 법으로 5000만원까지는 보호된다는 얘기를 듣고 안심했다”면서 “성인이 된 후 은행에서 적금을 든 일이 거의 없어서 2금융권에 대해서도 잘 몰랐다”고 했다.온라인에서 주로 금융상품을 구입했던 젊은 층이 고금리 상품에 가입하기 위해 동네 신협 등에서 이른바 ‘오픈런’을 하는 장면도 곳곳에 나오고 있다. 서울 구로에 사는 안모(35)씨는 최근 신협에서 하는 금리 8.4%짜리 특판 적금에 가입하기 위해 집 근처 신협을 찾았지만 가입하지 못하고 발을 돌렸다. 안씨는 “10시 3분에 번호표를 뽑았는데 184명이 대기 중이었다”며 “4시간쯤 기다리다가 점심시간이 지나도 앞에 100명이 남았길래 포기했다”고 말했다. 그는 “이날 내 앞에서 대기하던 사람의 절반은 내 또래였다”고 했다.젊은 층이 많이 찾는 유튜브나 인스타그램 등 인기 소셜미디어 등에도 작년만 해도 코인이나 주식 얘기 일색이었지만 지금은 고금리 예·적금 정보가 수시로 공유되고 있는 것도 달라진 점이다. 여의도 직장인 이모(26)씨는 “유튜브에 적금 추천해주는 채널을 구독해두고 있다가 거기서 얻은 정보를 꼬박꼬박 스케쥴러에 적어 둔다”며 “지난 8월에도 새마을금고에서 고금리 적금을 특판한다는 소식을 알았다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.11.14.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>타다, 생애 첫 탑승객 대상 '천 원으로 타다' 캐시백 이벤트</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013573574?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>타다 크레딧 이벤트[타다 제공. 재판매 및 DB 금지](서울=연합뉴스) 임성호 기자 = 모빌리티 플랫폼 타다(운영사 브이씨엔씨)는 오는 27일까지 2주간 타다를 처음 이용하는 고객을 대상으로 '천 원으로 타다' 크레딧 캐시백 이벤트를 한다고 14일 밝혔다.    최종 결제 금액(최대 1만 5천 원)에서 1천 원을 뺀 나머지 금액을 크레딧 적립금으로 되돌려주는 이벤트로, 7∼9인승 승합차 기반의 '타다 넥스트'와 준고급 세단을 활용한 고급 택시 '타다 플러스'에 적용된다.    크레딧은 적립일로부터 15일간 유효하다. 하차와 동시에 바로 적립되고, 탑승 시 타다 라이트·넥스트·플러스까지 전 라인업에서 사용할 수 있다.    토스의 간편결제 서비스 '토스페이'를 연동한 고객 대상으로 진행 중인 타다 넥스트 첫 탑승 캐시백 이벤트와도 중복 적용이 가능하다.     타다 최초 이용자가 요금 1만 8천 원을 토스페이로 결제하면 크레딧 캐시백 1만 4천 원과 토스페이 3천 원 캐시백을 동시에 받아 사실상 1천 원만 내는 식이다.    이정행 타다 대표는 "더 많은 분이 타다가 제공하는 쾌적한 이동 경험을 체험하길 바라는 마음으로 이번 이벤트를 준비했다"며 "이용자들이 편안하고 안전한 서비스를 경험할 수 있도록 새로운 이동 기준을 제시하는 모빌리티 플랫폼이 되기 위해 노력하겠다"고 말했다.토스페이 로고[토스 제공. 재판매 및 DB 금지]    sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.11.01.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>[이태원 참사] IT·게임업계, 희생자 추모 물결…네이버 100만명 동참(종합)</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013546564?sid=105</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>사적모임 자제에 홍보일정도 연기…소셜미디어에 잇단 추모 메시지 추모 공간 헌화하는 시민들(서울=연합뉴스) 홍해인 기자 = 1일 서울 용산구 이태원역 1번 출구 앞 참사 추모 공간을 찾은 시민들이 단체로 헌화 뒤 묵념을 하고 있다. 2022.11.1 hihong@yna.co.kr(서울=연합뉴스) 임은진 김주환 임성호 기자 = IT·게임 업계는 이태원 참사 이후 내부적으로 임직원들에게 사적 모임을 자제할 것을 권고하고 예정된 홍보 일정까지 연기하는 등 희생자 추모에 신경을 쏟고 있다.     LG유플러스는 그룹 지침에 따라 임직원들에게 애도 기간 사적 모임이나 단체 회식을 자제하도록 권고하는 한편, 핼러윈 관련 마케팅과 이벤트, 온·오프라인 행사를 금지하기로 했다고 1일 밝혔다.     국내 사업장에는 조기를 게양할 방침이며, 이 기간 일부 보도 자료에 첨부되던 사진 자료도 제공하지 않기로 했다.     KT도 내부적으로 임직원들에게 모임 자제를 당부하고, 보도 자료도 꼭 필요한 경우가 아니면 배포하지 않기로 했다.     카카오는 사회적 애도 분위기를 고려해 대외 홍보 및 마케팅을 자제하기로 했다.    앞서 카카오는 지난달 30일 카카오톡 '선물하기' 기능에서 진행 중이던 핼러윈 이벤트를 조기 종료했다.네이버 추모 페이지[네이버 캡처. 재판매 및 DB 금지]네이버는 카페·블로그 게시글 작성 시 사고와 관련해 확인되지 않은 사실 등의 유포나 공유를 유의해 달라고 이용자들에게 당부했다. 네이버 쇼핑에서는 핼러윈 관련 기획전과 쇼핑 추천 키워드를 삭제했다.    네이버가 마련한 온라인 추모 공간에는 이날 오후 5시 27분께까지 이틀 만에 100만 명이 넘게 참여해 검은 리본을 달았다. 로그인한 아이디 당 한 번씩 리본을 남길 수 있다.    이외에도 당근마켓과 토스 등 플랫폼 기업들도 소셜미디어에 추모 메시지를 게시했다. CJ올리브네트웍스는 멤버십 서비스 CJ ONE(원) 메인 화면에 추모 팝업을 띄웠다.    넥슨과 엔씨소프트, 넷마블 등 게임 업계의 경우 공식적으로 지침이 내려온 것은 없지만, 애도 기간 대외 홍보를 자제할 방침이라고 전했다. 게임 업계는 참사 직후 기획했던 핼러윈 이벤트를 취소한 바 있다.    넥슨 관계자는 "5일까지 예정됐던 신규 상품 출시 및 이벤트, 콘텐츠 업데이트 일정을 일주일 연기하기로 했다"고 말했다.    한 게임 업계 관계자도 "회사 경영에 관련된 내용을 제외한 신작이나 이벤트 자료는 애도 기간 배포를 자제하고 있다"고 했다.    engine@yna.co.kr, jujuk@yna.co.kr, sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.11.07.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>[투데이 窓]글로벌 기술패권 시대…공공기술사업화 생태계 강화</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004814606?sid=110</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>[[UFO칼럼]윤상경 에트리홀딩스 대표]윤상경 에트리홀딩스 대표 /사진제공=에트리홀딩스최근 선진국 중심의 기술패권 정책은 AI(인공지능), 블록체인, 자율주행, 메타버스, 양자컴퓨터, NFT(대체불가토큰) 등 혁신기술 기반 산업생태계의 급격한 재편을 동반한 불확실 시대를 예고한다. 또 기술패권은 단순히 기술의 소유 및 활용에 대한 규제에 그치지 않는다. RE100(기업이 사용하는 전력 100%를 재생에너지로 충당하는 캠페인) 및 ESG(환경·사회·지배구조) 공시 등의 글로벌 표준규제들은 국내 중소벤처 및 중견기업들에 지금껏 경험하지 못한 도전과 전문성을 요구한다. 최근 미국의 인플레이션감축법(IRA)과 글로벌 금융리스크는 제조업 중심의 성장축을 중심으로 ICT 융복합 메카인 아시아권 산업경제에 상당한 변혁을 예고한다. 국내 일자리의 98% 이상 차지하는 중소벤처 및 중견기업들은 앞으로 5년간 혹독한 생존도전을 받게 될 것이다. 지난 약 10년에 걸친 벤처창업 열기와 비즈니스모델 혁신은 해외 넷플릭스와 유튜브뿐만 아니라 국내 카카오, 야놀자, 그리고 토스 등 빅테크들의 태동과 급격한 성장을 이뤘다. 빅테크 플랫폼에서 주목할 점은 이들은 대부분 사회과학적 또는 인문학적 소비자 요구에 부응하는 사업모델을 플랫폼으로 구축한 뒤 빅데이터 및 AI 등 딥테크를 통해 성장한다는 점이다. 이들은 초고속 분산네트워크 통신기술, 소비자 행동분석에 필요한 데이터 처리기술, 맞춤형 서비스 제공을 위한 AI 알고리즘 기술 등을 기반으로 콘텐츠 및 서비스들을 제공한다. 그 결과 배달 및 운송업, 요식업 및 심지어 농수산업 분야에 이르기까지 우리 사회 전반에 걸친 빅테크산업의 영향은 엄청나다. 말 그대로 기술이 사회를 바꾸는 시대다. 빅테크 사업모델들은 이제 블록체인 기술 기반의 메타버스라는 가상세계로 옮겨가는 중이다. 종국에는 현실과 가상을 융합하는 혁신적인 사업모델들의 출현이 예상된다. 혁신기술 기반 글로벌 대변혁이 가속화하는 상황에서 국내 산업경제는 구조적 전환기를 맞고 있다. 한 마디로 기술이 한 국가의 핵심자산이 됐고 지역 및 국가 단위의 사회를 변모시킨다. 따라서 과학기술 혁명시대에 기술혁신을 통한 부가가치 창출은 한 국가 산업경제의 미래 경쟁력을 좌우할 것임이 자명하다. 성공적인 혁신기술 기반 부가가치 창출은 산업경제 혁신생태계의 근간이다. 기술패권 시대에서 가장 우선적으로 민간과 공공이 함께 추진해야 한다. 불확실성이 가중되는 글로벌 환경하에서 지역 및 국가 산업경제 경쟁력을 강화하는데 매우 중요하다.  2023년은 정부 연구·개발예산 30조원 시대를 맞는 원년이다. 세계 2위 수준의 민간 및 공공 총연구·개발비(GDP 대비)와 함께 세계 4위 수준의 공공 특허출원은 한국 산업혁신의 핵심이자 지속가능한 경제성장의 기반 자산이다. 변혁의 시대를 맞이하는 우리에게는 그 어느 때보다 중요한 가치를 지니는 국가 핵심자산이다.  산업경제 부가가치 창출 및 국가 미래 경쟁력 강화는 공공기술 기반 중소벤처 및 중견기업들을 적극 육성·지원할 수 있는 기술사업화 투자금융 플랫폼의 구축에서 시작된다. 이런 관점에서 창업 및 기업 성장단계별 보육과 투자, 대출 및 기업금융을 통한 벤처생태계 혁신의 동반자적 역할을 하는 실리콘밸리은행(SVB)은 벤치마킹할 가치가 있다.  우리나라는 이미 500개 이상의 국내 액셀러레이터(AC, 창업기획자)와 벤처캐피탈(VC), 대학 및 출연연 기술이전 전담조직(TLO), 그리고 공공 및 민간 금융기관을 연계한 기술창업, 기술사업화벤처, 그리고 기술 투자금융을 잇는 공공기술 혁신 생태계 조성에서 시작해야 한다.  딥테크 기반 공공기술 사업화 투자기관인 에트리홀딩스, 한국과학기술지주, 미래과학기술지주 등과 함께 최근 한국과학기술연구원(KIST)과 KAIST 등이 공공기술 사업화 전문투자회사를 설립하는 것은 기존 재무적투자자 관점이 아닌 전략적 투자운용을 통한 공공기술사업화 생태계 강화에 매우 중요한 자산이 될 것이다.[머니투데이 스타트업 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.11.01.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>‘네가 올리면 나도 올릴게’ 인터넷은행, 엎치락뒤치락 수신금리 경쟁</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003183401?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>(위부터) 카카오뱅크, 케이뱅크, 토스뱅크. 각 사 제공카카오·케이·토스뱅크 등 인터넷전문은행 3사가 앞다퉈 예·적금 금리를 올리고 있다. 인터넷은행 간의 경쟁뿐만 아니라 시중은행과의 수신 금리 경쟁에서도 뒤처지지 않으려는 것으로 풀이된다.케이뱅크는 1일 적금 상품 금리를 최고 1.1%포인트 인상한다고 밝혔다. 케이뱅크는 ‘코드K 자유적금’ 금리를 가입 기간에 따라 연 0.5~0.6%포인트 올렸고, ‘주거래우대 자유적금’ 금리를 가입 기간에 따라 최고 연 1.1%포인트까지 올렸다.케이뱅크는 불과 닷새 전인 지난달 27일에도 파킹통장(고금리 수시입출금 통장)인 ‘플러스 박스’ 금리를 0.2%포인트 인상해 인터넷은행업계 최고 수준인 연 2.7%로 끌어올렸다. 같은 날 정기예금 금리도 최대 1.0%포인트 인상했다.케이뱅크가 수신 금리를 빠르게 올리는 것은 카카오뱅크, 토스뱅크도 수신금리를 부지런히 인상하고 있기 때문이다. 내년 초로 예상되는 기업공개(IPO)를 앞두고 몸집을 불리려는 의도라는 분석도 있다.이들 3사는 예·적금뿐만 아니라 파킹통장에 대해서도 상대보다 0.1%포인트라도 더 높은 금리를 제공하기 위해 경쟁하고 있다.카카오뱅크는 지난달 18일 파킹통장인 ‘세이프박스’ 금리를 0.4%포인트 인상해 연 2.6%로 높이고, 그 당시 파킹통장에 연 2.5% 금리를 주던 케이뱅크를 제쳤다. 아울러 카카오뱅크는 정기예금 금리를 최대 1.20%포인트, 자유적금 금리는 0.40~0.70%포인트 올렸다.수신금리 경쟁에서 한 발 떨어져 있던 토스뱅크도 지난달 6일 ‘토스뱅크통장’ 금리를 연 2.0%에서 2.3%로, ‘키워봐요 적금’ 금리를 연 3%에서 4%로 인상했다.다른 은행보다 금리가 상대적으로 낮은 토스뱅크는 고객 편의성을 강화한 서비스를 강점으로 내세우고 있다. 토스뱅크는 카카오·케이뱅크처럼 별도의 ‘박스’가 아니라, 수시입출식 통장에 고금리를 제공하고 있다.  토스뱅크는 또 올해까지 한시적으로 제공할 예정이었던 ‘매일 이자 받기’를 상시 서비스로 전환했다. 이자를 매일 받으면 일복리 효과가 발생한다.이들 3사는 서로 간의 경쟁뿐만 아니라 시중은행도 신경 쓰지 않을 수 없다. 시중은행이 연 5%에 가까운 정기예금을 내놓고 시중 자금을 빨아들이면서, 인터넷은행도 자금 조달을 위해 수신금리를 높여야 하는 상황이다.1일 현재 우리은행 정기예금 금리는 최고 연 4.71%, KB국민은행 연 4.69%, 신한·하나은행은 연 4.60%다. 이들 모두 인터넷은행 중 최고 수준인 케이뱅크 정기예금 금리(최고 연 4.60%)보다 높거나 같다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.11.09.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>[사고]‘이동’의 새 패러다임이 궁금하다면…16일 ‘ECF 2022’로!</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005362243?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>제9회 이데일리 IT컨버전스포럼(ECF)앰배서더 서울 풀만 호텔서 16일 개최‘우영우’ 공동제작 스튜디오지니 김철연 기조연설블록체인·커머스·금융·모빌리티·AI·우주 등 다양한 이슈 망라무료 참가, 현장 접수 선착순 200명에 점심 제공[이데일리 정다슬 기자] 지금까지는 ‘이동’ 자체가 중요했지만 앞으로는 ‘이동’이 다양한 생산적 가치를 낳을 것. 이같은 전망은 모빌리티 산업을 다르게 바라보고 더욱 큰 가치를 부여하는 계기가 되고 있습니다. 티맵모빌리티는 국내 내비게이션 1위 기업으로서 이같은 이동의 전략에 대해 누구보다도 열심히 고민하는 회사이지요. 이들의 고민이 다른 산업에 종사하시는 분들에게도 적지 않은 영감을 부여할 것이라고 생각하는 이유입니다.이데일리는 오는 16일 서울 중구 앰배서더 서울 풀만 호텔 그랜드볼룸에서 ‘위기 넘어 기회 있다: 디지털 전환 시대 생존전략’ 주제로 제9회 ‘ECF 2022(이데일리IT컨버전스포럼 2022)’를 개최합니다. 산업별 내년 전망, 선도기업들의 기술력 및 전략들을 한 자리에서 들을 수 있는 귀중한 자리가 될 것입니다.기조강연은 올해 전 세계인들의 마음을 훈훈하게 만들었던 드라마 ‘이상한 변호사 우영우’를 공동제작한 스튜디오지니의 김철연 대표가 맡을 예정입니다. 김 대표는 포럼 기조연설을 통해 글로벌 콘텐츠 및 미디어 시장에 대한 전망, 그리고 ‘우영우’가 어떻게 글로벌 시청 4억 시간이란 대기록을 세울 수 있었는지에 대한 비결을 공유합니다.이어 ‘디지털 경제 성공을 위한 규제 혁신 방향은? 플랫폼, AI, 데이터를 중심으로’를 주제로 한 좌담회도 진행됩니다. 이성엽 고려대 기술법정책센터장(좌장), 엄열 과학기술정보통신부 인공지능기반정책관, 박성호 한국인터넷기업협회 회장, 이윤조 김앤장 변호사 등이 참석해 플랫폼사들을 향한 무분별한 규제에 대한 부작용, 우려에 대해 이야기를 나눕니다.오후 세션의 문은 오세현 SK텔레콤 Digital Asset CO(부사장)가 나설 예정입니다. 오 부사장은 블록체인의 미래를 밝힐 ‘웹 3’에 대해 강연합니다. 더불어 △서현우 비바리퍼블리카 사업전략 헤드가 토스의 슈퍼앱 전략을 △박준희 카페24 디지털전략연구소장이 글로벌 커머스 시장 진출을 △박서하 티맵모빌리티 퓨처모빌리티 그룹장이 도심항공모빌리티(UAM) 시대를 이끄는 모빌리티 플랫폼의 진화를 △정재성 로앤컴퍼니 부대표가 글로벌 동향과 로톡의 전략을 소개합니다.오후 2부 세션에선 분야별 선도기업들의 핵심 전략을 듣습니다. 이경일 컴투버스 대표가 메타버스의 새로운 세상을, 인공지능(AI) 기술업체 업스테이지의 권순일 Biz 총괄이 AI 현실과 미래에 대해 강연합니다. 또한 한상영 네이버클라우드 기획&amp;전략 상무는 클라우드 산업 현황과 미래를, 김수종 이노스페이스 대표는 민간우주개발 시대를 앞당길 스타트업 도전기를 전달할 계획입니다.이번 ECF 2022는 무료입니다. 행사 당일 현장 접수 선착순 200명에게 점심을 제공합니다. 여러분의 응원과 따뜻한 관심을 부탁 드립니다.◇주최 : ㈜이데일리◇후원: 과학기술정보통신부, 방송통신위원회, 한국인터넷기업협회, 한국통신사업자연합회, 코리아스타트업포럼, 정보통신기획평가원, 한국IPTV방송협회◇일시: 2022년 11월 16일(수) 10:00~17:30◇장소: 앰배서더 서울 풀만 호텔 그랜드볼룸(2F)·유튜브 ‘이데일리 프렌즈’ 채널 생중계◇사전등록 행사 홈페이지:https://ecf.edaily.co.kr/ECF2022/◇문의: 이데일리 02-3772-9409, 02-3772-9407·jeong@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.11.06.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>IPO 기대주들의 속절없는 추락</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005172816?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>[이미지출처=연합뉴스]오아시스, 야놀자, 비바리퍼블리카(토스), 케이뱅크, 컬리 등 상장 기대주들이 속절없이 무너지고 있다.6일 서울거래 비상장에 따르면 비바리퍼블리카, 케이뱅크, 컬리 등이 52주 최저가를 기록했다. 오아시스는 1년 전과 비교해 약 5000원(16.67%) 하락한 2만5000원을 기록하고 있다. 야놀자는 1만1545원(22.18%) 하락한 4만511원에 거래됐다.장외시장의 부진은 주식시장의 부진 때문이다. 인플레이션을 억제하기 위한 미국 연방준비제도(Fed)의 강한 기준금리 인상이 지속되지 국내증시 부진이 장가화되고 있다.통상 주식시장이 부진하면 공모주 시장에도 영향을 끼친다. 이로 인해 최근 청약에 나섰던 대부분의 기업이 공모가를 하단에서 결정하는 사례가 빈발하고 있다. 2020년 코로나19로 공모주가 인기를 끌 당시에는 대부분 희망밴드 상단에서 공모가가 결정됐다.비상장주식은 개인들이 주 투자자였다. 공모주 시장에서 대규모 청약을 받기 어렵다는 판단에 비상장주식으로 눈을 돌렸다. '따상' 현상이 비상장주식의 인기를 끌어올린 것이다. 하지만 공모주의 연이은 부진, 철회, 상장시기 재조율 등이 연달아 나타나면서 비상장주식의 주 투자자였던 개미들이 외면하기 시작했다.주식시장의 부진으로 '대어급' 기업들이 줄줄이 상장예정 일정을 변경하는 것도 투자자들의 투자심리를 위축하는데 영향을 준 것으로 보인다. 올들어 IPO대어로 주목받았던 SK쉴더스, 원스토어, 태림페이퍼, 현대엔지니어링, 골프존커머스, 라이온하트스튜디오 등은 줄줄이 공모 계획을 철회했다.거래대금도 반토막 이하로 감소했다. 금융투자협회가 운영하는 비상장시장 K-OTC의 10월 하루 평균 거래대금은 23억24억원으로, 51억7832억원을 기록한 지난해 같은 기간보다 55.58% 하락했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.11.03.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>헤세그, 서울투자청 'CORE 100' 선정</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003056110?sid=105</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>좌측부터 닉토넥 개발자인 니콜라이 파쿨린 박사,헤세그 손인식 대표.헤세그(대표 손인식)는 서울투자청(Invest Seoul) 주관 'CORE 100' 기업에 뽑혔다고 2일 밝혔다. 자체 개발한 메인넷 기술의 우수성 등을 인정받았다. 서울투자청으로부터 맞춤형 해외 투자유치 지원과 관련 브랜딩 지원, 해외 주요 지역 관련 콘퍼런스와 투자설명회 참여 기회도 제공 받는다. 손인식 대표는 “CORE100 선정을 통해 해외 투자 유치에 고삐를 죌 것”이라며 “내년에는 솔라나, 아발란체, 앱토스 등과 경쟁하겠다”고 말했다.회사는 DID, 빅데이터, 보안, NFT 등 각종 솔루션을 개발했다. 최적화한 기업용 블록체인 메인넷인 닉토넷(NiktoNet)과 솔루션을 제공한다. 기업용 프라이빗 레이어1(Layer1) 메인넷 닉토넷은 빠른 거래 속도와 저렴한 수수료를 지원한다. 독립 블록체인 네트워크를 제공한다. 최근 메타버스 플랫폼 서비스 업체 넥스터에 첫 공급 계약을 체결하면서 상용화에 속도를 내고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.11.10.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>[이 주의 새 책] 프롤로그 에필로그 外</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001183327?sid=103</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>■프롤로그 에필로그정영문이 11년만에 장편소설을 선보였다. 의식의 흐름을 따라 만연하게 이어지는 정영문 문장의 리듬을 깊게 음미할 수 있는 작품이다. 작가는 “이 소설을 읽으며 우리가 해야 할 일이란 간명하다. 삶에 없는 핵심과 의미를 소설 속에서 찾아내려는 시도를 멈추고, 수없이 나뉘며 끝없이 흐르는 이 이야기에 그저 몸을 내맡기는 것”이라고 밝힌다. 정영문 지음/문학동네/460쪽/1만 6500원.■코리안 지오푸드우리나라를 대표하는 지리적표시 등록 농·수·축·임산물에 대해 기본적으로 꼭 알아야 할 식품 지식을 담아았다. 우리 식품의 고유성과 우수성을 전파하려는 취지라고 한다. 대한민국 대표 지역특산물의 총람서라고 할 수 있다. 신완섭 지음/고다/500쪽/2만 5000원.■우리 미술이야기 3최경원의 미술 인문학 시리즈 〈아름다워 보이는 것들의 비밀-우리 미술 이야기〉 세 번째 이야기 ‘철학의 나라-조선’ 편. 무기력하고 고리타분한 나라로 오해되는 조선이 철학이 깃든 명품을 만들고, 서양보다 수백 년 먼저 추상미술이 대세였고, 예술의 민주화를 이룬 나라였음을 서른네 가지 역사적 소재들을 통해 설명한다. 최경원 지음/더블북/480쪽/3만 2000원.■여자의 심리코드프로이트, 라깡 심리학을 바탕으로 여성의 심리를 조명한다. 1만여 회 이상의 상담을 통해 겨험한 진솔한 이야기를 담아냈다. 인간의 본질적이고도 가장 내밀한 곳을 파헤치면서 지금까지 어디에서도 정의되지 않았던 근본적인 ‘여자 이야기’를 풀었다. 박우란 지음/유노라이프/256쪽/1만 6000원.■산성할아버지의 뿌리이야기의식과 무의식, 그리고 잠재의식을 통한 마음에 대한 이야기, 태(胎)난(卵)습(濕)화(化)생의 태생 이야기, 철학과 불교, 기독교를 넘나드는 해학들을 한문과 숫자, 그리고 의미 유추의 논리로 풀어낸다. 저자의 글과 시, 그리고 그림 등과 저자의 환경 사진을 함께 엮어낸 부분들이 저자의 삶과 철학을 엿볼 수 있어 내용을 이해하는데 도움이 된다. 천명일 지음/지혜의나무/230쪽/1만 9000원.■유난한 도전간편송금으로 시작해 뱅킹, 증권, 보험, 결제 등을 아우르는 종합 금융 플랫폼으로 성장한 토스팀, 이들은 어떻게 이런 성과를 이루었을까. 세간에 화제가 되는 그들의 독특한 기업문화는 어떻게 만들어졌을까? 창업자 등 35명을 인터뷰하고 회의록 등 내부자료를 샅샅이 뒤져 토스가 달려온 11년의 유난한 도전사를 정리했다. 정경화 지음/북스톤/336쪽/1만 7000원.■0원으로 사는 삶저자는 단순한 생존에서 나아가 자신만의 삶의 방식을 찾기로 한다. 보트, 카라반에 사는 모바일 리빙부터 버려진 창고나 공장을 거처로 삼는 웨어하우스 리빙, 빈 건물을 점거하는 스퀏팅까지. 대안 주거 공간에서의 생활은 거주 방법 자체를 변화시킨다. 박정미 지음/들녁/454쪽/1만 9500원.■마수오와 수상한 도둑아빠를 찾겠다는 꿈을 가진 마수오와 동생을 찾겠다는 꿈을 가진 라온이가 힘을 합쳐 신비한 도시 소망시에서 서커스 요괴에 맞서 모험을 펼친다. 마수오와 라온이의 간절한 꿈과 그 꿈을 빼앗으려는 수상한 도둑이 펼치는 흥미로운 대결 속에서 누구도 빼앗을 수 없는 어린이의 꿈과 희망에 대해 생각하게 한다. 다새쓰 방정환 문학 공모전 대상작. 황섭균 지음/윤유리 그림/밝은 미래/192쪽/1만 2000원.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.11.03.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>"불황은 기회"…역발상 투자 나선 스타트업</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002272610?sid=105</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>"저평가된 기업 인수·합병, 우수 인재 유치 기회될 수도"경기 둔화에도 인재 채용과 해외 진출, 인수합병(M&amp;A)을 통해 적극적인 투자 행보를 보이는 스타트업이 있다. 시장과 경쟁사가 움츠렸을 때 격차를 벌리려는 '역발상 투자'에 나선 것이다. 당장 실적 부담은 있지만, 경기가 살아날 때 회사가 '퀀텀 점프'하는 계기가 된다는 점에서 이들의 행보에 관심이 쏠린다.3일 업계에 따르면 상업용 부동산 데이터 전문 기업 알스퀘어는 연내 인도네시아와 태국, 말레이시아 상업용 부동산 데이터베이스(DB) 수집을 마무리할 계획이다. 지난해 진출한 베트남과 싱가포르에 이어 동남아 시장 사업 영역을 넓히기 위해서다.알스퀘어는 직원이 직접 동남아 현장을 찾아 부동산 DB를 수집한다. 온라인이나 정부, 기관을 통해 자료를 크롤링하는 방식에 비해 디테일하고 현장에서만 확인할 수 있는 정보를 수집 가능하나, 비용과 인력 부담이 크다. 그럼에도 향후 매입 매각 자문, 데이터 애널리틱스 등의 연계사업으로 이어질 수 있다는 점에서 알스퀘어는 해외 투자를 꾸준히 확대하고 있다.“불황은 기회”…역발상 투자 나선 스타트업(제공=이미지투데이)실제로 베트남의 경우 국내외 기업의 오피스와 공장을 연결하고, 국내 한 대기업과 정보수집 계약을 체결하는 등 데이터를 활용해 활발한 사업을 펼치고 있다. 국내외에서 사업을 확장하며 인재도 적극적으로 채용 중이다. 알스퀘어의 임직원은 6월 기준 560명으로, 2018년보다 130% 증가했다.토스를 운용하는 비바리퍼블리카도 최근 대규모 채용에 나섰다. 토스, 토스뱅크, 토스페이먼츠, 토스증권, 토스인슈어런스, 토스씨엑스 등 전 계열사에서 최대 300명을 채용할 예정이다. 지난 2년간 토스커뮤니티 전체 임직원은 지난 2020년 8월 650여 명에서 지난달 기준 1천800명으로 크게 늘었다.명함 작성 및 공유 서비스 리멤버를 운영하는 드라마앤컴퍼니는 지난 7월 신입 채용 전문 플랫폼 '자소설닷컴'을 인수했다. 올해 들어 세 번째 인수로, 서비스 고도화와 신사업을 위한 목적이다. 세금 신고 및 환급 도움 서비스 '삼쩜삼'을 운영하는 자비스앤빌런즈는 아르바이트 급여 및 일정 관리 앱 '하우머치'의 운영사 두들팩토리를 지난 8월 인수했다.불황을 기회로 보고 투자하는 스타트업들대기업과 비교해 상대적으로 자금 여유가 없는 스타트업이 경기 둔화에 공격적인 투자에 나선 건 미래를 위해서다. 당장 기업 수익성에는 악재이나, 향후 경기가 회복될 땐 투자 활동에 소홀했던 경쟁사를 따돌리고 시장을 선점하는 효과를 낼 수 있다.일례로 2000년대 초 글로벌 IT 버블 붕괴 당시 연구개발(R&amp;D) 투자를 대폭 줄인 AMD와 달리 인텔은 꾸준히 연구개발 비용을 늘리며 업계 선두를 지켰다. 유럽발 경제위기 여진이 남은 2012년 하이닉스반도체를 인수한 SK텔레콤의 경우 당시 재무 부담이 지나치다는 우려가 컸다. 하지만 지금은 SK그룹 역사상 가장 성공한 인수합병(M&amp;A) 사례라는 평가를 받는다.스타트업 업계 관계자는 "불황에는 보수적으로 운영하는 기업이 많지만, 상대적으로 저평가된 인수, 합병 기회를 놓치거나 우수 인재 유치, 마케팅 측면에서 효과를 보기 어렵다"며 "위기를 기회로 보는 기업들의 행보가 산업계 지형을 바꾸기도 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.11.13.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>[고금리시대 생존법②] 고정금리로 갈아타볼까…정책 대환상품에 '관심’</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011533096?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>기사내용 요약안심전환대출 문턱 낮추고 한도 확대…"더 늦기 전에 알아봐야"금리 오르자 '금리상한형 주담대' 가입도 급증…2500억 넘어서 당국, 대환대출 플랫폼 구축 속도…"구체적 운영 방안 마련"[서울=뉴시스] 권창회 기자 = 금융감독원이 윤창현 국민의힘 의원실에 제출한 자료에 따르면 대출자 1천646만명 중 가계 대출 평균 금리가 7% 수준이 되면 총부채원리금상환비율(DSR) 90% 초과 대출자는 120만명이 되는 것으로 나타났다. DSR 90% 초과 대출자는 소득에서 소득세와 건강보험료 등 세금만 내도 원리금을 못 갚는 사람을 의미한다. 사진은 9일 서울 시내 은행에 걸려있는 대출금리 현수막. 2022.11.09. kch0523@newsis.com[서울=뉴시스] 정옥주 기자 = 주택담보대출금리(주담대) 최고 금리가 연 8%대에 육박하는 등 대출 금리가 하루가 다르게 치솟자 차주들의 이자부담이 눈덩이처럼 불어나고 있다. 이에 따라 이자부담을 조금이라도 줄일 수 있는 대환상품에 대한 소비자들의 관심이 높아지고 있다. 13일 은행권에 따르면 11일 기준 KB국민·신한·하나·우리·NH농협 등 5대 시중은행의 주택담보대출 고정형(혼합형) 금리는 연 5.30~7.33%, 변동형 금리는 연 5.09~7.71%로 집계됐다. 금리상단은 8%에 다다르고 있고, 하단은 이미 5%를 훌쩍 넘겼다.금리가 가파르게 오르자 차주들이 부담해야 하는 이자도 큰 폭으로 늘었다. 은행권에 따르면 주담대 4억원을 30년 만기의 원리금균등상환 방식으로 갚을 경우 금리 5%에서 매달 내야 하는 이자는 104만원이다. 같은 조건에서 이자가 7%로 2%포인트 오르면 매달 이자는 155만원으로 오른다. 이에 한 달에 상환해야 하는 원리금은 매월 215만원에서 266만원으로 뛰어오른다. 월급의 절반 이상을 원리금을 상환하는데 써야 하는 것이다. 통계청에 따르면 올해 2분기 기준 가구당 월평균 소득은 483만1000원이다. 정부도 대출자들의 이자부담을 줄여주기 위해 다양한 정책상품을 내놓고, 현재 금리 수준보다 비교적 낮은 고정금리로 갈아탈 것을 적극 독려하고 있다. 한국은행에 따르면 9월 가계대출 중 신규취급액 기준 변동금리 대출 비중은 76%로 전월(75.5%)보다 0.5%포인트 늘었다. 잔액기준으로는 전월과 같은 78.5%로 집계됐다. 2014년 3월(78.6%) 이후 8년 6개월 만에 가장 높은 수준이다. 5% 이상 고금리 대출 비중도 전달 21%에서 37.7%로 늘었다. 2012년 6월(38.2%) 이후 10년 3개월 만에 가장 높은 수준이다.우선 금융위원회는 지난 9월15일부터 안심전환대출의 신청을 받고 있다. 안심전환대출은 변동금리·준고정금리(혼합형) 주담대를 최저 연 3.7% 금리의 장기·고정금리·분할상환 상품으로 갈아탈 수 있는 상품이다. 향후 금리가 오르더라도 내야하는 원리금이 동일하기 때문에 지금과 같은 급격한 금리 인상기에 눈여겨볼 만하다.대환 대상은 올해 8월16일까지 제1금융권·2금융권에서 취급된 변동금리 또는 준고정금리 주담대다. 만기가 5년 이상이면서 만기까지 금리가 완전히 고정돼 있는 주담대와 보금자리론·적격대출·디딤돌대출 등 정책모기지는 제외된다.금리는 보금자리론 금리 대비 0.45%포인트, 저소득 청년층은 0.55%포인트 인하된 수준이 작용된다. 따라서 3.80~4.00%가 적용되며, 단 저소득 6000만원 이하·만 39세 이하 저소득 청년층은 3.70~3.90%가 적용된다. 만기까지 고정금리로, 향후 금리가 인상되더라도 원리금은 동일하다. 만기는 10·15·20·30년 총 4가지로 운영된다. 주금공은 더 많은 차주들이 전환 기회를 가질 수 있도록 안심전환대출 신청 대상을 지난 7일부터 확대했다. 주택가격 기준을 4억원에서 6억원으로 확대했고, 부부합산 소득은 7000만원에서 1억원으로 높였다. 대출한도 역시 2억5000만원에서 3억6000만원(단 기존대출 잔액 범위 내)으로 늘렸다. 신청·접수처는 기존 주담대 취급기관에 따라 달리 적용된다. 국민·기업·농협·신한·우리·하나은행 등 6대 은행에서 받은 대출인 경우 해당 은행 영업점 또는 모바일앱으로, 기타 은행과 제2금융권에서 받은 대출인 경우에는 주금공 홈페이지 또는 스마트주택금융앱을 통해 신청하면 된다신청물량이 공급목표 25조원을 넘는 경우 조기 마감된다. 주금공 관계자는 "연말 전후 보금자리론 금리 인상도 예정돼 있음을 감안할 필요가 있다"며 "내년에도 보금자리론을 통한 대환이 가능하지만, 현재 금리보다 높은 금리가 적용될 예정"이라고 말했다.'금리상한형 주담대' 상품도 눈여겨볼만 하다. 이 상품은 출시 초반 별다른 관심을 끌지 못했지만, 상품 내용을 개편하고 금리가 급등한 지난 7월 이후로 가입자가 폭발적으로 늘고 있다.금리상한형 주담대는 금융당국이 본격적인 금리 상승기에 대비해 대출자들의 상환부담을 줄여주기 위해 지난해 7월 시중은행을 통해 재출시한 상품이다. 시장금리가 아무리 올라도 금리갱신 시점에 가입자에게 새로 적용되는 금리를 직전 금리 대비 연간 최대 0.75%포인트 또는 5년간 2%포인트 이내로 제한한 것이 핵심이다.은행권에 따르면 KB국민·신한·하나·우리·NH농협 등 5대 은행의 '금리상한형' 주담대 가입 건수는 지난 10일 기준 총 1162건(2525억6300만원)으로 집계됐다. 재출시된 지 1년 만인 올해 7월14일까지만 해도 가입 실적 115건(217억2000만원)에 불과했던 것에 비하면, 최근 약 4개월간 가입자가 10배 늘어난 것이다.한 시중은행 관계자는 "금리상한형 주담대의 판매 기간이 연장되고 금리 상승으로 주목받기 시작하면서 가입자 수가 급격하게 늘어나는 추세"라고 말했다. 금융당국은 당초 지난 7월15일까지만 상품을 판매하려 했지만, 최근의 금리급등 상황을 감안해 더 많은 차주들이 가입할 수 있도록 판매기간을 연장하면서 '가입비용'과 금리상승 제한폭을 더 낮췄다.이와 함께 당국은 금리 상승기에 소비자들이 더 낮은 금리 대출로 손쉽게 이동할 수 있도록 '온라인 원스톱 대환 대출을 위한 인프라' 구축에 속도를 내기로 했다. 김주현 금융위원장은 지난 6일 '민생금융점검 당정협의회'에서 "은행, 저축은행, 카드, 캐피탈 사의 신용 대출을 비교해서 선택할 수 있도록 대환대출 이동시스템 구축할 계획이며 금융권, 핀테크 업계 등과 함께 태스크포스(TF)를 통해 구체적인 시스템 운영 방안을 마련하겠다"고 말했다.대환대출 플랫폼은 하나의 플랫폼에서 은행, 저축은행, 캐피탈 등 여러 금융기관 대출상품을 비교하고 낮은 금리로 갈아탈 수 있게 하는 비대면 원스톱(One-stop) 플랫폼을 말한다. 금융결제원이 구축하는 플랫폼에 토스나 카카오페이 등 핀테크 업체가 운영 중인 대출금리 비교 서비스를 연계하는 방식이다. 이 서비스가 도입되면 금융소비자들은 은행을 직접 방문하지 않고도 플랫폼에서 가장 저렴한 대출상품으로 이동할 수 있게 된다.금융위는 지난해 대환대출 플랫폼을 출범하고 제2금융권으로 확대하는 방안을 추진했으나, 업권별 갈등을 극복하지 못해 결국 도입이 무산된 바 있다.시중은행 관계자는 "기존 변동금리를 사용하는 주택담보대출자는 최근 요건이 완화된 안심전환대출이나 금리상한형 주담대 등 정책상품과 금리를 비교한 후 대출을 갈아타는 것이 유리하다"며 "또 카드론이나 캐피탈 등 2금융권 대출 중 금리가 높은 경우 1금융권의 서민금융대출 대환을 적극 알아보거나, 현실적으로 대출을 조금씩 상환해서 이자 상환 부담을 줄이는 노력이 필요해 보인다"고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.11.14.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>‘경기똑D’ 간편인증 도입… 등본 발급 등 더 쉬워져</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003753788?sid=102</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>66종 전자증명서 제공 행정 앱道, 14일부터 인증절차 간소화경기도는 공공마이데이터를 활용한 맞춤형 행정서비스 앱 ‘경기똑D’에 민간전자서명인 ‘간편인증’ 서비스를 14일부터 도입한다고 13일 밝혔다. 이에 따라 공동인증서 없이도 주민등록등본 등 66종의 전자증명서를 ‘경기똑D’에서 간편하게 발급받을 수 있게 됐다.  지금까지 경기똑D의 전자지갑 서비스를 이용하려면 공동인증서를 PC에서 스마트폰으로 옮겨 본인 인증 절차를 거쳐야 했다. 도는 지난 7월 도민참여단 의견과 8월 만족도 조사에서 제기된 이런 불편을 해소하고자 간편인증 방식을 추가 도입했다.  간편인증은 기존의 공동인증서처럼 경기똑D 앱에 등록하지 않아도 되고 해마다 갱신할 필요가 없으며, 발급 인증 절차도 더 단순하다. 간편인증서(네이버·카카오·PASS·토스 등)를 선택해 본인인증을 받으면 전자지갑 서비스를 이용할 수 있다.  전자지갑을 통해 주민등록등본과 건강보험료 납부확인서, 자동차등록원부 등 66종의 전자증명서를 조회·저장·공유할 수 있다.  도는 12월에 행정안전부의 온라인복지신청 서비스와도 연계해서 서비스를 더욱 확대하기로 했다. 이렇게 되면 경기똑D에서 원스톱으로 다자녀가정 입학축하금 등의 복지 신청도 할 수 있게 된다.  지난 4월 개통된 경기똑D는 △도민 복지·공개채용 정보 등 ‘맞춤 정보 서비스’ △공공마이데이터 기반의 본인 확인서비스인 ‘도민카드 서비스’ △다양한 전자증명서를 휴대전화에 보관하고 활용할 수 있는 ‘전자지갑 서비스’ △마이데이터 정보를 생활에 도움이 되는 리포트 형식으로 제공하는 ‘마이리포트 서비스’를 제공하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.11.14.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>해시드, 웹3.0 커뮤니케이션 인프라 플랫폼 노티파이(Notifi)에 투자</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005044597?sid=105</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>노티파이 로고블록체인 전문 투자사 해시드(대표 김서준)가 웹3.0 애플리케이션(DApp, 디앱)을 위한 커뮤니케이션 플랫폼 ‘노티파이(Notifi)’의 시드 라운드에 투자를 진행했다고 밝혔다.이번 라운드는 해시드와 레이스 캐피탈(Race Capital)이 공동으로 리드했으며 스트럭 캐피탈(Struck Capital), 에이치알티 캐피탈(HRT Capital), 수퍼스크립트(Superscrypt) 등도 참여했다. 노티파이는 이번 라운드를 통해 총 1,000만 달러(한화 약 143억 원) 규모의 자금을 유치하게 됐다.노티파이는 디앱에서 활용 가능한 커뮤니케이션 플랫폼을 개발하는 기업이다. 기존 웹3.0 생태계는 여러 애플리케이션과 메시징 플랫폼 등 개발자 또는 사용자 간의 커뮤니케이션이 파편화돼 있었다. 이 같은 문제점을 해결할 수 있도록 노티파이는 디앱 개발자들에게 개발 키트를 제공하고 있다.현재 통합형 웹3.0 메일함 ‘노티파이 허브(Notifi Hub)’를 베타 운영 중으로, 지갑에 흩어져 있는 메시지와 알림을 단일화된 커뮤니케이션 허브로 모을 수 있는 서비스다. 디앱 개발자들은 텔레그램, 문자, 이메일 등의 알림을 사용자들이 통합 관리할 수 있도록 노티파이 허브를 통해 메시징 및 알림 기능을 탑재할 수 있다. 노티파이는 해당 서비스의 정식 출시도 앞두고 있다.특히 노티파이는 원하는 정보를 선택한 커뮤니케이션 채널에서 실시간으로 받아볼 수 있는 서비스도 제공한다. 이를 통해 사용자들은 유동성 공급 및 투자 위험 대비 전략 등과 관련된 탈중앙화 금융 프로토콜에서의 청산 알림, NFT(대체불가능토큰) 마켓플레이스에서의 가격 및 경매 알림, 탈중앙화 조직 플랫폼에서의 거버넌스 투표 알림 등의 정보를 쉽게 확인할 수 있다.노티파이는 이번 투자 유치를 통해 폴리곤(Polygon) 아발란체(Avalanche) 등 다양한 체인으로 서비스를 확장할 계획이다. 현재까지 솔라나(Solana), 니어(Near), 이더리움(Ethereum) 체인을 지원하고 있으며 앱토스(Aptos), 수이(Sui) 체인에서는 제품 개발을 거의 완료한 상태다. 또한 대규모 사업 프로젝트 지원 및 제품 개발을 가속화할 예정으로, 이를 위해 개발자들도 채용할 계획이다.해시드 김백겸 파트너는 “노티파이는 일반 웹 애플리케이션만큼 쉬운 설정과 유지 관리가 가능한 커뮤니케이션 솔루션에 대한 대담한 비전을 가지고 있으며, 극도로 복잡한 크로스 체인 메시징 기능 개발을 단순화하는 영리하고 직관적인 인터페이스를 고안해냈다”며, “초기부터 레이어 1 블록체인 및 웹3.0 개발자들로부터 많은 찬사를 받은 노티파이 팀과 파트너십을 맺고 지원하게 되어 기쁘다”고 전했다.노티파이 폴 킴(Paul Kim) 대표는 “웹3.0 산업은 지난 몇 년 동안 먼 길을 걸어 왔고, 끊김 없는 사용자 경험을 제공하는 것이 다음 세대를 이 산업에 온보딩하는 데에 필수적일 것이다. 이러한 점에서 기존 투자자들과 더불어, 이 분야의 중요성에 공감하는 전략적 파트너를 얻게 되어 기쁘다”며, “소셜 메시징, 알림, 그리고 커뮤니케이션의 통제와 검열을 탈중앙화하는 것은 새로운 제품군에 대한 열풍을 일으킬 것이며 우리가 그 흐름의 한 가운데에 있다는 생각에 매우 흥분된다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.11.14.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>한양언론인회 올해 '한양언론인상' 수상자 선정</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004817869?sid=103</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>왼쪾부터 현상순 아시아경제 회장, 이수형 법률신문 대표이사, 송기용 머니투데이 편집국장/사진=한양언론인회 제공한양대 출신 언론인 모임인 한양언론인회는 오는 22일 오후 7시 서울 중구 프레지던트호텔에서 열리는 창립 24주년 '제18회 한양언론인의 밤' 행사에서 △언론부문 '제17회 한양언론인 상' △대외부문 '2022 한양을 빛낸 동문상' △승진 및 취임한 동문에게 축하패를 함께 시상한다.'제17회 한양언론인 상' 수상자로 현상순 아시아경제 회장과 이수형 법률신문 대표, 송기용 머니투데이 편집국장을 선정했다. '2022 한양을 빛낸 동문상' 수상자는 천경준 씨젠 회장, 고춘홍 이브자리 회장, 김동연 일양약품 대표이사 사장, 김희근 벽산엔지니어링 회장, 김형일 ㈜한양 부회장, 이방수 LG에너지솔루션 대표이사 사장, 전해상 도레이첨단 대표이사 사장, 황현식 LGU플러스 대표이사 사장, 나희승 한국철도공사 사장, 성대규 신한라이프 대표이사 사장, 김성익 SK 대표, 윤호영 카카오뱅크 대표이사 사장, 김민표 토스페이먼츠 대표, 김민영 넷플릭스 부사장, 김혜연 엔씽 대표, 장지호 닥터나우 대표 등 총16명이다.축하패는 김세환 경기신문 대표이사 사장, 김정호 한국경제 사장, 고진갑 뉴스웍스 대표, 서기찬 위키트리 편집국장, 박홍규 한국면세뉴스 사장, 오종석 아주경제 총괄사장, 이규석 비즈트리뷴/S-저널 대표, 고규대 이데일리 상무, 박선호 CEO스코어데일리 편집국장, 배진영 조선뉴스프레스 월간조선 편집장, 김원철 e내외경제TV 대표, 이호정 서울신문 상무, 이근형 굿모닝경제 편집국장, 전경윤 불교방송 보도국장, 조준원 언론중재위원회 사무총장, 김기범 S-저널 편집국장, 남화영 JTBC플러스 취재사업본부장, 정창원 MBN 시사제작국장, 김기남 여행신문 대표, 강종구 연합뉴스 인천취재본부장, 이직 베타뉴스 대표, 안길수 인사이트 대표, 최지혜 열린뉴스통신 편집국장 등 20여명이 받을 예정이다.한양언론인회는 현재 국내·외 언론사에 한양대학교 학부 졸업생 1000여 명의 동문이 소속돼 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.11.06.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>“잦은 이직·채용으로 인한 애로, 새 친구 사귀기 어려운 문제 해결합니다” 스파크랩 데모데이 현장[스테파니]</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003460551?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>안녕하세요? 동아일보에서 스타트업 취재를 담당하고 있는 김하경 기자입니다. 이번 스테파니에서는 3일 글로벌 스타트업 액셀러레이터 ‘스파크랩’이 개최한 데모데이 현장을 전해드리려 합니다. 스파크랩 데모데이 현장. 스파크랩 제공.스파크랩의 데모데이는 서울 코엑스 오디토리움에서 열렸습니다. 오프라인 데모데이는 3년 만인데요. 요즘 투자 시장 침체기라고 하지만 현장은 데모데이를 보러 온 인파로 북적였습니다. 스파크랩 데모데이 본격 시작 10분 전, 관람객들이 자리를 잡고 있다. 김하경 기자 whatsup@donga.com 이날 발표 기업은 △지지큐컴퍼니 △지아이빌리언스 △핸들 △연고링 △제트커머스코퍼레이션 △엑스크루 △스펙터 △스파크펫 △로지스팟 △민트NFT 등 10곳입니다. 기업발표 뿐 아니라 최태원 SK그룹 회장과의 토스콘서트 등 세 개의 패널 세션도 마련됐지만 이번 스테파니에서는 인상 깊었던 스타트업 소개에 초점을 맞춰보고자 합니다. ▽스펙터요즘처럼 이직이 활발한 시기가 없어서일까요. 인재 검증 플랫폼인 ‘스펙터’의 이야기가 흥미롭게 들렸습니다. 윤경욱 ‘스펙터’ 대표는 ‘7년 전에도 이 자리(스파크랩 데모데이)에 참여했던 재창업자’라고 스스로를 소개하며 발표를 시작했는데요. 윤경욱 ‘스펙터’ 대표. 스파크랩 제공.윤 대표에 따르면 한국에서 연간 발생하는 이직은 1106만 건으로, 평생직장의 개념은 사라지고 기업들은 이전보다 채용을 더 자주 많이 해야 하는 상황입니다. 구직자들의 애로도 커졌습니다. 면접에서의 합격 여부가 대개 30분 안에 좌우되기 때문에 자신의 역량을 다 드러내지 못하는 경우도 있습니다. 스펙터에서는 지원자의 이름과 전화번호만 입력하면 평판을 열람할 수 있습니다. 평판은 지원자가 일했던 회사의 대표, 임원진, 인사팀, 동료 등이 작성합니다. 이를 통해 지원자가 자신의 성장을 위해 얼마나 노력하는지, 사내 폭언·폭행 이슈 여부는 없는지, 업무 성향 어떠한지 등 다양한 정보가 담깁니다. 윤 대표는 “만약 (사전에 입력된) 평판이 없더라도 손쉽게 (평판 작성을) 요청할 수 있다”며 “평균 1.6일내에 3.8개의 평판이 등록된다”고 말했습니다. ▽연고링스타트업 ‘연고링’은 ‘대학생을 위한 취향 기반 온오프라인 소셜링 서비스 케빈의 클럽’을 운영하고 있습니다. 총 여덟 번의 피버팅(pivoting·사업방향 전환) 끝에 지금의 서비스를 런칭했다고 하는데요. 대학에 입학해도 신종 코로나바이러스 감염증(코로나19)으로 새로운 친구를 사귀기 어려운 현실 문제를 해결합니다.양희원 ‘연고링’ 대표. 스파크랩 제공.연고링의 특징은 가입 시 인증 절차와 프로필 심사를 거쳐야 하고, 부적절한 일이 발생할 경우 운영팀에 신고를 하면 바로 조치가 취해진다는 점입니다. 또 모임(클럽)을 이끌 리더는 면접을 통해 선발하는 한편, 이용자들은 모임 참석 전 모임 정보와 평가, 참석자들의 프로필을 확인할 수 있습니다. 양희원 연고링 대표를 포함해 팀 구성원이 대학생인 만큼 누구보다 요즘 대학생들의 고충을 잘 파악해 서비스에 반영했습니다.양 대표는 “요즘 대학생들은 새로운 친구를 학교 익명커뮤니티나 동아리에서 사귀는데, 익명 커뮤니티는 폭행 욕설 성적이슈 등에서 안전하지 않고 동아리는 콘텐츠가 한정적이거나 참석율이 낮아 지속이 어렵다”며 “케빈의 클럽에서는 인증된 유저들이 퀄리티가 보장된 클럽에서 더 다양하고 안전하게 만날 수 있다”고 말했습니다. ▽지지큐컴퍼니‘지지큐컴퍼니’는 세계에서 처음으로 인공지능(AI) 기반의 게임 코칭 플랫폼 ‘지지큐’를 개발한 스타트업입니다. 1억 개 이상의 경기 데이터를 학습한 AI가 데이터를 추출·분석해 개인맞춤형 피드백을 제공합니다. 이용수 지지큐컴퍼니 대표에 따르면 전세계 게이머는 30억 명가량 됩니다. 특히 프로게이머는 남학생들이 선호하는 직업 3위에 오를 정도로 인기라는데요. 많은 게이머들이 게임을 잘하기 위해 유튜브나 트위치에서 타인이 게임을 플레이하는 모습을 보면서 배운다고 합니다. 하지만 게임을 잘하기 위해 가장 중요한 것은 경기 직후 자신의 플레이를 복기하는 것이라고 합니다.이 대표는 “애석하게도 실시간 리뷰를 제공하는 솔루션은 전무했고, 전직 프로게이머나 유명 코치에게 1대1 코칭을 받는 것은 매우 비싼데다 이들마저도 취향과 경험을 기반으로 코칭하기 때문에 서비스 퀄리티가 보장되지 않는다”며 창업 배경을 설명했습니다.▽스파크펫스파크펫은 계속해서 늘고 있는 반려인 인구를 겨냥한 스타트업입니다. 반려동물과 보호자의 온오프라인 고객 경험을 연결하는 통합 플랫폼 ‘놀로’를 운영하고 있는데요. 이 플랫폼은 △놀로플레이 △놀로스토어 △놀로스퀘어 등 세 가지 서비스로 구성돼있습니다.최두열 ‘스파크펫’ 대표. 스파크랩 제공.놀로플레이를 통해서는 수의사의 행동 교육 콘텐츠를 모바일에서 쉽고 편리하게 경험할 수 있습니다. 같은 앱 내의 놀로스토어에서는 강아지껌, 고양이 스크레쳐 등 맞춤 상품을 추천받습니다. 또 오프라인 공간인 놀로스퀘어에서는 위탁교육, 미용, 의료, 복합문화공간 등 반려동물의 전 생애주기와 관련해 다양한 서비스를 이용할 수 있습니다. 최두열 스파크펫 대표는 “미국 최대 온라인 펫쇼핑몰 ‘츄이닷컴’이 (미국 반려동물용품 체인업체) ‘펫스마트’에 인수된 것처럼, 온오프라인 통합 방향은 국내 시장에서도 결코 다르지 않을 것”이라며 “반려시장규모가 10조 원에 달할 것으로 예상되는 가운데 단절된 고객 경험을 연결하고 흩어진 데이터를 하나로 모아 반려시장 전체를 통합하겠다”고 포부를 밝혔습니다. 앞으로도 스테파니는 투자 시장 침체기 속에서도 꿋꿋이 도전해나가는 스타트업들의 소식을 계속해서 전달드리겠습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.11.01.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>[알림]우주·디지털서 찾는 '위기속 기회'는? "16일 'ECF 2022' 오세요"</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005355329?sid=105</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>'9회 이데일리 IT컨버전스포럼'11월 16일 앰배서더 서울 풀만 호텔서 개최'우영우' 제작 비결, 우주스타트업 도전 이야기 들어볼 기회전문가들, 카카오 사태로 인한 규제 논의에 대한 토론도참가비 무료, 유튜브 '이데일리 프렌즈' 생중계[이데일리 강민구 기자] 러시아의 우크라이나 침공, 보호무역 기조 강화 등에 따라 국내·외 경제가 어렵습니다. 고물가, 고금리, 고환율로 금융시장 변동성이 커지고, 경기침체 우려가 나오는 위기에 직면해 있습니다. 이러한 어려움 속에서도 디지털 경제는 지난해 15% 성장했고, 많은 산업에 접목돼 기술 혁신을 이뤄내고 있습니다. 지난 6월 국산 로켓 누리호 발사가 성공한 가운데 국내 우주 스타트업들도 해외에서 새로운 기회를 찾고 있습니다.올해 9번째를 맞이한 ‘ECF 2022(이데일리IT컨버전스포럼 2022)’은 ‘위기 넘어 기회 있다: 디지털 전환 시대 생존전략’을 주제로 오는 16일 앰배서더 서울 풀만 호텔에서 열립니다. 경기 침체기 속 미래를 준비하는 국내 대표 디지털 혁신 기업들의 사업 전략과 산업 분야별 내년 시장 전망, 우수 기업의 기술 및 사업화 전략을 들어볼 수 있습니다.기조연설은 스튜디오지니의 김철연 대표가 글로벌 시청 시간 4억 시간을 넘긴 ‘이상한 변호사 우영우’의 성공비결과 함께 글로벌 콘텐츠&amp;미디어 시장에 대해 발표할 예정입니다.이어진 좌담회에서는 카카오 사태로 인한 규제에 대해 논의합니다. ‘디지털 경제 성공을 위한 규제 혁신 방향은? 플랫폼, AI, 데이터를 중심으로’를 주제로 이성엽 고려대 기술법정책센터장(좌장), 엄열 과학기술정보통신부 인공지능기반정책관, 박성호 한국인터넷기업협회 회장, 이윤조 김앤장 변호사가 토론합니다.오후 세션 1부는 오세현 SK텔레콤 Digital Asset CO(부사장)이 블록체인의 미래를 밝힐 웹3에 대해 강연합니다. 이어 ▲연결의 힘을 바탕으로 금융 혁신을 이끄는 토스의 수퍼앱 전략(서현우 비바리퍼블리카 사업전략 헤드) ▲글로벌 커머스 플랫폼이 답..카페24의 전략(박준희 카페24 디지털전략연구소장) ▲티맵과 미래모빌리티(박서하 티맵모빌리티 퓨처모빌리티 그룹장) ▲글로벌 리걸테크 동향과 로톡의 사업전략(정재성 로앤컴퍼니 부대표) 발표가 마련됐습니다.2부는 기술 분야별 선도기업의 전략을 듣는 시간으로 준비했습니다. ▲메타버스, 인터넷의 새로운 모습(이경일 컴투버스 대표) ▲어려운 AI는 가라..업스테이지의 기술 혁신(권순일 업스테이지 Biz 총괄) ▲디지털 경제 신경망 클라우드(한상영 네이버클라우드 기획·전략 상무)가 나섭니다.마지막 발표자로는 김수종 이노스페이스 대표가 나서 민간 우주개발 시대를 앞당길 우주 스타트업에 대해 소개합니다. 브라질서 상업용 우주발사체 쏘아 올릴 예정인 이노스페이스의 도전 이야기를 통해 우주에서의 새로운 기회에 대해 생각해 볼 기회가 될 전망입니다.이번 행사에 대한 여러분의 응원과 많은 관심을 부탁 드립니다. 참가비는 무료이며 행사 당일 행사장에서 선착순으로 접수를 하신 200분에게 점심식사 식권을 드립니다.◇명 칭 : 제9회 이데일리IT컨버전스포럼(ECF 2022)◇주최 : ㈜이데일리◇후원: 과학기술정보통신부, 방송통신위원회, 한국인터넷기업협회, 한국통신사업자연합회, 코리아스타트업포럼, 정보통신기획평가원, 한국IPTV방송협회◇일시: 2022년 11월 16일(수) 10:00~17:30◇장소: 앰배서더 서울 풀만 호텔 그랜드볼룸(2F)·유튜브 ‘이데일리 프렌즈’ 채널 생중계◇사전등록 행사 홈페이지:https://ecf.edaily.co.kr/ECF2022/◇문의: 이데일리 02-3772-9409, 02-3772-9407·jeong@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.11.14.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>[시그널] '유동성 위기' 새한창투, 두나무·토스 지분 매각 추진</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004121985?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>이정우 대표가 직접 인수 후보측 접촉사모사채 상환 위해 800억 이상 확보 목표매각 실패시 채무물이행 상태 전락 우려[서울경제] 새한창업투자가 유동성 위기를 맞아 보유하고 있는 투자자산을 매각해 부채 상환을 추진하고 있다. 새한창투는 17일 만기가 돌아오는 800억 원 규모 사모 사채의 만기 연장이나 차환 발행이 어려운 상황이다.14일 투자은행(IB) 업계에 따르면 새한창투는 보유하고 있는 두나무와 비바리퍼블리카(토스) 지분 전량을 매각하려고 잠재 매수자와 접촉하고 있다. 800억 원 규모의 제11회 무보증 사모사채 자금을 상환하기 위해서다. 이정우(57) 새한창투 대표가 직접 잠재적 투자자들을 만나 가격 등을 협의하는 것으로 알려졌다.새한창투가 매각하려는 두나무와 토스 주식은 각각 21만 5000주, 124만 4144주다. 해당 지분은 모두 사모사채의 담보로 잡혀 있는 상태다. 두나무와 토스의 지분 가치는 증권플러스 비상장에서 거래되는 가격을 기준으로 각각 342억 원, 546억 원에 달하는 것으로 파악된다. 다만 대량의 주식을 서둘러 팔아야 하는 만큼 일정 수준의 할인율 적용은 불가피하다. 새한창투는 이 지분을 일괄 매각해 800억 원 이상의 현금을 확보하는 것을 목표로 하고 있다.이에 따라 새한창투가 두나무의 지분 매각에 성공하더라도 수백억 원의 손실을 떠안게 됐다. 새한창투는 지난해 두나무 지분 인수에 667억 원을 투입했는데 불과 1년 사이 절반 정도로 가격이 떨어졌다. 최근 암호화폐 시장의 혼란이 가중되고 있어 단기간 두나무의 기업가치 증대도 기대하기 어렵다. IB 업계의 한 관계자는 “최근 시장 상황을 고려하면 장외거래 가격보다도 최소 20~30% 정도 가격을 낮춰야 할 것 같다”면서 “거래 규모가 수백억 원에 달하는 만큼 매수자가 단기간에 나타날지도 의문”이라고 우려했다.새한창투는 보유 지분 매각에 실패하면 디폴트(채무불이행) 상태에 빠질 수 있다. 지난해 말 기준 새한창투가 보유한 현금과 현금성 자산은 5억 6000만 원에 불과해 사모사채 상환이 쉽지 않은 재무구조다. 회사채 발행을 통해 조달한 현금과 투자 수익금 대부분을 새한창투가 펀드 출자금으로 벤처기업 투자에 활용한 탓이다.새한창투는 보통의 벤처캐피털(VC)과 달리 펀드 출자자를 모으기보다 금융권 차입을 통해 주로 자금을 확보하고 벤처펀드를 결성했다. 사모사채 800억 원도 벤처펀드 결성과 직접 투자를 위해 발행한 것인데 사실상 빚을 내 조달한 자금으로 리스크가 큰 벤처 투자를 지속해온 셈이다.새한창투의 유동성 위기는 올 하반기부터 급격히 위축된 벤처 투자 시장의 상황이 촉발시켰다. 새한창투가 보유한 두나무와 토스의 지분 가치는 지난해 말 기준 2000억 원을 웃돌았지만 현재는 절반 미만으로 급감했다. 시중금리 상승에 자본시장이 얼어붙어 ‘유니콘(기업가치 1조 원 이상 비상장사)’들조차 기업가치는 연일 내림세를 지속하고 있다.한편 1989년 설립된 새한창투는 서울대 경영학과를 졸업한 이 대표가 대주주인 새한에프앤비가 지분 79.6%를 보유하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.11.06.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>'컬리페이' 출시 임박?…컬리 효율화 작업 '착착'</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006439353?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>컬리 결제권 PG 자회사 '컬리페이'로 이관 IPO 앞둔 컬리, 자체 페이 출시 임박설도컬리 퍼플박스(컬리 제공).(서울=뉴스1) 배지윤 기자 = 컬리가 자체 간편 결제 서비스 '컬리페이' 출시를 위해 효율화 작업에 속도를 내고 있다.6일 업계에 따르면 컬리는 이달 11일부터 카카오페이·엘지씨엔에쓰·엔에치엔페이코·네이버파이낸셜 등의 결제 및 정산권을 컬리페이에 넘긴다.컬리페이는 컬리가 지난해 9월 중소 PG(전자지급결제대행)사 '페이봇'의 지분 100%를 인수한 후 사명을 바꾼 핀테크 자회사다. 컬리가 분산된 결제권을 자회사 컬리페이로 일원화하는 이유는 업무 효율성을 높이기 위함이다. 그간 컬리는 카카오페이·페이코 등의 정산을, 컬리페이는 토스페이 등의 정산을 맡는 등 결제권이 분리돼 있었다. 컬리페이는 여러 PG사를 거쳐 결제하는 복잡한 정산 시스템을 단순화하고 업무 효율성을 높일 수 있을 것으로 기대된다.컬리 관계자는 "자체 페이 도입 전 정산업무를 담당하는 컬리페이의 업무 효율성을 높이기 위해 결제권을 위탁하는 것"이라며 "자체 페이 공개 시점 언급은 어렵지만 현재 준비 중"이라고 설명했다.일부에선 컬리 페이의 결재권 효율화 작업을 두고 컬리의 자체페이 출시가 임박한 것이 아니냐는 관측도 나온다.컬리가 준비하고 있는 자체페이란 기존 간편 결제 서비스인 카카오페이·페이코 등 외부 결제창이 아닌 컬리페이의 통합된 결제창을 통해 결제하는 서비스다. 배달의민족 원터치 방식의 '배민페이'와 유사한 서비스다. 배민페이에 카드나 계좌를 최초 1회 등록한 뒤 간편 비밀번호를 입력하면 결제가 가능하다.자체페이를 도입하면 편의성이 개선돼 고객을 묶어두는 '록인 효과'를 기대할 수 있다. PG업체에 지불하던 수수료 절감도 가능하다. 각종 포인트 적립 등의 혜택을 고객에게 직접 제공하는 등 합리적이고 간편한 서비스 환경을 만들 수 있다는 것도 강점이다.여기에 자체 페이를 통해 쌓인 구매 데이터를 상품 개발 및 마케팅에 활용할 수 있다. 업계에선 이르면 연내 출시가 점쳐진다.한편 컬리는 자체페이 출시와 동시에 오픈마켓 서비스도 도입할 예정이다. 직매입 방식의 현 사업모델뿐 아니라 소비자와 판매업체를 연결하는 오픈마켓까지 서비스 영역을 확장하기 위해서다. 상품수도 늘리고 배송 효율성도 높인다.유통업계 관계자는 "컬리가 IPO(기업공개) 예비 심사를 통과하는 등 상장을 눈앞에 두고 기업가치 올리기에 힘을 쏟고 있다"며 "자체페이인 컬리페이(가칭)를 출시하면 충성고객 확보가 가능하고 수수료 절감이 가능하다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.11.10.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>자오창펑 말 몇마디에 시장 휘청...글로벌VC·캐나다 연기금도 피해 우려</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005363991?sid=105</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>FTX 자체 코인 FTT, 이틀만에 90% 폭락취약성 드러난 가상자산바이낸스 오락가락 행보에 피해키워FTX에 묶인 자금 8000억원 훌쩍 넘을 듯투자자 많아 전통 금융시장까지 여파[디자인=이데일리 문승용 기자][이데일리 임유경 기자] 글로벌 4대 가상자산 거래소 중 하나인 FTX가 코인 대규모 인출(뱅크런)로 유동성 위기에 빠지면서 가상자산 시장 전체가 휘청이고 있다. FTX의 부실운영 의혹에 세계 1위 거래소 바이낸스의 경솔한 행동까지 나오면서 “가상자산 산업의 민낯이 드러났다”는 업계의 자조섞인 목소리가 나온다.10일 업계에 따르면 FTX 사태의 직간접적인 피해가 상당할 것으로 예상된다. 사태의 발단이 된 FTX 자체 발행 코인 ‘FTT’는 단 이틀 만에 90% 폭락했다. 이 기간 가상자산 대장주 비트코인도 24% 가까이 떨어졌고, 전체 가상자산 시가총액은 260조원 빠졌다.코인 뱅크런으로 유동성 위기에 빠진 FTX가 출금을 막으면서 FTX에 묶인 자금은 8000억원을 훌쩍 넘을 것으로 추산된다. 이는 블록체인데이터 분석업체 크립토퀀트가 이날 오후 기준 집계한 수치다. 솔라나 등 일부 추적이 안되는 코인은 제외한 것이라 실제 피해규모는 더 크다는 설명이다.이번 사태는 FTX의 부실운영 정황이 드러나면서 터졌다. FTX의 관계사인 ‘알라메다 리서치’의 재무제표를 입수한 가상자산 전문매체 코인데스크는 FTX가 알라메다를 통해 FTT 가격을 뻥튀기해 왔다고 봤다. FTX가 FTT 토큰을 발행해 알라메다로 대출을 해주고, 알라메다는 FTT 토큰을 담보로 달러를 대출받은 다음 다시 FTX 거래소에서 FTT를 매수해 가격을 펌핑했다는 것이다. 또 알라메다는 대차대조표에 FTT 가격 상승분을 수익으로 잡아 투자를 받고 활동했다는 의혹을 제기했다.문제가 된 FTX 레버리지 구조(이미지=유진투자증권)가상자산 산업에서 FTX의 영향력을 고려하면, 사태가 심각하게 번질 수 있다는 우려가 커지고 있다. FTX는 한 때 세계 2위 가상자산 거래소에 오를 만큼 규모가 큰 데다가, 솔라나·앱토스 등 주요 가상자산 프로젝트에 적극 투자해 왔다. 또, FTX는 블랙록, 세콰이어캐피털, 소프트뱅크 등 실리콘밸리 전통 벤처캐피탈(VC)로부터 지난 2년간 14억2100만 달러에 이르는 자금을 투자받기도 했다. FTX의 부실 문제가 가상자산 시장을 넘어 전통 산업에도 여파를 미칠 수 있다는 우려가 나오는 이유다.‘웹3 레볼루션’ 저자 윤준탁 에이블랩스 대표는 “FTX가 파산하면 실리콘밸리 쟁쟁한 VC들은 물론 캐나다에서 세 번째로 큰 연기금 온타리오 교사연기금까지 투자금을 날리게 될 것”이라며 “이번 사태는 가상자산 산업을 넘어 전체 금융시장까지 여파가 미칠 수 있다는 점에서 테라·루나 사태보다 심각하다”고 평가했다.이번 사태는 바이낸스가 끼어들면서 한층 문제가 심각해졌다. 자오창펑 바이낸스 최고경영자(CEO)는 “루나 사태에서 배운 리스크 관리”를 하겠다며, 보유한 5억달러 규모의 FTT를 매도하겠다고 밝혔다. 바이낸스는 FTX 초기 투자자로 많은 FTT를 보유하고 있었다. 실제 2300만 개의 FTT를 바이낸스 지갑에서 빼낸 것으로 확인되면서 시장은 공포에 휩싸였다.동요한 투자자들이 FTT를 매도하면서 가격이 폭락했고, FTX에 맡긴 코인도 인출하기 시작했다. 샘 뱅크먼 프리드 FTX CEO가 직원들에게 보낸 메시지에 따르면 지난 8일(현지시간) 오전까지 72시간 동안 총 60억달러(약8조2300억원)가 인출됐다. 유동성 문제가 심각하다고 판단한 FTX는 이날 법정통화를 제외한 모든 가상자산의 인출을 중단시켰다. “FTX는 현재 출금 요청을 처리할 수 없고, 입금하지 말 것을 강력하게 권고한다”는 경고도 홈페이지에 띄웠다.아이러니하게 유동성 위기에 처한 FTX를 구하겠다고 나선 것도 바이낸스다. 자오 CEO는“FTX가 심각한 유동성 위기에 직면해 도움을 요청했다”며 “이용자를 보호하기 위해 FTX닷컴 지분을 전량 인수하고, 유동성 위기 해결을 돕기 위해 구속력이 없는 인수의향서(LOI)를 체결했다”고 말했다. 이에 시장에선 바이낸스가 FTX를 손에 넣으려고 FTT 매도 공포를 불러일으킨 것 아니냐는 추측까지 나왔다.이 같은 발표에 시장은 안정을 되찾는 듯 했지만, 하루 만에 바이낸스가 인수의사를 철회하면서 시장 혼란은 더욱 커졌다. 바이낸스 측은 성명서를 통해 “(FTX에 대한) 기업감사 결과뿐 아니라 고객 자금을 잘못 관리해왔다는 뉴스와 미국 규제 당국이 수사 중이라 의혹 등을 고려해 인수를 추진하지 않기로 결정했다”고 밝혔다. 결국 바이낸스가 문제에 끼어들어 사태의 심각성만 키워놓고, 어떤 해결방안도 내놓지 못한 채 발을 뺀 셈이 됐다.이렇게 되면 FTX는 파산절차를 밟게 될 가능성이 크다. 프리드 CEO는 문제 해결을 위해 80억 달러가 필요하다고 밝혔으나, 현재 이 자금을 FTX에 대줄 투자사는 없어 보이기 때문이다.업계는 이번 사태로 가상산업의 민낯이 드러났다고 평가했다. 국내 블록체인 인프라 업체 DSRV의 김지윤 대표는 “FTX 정도의 거래소가 이렇게 부실하게 운영되고 있었다는 점이 드러나고, 샘 뱅크먼 프리드와 자오창펑이 트위터에서 나눈 말 몇 마디에 글로벌 가상자산 시장 전체가 흔들렸다”며 “이번 사건은 아직 가상자산 산업이 성숙하려면 멀었다는 점을 여실히 보여줬다”고 평가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.11.01.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>위메프 김동민 CPO 영입…경쟁력 강화 박차</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/382/0001013649?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>위메프는 국내외 주요 기업에서 기획 전문가로 커리어를 쌓은 김동민 CPO(최고제품책임자)를 영입했다고 31일 밝혔다. 8월 애플 본사 출신 이진호 박사가 CTO(최고기술책임자)로 합류한 지 두 달여 만에 C레벨 인사를 추가로 영입하며 플랫폼 경쟁력 강화에 속도를 낸다는 방침이다.  김 CPO는 미국 웰즐리대와 노스웨스턴대 켈로그 MBA를 졸업했다. 삼성전자 모바일사업부와 외국계 증권사 CLSA에서 근무한 김 신임 CPO는 2017년 비바리퍼블리카에 합류해 토스의 초창기 성장에 기여했다. 김 CPO는 이런 경험과 역량을 바탕으로 커머스 시장의 기존 문법과는 다른 서비스 전략을 마련할 계획이다.  특히 사내 축적된 테크 기반 경쟁력에 김 CPO의 기획 역량을 더해 위메프가 이용자에게 최적의 쇼핑 환경을 제공하는 커머스 플랫폼으로 도약할 수 있도록 힘을 보탤 예정이다.원성열 기자 sereno@donga.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.11.08.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>수만명 해킹·먹통 피해 당해도…금융사 책임은 1억 뿐</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005042131?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>전자금융사고 가입 보험 분석107개사 중 절반이 최소액만OK·모아 저축銀 3천만원대5대 시중銀도 20~30억 불과“14년 전 기준 … 한도 올려야”지난달 발생한 ‘카카오 먹통사태’로 전자금융사고 발생때 손해보상 범위에 대한 관심이 높아졌지만 관련 규정은 노후화 됐고, 다수 금융사들의 대비상황 역시 최소 수준에 머물러 있는 것으로 확인됐다.최근 인터넷금융이 활발해졌고 동시에 해킹, 정보유출 가능성도 커진 상황에서 일부 저축은행 등의 최소보상한도 기준은 지나치게 낮은 것으로 나타났다. 금융당국의 빠른 규정 개정과 함께 각 금융사들도 14년 전 마련된 기준을 핑계로 소극적으로 대처하기 보단 전자금융 사고 관련 보험금 또는 적립금 마련에 더 비용을 투입해야 한다는 목소리가 나온다.8일 금융감독원이 윤영덕 더불어민주당 의원에게 제출한 ‘전자금융사고 책임이행보험 가입현황’에 따르면 은행, 보험, 카드, 캐피털, 증권, 저축은행, 전자금융사 107곳 중 52개사(48.6%)는 전자금융감독규정 제5조에서 지정한 업권별 최소 보상한도액만 전자금융사고 보험금 또는 적립금으로 마련 중이다.이 규정에 따르면, 각 금융사는 전자금융 사고에 대비해 보험을 들거나 자체적으로 적립금을 마련해둬야 한다.  금액 최소 기준이 20억원(시중은행), 10억원(지방은행), 5억원(증권), 1억원(저축은행, 보험 등 ) 등 다양하다. 지난달 카카오 사태 발생 후 2018년 제정된 이 규정 속 기준금액이 현 경제여건을 반영하지 못한다는 지적이 계속 나온다.특히 일부 저축은행에선 정보유출, 해킹 등 전자금융사고 발생시 커버할 수 있는 보험금이 3000만~4000만원대에 불과했다. 이 자료에 따르면 OK저축은행은 3700여만원, 모아저축은행은 4000여만원에 그쳤다. 이 회사들은 저축은행 최소 보상한도 기준인 1억원에 미치지 못하지만 단서조항 때문에 규정을 위반한 것은 아니다. 저축은행중앙회 플랫폼을 사용하고 있기 때문이다.저축은행중앙회가 책임이행보험금 또는 적립금을 10억원 이상으로 마련해뒀으면 비록 개별 회사가 1억원에 미치지 못한 보상한도를 갖고 있어도 문제가 없다. 지난달 말 기준으로 중앙회 전체 적립금은 11억 5295만원이다. 다만 67개 저축은행이 사용중인 중앙회 시스템이 해킹 등을 당했을 때 문제가 발생할 수 있다는 지적이 있다. 금융당국 관계자는 “규정상 문제는 없지만 사고가 나면 일부 저축은행의 보험 커버가 3000만원만 된다는 의미”라고 밝혔다.OK저축은행 관계자는 “서버를 사용하는 저축은행들이 자산 등 기준에 따라 서버 유지와 보수 비용 등을 분납금 형태로 중앙회에 지급하고 있는 것이라 자사 임의대로 1억원 밑으로 유지한 것은 아니다”라고 설명했다. 반면 동일한 중앙회 시스템을 사용중인 페퍼저축은행은 보상한도가 10억원이다.이런 상황이 단순히 저축은행만의 문제는 아니다. 유력 금융사들도 최소한의 기준만 지키고 있다. 예를 들어 5대 시중은행을 보더라도 국민은행, 하나은행, 농협은행은 보상한도가 최소기준액인 20억원이다. K뱅크, 토스뱅크 등도 20억원의 보상한도를 갖고 있고, 카카오뱅크는 50억원이다.이 때문에 금융위원회와 금감원 모두 기준을 상향해야 한다는데 공감하고 있다. 향후 금감원에서 실태조사 후 결과 및 의견을 금융위에 전달할 예정이다. 다만 전자금융업 중에선 회사별 역량차가 크다는 점에서 상향 기준을 업태별로 선별할 가능성도 검토 중인 것으로 전해졌다.일각에선 규정 개정 전이라도 인터넷금융이 활성화 된 현실을 반영해 금융사 스스로 관련 비용 투입을 확대해야 한다는 의견도 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.11.10.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>[사고]위기속 기회 있다.."ECF서 기업들의 생존전략 들어보세요"</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005363308?sid=105</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>제9회 이데일리 IT컨버전스포럼 16일 개최무료 참가, 현장 접수 선착순 200명에게 점심 제공우주·AI·모빌리티 등 국내 주요 기업 모여 전략 공유[이데일리 강민구 기자] 기술패권 경쟁, 디지털 전환, 기후변화 등 전 세계가 복합적인 위기에 직면했고, 경제도 어렵습니다. 밀가루, 식용유 등 장바구니 물가까지 오르면서 국민의 생활에도 이미 영향을 주고 있습니다. 혹독한 시간이지만 이럴 때일수록 함께 머리를 맞대고 위기 속에 대응을 하며, 기회도 찾는 부분이 필요합니다.이데일리는 오는 16일 서울 중구 앰배서더 서울 풀만 호텔 그랜드볼룸에서 ‘위기 넘어 기회 있다: 디지털 전환 시대 생존전략’ 주제로 제9회 ‘ECF 2022(이데일리IT컨버전스포럼 2022)’를 개최합니다. 올해 행사는 디지털, 블록체인, 인공지능, 우주, 모빌리티 등 다양한 산업군의 전문가가 참여해 이들의 전략을 한눈에 살펴볼 기회로 마련했습니다.기조강연자로는 올해 큰 인기를 끌었던 드라마 ‘이상한 변호사 우영우’를 공동제작한 김철연 스튜디오지니 대표가 나섭니다. 글로벌 콘텐츠와 미디어 시장에서 승부수를 던진 스튜디오지니를 통해 우영우의 성공 비결과 앞으로의 시장 전망에 대해 들어 볼 수 있습니다.기조강연에 이어 플랫폼 회사들을 향한 규제에 대한 전문가들이 의견을 나누는 자리도 마련했습니다. ‘디지털 경제 성공을 위한 규제 혁신 방향은? 플랫폼, AI, 데이터를 중심으로’를 주제로 이성엽 고려대 기술법정책센터장, 엄열 과학기술정보통신부 인공지능기반정책관, 박성호 한국인터넷기업협회 회장, 이윤조 김앤장 변호사가 나섭니다.오후 세션에는 오세현 SK텔레콤 Digital Asset CO(부사장)이 블록체인의 미래를 위한 ‘웹 3’에 대해 소개합니다. 이후 토스, 카페24, 티맵모빌리티, 로앤컴퍼니 등 IT융합을 이끄는 기업들이 생존전략을 공유합니다.마지막 세션에서는 기술 분야별 선도기업들의 핵심 전략에 대한 발표를 준비했습니다. 컴투버스, 업스테이지, 네이버클라우드, 이노스페이스를 통해 메타버스, 인공지능, 클라우드, 우주 분야에서 펼쳐질 미래에 대해 생각해 볼 수 있습니다.이번 ECF 2022는 무료입니다. 행사 당일 현장 접수 선착순 200명에게 점심을 제공합니다. 여러분의 응원과 따뜻한 관심을 부탁 드립니다.◇주최 : ㈜이데일리◇후원: 과학기술정보통신부, 방송통신위원회, 한국인터넷기업협회, 한국통신사업자연합회, 코리아스타트업포럼, 정보통신기획평가원, 한국IPTV방송협회◇일시: 2022년 11월 16일(수) 10:00~17:30◇장소: 앰배서더 서울 풀만 호텔 그랜드볼룸(2F)·유튜브 ‘이데일리 프렌즈’ 채널 생중계◇사전등록 행사 홈페이지:https://ecf.edaily.co.kr/ECF2022/◇문의: 이데일리 02-3772-9409, 02-3772-9407·jeong@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.11.11.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>[사고]"웹3 시대, 기업은 무엇을 준비해야 하나"…16일 ‘ECF 2022’ 개최</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005364443?sid=105</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>제9회 이데일리 IT컨버전스포럼(ECF)앰배서더 서울 풀만 호텔서 16일 개최오세현 SKT 부사장 웹3 전략 공유‘우영우’ 공동제작 스튜디오지니 김철연 기조연설무료 참가, 현장 접수 선착순 200명에 점심 제공[이데일리 임유경 기자] 새로운 인터넷 환경 ‘웹3’에 대한 관심이 높습니다. 이용자에게 데이터 소유권을 돌려주고 그것을 가지고 경제활동을 할 수 있게 해주자는 새로운 움직임입니다. 웹3 시대가 열리면 크리에이터 중심의 경제 생태계가 활성화될 것이란 기대가 높습니다. 이런 변화 속에서 기업들은 무엇을 준비해야 할까요? 이런 물음에 대한 전문가 통찰을 들을 수 있는 자리가 마련됐습니다.이데일리는 오는 16일 서울 중구 앰배서더 서울 풀만 호텔 그랜드볼룸에서 ‘위기 넘어 기회 있다: 디지털 전환 시대 생존전략’을 주제로 ‘제9회 이데일리 IT컨버전스포럼(ECF) 2022’을 개최합니다.지난해 드라마 ‘이상한 변호사 우영우’로 신드롬을 일으킨 제작한 스튜디오지니의 김철연 대표가 포럼의 문을 엽니다. 김 대표는 기조연설에서 우영우의 탄생 비결과 글로벌 콘텐츠·미디어 시장 전망 등을 공유합니다.‘디지털 경제 성공을 위한 규제 혁신 방향은? 플랫폼, AI, 데이터를 중심으로’를 주제로 한 좌담회도 준비했습니다. 이성엽 고려대 기술법정책센터장을 좌장으로 엄열 과학기술정보통신부 인공지능기반정책관, 박성호 한국인터넷기업협회 회장, 이윤조 김앤장 변호사 등이 열띤 토론을 벌일 예정입니다.이어지는 1부 세션에서는 IT융합 사례가 소개됩니다. 오세현 SK텔레콤 Digital Asset CO(부사장)는 기업들이 차세대 인터넷인 웹3를 어떻게 준비해야 하는지에 대한 인사이트를 공유합니다. ‘데이터 주권을 이용자 본인이 소유한다’는 웹3가 우리의 미래를 어떻게 바꿀지 주목됩니다.아울러 △서현우 비바리퍼블리카 사업전략 헤드가 토스의 슈퍼앱 전략을 △박준희 카페24 디지털전략연구소장이 글로벌 커머스 시장 진출을 △박서하 티맵모빌리티 퓨처모빌리티 그룹장이 도심항공모빌리티(UAM) 시대를 이끄는 모빌리티 플랫폼의 진화를 △정재성 로앤컴퍼니 부대표가 글로벌 동향과 로톡의 전략을 소개합니다.2부에선 게임, 인공지능(AI), 클라우드, 우주 등 기술 분야별 선도 기업들의 핵심 전략을 듣습니다. △이경일 컴투버스 대표가 메타버스의 새로운 세상을 △인공지능(AI) 기술업체 업스테이지의 권순일 Biz 총괄이 AI 현실과 미래에 대해 강연합니다. 이어 △한상영 네이버클라우드 기획&amp;전략 상무는 클라우드 산업 현황과 미래를 △김수종 이노스페이스 대표는 민간 우주개발 시대를 앞당길 스타트업 도전기를 생생하게 전달할 계획입니다.ECF 2022는 무료입니다. 행사 당일, 행사장 접수 선착순 200명에게 점심 식권을 제공합니다. 많은 관심을 부탁 드립니다◇명 칭 : 제9회 이데일리IT컨버전스포럼(ECF 2022)◇주최 : ㈜이데일리◇후원: 과학기술정보통신부, 방송통신위원회, 한국인터넷기업협회, 한국통신사업자연합회, 코리아스타트업포럼, 정보통신기획평가원, 한국IPTV방송협회◇일시: 2022년 11월 16일(수) 10:00~17:30◇장소: 앰배서더 서울 풀만 호텔 그랜드볼룸(2F)·유튜브 ‘이데일리 프렌즈’ 채널 생중계◇사전등록 행사 홈페이지:https://ecf.edaily.co.kr/ECF2022/◇문의: 이데일리 02-3772-9409, 02-3772-9407·jeong@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
